--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA+ve/Flaviviridae-GLUE/tabular/virus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E57EE7A-3725-1343-BFF1-1DFBD684048F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6627EA8D-6BAE-7F41-A3B9-4031F23D0063}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="124">
   <si>
     <t>featureName</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>seg1-NS5</t>
+  </si>
+  <si>
+    <t>REF_Aedes_FV</t>
+  </si>
+  <si>
+    <t>NC_012932</t>
   </si>
 </sst>
 </file>
@@ -5962,10 +5968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1503"/>
+  <dimension ref="A1:H1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E175" sqref="A1:G186"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6395,48 +6401,48 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="26">
-        <v>10761</v>
+      <c r="G19" s="7">
+        <v>11064</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="26">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7">
+        <v>97</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6453,13 +6459,13 @@
         <v>47</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F21" s="26">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G21" s="26">
-        <v>10445</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -6476,59 +6482,59 @@
         <v>47</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F22" s="26">
-        <v>10446</v>
+        <v>1</v>
       </c>
       <c r="G22" s="26">
-        <v>10761</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>83</v>
+      <c r="D23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="26">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G23" s="26">
-        <v>10320</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
+      <c r="D24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="F24" s="26">
-        <v>1</v>
+        <v>10446</v>
       </c>
       <c r="G24" s="26">
-        <v>15</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -6545,10 +6551,10 @@
         <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F25" s="26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G25" s="26">
         <v>10320</v>
@@ -6568,13 +6574,13 @@
         <v>45</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F26" s="26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G26" s="26">
-        <v>2385</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -6591,13 +6597,13 @@
         <v>45</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F27" s="26">
         <v>16</v>
       </c>
       <c r="G27" s="26">
-        <v>381</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -6614,13 +6620,13 @@
         <v>45</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F28" s="26">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="G28" s="26">
-        <v>888</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -6637,13 +6643,13 @@
         <v>45</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="26">
-        <v>889</v>
+        <v>16</v>
       </c>
       <c r="G29" s="26">
-        <v>2385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -6660,13 +6666,13 @@
         <v>45</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F30" s="26">
-        <v>2386</v>
+        <v>382</v>
       </c>
       <c r="G30" s="26">
-        <v>3444</v>
+        <v>888</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -6683,13 +6689,13 @@
         <v>45</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F31" s="26">
-        <v>3445</v>
+        <v>889</v>
       </c>
       <c r="G31" s="26">
-        <v>4125</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -6706,13 +6712,13 @@
         <v>45</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F32" s="26">
-        <v>4126</v>
+        <v>2386</v>
       </c>
       <c r="G32" s="26">
-        <v>4518</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -6729,13 +6735,13 @@
         <v>45</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F33" s="26">
-        <v>4519</v>
+        <v>3445</v>
       </c>
       <c r="G33" s="26">
-        <v>6381</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -6752,13 +6758,13 @@
         <v>45</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F34" s="26">
-        <v>6382</v>
+        <v>4126</v>
       </c>
       <c r="G34" s="26">
-        <v>6759</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -6775,13 +6781,13 @@
         <v>45</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F35" s="26">
-        <v>6760</v>
+        <v>4519</v>
       </c>
       <c r="G35" s="26">
-        <v>6828</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -6798,13 +6804,13 @@
         <v>45</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F36" s="26">
-        <v>6829</v>
+        <v>6382</v>
       </c>
       <c r="G36" s="26">
-        <v>7593</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -6821,82 +6827,82 @@
         <v>45</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F37" s="26">
-        <v>7594</v>
+        <v>6760</v>
       </c>
       <c r="G37" s="26">
-        <v>10317</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F38" s="26">
-        <v>2386</v>
+        <v>6829</v>
       </c>
       <c r="G38" s="26">
-        <v>10317</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="28">
-        <v>1</v>
-      </c>
-      <c r="G39" s="28">
-        <v>10735</v>
+        <v>80</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="26">
+        <v>7594</v>
+      </c>
+      <c r="G39" s="26">
+        <v>10317</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="28">
-        <v>1</v>
-      </c>
-      <c r="G40" s="28">
-        <v>94</v>
+      <c r="A40" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="26">
+        <v>2386</v>
+      </c>
+      <c r="G40" s="26">
+        <v>10317</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -6913,13 +6919,13 @@
         <v>39</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="27">
-        <v>95</v>
-      </c>
-      <c r="G41" s="27">
-        <v>10273</v>
+        <v>83</v>
+      </c>
+      <c r="F41" s="28">
+        <v>1</v>
+      </c>
+      <c r="G41" s="28">
+        <v>10735</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -6935,14 +6941,14 @@
       <c r="D42" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="27">
-        <v>95</v>
-      </c>
-      <c r="G42" s="27">
-        <v>2419</v>
+      <c r="E42" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="28">
+        <v>1</v>
+      </c>
+      <c r="G42" s="28">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -6959,13 +6965,13 @@
         <v>39</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F43" s="27">
         <v>95</v>
       </c>
       <c r="G43" s="27">
-        <v>436</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -6981,14 +6987,14 @@
       <c r="D44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>71</v>
+      <c r="E44" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F44" s="27">
-        <v>437</v>
+        <v>95</v>
       </c>
       <c r="G44" s="27">
-        <v>934</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -7005,13 +7011,13 @@
         <v>39</v>
       </c>
       <c r="E45" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="27">
         <v>95</v>
       </c>
-      <c r="F45" s="27">
-        <v>935</v>
-      </c>
       <c r="G45" s="27">
-        <v>2419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -7028,13 +7034,13 @@
         <v>39</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F46" s="27">
-        <v>2420</v>
+        <v>437</v>
       </c>
       <c r="G46" s="27">
-        <v>10270</v>
+        <v>934</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -7051,13 +7057,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F47" s="27">
-        <v>2420</v>
+        <v>935</v>
       </c>
       <c r="G47" s="27">
-        <v>3475</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -7074,13 +7080,13 @@
         <v>39</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F48" s="27">
-        <v>3476</v>
+        <v>2420</v>
       </c>
       <c r="G48" s="27">
-        <v>4129</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -7097,13 +7103,13 @@
         <v>39</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F49" s="27">
-        <v>4130</v>
+        <v>2420</v>
       </c>
       <c r="G49" s="27">
-        <v>4519</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -7120,13 +7126,13 @@
         <v>39</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F50" s="27">
-        <v>4520</v>
+        <v>3476</v>
       </c>
       <c r="G50" s="27">
-        <v>6376</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -7143,13 +7149,13 @@
         <v>39</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F51" s="27">
-        <v>6377</v>
+        <v>4130</v>
       </c>
       <c r="G51" s="27">
-        <v>6757</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -7166,13 +7172,13 @@
         <v>39</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F52" s="27">
-        <v>6758</v>
+        <v>4520</v>
       </c>
       <c r="G52" s="27">
-        <v>6826</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -7189,13 +7195,13 @@
         <v>39</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F53" s="27">
-        <v>6827</v>
+        <v>6377</v>
       </c>
       <c r="G53" s="27">
-        <v>7573</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -7212,13 +7218,13 @@
         <v>39</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F54" s="27">
-        <v>7574</v>
+        <v>6758</v>
       </c>
       <c r="G54" s="27">
-        <v>10270</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -7235,59 +7241,59 @@
         <v>39</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F55" s="27">
-        <v>10274</v>
+        <v>6827</v>
       </c>
       <c r="G55" s="27">
-        <v>10735</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="7">
-        <v>1</v>
-      </c>
-      <c r="G56" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="27">
+        <v>7574</v>
+      </c>
+      <c r="G56" s="27">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="27">
+        <v>10274</v>
+      </c>
+      <c r="G57" s="27">
+        <v>10735</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -7304,16 +7310,16 @@
         <v>41</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F58" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="G58" s="7">
-        <v>10354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
         <v>30</v>
       </c>
@@ -7327,13 +7333,13 @@
         <v>41</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F59" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="G59" s="7">
-        <v>2452</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -7350,13 +7356,13 @@
         <v>41</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F60" s="7">
         <v>119</v>
       </c>
       <c r="G60" s="7">
-        <v>481</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -7373,13 +7379,13 @@
         <v>41</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F61" s="7">
-        <v>482</v>
+        <v>119</v>
       </c>
       <c r="G61" s="7">
-        <v>973</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -7396,13 +7402,13 @@
         <v>41</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="7">
-        <v>974</v>
+        <v>119</v>
       </c>
       <c r="G62" s="7">
-        <v>2452</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -7419,13 +7425,13 @@
         <v>41</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F63" s="7">
-        <v>2453</v>
+        <v>482</v>
       </c>
       <c r="G63" s="7">
-        <v>10351</v>
+        <v>973</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -7442,13 +7448,13 @@
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F64" s="7">
-        <v>2453</v>
+        <v>974</v>
       </c>
       <c r="G64" s="7">
-        <v>3508</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -7465,13 +7471,13 @@
         <v>41</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F65" s="7">
-        <v>3509</v>
+        <v>2453</v>
       </c>
       <c r="G65" s="7">
-        <v>4180</v>
+        <v>10351</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -7488,13 +7494,13 @@
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F66" s="7">
-        <v>4181</v>
+        <v>2453</v>
       </c>
       <c r="G66" s="7">
-        <v>4570</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -7511,13 +7517,13 @@
         <v>41</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F67" s="7">
-        <v>4571</v>
+        <v>3509</v>
       </c>
       <c r="G67" s="7">
-        <v>6439</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -7534,13 +7540,13 @@
         <v>41</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F68" s="7">
-        <v>6440</v>
+        <v>4181</v>
       </c>
       <c r="G68" s="7">
-        <v>6817</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -7557,13 +7563,13 @@
         <v>41</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F69" s="7">
-        <v>6818</v>
+        <v>4571</v>
       </c>
       <c r="G69" s="7">
-        <v>6886</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -7580,13 +7586,13 @@
         <v>41</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F70" s="7">
-        <v>6887</v>
+        <v>6440</v>
       </c>
       <c r="G70" s="7">
-        <v>7636</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -7603,13 +7609,13 @@
         <v>41</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F71" s="7">
-        <v>7637</v>
+        <v>6818</v>
       </c>
       <c r="G71" s="7">
-        <v>10351</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -7626,59 +7632,59 @@
         <v>41</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G72" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G73" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F74" s="7">
         <v>10355</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G74" s="7">
         <v>10862</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="G73" s="9">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
-      <c r="G74" s="9">
-        <v>10116</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -7695,13 +7701,13 @@
         <v>56</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F75" s="9">
         <v>1</v>
       </c>
       <c r="G75" s="9">
-        <v>2268</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -7718,13 +7724,13 @@
         <v>56</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F76" s="9">
         <v>1</v>
       </c>
       <c r="G76" s="9">
-        <v>330</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -7741,13 +7747,13 @@
         <v>56</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F77" s="9">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="G77" s="9">
-        <v>813</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -7764,13 +7770,13 @@
         <v>56</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F78" s="9">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="G78" s="9">
-        <v>813</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -7787,13 +7793,13 @@
         <v>56</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F79" s="9">
-        <v>814</v>
+        <v>331</v>
       </c>
       <c r="G79" s="9">
-        <v>2268</v>
+        <v>813</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -7810,13 +7816,13 @@
         <v>56</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F80" s="9">
-        <v>2269</v>
+        <v>589</v>
       </c>
       <c r="G80" s="9">
-        <v>3327</v>
+        <v>813</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -7833,13 +7839,13 @@
         <v>56</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F81" s="9">
-        <v>3328</v>
+        <v>814</v>
       </c>
       <c r="G81" s="9">
-        <v>4002</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -7856,13 +7862,13 @@
         <v>56</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F82" s="9">
-        <v>4003</v>
+        <v>2269</v>
       </c>
       <c r="G82" s="9">
-        <v>4392</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -7879,13 +7885,13 @@
         <v>56</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F83" s="9">
-        <v>4393</v>
+        <v>3328</v>
       </c>
       <c r="G83" s="9">
-        <v>6240</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -7902,13 +7908,13 @@
         <v>56</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F84" s="9">
-        <v>6241</v>
+        <v>4003</v>
       </c>
       <c r="G84" s="9">
-        <v>6597</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -7925,13 +7931,13 @@
         <v>56</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F85" s="9">
-        <v>6598</v>
+        <v>4393</v>
       </c>
       <c r="G85" s="9">
-        <v>6666</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -7948,13 +7954,13 @@
         <v>56</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F86" s="9">
-        <v>6667</v>
+        <v>6241</v>
       </c>
       <c r="G86" s="9">
-        <v>7422</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -7971,13 +7977,13 @@
         <v>56</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F87" s="9">
-        <v>7423</v>
+        <v>6598</v>
       </c>
       <c r="G87" s="9">
-        <v>10113</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -7994,74 +8000,74 @@
         <v>56</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F88" s="9">
-        <v>2269</v>
+        <v>6667</v>
       </c>
       <c r="G88" s="9">
-        <v>10116</v>
-      </c>
-      <c r="H88" s="27"/>
+        <v>7422</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1">
-        <v>10242</v>
+      <c r="D89" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="9">
+        <v>7423</v>
+      </c>
+      <c r="G89" s="9">
+        <v>10113</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90" s="9">
+        <v>2269</v>
+      </c>
+      <c r="G90" s="9">
+        <v>10116</v>
+      </c>
+      <c r="H90" s="27"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B91" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="24" t="s">
+      <c r="C91" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1">
-        <v>10242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C91" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>83</v>
@@ -8070,53 +8076,53 @@
         <v>1</v>
       </c>
       <c r="G91" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
         <v>11434</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F92" s="27">
-        <v>1</v>
-      </c>
-      <c r="G92" s="27">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="27">
-        <v>1</v>
-      </c>
-      <c r="G93" s="27">
-        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -8133,13 +8139,13 @@
         <v>43</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F94" s="27">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G94" s="27">
-        <v>10359</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -8156,13 +8162,13 @@
         <v>43</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F95" s="27">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G95" s="27">
-        <v>2436</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -8179,13 +8185,13 @@
         <v>43</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F96" s="27">
         <v>112</v>
       </c>
       <c r="G96" s="27">
-        <v>441</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -8202,13 +8208,13 @@
         <v>43</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F97" s="27">
-        <v>442</v>
+        <v>112</v>
       </c>
       <c r="G97" s="27">
-        <v>945</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -8225,13 +8231,13 @@
         <v>43</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F98" s="27">
-        <v>946</v>
+        <v>112</v>
       </c>
       <c r="G98" s="27">
-        <v>2436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -8248,13 +8254,13 @@
         <v>43</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F99" s="27">
-        <v>2437</v>
+        <v>442</v>
       </c>
       <c r="G99" s="27">
-        <v>10356</v>
+        <v>945</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -8271,13 +8277,13 @@
         <v>43</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F100" s="27">
-        <v>2437</v>
+        <v>946</v>
       </c>
       <c r="G100" s="27">
-        <v>3495</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -8294,13 +8300,13 @@
         <v>43</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F101" s="27">
-        <v>3496</v>
+        <v>2437</v>
       </c>
       <c r="G101" s="27">
-        <v>4185</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -8317,13 +8323,13 @@
         <v>43</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F102" s="27">
-        <v>4186</v>
+        <v>2437</v>
       </c>
       <c r="G102" s="27">
-        <v>4578</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -8340,13 +8346,13 @@
         <v>43</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F103" s="27">
-        <v>4579</v>
+        <v>3496</v>
       </c>
       <c r="G103" s="27">
-        <v>6444</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -8363,13 +8369,13 @@
         <v>43</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F104" s="27">
-        <v>6445</v>
+        <v>4186</v>
       </c>
       <c r="G104" s="27">
-        <v>6822</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -8386,13 +8392,13 @@
         <v>43</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F105" s="27">
-        <v>6823</v>
+        <v>4579</v>
       </c>
       <c r="G105" s="27">
-        <v>6891</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -8409,13 +8415,13 @@
         <v>43</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F106" s="27">
-        <v>6892</v>
+        <v>6445</v>
       </c>
       <c r="G106" s="27">
-        <v>7647</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -8432,13 +8438,13 @@
         <v>43</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F107" s="27">
-        <v>7648</v>
+        <v>6823</v>
       </c>
       <c r="G107" s="27">
-        <v>10356</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -8455,59 +8461,59 @@
         <v>43</v>
       </c>
       <c r="E108" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="27">
+        <v>6892</v>
+      </c>
+      <c r="G108" s="27">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="27">
+        <v>7648</v>
+      </c>
+      <c r="G109" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="27">
+      <c r="F110" s="27">
         <v>10357</v>
       </c>
-      <c r="G108" s="27">
+      <c r="G110" s="27">
         <v>10839</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D109" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F109" s="27">
-        <v>1</v>
-      </c>
-      <c r="G109" s="27">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="27">
-        <v>1</v>
-      </c>
-      <c r="G110" s="27">
-        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -8524,13 +8530,13 @@
         <v>107</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F111" s="27">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="G111" s="27">
-        <v>9377</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -8547,13 +8553,13 @@
         <v>107</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F112" s="27">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="G112" s="27">
-        <v>2579</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -8570,13 +8576,13 @@
         <v>107</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F113" s="27">
         <v>342</v>
       </c>
       <c r="G113" s="27">
-        <v>914</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -8593,13 +8599,13 @@
         <v>107</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F114" s="27">
-        <v>915</v>
+        <v>342</v>
       </c>
       <c r="G114" s="27">
-        <v>1490</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -8616,13 +8622,13 @@
         <v>107</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F115" s="27">
-        <v>1491</v>
+        <v>342</v>
       </c>
       <c r="G115" s="27">
-        <v>2579</v>
+        <v>914</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -8639,13 +8645,13 @@
         <v>107</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F116" s="27">
-        <v>2580</v>
+        <v>915</v>
       </c>
       <c r="G116" s="27">
-        <v>9374</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -8662,13 +8668,13 @@
         <v>107</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F117" s="27">
-        <v>2580</v>
+        <v>1491</v>
       </c>
       <c r="G117" s="27">
-        <v>2768</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -8685,13 +8691,13 @@
         <v>107</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F118" s="27">
-        <v>2769</v>
+        <v>2580</v>
       </c>
       <c r="G118" s="27">
-        <v>3419</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -8708,13 +8714,13 @@
         <v>107</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F119" s="27">
-        <v>3420</v>
+        <v>2580</v>
       </c>
       <c r="G119" s="27">
-        <v>5312</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -8731,13 +8737,13 @@
         <v>107</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F120" s="27">
-        <v>5313</v>
+        <v>2769</v>
       </c>
       <c r="G120" s="27">
-        <v>5474</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -8754,13 +8760,13 @@
         <v>107</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F121" s="27">
-        <v>5475</v>
+        <v>3420</v>
       </c>
       <c r="G121" s="27">
-        <v>6257</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -8777,13 +8783,13 @@
         <v>107</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F122" s="27">
-        <v>6258</v>
+        <v>5313</v>
       </c>
       <c r="G122" s="27">
-        <v>9374</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -8800,13 +8806,13 @@
         <v>107</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F123" s="27">
-        <v>6258</v>
+        <v>5475</v>
       </c>
       <c r="G123" s="27">
-        <v>7601</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -8823,10 +8829,10 @@
         <v>107</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F124" s="27">
-        <v>7602</v>
+        <v>6258</v>
       </c>
       <c r="G124" s="27">
         <v>9374</v>
@@ -8846,55 +8852,59 @@
         <v>107</v>
       </c>
       <c r="E125" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="27">
+        <v>6258</v>
+      </c>
+      <c r="G125" s="27">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" s="27">
+        <v>7602</v>
+      </c>
+      <c r="G126" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F127" s="27">
         <v>9378</v>
       </c>
-      <c r="G125" s="27">
+      <c r="G127" s="27">
         <v>9646</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D126"/>
-      <c r="E126" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F126" s="27">
-        <v>1</v>
-      </c>
-      <c r="G126" s="27">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B127" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127"/>
-      <c r="E127" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="27">
-        <v>1</v>
-      </c>
-      <c r="G127" s="27">
-        <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -8909,13 +8919,13 @@
       </c>
       <c r="D128"/>
       <c r="E128" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F128" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G128" s="27">
-        <v>9501</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -8930,13 +8940,13 @@
       </c>
       <c r="D129"/>
       <c r="E129" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F129" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G129" s="27">
-        <v>2199</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -8951,13 +8961,13 @@
       </c>
       <c r="D130"/>
       <c r="E130" s="27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F130" s="27">
         <v>328</v>
       </c>
       <c r="G130" s="27">
-        <v>564</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -8972,13 +8982,13 @@
       </c>
       <c r="D131"/>
       <c r="E131" s="27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F131" s="27">
-        <v>565</v>
+        <v>328</v>
       </c>
       <c r="G131" s="27">
-        <v>1137</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -8993,13 +9003,13 @@
       </c>
       <c r="D132"/>
       <c r="E132" s="27" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F132" s="27">
-        <v>1138</v>
+        <v>328</v>
       </c>
       <c r="G132" s="27">
-        <v>2199</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -9014,13 +9024,13 @@
       </c>
       <c r="D133"/>
       <c r="E133" s="27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F133" s="27">
-        <v>2200</v>
+        <v>565</v>
       </c>
       <c r="G133" s="27">
-        <v>2910</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -9035,13 +9045,13 @@
       </c>
       <c r="D134"/>
       <c r="E134" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F134" s="27">
-        <v>2911</v>
+        <v>1138</v>
       </c>
       <c r="G134" s="27">
-        <v>9498</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -9056,13 +9066,13 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="27" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F135" s="27">
-        <v>2911</v>
+        <v>2200</v>
       </c>
       <c r="G135" s="27">
-        <v>3630</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -9077,13 +9087,13 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="27" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F136" s="27">
-        <v>3631</v>
+        <v>2911</v>
       </c>
       <c r="G136" s="27">
-        <v>5514</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -9098,13 +9108,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F137" s="27">
-        <v>5515</v>
+        <v>2911</v>
       </c>
       <c r="G137" s="27">
-        <v>5637</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -9119,13 +9129,13 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="27" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F138" s="27">
-        <v>5638</v>
+        <v>3631</v>
       </c>
       <c r="G138" s="27">
-        <v>6423</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -9140,13 +9150,13 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F139" s="27">
-        <v>6424</v>
+        <v>5515</v>
       </c>
       <c r="G139" s="27">
-        <v>9498</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -9161,13 +9171,13 @@
       </c>
       <c r="D140"/>
       <c r="E140" s="27" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F140" s="27">
-        <v>6424</v>
+        <v>5638</v>
       </c>
       <c r="G140" s="27">
-        <v>7797</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -9182,10 +9192,10 @@
       </c>
       <c r="D141"/>
       <c r="E141" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F141" s="27">
-        <v>7798</v>
+        <v>6424</v>
       </c>
       <c r="G141" s="27">
         <v>9498</v>
@@ -9203,59 +9213,55 @@
       </c>
       <c r="D142"/>
       <c r="E142" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="27">
+        <v>6424</v>
+      </c>
+      <c r="G142" s="27">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G143" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="27">
+      <c r="F144" s="27">
         <v>9502</v>
       </c>
-      <c r="G142" s="27">
+      <c r="G144" s="27">
         <v>9867</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>54</v>
-      </c>
-      <c r="B143" t="s">
-        <v>63</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F143" s="27">
-        <v>1</v>
-      </c>
-      <c r="G143" s="27">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>54</v>
-      </c>
-      <c r="B144" t="s">
-        <v>63</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F144" s="27">
-        <v>1</v>
-      </c>
-      <c r="G144" s="27">
-        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -9272,13 +9278,13 @@
         <v>110</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F145" s="27">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="G145" s="27">
-        <v>18068</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -9295,63 +9301,63 @@
         <v>110</v>
       </c>
       <c r="E146" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="27">
+        <v>1</v>
+      </c>
+      <c r="G146" s="27">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" t="s">
+        <v>63</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E147" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F147" s="27">
+        <v>351</v>
+      </c>
+      <c r="G147" s="27">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E148" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="27">
+      <c r="F148" s="27">
         <v>18069</v>
       </c>
-      <c r="G146" s="27">
+      <c r="G148" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E147" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F147" s="27">
-        <v>1</v>
-      </c>
-      <c r="G147" s="27">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B148" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E148" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" s="27">
-        <v>1</v>
-      </c>
-      <c r="G148" s="27">
-        <v>199</v>
-      </c>
-    </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="32" t="s">
         <v>84</v>
       </c>
       <c r="B149" s="32" t="s">
@@ -9364,13 +9370,13 @@
         <v>111</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F149" s="27">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G149" s="27">
-        <v>17905</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -9387,55 +9393,59 @@
         <v>111</v>
       </c>
       <c r="E150" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="27">
+        <v>1</v>
+      </c>
+      <c r="G150" s="27">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E151" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F151" s="27">
+        <v>200</v>
+      </c>
+      <c r="G151" s="27">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E152" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="27">
+      <c r="F152" s="27">
         <v>17906</v>
       </c>
-      <c r="G150" s="27">
+      <c r="G152" s="27">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F151" s="27">
-        <v>1</v>
-      </c>
-      <c r="G151" s="27">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B152" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C152" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" s="27">
-        <v>1</v>
-      </c>
-      <c r="G152" s="27">
-        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -9450,13 +9460,13 @@
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F153" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G153" s="27">
-        <v>12352</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -9471,13 +9481,13 @@
       </c>
       <c r="D154" s="27"/>
       <c r="E154" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F154" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G154" s="27">
-        <v>3583</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -9492,13 +9502,13 @@
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F155" s="27">
         <v>386</v>
       </c>
       <c r="G155" s="27">
-        <v>889</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -9513,13 +9523,13 @@
       </c>
       <c r="D156" s="27"/>
       <c r="E156" s="27" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F156" s="27">
-        <v>890</v>
+        <v>386</v>
       </c>
       <c r="G156" s="27">
-        <v>1195</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -9534,13 +9544,13 @@
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F157" s="27">
-        <v>1196</v>
+        <v>386</v>
       </c>
       <c r="G157" s="27">
-        <v>1876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -9555,13 +9565,13 @@
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F158" s="27">
-        <v>1877</v>
+        <v>890</v>
       </c>
       <c r="G158" s="27">
-        <v>2461</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -9576,13 +9586,13 @@
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F159" s="27">
-        <v>2462</v>
+        <v>1196</v>
       </c>
       <c r="G159" s="27">
-        <v>3583</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -9597,13 +9607,13 @@
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F160" s="27">
-        <v>3584</v>
+        <v>1877</v>
       </c>
       <c r="G160" s="27">
-        <v>3793</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -9618,13 +9628,13 @@
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F161" s="27">
-        <v>3794</v>
+        <v>2462</v>
       </c>
       <c r="G161" s="27">
-        <v>7471</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -9639,13 +9649,13 @@
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F162" s="27">
-        <v>7472</v>
+        <v>3584</v>
       </c>
       <c r="G162" s="27">
-        <v>7663</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -9660,13 +9670,13 @@
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F163" s="27">
-        <v>7664</v>
+        <v>3794</v>
       </c>
       <c r="G163" s="27">
-        <v>8704</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -9681,13 +9691,13 @@
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F164" s="27">
-        <v>8705</v>
+        <v>7472</v>
       </c>
       <c r="G164" s="27">
-        <v>12349</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -9702,13 +9712,13 @@
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F165" s="27">
-        <v>8705</v>
+        <v>7664</v>
       </c>
       <c r="G165" s="27">
-        <v>10192</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -9723,10 +9733,10 @@
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F166" s="27">
-        <v>10193</v>
+        <v>8705</v>
       </c>
       <c r="G166" s="27">
         <v>12349</v>
@@ -9744,55 +9754,55 @@
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="27" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F167" s="27">
-        <v>12360</v>
+        <v>8705</v>
       </c>
       <c r="G167" s="27">
-        <v>12573</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B168" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>57</v>
+      <c r="A168" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="27" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F168" s="27">
-        <v>1</v>
+        <v>10193</v>
       </c>
       <c r="G168" s="27">
-        <v>10053</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B169" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C169" s="27" t="s">
-        <v>57</v>
+      <c r="A169" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F169" s="27">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G169" s="27">
-        <v>10053</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -9807,13 +9817,13 @@
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="27" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F170" s="27">
         <v>1</v>
       </c>
       <c r="G170" s="27">
-        <v>2358</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -9828,13 +9838,13 @@
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F171" s="27">
         <v>1</v>
       </c>
       <c r="G171" s="27">
-        <v>345</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -9849,13 +9859,13 @@
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F172" s="27">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="G172" s="27">
-        <v>852</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -9870,13 +9880,13 @@
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="27" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F173" s="27">
-        <v>655</v>
+        <v>1</v>
       </c>
       <c r="G173" s="27">
-        <v>852</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -9891,13 +9901,13 @@
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F174" s="27">
-        <v>853</v>
+        <v>346</v>
       </c>
       <c r="G174" s="27">
-        <v>2358</v>
+        <v>852</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -9912,13 +9922,13 @@
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="27" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F175" s="27">
-        <v>2359</v>
+        <v>655</v>
       </c>
       <c r="G175" s="27">
-        <v>10050</v>
+        <v>852</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -9933,13 +9943,13 @@
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F176" s="27">
-        <v>2359</v>
+        <v>853</v>
       </c>
       <c r="G176" s="27">
-        <v>3390</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -9954,13 +9964,13 @@
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F177" s="27">
-        <v>3391</v>
+        <v>2359</v>
       </c>
       <c r="G177" s="27">
-        <v>3978</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -9975,13 +9985,13 @@
       </c>
       <c r="D178" s="27"/>
       <c r="E178" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F178" s="27">
-        <v>3979</v>
+        <v>2359</v>
       </c>
       <c r="G178" s="27">
-        <v>4431</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -9996,13 +10006,13 @@
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F179" s="27">
-        <v>4432</v>
+        <v>3391</v>
       </c>
       <c r="G179" s="27">
-        <v>6303</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -10017,13 +10027,13 @@
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F180" s="27">
-        <v>6304</v>
+        <v>3979</v>
       </c>
       <c r="G180" s="27">
-        <v>6687</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -10038,13 +10048,13 @@
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F181" s="27">
-        <v>6688</v>
+        <v>4432</v>
       </c>
       <c r="G181" s="27">
-        <v>6762</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -10059,13 +10069,13 @@
       </c>
       <c r="D182" s="27"/>
       <c r="E182" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F182" s="27">
-        <v>6763</v>
+        <v>6304</v>
       </c>
       <c r="G182" s="27">
-        <v>7557</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -10080,55 +10090,57 @@
       </c>
       <c r="D183" s="27"/>
       <c r="E183" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="27">
+        <v>6688</v>
+      </c>
+      <c r="G183" s="27">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C184" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F184" s="27">
+        <v>6763</v>
+      </c>
+      <c r="G184" s="27">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F183" s="27">
+      <c r="F185" s="27">
         <v>7558</v>
       </c>
-      <c r="G183" s="27">
+      <c r="G185" s="27">
         <v>10050</v>
       </c>
-      <c r="H183" s="25"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>118</v>
-      </c>
-      <c r="B184" t="s">
-        <v>119</v>
-      </c>
-      <c r="C184" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E184" t="s">
-        <v>83</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>118</v>
-      </c>
-      <c r="B185" t="s">
-        <v>119</v>
-      </c>
-      <c r="C185" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E185" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F185" s="27">
-        <v>117</v>
-      </c>
-      <c r="G185" s="27">
-        <v>2543</v>
-      </c>
+      <c r="H185" s="25"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -10140,30 +10152,60 @@
       <c r="C186" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E186" s="27" t="s">
+      <c r="E186" t="s">
+        <v>83</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>118</v>
+      </c>
+      <c r="B187" t="s">
+        <v>119</v>
+      </c>
+      <c r="C187" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E187" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F187" s="27">
+        <v>117</v>
+      </c>
+      <c r="G187" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>118</v>
+      </c>
+      <c r="B188" t="s">
+        <v>119</v>
+      </c>
+      <c r="C188" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E188" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F186">
-        <f t="shared" ref="F186" si="0">(D186+2824)</f>
+      <c r="F188">
+        <f t="shared" ref="F188" si="0">(D188+2824)</f>
         <v>2824</v>
       </c>
-      <c r="G186" s="27">
+      <c r="G188" s="27">
         <v>5673</v>
       </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B225" s="1"/>
-      <c r="C225" s="5"/>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B226" s="1"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
       <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
@@ -10272,21 +10314,21 @@
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
+      <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
       <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
-      <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
@@ -10308,23 +10350,27 @@
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="1"/>
+      <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="939" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E939" s="1"/>
-    </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1075" s="1"/>
-    </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1076" s="1"/>
-    </row>
-    <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1201" s="1"/>
-    </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1202" s="1"/>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="1"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D259" s="5"/>
+    </row>
+    <row r="941" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E941" s="1"/>
+    </row>
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1077" s="1"/>
+    </row>
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1078" s="1"/>
     </row>
     <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1203" s="1"/>
@@ -10338,23 +10384,23 @@
     <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1206" s="1"/>
     </row>
-    <row r="1251" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1251" s="1"/>
-      <c r="F1251" s="1"/>
-    </row>
-    <row r="1252" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1252" s="1"/>
-      <c r="F1252" s="1"/>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1207" s="1"/>
+    </row>
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1208" s="1"/>
     </row>
     <row r="1253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1253" s="1"/>
       <c r="F1253" s="1"/>
     </row>
+    <row r="1254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1254" s="1"/>
+      <c r="F1254" s="1"/>
+    </row>
     <row r="1255" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1255" s="1"/>
-    </row>
-    <row r="1256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1256" s="1"/>
+      <c r="E1255" s="1"/>
+      <c r="F1255" s="1"/>
     </row>
     <row r="1257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1257" s="1"/>
@@ -10365,11 +10411,11 @@
     <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1259" s="1"/>
     </row>
-    <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1278" s="1"/>
-    </row>
-    <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1279" s="1"/>
+    <row r="1260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1260" s="1"/>
+    </row>
+    <row r="1261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1261" s="1"/>
     </row>
     <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1280" s="1"/>
@@ -10386,12 +10432,12 @@
     <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1284" s="1"/>
     </row>
+    <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1285" s="1"/>
+    </row>
     <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1286" s="1"/>
     </row>
-    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1287" s="1"/>
-    </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1"/>
     </row>
@@ -10404,11 +10450,11 @@
     <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1291" s="1"/>
     </row>
-    <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1343" s="1"/>
-    </row>
-    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1344" s="1"/>
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1292" s="1"/>
+    </row>
+    <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1293" s="1"/>
     </row>
     <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1345" s="1"/>
@@ -10416,23 +10462,23 @@
     <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1346" s="1"/>
     </row>
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1347" s="1"/>
+    </row>
     <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1348" s="1"/>
     </row>
-    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1349" s="1"/>
-    </row>
     <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1350" s="1"/>
     </row>
     <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1351" s="1"/>
     </row>
-    <row r="1386" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1386" s="1"/>
-    </row>
-    <row r="1387" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1387" s="1"/>
+    <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1352" s="1"/>
+    </row>
+    <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1353" s="1"/>
     </row>
     <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1388" s="1"/>
@@ -10446,37 +10492,37 @@
     <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1391" s="1"/>
     </row>
-    <row r="1433" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1433" s="1"/>
-      <c r="F1433" s="1"/>
-    </row>
-    <row r="1434" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1434" s="6"/>
-      <c r="E1434" s="1"/>
-      <c r="F1434" s="1"/>
+    <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1392" s="1"/>
+    </row>
+    <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1393" s="1"/>
     </row>
     <row r="1435" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1435" s="6"/>
-      <c r="D1435" s="6"/>
       <c r="E1435" s="1"/>
       <c r="F1435" s="1"/>
     </row>
     <row r="1436" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1436" s="6"/>
-      <c r="D1436" s="6"/>
       <c r="E1436" s="1"/>
       <c r="F1436" s="1"/>
     </row>
     <row r="1437" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1437" s="6"/>
       <c r="D1437" s="6"/>
       <c r="E1437" s="1"/>
       <c r="F1437" s="1"/>
     </row>
-    <row r="1500" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1500" s="1"/>
-    </row>
-    <row r="1501" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1501" s="1"/>
+    <row r="1438" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1438" s="6"/>
+      <c r="D1438" s="6"/>
+      <c r="E1438" s="1"/>
+      <c r="F1438" s="1"/>
+    </row>
+    <row r="1439" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1439" s="6"/>
+      <c r="E1439" s="1"/>
+      <c r="F1439" s="1"/>
     </row>
     <row r="1502" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1502" s="1"/>
@@ -10484,10 +10530,16 @@
     <row r="1503" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1503" s="1"/>
     </row>
+    <row r="1504" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1504" s="1"/>
+    </row>
+    <row r="1505" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1505" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1456">
-    <sortCondition ref="C2:C1456"/>
-    <sortCondition ref="D2:D1456"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1458">
+    <sortCondition ref="C2:C1458"/>
+    <sortCondition ref="D2:D1458"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6627EA8D-6BAE-7F41-A3B9-4031F23D0063}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3404D8-5465-814B-9F68-44D255E36E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="126">
   <si>
     <t>featureName</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>NC_012932</t>
+  </si>
+  <si>
+    <t>REF_PaRV</t>
+  </si>
+  <si>
+    <t>NC_027817</t>
   </si>
 </sst>
 </file>
@@ -5968,10 +5974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1505"/>
+  <dimension ref="A1:H1507"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:G188"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6447,48 +6453,48 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="26">
-        <v>10761</v>
+      <c r="G21" s="7">
+        <v>10893</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="26">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="7">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10264</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -6505,13 +6511,13 @@
         <v>47</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F23" s="26">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G23" s="26">
-        <v>10445</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -6528,59 +6534,59 @@
         <v>47</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F24" s="26">
-        <v>10446</v>
+        <v>1</v>
       </c>
       <c r="G24" s="26">
-        <v>10761</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>83</v>
+      <c r="D25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="F25" s="26">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G25" s="26">
-        <v>10320</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>15</v>
+      <c r="D26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="F26" s="26">
-        <v>1</v>
+        <v>10446</v>
       </c>
       <c r="G26" s="26">
-        <v>15</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -6597,10 +6603,10 @@
         <v>45</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F27" s="26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G27" s="26">
         <v>10320</v>
@@ -6620,13 +6626,13 @@
         <v>45</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F28" s="26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G28" s="26">
-        <v>2385</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -6643,13 +6649,13 @@
         <v>45</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F29" s="26">
         <v>16</v>
       </c>
       <c r="G29" s="26">
-        <v>381</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -6666,13 +6672,13 @@
         <v>45</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F30" s="26">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="G30" s="26">
-        <v>888</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -6689,13 +6695,13 @@
         <v>45</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="26">
-        <v>889</v>
+        <v>16</v>
       </c>
       <c r="G31" s="26">
-        <v>2385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -6712,13 +6718,13 @@
         <v>45</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F32" s="26">
-        <v>2386</v>
+        <v>382</v>
       </c>
       <c r="G32" s="26">
-        <v>3444</v>
+        <v>888</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -6735,13 +6741,13 @@
         <v>45</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F33" s="26">
-        <v>3445</v>
+        <v>889</v>
       </c>
       <c r="G33" s="26">
-        <v>4125</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -6758,13 +6764,13 @@
         <v>45</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F34" s="26">
-        <v>4126</v>
+        <v>2386</v>
       </c>
       <c r="G34" s="26">
-        <v>4518</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -6781,13 +6787,13 @@
         <v>45</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F35" s="26">
-        <v>4519</v>
+        <v>3445</v>
       </c>
       <c r="G35" s="26">
-        <v>6381</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -6804,13 +6810,13 @@
         <v>45</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F36" s="26">
-        <v>6382</v>
+        <v>4126</v>
       </c>
       <c r="G36" s="26">
-        <v>6759</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -6827,13 +6833,13 @@
         <v>45</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F37" s="26">
-        <v>6760</v>
+        <v>4519</v>
       </c>
       <c r="G37" s="26">
-        <v>6828</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -6850,13 +6856,13 @@
         <v>45</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F38" s="26">
-        <v>6829</v>
+        <v>6382</v>
       </c>
       <c r="G38" s="26">
-        <v>7593</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -6873,82 +6879,82 @@
         <v>45</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F39" s="26">
-        <v>7594</v>
+        <v>6760</v>
       </c>
       <c r="G39" s="26">
-        <v>10317</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="43" t="s">
+      <c r="C40" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F40" s="26">
-        <v>2386</v>
+        <v>6829</v>
       </c>
       <c r="G40" s="26">
-        <v>10317</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="28">
-        <v>1</v>
-      </c>
-      <c r="G41" s="28">
-        <v>10735</v>
+        <v>80</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="26">
+        <v>7594</v>
+      </c>
+      <c r="G41" s="26">
+        <v>10317</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="28">
-        <v>1</v>
-      </c>
-      <c r="G42" s="28">
-        <v>94</v>
+      <c r="A42" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="26">
+        <v>2386</v>
+      </c>
+      <c r="G42" s="26">
+        <v>10317</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -6965,13 +6971,13 @@
         <v>39</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="27">
-        <v>95</v>
-      </c>
-      <c r="G43" s="27">
-        <v>10273</v>
+        <v>83</v>
+      </c>
+      <c r="F43" s="28">
+        <v>1</v>
+      </c>
+      <c r="G43" s="28">
+        <v>10735</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -6987,14 +6993,14 @@
       <c r="D44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="27">
-        <v>95</v>
-      </c>
-      <c r="G44" s="27">
-        <v>2419</v>
+      <c r="E44" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="28">
+        <v>1</v>
+      </c>
+      <c r="G44" s="28">
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -7011,13 +7017,13 @@
         <v>39</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F45" s="27">
         <v>95</v>
       </c>
       <c r="G45" s="27">
-        <v>436</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -7033,14 +7039,14 @@
       <c r="D46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>71</v>
+      <c r="E46" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F46" s="27">
-        <v>437</v>
+        <v>95</v>
       </c>
       <c r="G46" s="27">
-        <v>934</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -7057,13 +7063,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="27">
         <v>95</v>
       </c>
-      <c r="F47" s="27">
-        <v>935</v>
-      </c>
       <c r="G47" s="27">
-        <v>2419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -7080,13 +7086,13 @@
         <v>39</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F48" s="27">
-        <v>2420</v>
+        <v>437</v>
       </c>
       <c r="G48" s="27">
-        <v>10270</v>
+        <v>934</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -7103,13 +7109,13 @@
         <v>39</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F49" s="27">
-        <v>2420</v>
+        <v>935</v>
       </c>
       <c r="G49" s="27">
-        <v>3475</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -7126,13 +7132,13 @@
         <v>39</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F50" s="27">
-        <v>3476</v>
+        <v>2420</v>
       </c>
       <c r="G50" s="27">
-        <v>4129</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -7149,13 +7155,13 @@
         <v>39</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F51" s="27">
-        <v>4130</v>
+        <v>2420</v>
       </c>
       <c r="G51" s="27">
-        <v>4519</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -7172,13 +7178,13 @@
         <v>39</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F52" s="27">
-        <v>4520</v>
+        <v>3476</v>
       </c>
       <c r="G52" s="27">
-        <v>6376</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -7195,13 +7201,13 @@
         <v>39</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F53" s="27">
-        <v>6377</v>
+        <v>4130</v>
       </c>
       <c r="G53" s="27">
-        <v>6757</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -7218,13 +7224,13 @@
         <v>39</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F54" s="27">
-        <v>6758</v>
+        <v>4520</v>
       </c>
       <c r="G54" s="27">
-        <v>6826</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -7241,13 +7247,13 @@
         <v>39</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F55" s="27">
-        <v>6827</v>
+        <v>6377</v>
       </c>
       <c r="G55" s="27">
-        <v>7573</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -7264,13 +7270,13 @@
         <v>39</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F56" s="27">
-        <v>7574</v>
+        <v>6758</v>
       </c>
       <c r="G56" s="27">
-        <v>10270</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -7287,59 +7293,59 @@
         <v>39</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F57" s="27">
-        <v>10274</v>
+        <v>6827</v>
       </c>
       <c r="G57" s="27">
-        <v>10735</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="27">
+        <v>7574</v>
+      </c>
+      <c r="G58" s="27">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1</v>
-      </c>
-      <c r="G59" s="7">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="27">
+        <v>10274</v>
+      </c>
+      <c r="G59" s="27">
+        <v>10735</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -7356,16 +7362,16 @@
         <v>41</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F60" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="G60" s="7">
-        <v>10354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
         <v>30</v>
       </c>
@@ -7379,13 +7385,13 @@
         <v>41</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F61" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="G61" s="7">
-        <v>2452</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -7402,13 +7408,13 @@
         <v>41</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F62" s="7">
         <v>119</v>
       </c>
       <c r="G62" s="7">
-        <v>481</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -7425,13 +7431,13 @@
         <v>41</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F63" s="7">
-        <v>482</v>
+        <v>119</v>
       </c>
       <c r="G63" s="7">
-        <v>973</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -7448,13 +7454,13 @@
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F64" s="7">
-        <v>974</v>
+        <v>119</v>
       </c>
       <c r="G64" s="7">
-        <v>2452</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -7471,13 +7477,13 @@
         <v>41</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F65" s="7">
-        <v>2453</v>
+        <v>482</v>
       </c>
       <c r="G65" s="7">
-        <v>10351</v>
+        <v>973</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -7494,13 +7500,13 @@
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F66" s="7">
-        <v>2453</v>
+        <v>974</v>
       </c>
       <c r="G66" s="7">
-        <v>3508</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -7517,13 +7523,13 @@
         <v>41</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F67" s="7">
-        <v>3509</v>
+        <v>2453</v>
       </c>
       <c r="G67" s="7">
-        <v>4180</v>
+        <v>10351</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -7540,13 +7546,13 @@
         <v>41</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F68" s="7">
-        <v>4181</v>
+        <v>2453</v>
       </c>
       <c r="G68" s="7">
-        <v>4570</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -7563,13 +7569,13 @@
         <v>41</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F69" s="7">
-        <v>4571</v>
+        <v>3509</v>
       </c>
       <c r="G69" s="7">
-        <v>6439</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -7586,13 +7592,13 @@
         <v>41</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F70" s="7">
-        <v>6440</v>
+        <v>4181</v>
       </c>
       <c r="G70" s="7">
-        <v>6817</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -7609,13 +7615,13 @@
         <v>41</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F71" s="7">
-        <v>6818</v>
+        <v>4571</v>
       </c>
       <c r="G71" s="7">
-        <v>6886</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -7632,13 +7638,13 @@
         <v>41</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F72" s="7">
-        <v>6887</v>
+        <v>6440</v>
       </c>
       <c r="G72" s="7">
-        <v>7636</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -7655,13 +7661,13 @@
         <v>41</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F73" s="7">
-        <v>7637</v>
+        <v>6818</v>
       </c>
       <c r="G73" s="7">
-        <v>10351</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -7678,59 +7684,59 @@
         <v>41</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G74" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G75" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F76" s="7">
         <v>10355</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G76" s="7">
         <v>10862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
-      <c r="G75" s="9">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="9">
-        <v>1</v>
-      </c>
-      <c r="G76" s="9">
-        <v>10116</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -7747,13 +7753,13 @@
         <v>56</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F77" s="9">
         <v>1</v>
       </c>
       <c r="G77" s="9">
-        <v>2268</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -7770,13 +7776,13 @@
         <v>56</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F78" s="9">
         <v>1</v>
       </c>
       <c r="G78" s="9">
-        <v>330</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -7793,13 +7799,13 @@
         <v>56</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F79" s="9">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="G79" s="9">
-        <v>813</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -7816,13 +7822,13 @@
         <v>56</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F80" s="9">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="G80" s="9">
-        <v>813</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -7839,13 +7845,13 @@
         <v>56</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F81" s="9">
-        <v>814</v>
+        <v>331</v>
       </c>
       <c r="G81" s="9">
-        <v>2268</v>
+        <v>813</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -7862,13 +7868,13 @@
         <v>56</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F82" s="9">
-        <v>2269</v>
+        <v>589</v>
       </c>
       <c r="G82" s="9">
-        <v>3327</v>
+        <v>813</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -7885,13 +7891,13 @@
         <v>56</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F83" s="9">
-        <v>3328</v>
+        <v>814</v>
       </c>
       <c r="G83" s="9">
-        <v>4002</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -7908,13 +7914,13 @@
         <v>56</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F84" s="9">
-        <v>4003</v>
+        <v>2269</v>
       </c>
       <c r="G84" s="9">
-        <v>4392</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -7931,13 +7937,13 @@
         <v>56</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F85" s="9">
-        <v>4393</v>
+        <v>3328</v>
       </c>
       <c r="G85" s="9">
-        <v>6240</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -7954,13 +7960,13 @@
         <v>56</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F86" s="9">
-        <v>6241</v>
+        <v>4003</v>
       </c>
       <c r="G86" s="9">
-        <v>6597</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -7977,13 +7983,13 @@
         <v>56</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F87" s="9">
-        <v>6598</v>
+        <v>4393</v>
       </c>
       <c r="G87" s="9">
-        <v>6666</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -8000,13 +8006,13 @@
         <v>56</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F88" s="9">
-        <v>6667</v>
+        <v>6241</v>
       </c>
       <c r="G88" s="9">
-        <v>7422</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -8023,13 +8029,13 @@
         <v>56</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F89" s="9">
-        <v>7423</v>
+        <v>6598</v>
       </c>
       <c r="G89" s="9">
-        <v>10113</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -8046,74 +8052,74 @@
         <v>56</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F90" s="9">
-        <v>2269</v>
+        <v>6667</v>
       </c>
       <c r="G90" s="9">
-        <v>10116</v>
-      </c>
-      <c r="H90" s="27"/>
+        <v>7422</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C91" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-      <c r="G91" s="1">
-        <v>10242</v>
+      <c r="D91" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="9">
+        <v>7423</v>
+      </c>
+      <c r="G91" s="9">
+        <v>10113</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F92" s="9">
+        <v>2269</v>
+      </c>
+      <c r="G92" s="9">
+        <v>10116</v>
+      </c>
+      <c r="H92" s="27"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B93" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C92" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="24" t="s">
+      <c r="C93" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1">
-        <v>10242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>83</v>
@@ -8122,53 +8128,53 @@
         <v>1</v>
       </c>
       <c r="G93" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
         <v>11434</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="27">
-        <v>1</v>
-      </c>
-      <c r="G94" s="27">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="27">
-        <v>1</v>
-      </c>
-      <c r="G95" s="27">
-        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -8185,13 +8191,13 @@
         <v>43</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F96" s="27">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G96" s="27">
-        <v>10359</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -8208,13 +8214,13 @@
         <v>43</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F97" s="27">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G97" s="27">
-        <v>2436</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -8231,13 +8237,13 @@
         <v>43</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F98" s="27">
         <v>112</v>
       </c>
       <c r="G98" s="27">
-        <v>441</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -8254,13 +8260,13 @@
         <v>43</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F99" s="27">
-        <v>442</v>
+        <v>112</v>
       </c>
       <c r="G99" s="27">
-        <v>945</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -8277,13 +8283,13 @@
         <v>43</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F100" s="27">
-        <v>946</v>
+        <v>112</v>
       </c>
       <c r="G100" s="27">
-        <v>2436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -8300,13 +8306,13 @@
         <v>43</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F101" s="27">
-        <v>2437</v>
+        <v>442</v>
       </c>
       <c r="G101" s="27">
-        <v>10356</v>
+        <v>945</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -8323,13 +8329,13 @@
         <v>43</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F102" s="27">
-        <v>2437</v>
+        <v>946</v>
       </c>
       <c r="G102" s="27">
-        <v>3495</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -8346,13 +8352,13 @@
         <v>43</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F103" s="27">
-        <v>3496</v>
+        <v>2437</v>
       </c>
       <c r="G103" s="27">
-        <v>4185</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -8369,13 +8375,13 @@
         <v>43</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F104" s="27">
-        <v>4186</v>
+        <v>2437</v>
       </c>
       <c r="G104" s="27">
-        <v>4578</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -8392,13 +8398,13 @@
         <v>43</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F105" s="27">
-        <v>4579</v>
+        <v>3496</v>
       </c>
       <c r="G105" s="27">
-        <v>6444</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -8415,13 +8421,13 @@
         <v>43</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F106" s="27">
-        <v>6445</v>
+        <v>4186</v>
       </c>
       <c r="G106" s="27">
-        <v>6822</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -8438,13 +8444,13 @@
         <v>43</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F107" s="27">
-        <v>6823</v>
+        <v>4579</v>
       </c>
       <c r="G107" s="27">
-        <v>6891</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -8461,13 +8467,13 @@
         <v>43</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F108" s="27">
-        <v>6892</v>
+        <v>6445</v>
       </c>
       <c r="G108" s="27">
-        <v>7647</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -8484,13 +8490,13 @@
         <v>43</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F109" s="27">
-        <v>7648</v>
+        <v>6823</v>
       </c>
       <c r="G109" s="27">
-        <v>10356</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -8507,59 +8513,59 @@
         <v>43</v>
       </c>
       <c r="E110" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="27">
+        <v>6892</v>
+      </c>
+      <c r="G110" s="27">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="27">
+        <v>7648</v>
+      </c>
+      <c r="G111" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="27">
+      <c r="F112" s="27">
         <v>10357</v>
       </c>
-      <c r="G110" s="27">
+      <c r="G112" s="27">
         <v>10839</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F111" s="27">
-        <v>1</v>
-      </c>
-      <c r="G111" s="27">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="27">
-        <v>1</v>
-      </c>
-      <c r="G112" s="27">
-        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -8576,13 +8582,13 @@
         <v>107</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F113" s="27">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="G113" s="27">
-        <v>9377</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -8599,13 +8605,13 @@
         <v>107</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F114" s="27">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="G114" s="27">
-        <v>2579</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -8622,13 +8628,13 @@
         <v>107</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F115" s="27">
         <v>342</v>
       </c>
       <c r="G115" s="27">
-        <v>914</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -8645,13 +8651,13 @@
         <v>107</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F116" s="27">
-        <v>915</v>
+        <v>342</v>
       </c>
       <c r="G116" s="27">
-        <v>1490</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -8668,13 +8674,13 @@
         <v>107</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F117" s="27">
-        <v>1491</v>
+        <v>342</v>
       </c>
       <c r="G117" s="27">
-        <v>2579</v>
+        <v>914</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -8691,13 +8697,13 @@
         <v>107</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F118" s="27">
-        <v>2580</v>
+        <v>915</v>
       </c>
       <c r="G118" s="27">
-        <v>9374</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -8714,13 +8720,13 @@
         <v>107</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F119" s="27">
-        <v>2580</v>
+        <v>1491</v>
       </c>
       <c r="G119" s="27">
-        <v>2768</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -8737,13 +8743,13 @@
         <v>107</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F120" s="27">
-        <v>2769</v>
+        <v>2580</v>
       </c>
       <c r="G120" s="27">
-        <v>3419</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -8760,13 +8766,13 @@
         <v>107</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F121" s="27">
-        <v>3420</v>
+        <v>2580</v>
       </c>
       <c r="G121" s="27">
-        <v>5312</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -8783,13 +8789,13 @@
         <v>107</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F122" s="27">
-        <v>5313</v>
+        <v>2769</v>
       </c>
       <c r="G122" s="27">
-        <v>5474</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -8806,13 +8812,13 @@
         <v>107</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F123" s="27">
-        <v>5475</v>
+        <v>3420</v>
       </c>
       <c r="G123" s="27">
-        <v>6257</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -8829,13 +8835,13 @@
         <v>107</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F124" s="27">
-        <v>6258</v>
+        <v>5313</v>
       </c>
       <c r="G124" s="27">
-        <v>9374</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -8852,13 +8858,13 @@
         <v>107</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F125" s="27">
-        <v>6258</v>
+        <v>5475</v>
       </c>
       <c r="G125" s="27">
-        <v>7601</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -8875,10 +8881,10 @@
         <v>107</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F126" s="27">
-        <v>7602</v>
+        <v>6258</v>
       </c>
       <c r="G126" s="27">
         <v>9374</v>
@@ -8898,55 +8904,59 @@
         <v>107</v>
       </c>
       <c r="E127" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="27">
+        <v>6258</v>
+      </c>
+      <c r="G127" s="27">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="27">
+        <v>7602</v>
+      </c>
+      <c r="G128" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F127" s="27">
+      <c r="F129" s="27">
         <v>9378</v>
       </c>
-      <c r="G127" s="27">
+      <c r="G129" s="27">
         <v>9646</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B128" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D128"/>
-      <c r="E128" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F128" s="27">
-        <v>1</v>
-      </c>
-      <c r="G128" s="27">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129"/>
-      <c r="E129" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" s="27">
-        <v>1</v>
-      </c>
-      <c r="G129" s="27">
-        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -8961,13 +8971,13 @@
       </c>
       <c r="D130"/>
       <c r="E130" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F130" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G130" s="27">
-        <v>9501</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -8982,13 +8992,13 @@
       </c>
       <c r="D131"/>
       <c r="E131" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F131" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G131" s="27">
-        <v>2199</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -9003,13 +9013,13 @@
       </c>
       <c r="D132"/>
       <c r="E132" s="27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F132" s="27">
         <v>328</v>
       </c>
       <c r="G132" s="27">
-        <v>564</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -9024,13 +9034,13 @@
       </c>
       <c r="D133"/>
       <c r="E133" s="27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F133" s="27">
-        <v>565</v>
+        <v>328</v>
       </c>
       <c r="G133" s="27">
-        <v>1137</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -9045,13 +9055,13 @@
       </c>
       <c r="D134"/>
       <c r="E134" s="27" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F134" s="27">
-        <v>1138</v>
+        <v>328</v>
       </c>
       <c r="G134" s="27">
-        <v>2199</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -9066,13 +9076,13 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F135" s="27">
-        <v>2200</v>
+        <v>565</v>
       </c>
       <c r="G135" s="27">
-        <v>2910</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -9087,13 +9097,13 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F136" s="27">
-        <v>2911</v>
+        <v>1138</v>
       </c>
       <c r="G136" s="27">
-        <v>9498</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -9108,13 +9118,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="27" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F137" s="27">
-        <v>2911</v>
+        <v>2200</v>
       </c>
       <c r="G137" s="27">
-        <v>3630</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -9129,13 +9139,13 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="27" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F138" s="27">
-        <v>3631</v>
+        <v>2911</v>
       </c>
       <c r="G138" s="27">
-        <v>5514</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -9150,13 +9160,13 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F139" s="27">
-        <v>5515</v>
+        <v>2911</v>
       </c>
       <c r="G139" s="27">
-        <v>5637</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -9171,13 +9181,13 @@
       </c>
       <c r="D140"/>
       <c r="E140" s="27" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F140" s="27">
-        <v>5638</v>
+        <v>3631</v>
       </c>
       <c r="G140" s="27">
-        <v>6423</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -9192,13 +9202,13 @@
       </c>
       <c r="D141"/>
       <c r="E141" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F141" s="27">
-        <v>6424</v>
+        <v>5515</v>
       </c>
       <c r="G141" s="27">
-        <v>9498</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -9213,13 +9223,13 @@
       </c>
       <c r="D142"/>
       <c r="E142" s="27" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F142" s="27">
-        <v>6424</v>
+        <v>5638</v>
       </c>
       <c r="G142" s="27">
-        <v>7797</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -9234,10 +9244,10 @@
       </c>
       <c r="D143"/>
       <c r="E143" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F143" s="27">
-        <v>7798</v>
+        <v>6424</v>
       </c>
       <c r="G143" s="27">
         <v>9498</v>
@@ -9255,59 +9265,55 @@
       </c>
       <c r="D144"/>
       <c r="E144" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="27">
+        <v>6424</v>
+      </c>
+      <c r="G144" s="27">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G145" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F144" s="27">
+      <c r="F146" s="27">
         <v>9502</v>
       </c>
-      <c r="G144" s="27">
+      <c r="G146" s="27">
         <v>9867</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>54</v>
-      </c>
-      <c r="B145" t="s">
-        <v>63</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F145" s="27">
-        <v>1</v>
-      </c>
-      <c r="G145" s="27">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>54</v>
-      </c>
-      <c r="B146" t="s">
-        <v>63</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E146" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" s="27">
-        <v>1</v>
-      </c>
-      <c r="G146" s="27">
-        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -9324,13 +9330,13 @@
         <v>110</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F147" s="27">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="G147" s="27">
-        <v>18068</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -9347,63 +9353,63 @@
         <v>110</v>
       </c>
       <c r="E148" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="27">
+        <v>1</v>
+      </c>
+      <c r="G148" s="27">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E149" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F149" s="27">
+        <v>351</v>
+      </c>
+      <c r="G149" s="27">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E150" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="27">
+      <c r="F150" s="27">
         <v>18069</v>
       </c>
-      <c r="G148" s="27">
+      <c r="G150" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B149" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E149" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F149" s="27">
-        <v>1</v>
-      </c>
-      <c r="G149" s="27">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B150" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E150" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F150" s="27">
-        <v>1</v>
-      </c>
-      <c r="G150" s="27">
-        <v>199</v>
-      </c>
-    </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="34" t="s">
+      <c r="A151" s="32" t="s">
         <v>84</v>
       </c>
       <c r="B151" s="32" t="s">
@@ -9416,13 +9422,13 @@
         <v>111</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F151" s="27">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G151" s="27">
-        <v>17905</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -9439,55 +9445,59 @@
         <v>111</v>
       </c>
       <c r="E152" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="27">
+        <v>1</v>
+      </c>
+      <c r="G152" s="27">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E153" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F153" s="27">
+        <v>200</v>
+      </c>
+      <c r="G153" s="27">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E154" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F152" s="27">
+      <c r="F154" s="27">
         <v>17906</v>
       </c>
-      <c r="G152" s="27">
+      <c r="G154" s="27">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C153" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F153" s="27">
-        <v>1</v>
-      </c>
-      <c r="G153" s="27">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C154" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F154" s="27">
-        <v>1</v>
-      </c>
-      <c r="G154" s="27">
-        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -9502,13 +9512,13 @@
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F155" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G155" s="27">
-        <v>12352</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -9523,13 +9533,13 @@
       </c>
       <c r="D156" s="27"/>
       <c r="E156" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F156" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G156" s="27">
-        <v>3583</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -9544,13 +9554,13 @@
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F157" s="27">
         <v>386</v>
       </c>
       <c r="G157" s="27">
-        <v>889</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -9565,13 +9575,13 @@
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F158" s="27">
-        <v>890</v>
+        <v>386</v>
       </c>
       <c r="G158" s="27">
-        <v>1195</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -9586,13 +9596,13 @@
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F159" s="27">
-        <v>1196</v>
+        <v>386</v>
       </c>
       <c r="G159" s="27">
-        <v>1876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -9607,13 +9617,13 @@
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F160" s="27">
-        <v>1877</v>
+        <v>890</v>
       </c>
       <c r="G160" s="27">
-        <v>2461</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -9628,13 +9638,13 @@
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F161" s="27">
-        <v>2462</v>
+        <v>1196</v>
       </c>
       <c r="G161" s="27">
-        <v>3583</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -9649,13 +9659,13 @@
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F162" s="27">
-        <v>3584</v>
+        <v>1877</v>
       </c>
       <c r="G162" s="27">
-        <v>3793</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -9670,13 +9680,13 @@
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F163" s="27">
-        <v>3794</v>
+        <v>2462</v>
       </c>
       <c r="G163" s="27">
-        <v>7471</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -9691,13 +9701,13 @@
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F164" s="27">
-        <v>7472</v>
+        <v>3584</v>
       </c>
       <c r="G164" s="27">
-        <v>7663</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -9712,13 +9722,13 @@
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F165" s="27">
-        <v>7664</v>
+        <v>3794</v>
       </c>
       <c r="G165" s="27">
-        <v>8704</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -9733,13 +9743,13 @@
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F166" s="27">
-        <v>8705</v>
+        <v>7472</v>
       </c>
       <c r="G166" s="27">
-        <v>12349</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -9754,13 +9764,13 @@
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="27" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F167" s="27">
-        <v>8705</v>
+        <v>7664</v>
       </c>
       <c r="G167" s="27">
-        <v>10192</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -9775,10 +9785,10 @@
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F168" s="27">
-        <v>10193</v>
+        <v>8705</v>
       </c>
       <c r="G168" s="27">
         <v>12349</v>
@@ -9796,55 +9806,55 @@
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F169" s="27">
-        <v>12360</v>
+        <v>8705</v>
       </c>
       <c r="G169" s="27">
-        <v>12573</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>57</v>
+      <c r="A170" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="27" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F170" s="27">
-        <v>1</v>
+        <v>10193</v>
       </c>
       <c r="G170" s="27">
-        <v>10053</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B171" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>57</v>
+      <c r="A171" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="27" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F171" s="27">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G171" s="27">
-        <v>10053</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -9859,13 +9869,13 @@
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F172" s="27">
         <v>1</v>
       </c>
       <c r="G172" s="27">
-        <v>2358</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -9880,13 +9890,13 @@
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F173" s="27">
         <v>1</v>
       </c>
       <c r="G173" s="27">
-        <v>345</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -9901,13 +9911,13 @@
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F174" s="27">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="G174" s="27">
-        <v>852</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -9922,13 +9932,13 @@
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="27" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F175" s="27">
-        <v>655</v>
+        <v>1</v>
       </c>
       <c r="G175" s="27">
-        <v>852</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -9943,13 +9953,13 @@
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="27" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F176" s="27">
-        <v>853</v>
+        <v>346</v>
       </c>
       <c r="G176" s="27">
-        <v>2358</v>
+        <v>852</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -9964,13 +9974,13 @@
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F177" s="27">
-        <v>2359</v>
+        <v>655</v>
       </c>
       <c r="G177" s="27">
-        <v>10050</v>
+        <v>852</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -9985,13 +9995,13 @@
       </c>
       <c r="D178" s="27"/>
       <c r="E178" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F178" s="27">
-        <v>2359</v>
+        <v>853</v>
       </c>
       <c r="G178" s="27">
-        <v>3390</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -10006,13 +10016,13 @@
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F179" s="27">
-        <v>3391</v>
+        <v>2359</v>
       </c>
       <c r="G179" s="27">
-        <v>3978</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -10027,13 +10037,13 @@
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F180" s="27">
-        <v>3979</v>
+        <v>2359</v>
       </c>
       <c r="G180" s="27">
-        <v>4431</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -10048,13 +10058,13 @@
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F181" s="27">
-        <v>4432</v>
+        <v>3391</v>
       </c>
       <c r="G181" s="27">
-        <v>6303</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -10069,13 +10079,13 @@
       </c>
       <c r="D182" s="27"/>
       <c r="E182" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F182" s="27">
-        <v>6304</v>
+        <v>3979</v>
       </c>
       <c r="G182" s="27">
-        <v>6687</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -10090,13 +10100,13 @@
       </c>
       <c r="D183" s="27"/>
       <c r="E183" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F183" s="27">
-        <v>6688</v>
+        <v>4432</v>
       </c>
       <c r="G183" s="27">
-        <v>6762</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -10111,13 +10121,13 @@
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F184" s="27">
-        <v>6763</v>
+        <v>6304</v>
       </c>
       <c r="G184" s="27">
-        <v>7557</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -10132,55 +10142,57 @@
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="27">
+        <v>6688</v>
+      </c>
+      <c r="G185" s="27">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F186" s="27">
+        <v>6763</v>
+      </c>
+      <c r="G186" s="27">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F185" s="27">
+      <c r="F187" s="27">
         <v>7558</v>
       </c>
-      <c r="G185" s="27">
+      <c r="G187" s="27">
         <v>10050</v>
       </c>
-      <c r="H185" s="25"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>118</v>
-      </c>
-      <c r="B186" t="s">
-        <v>119</v>
-      </c>
-      <c r="C186" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E186" t="s">
-        <v>83</v>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>118</v>
-      </c>
-      <c r="B187" t="s">
-        <v>119</v>
-      </c>
-      <c r="C187" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E187" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F187" s="27">
-        <v>117</v>
-      </c>
-      <c r="G187" s="27">
-        <v>2543</v>
-      </c>
+      <c r="H187" s="25"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -10192,30 +10204,60 @@
       <c r="C188" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E188" s="27" t="s">
+      <c r="E188" t="s">
+        <v>83</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>118</v>
+      </c>
+      <c r="B189" t="s">
+        <v>119</v>
+      </c>
+      <c r="C189" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F189" s="27">
+        <v>117</v>
+      </c>
+      <c r="G189" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>118</v>
+      </c>
+      <c r="B190" t="s">
+        <v>119</v>
+      </c>
+      <c r="C190" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E190" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F188">
-        <f t="shared" ref="F188" si="0">(D188+2824)</f>
+      <c r="F190">
+        <f t="shared" ref="F190" si="0">(D190+2824)</f>
         <v>2824</v>
       </c>
-      <c r="G188" s="27">
+      <c r="G190" s="27">
         <v>5673</v>
       </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B227" s="1"/>
-      <c r="C227" s="5"/>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B228" s="1"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
       <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
@@ -10324,21 +10366,21 @@
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
+      <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
-      <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="5"/>
-      <c r="D254" s="5"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
@@ -10361,22 +10403,26 @@
       <c r="D258" s="5"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="1"/>
+      <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="941" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E941" s="1"/>
-    </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1077" s="1"/>
-    </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1078" s="1"/>
-    </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1203" s="1"/>
-    </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1204" s="1"/>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260" s="1"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D261" s="5"/>
+    </row>
+    <row r="943" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E943" s="1"/>
+    </row>
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1079" s="1"/>
+    </row>
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1080" s="1"/>
     </row>
     <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1205" s="1"/>
@@ -10390,23 +10436,23 @@
     <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1208" s="1"/>
     </row>
-    <row r="1253" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1253" s="1"/>
-      <c r="F1253" s="1"/>
-    </row>
-    <row r="1254" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1254" s="1"/>
-      <c r="F1254" s="1"/>
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1209" s="1"/>
+    </row>
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1210" s="1"/>
     </row>
     <row r="1255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1255" s="1"/>
       <c r="F1255" s="1"/>
     </row>
+    <row r="1256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1256" s="1"/>
+      <c r="F1256" s="1"/>
+    </row>
     <row r="1257" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1257" s="1"/>
-    </row>
-    <row r="1258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1258" s="1"/>
+      <c r="E1257" s="1"/>
+      <c r="F1257" s="1"/>
     </row>
     <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1259" s="1"/>
@@ -10417,11 +10463,11 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1261" s="1"/>
     </row>
-    <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1280" s="1"/>
-    </row>
-    <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1281" s="1"/>
+    <row r="1262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1262" s="1"/>
+    </row>
+    <row r="1263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1263" s="1"/>
     </row>
     <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1282" s="1"/>
@@ -10438,12 +10484,12 @@
     <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1286" s="1"/>
     </row>
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1287" s="1"/>
+    </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1"/>
     </row>
-    <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1289" s="1"/>
-    </row>
     <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1290" s="1"/>
     </row>
@@ -10456,11 +10502,11 @@
     <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1293" s="1"/>
     </row>
-    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1345" s="1"/>
-    </row>
-    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1346" s="1"/>
+    <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1294" s="1"/>
+    </row>
+    <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1295" s="1"/>
     </row>
     <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1347" s="1"/>
@@ -10468,23 +10514,23 @@
     <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1348" s="1"/>
     </row>
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1349" s="1"/>
+    </row>
     <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1350" s="1"/>
     </row>
-    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1351" s="1"/>
-    </row>
     <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1352" s="1"/>
     </row>
     <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1353" s="1"/>
     </row>
-    <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1388" s="1"/>
-    </row>
-    <row r="1389" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1389" s="1"/>
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1354" s="1"/>
+    </row>
+    <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1355" s="1"/>
     </row>
     <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1390" s="1"/>
@@ -10498,37 +10544,37 @@
     <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1393" s="1"/>
     </row>
-    <row r="1435" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1435" s="1"/>
-      <c r="F1435" s="1"/>
-    </row>
-    <row r="1436" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1436" s="6"/>
-      <c r="E1436" s="1"/>
-      <c r="F1436" s="1"/>
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1394" s="1"/>
+    </row>
+    <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1395" s="1"/>
     </row>
     <row r="1437" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1437" s="6"/>
-      <c r="D1437" s="6"/>
       <c r="E1437" s="1"/>
       <c r="F1437" s="1"/>
     </row>
     <row r="1438" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1438" s="6"/>
-      <c r="D1438" s="6"/>
       <c r="E1438" s="1"/>
       <c r="F1438" s="1"/>
     </row>
     <row r="1439" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1439" s="6"/>
       <c r="D1439" s="6"/>
       <c r="E1439" s="1"/>
       <c r="F1439" s="1"/>
     </row>
-    <row r="1502" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1502" s="1"/>
-    </row>
-    <row r="1503" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1503" s="1"/>
+    <row r="1440" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1440" s="6"/>
+      <c r="D1440" s="6"/>
+      <c r="E1440" s="1"/>
+      <c r="F1440" s="1"/>
+    </row>
+    <row r="1441" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1441" s="6"/>
+      <c r="E1441" s="1"/>
+      <c r="F1441" s="1"/>
     </row>
     <row r="1504" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1504" s="1"/>
@@ -10536,10 +10582,16 @@
     <row r="1505" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1505" s="1"/>
     </row>
+    <row r="1506" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1506" s="1"/>
+    </row>
+    <row r="1507" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1507" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1458">
-    <sortCondition ref="C2:C1458"/>
-    <sortCondition ref="D2:D1458"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1460">
+    <sortCondition ref="C2:C1460"/>
+    <sortCondition ref="D2:D1460"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3404D8-5465-814B-9F68-44D255E36E2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D86BD-6A79-C54C-9F61-C16183D52965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="128">
   <si>
     <t>featureName</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>NC_027817</t>
+  </si>
+  <si>
+    <t>precursor_polyprotein1</t>
+  </si>
+  <si>
+    <t>precursor_polyprotein2</t>
   </si>
 </sst>
 </file>
@@ -487,7 +493,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,6 +638,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3101,7 +3113,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3179,6 +3191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2457">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -5974,10 +5987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1507"/>
+  <dimension ref="A1:H1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7755,10 +7768,10 @@
       <c r="E77" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="27">
         <v>1</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="27">
         <v>10116</v>
       </c>
     </row>
@@ -7778,10 +7791,10 @@
       <c r="E78" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="27">
         <v>1</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="27">
         <v>10116</v>
       </c>
     </row>
@@ -7801,10 +7814,10 @@
       <c r="E79" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="27">
         <v>1</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="27">
         <v>2268</v>
       </c>
     </row>
@@ -7824,10 +7837,10 @@
       <c r="E80" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="27">
         <v>1</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="27">
         <v>330</v>
       </c>
     </row>
@@ -7847,10 +7860,10 @@
       <c r="E81" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="27">
         <v>331</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="27">
         <v>813</v>
       </c>
     </row>
@@ -7870,10 +7883,10 @@
       <c r="E82" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="27">
         <v>589</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="27">
         <v>813</v>
       </c>
     </row>
@@ -7893,10 +7906,10 @@
       <c r="E83" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="27">
         <v>814</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="27">
         <v>2268</v>
       </c>
     </row>
@@ -7916,10 +7929,10 @@
       <c r="E84" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="27">
         <v>2269</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="27">
         <v>3327</v>
       </c>
     </row>
@@ -7939,10 +7952,10 @@
       <c r="E85" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="27">
         <v>3328</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="27">
         <v>4002</v>
       </c>
     </row>
@@ -7962,10 +7975,10 @@
       <c r="E86" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="27">
         <v>4003</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="27">
         <v>4392</v>
       </c>
     </row>
@@ -7985,10 +7998,10 @@
       <c r="E87" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="27">
         <v>4393</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="27">
         <v>6240</v>
       </c>
     </row>
@@ -8008,10 +8021,10 @@
       <c r="E88" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="27">
         <v>6241</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="27">
         <v>6597</v>
       </c>
     </row>
@@ -8031,10 +8044,10 @@
       <c r="E89" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="27">
         <v>6598</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="27">
         <v>6666</v>
       </c>
     </row>
@@ -8054,10 +8067,10 @@
       <c r="E90" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="27">
         <v>6667</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="27">
         <v>7422</v>
       </c>
     </row>
@@ -8077,10 +8090,10 @@
       <c r="E91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="27">
         <v>7423</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="27">
         <v>10113</v>
       </c>
     </row>
@@ -8100,10 +8113,10 @@
       <c r="E92" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="27">
         <v>2269</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="27">
         <v>10116</v>
       </c>
       <c r="H92" s="27"/>
@@ -8118,16 +8131,16 @@
       <c r="C93" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="27">
         <v>1</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="27">
         <v>10242</v>
       </c>
     </row>
@@ -8141,16 +8154,16 @@
       <c r="C94" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="27">
         <v>1</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="27">
         <v>10242</v>
       </c>
     </row>
@@ -8167,60 +8180,60 @@
       <c r="D95" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="27">
         <v>1</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="27">
         <v>11434</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>43</v>
+      <c r="A96" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F96" s="27">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="G96" s="27">
-        <v>10839</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B97" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>43</v>
+      <c r="A97" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F97" s="27">
-        <v>1</v>
+        <v>4359</v>
       </c>
       <c r="G97" s="27">
-        <v>111</v>
+        <v>10976</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -8237,13 +8250,13 @@
         <v>43</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F98" s="27">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G98" s="27">
-        <v>10359</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -8260,13 +8273,13 @@
         <v>43</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F99" s="27">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G99" s="27">
-        <v>2436</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -8283,13 +8296,13 @@
         <v>43</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F100" s="27">
         <v>112</v>
       </c>
       <c r="G100" s="27">
-        <v>441</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -8306,13 +8319,13 @@
         <v>43</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F101" s="27">
-        <v>442</v>
+        <v>112</v>
       </c>
       <c r="G101" s="27">
-        <v>945</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -8329,13 +8342,13 @@
         <v>43</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F102" s="27">
-        <v>946</v>
+        <v>112</v>
       </c>
       <c r="G102" s="27">
-        <v>2436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -8352,13 +8365,13 @@
         <v>43</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F103" s="27">
-        <v>2437</v>
+        <v>442</v>
       </c>
       <c r="G103" s="27">
-        <v>10356</v>
+        <v>945</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -8375,13 +8388,13 @@
         <v>43</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F104" s="27">
-        <v>2437</v>
+        <v>946</v>
       </c>
       <c r="G104" s="27">
-        <v>3495</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -8398,13 +8411,13 @@
         <v>43</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F105" s="27">
-        <v>3496</v>
+        <v>2437</v>
       </c>
       <c r="G105" s="27">
-        <v>4185</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -8421,13 +8434,13 @@
         <v>43</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F106" s="27">
-        <v>4186</v>
+        <v>2437</v>
       </c>
       <c r="G106" s="27">
-        <v>4578</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -8444,13 +8457,13 @@
         <v>43</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F107" s="27">
-        <v>4579</v>
+        <v>3496</v>
       </c>
       <c r="G107" s="27">
-        <v>6444</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -8467,13 +8480,13 @@
         <v>43</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F108" s="27">
-        <v>6445</v>
+        <v>4186</v>
       </c>
       <c r="G108" s="27">
-        <v>6822</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -8490,13 +8503,13 @@
         <v>43</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F109" s="27">
-        <v>6823</v>
+        <v>4579</v>
       </c>
       <c r="G109" s="27">
-        <v>6891</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -8513,13 +8526,13 @@
         <v>43</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F110" s="27">
-        <v>6892</v>
+        <v>6445</v>
       </c>
       <c r="G110" s="27">
-        <v>7647</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -8536,13 +8549,13 @@
         <v>43</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F111" s="27">
-        <v>7648</v>
+        <v>6823</v>
       </c>
       <c r="G111" s="27">
-        <v>10356</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -8559,59 +8572,59 @@
         <v>43</v>
       </c>
       <c r="E112" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" s="27">
+        <v>6892</v>
+      </c>
+      <c r="G112" s="27">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="27">
+        <v>7648</v>
+      </c>
+      <c r="G113" s="27">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F112" s="27">
+      <c r="F114" s="27">
         <v>10357</v>
       </c>
-      <c r="G112" s="27">
+      <c r="G114" s="27">
         <v>10839</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F113" s="27">
-        <v>1</v>
-      </c>
-      <c r="G113" s="27">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="27">
-        <v>1</v>
-      </c>
-      <c r="G114" s="27">
-        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -8628,13 +8641,13 @@
         <v>107</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F115" s="27">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="G115" s="27">
-        <v>9377</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -8651,13 +8664,13 @@
         <v>107</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F116" s="27">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="G116" s="27">
-        <v>2579</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -8674,13 +8687,13 @@
         <v>107</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F117" s="27">
         <v>342</v>
       </c>
       <c r="G117" s="27">
-        <v>914</v>
+        <v>9377</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -8697,13 +8710,13 @@
         <v>107</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F118" s="27">
-        <v>915</v>
+        <v>342</v>
       </c>
       <c r="G118" s="27">
-        <v>1490</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -8720,13 +8733,13 @@
         <v>107</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F119" s="27">
-        <v>1491</v>
+        <v>342</v>
       </c>
       <c r="G119" s="27">
-        <v>2579</v>
+        <v>914</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -8743,13 +8756,13 @@
         <v>107</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F120" s="27">
-        <v>2580</v>
+        <v>915</v>
       </c>
       <c r="G120" s="27">
-        <v>9374</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -8766,13 +8779,13 @@
         <v>107</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F121" s="27">
-        <v>2580</v>
+        <v>1491</v>
       </c>
       <c r="G121" s="27">
-        <v>2768</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -8789,13 +8802,13 @@
         <v>107</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F122" s="27">
-        <v>2769</v>
+        <v>2580</v>
       </c>
       <c r="G122" s="27">
-        <v>3419</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -8812,13 +8825,13 @@
         <v>107</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F123" s="27">
-        <v>3420</v>
+        <v>2580</v>
       </c>
       <c r="G123" s="27">
-        <v>5312</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -8835,13 +8848,13 @@
         <v>107</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F124" s="27">
-        <v>5313</v>
+        <v>2769</v>
       </c>
       <c r="G124" s="27">
-        <v>5474</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -8858,13 +8871,13 @@
         <v>107</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F125" s="27">
-        <v>5475</v>
+        <v>3420</v>
       </c>
       <c r="G125" s="27">
-        <v>6257</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -8881,13 +8894,13 @@
         <v>107</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F126" s="27">
-        <v>6258</v>
+        <v>5313</v>
       </c>
       <c r="G126" s="27">
-        <v>9374</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -8904,13 +8917,13 @@
         <v>107</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F127" s="27">
-        <v>6258</v>
+        <v>5475</v>
       </c>
       <c r="G127" s="27">
-        <v>7601</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -8927,10 +8940,10 @@
         <v>107</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F128" s="27">
-        <v>7602</v>
+        <v>6258</v>
       </c>
       <c r="G128" s="27">
         <v>9374</v>
@@ -8950,55 +8963,59 @@
         <v>107</v>
       </c>
       <c r="E129" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="27">
+        <v>6258</v>
+      </c>
+      <c r="G129" s="27">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="27">
+        <v>7602</v>
+      </c>
+      <c r="G130" s="27">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F129" s="27">
+      <c r="F131" s="27">
         <v>9378</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G131" s="27">
         <v>9646</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B130" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F130" s="27">
-        <v>1</v>
-      </c>
-      <c r="G130" s="27">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C131" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131"/>
-      <c r="E131" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="27">
-        <v>1</v>
-      </c>
-      <c r="G131" s="27">
-        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -9013,13 +9030,13 @@
       </c>
       <c r="D132"/>
       <c r="E132" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F132" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G132" s="27">
-        <v>9501</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -9034,13 +9051,13 @@
       </c>
       <c r="D133"/>
       <c r="E133" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F133" s="27">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G133" s="27">
-        <v>2199</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -9055,13 +9072,13 @@
       </c>
       <c r="D134"/>
       <c r="E134" s="27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F134" s="27">
         <v>328</v>
       </c>
       <c r="G134" s="27">
-        <v>564</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -9076,13 +9093,13 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F135" s="27">
-        <v>565</v>
+        <v>328</v>
       </c>
       <c r="G135" s="27">
-        <v>1137</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -9097,13 +9114,13 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="27" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F136" s="27">
-        <v>1138</v>
+        <v>328</v>
       </c>
       <c r="G136" s="27">
-        <v>2199</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -9118,13 +9135,13 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F137" s="27">
-        <v>2200</v>
+        <v>565</v>
       </c>
       <c r="G137" s="27">
-        <v>2910</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -9139,13 +9156,13 @@
       </c>
       <c r="D138"/>
       <c r="E138" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F138" s="27">
-        <v>2911</v>
+        <v>1138</v>
       </c>
       <c r="G138" s="27">
-        <v>9498</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -9160,13 +9177,13 @@
       </c>
       <c r="D139"/>
       <c r="E139" s="27" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F139" s="27">
-        <v>2911</v>
+        <v>2200</v>
       </c>
       <c r="G139" s="27">
-        <v>3630</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -9181,13 +9198,13 @@
       </c>
       <c r="D140"/>
       <c r="E140" s="27" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F140" s="27">
-        <v>3631</v>
+        <v>2911</v>
       </c>
       <c r="G140" s="27">
-        <v>5514</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -9202,13 +9219,13 @@
       </c>
       <c r="D141"/>
       <c r="E141" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F141" s="27">
-        <v>5515</v>
+        <v>2911</v>
       </c>
       <c r="G141" s="27">
-        <v>5637</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -9223,13 +9240,13 @@
       </c>
       <c r="D142"/>
       <c r="E142" s="27" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F142" s="27">
-        <v>5638</v>
+        <v>3631</v>
       </c>
       <c r="G142" s="27">
-        <v>6423</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -9244,13 +9261,13 @@
       </c>
       <c r="D143"/>
       <c r="E143" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F143" s="27">
-        <v>6424</v>
+        <v>5515</v>
       </c>
       <c r="G143" s="27">
-        <v>9498</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -9265,13 +9282,13 @@
       </c>
       <c r="D144"/>
       <c r="E144" s="27" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F144" s="27">
-        <v>6424</v>
+        <v>5638</v>
       </c>
       <c r="G144" s="27">
-        <v>7797</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -9286,10 +9303,10 @@
       </c>
       <c r="D145"/>
       <c r="E145" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F145" s="27">
-        <v>7798</v>
+        <v>6424</v>
       </c>
       <c r="G145" s="27">
         <v>9498</v>
@@ -9307,59 +9324,55 @@
       </c>
       <c r="D146"/>
       <c r="E146" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="27">
+        <v>6424</v>
+      </c>
+      <c r="G146" s="27">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" s="27">
+        <v>7798</v>
+      </c>
+      <c r="G147" s="27">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="27">
+      <c r="F148" s="27">
         <v>9502</v>
       </c>
-      <c r="G146" s="27">
+      <c r="G148" s="27">
         <v>9867</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>54</v>
-      </c>
-      <c r="B147" t="s">
-        <v>63</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E147" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F147" s="27">
-        <v>1</v>
-      </c>
-      <c r="G147" s="27">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>54</v>
-      </c>
-      <c r="B148" t="s">
-        <v>63</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E148" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" s="27">
-        <v>1</v>
-      </c>
-      <c r="G148" s="27">
-        <v>350</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -9376,13 +9389,13 @@
         <v>110</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F149" s="27">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="G149" s="27">
-        <v>18068</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -9399,63 +9412,63 @@
         <v>110</v>
       </c>
       <c r="E150" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="27">
+        <v>1</v>
+      </c>
+      <c r="G150" s="27">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E151" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F151" s="27">
+        <v>351</v>
+      </c>
+      <c r="G151" s="27">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E152" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="27">
+      <c r="F152" s="27">
         <v>18069</v>
       </c>
-      <c r="G150" s="27">
+      <c r="G152" s="27">
         <v>19199</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B151" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E151" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F151" s="27">
-        <v>1</v>
-      </c>
-      <c r="G151" s="27">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B152" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E152" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" s="27">
-        <v>1</v>
-      </c>
-      <c r="G152" s="27">
-        <v>199</v>
-      </c>
-    </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="32" t="s">
         <v>84</v>
       </c>
       <c r="B153" s="32" t="s">
@@ -9468,13 +9481,13 @@
         <v>111</v>
       </c>
       <c r="E153" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F153" s="27">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G153" s="27">
-        <v>17905</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -9491,55 +9504,59 @@
         <v>111</v>
       </c>
       <c r="E154" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="27">
+        <v>1</v>
+      </c>
+      <c r="G154" s="27">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E155" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F155" s="27">
+        <v>200</v>
+      </c>
+      <c r="G155" s="27">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E156" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F154" s="27">
+      <c r="F156" s="27">
         <v>17906</v>
       </c>
-      <c r="G154" s="27">
+      <c r="G156" s="27">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C155" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F155" s="27">
-        <v>1</v>
-      </c>
-      <c r="G155" s="27">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F156" s="27">
-        <v>1</v>
-      </c>
-      <c r="G156" s="27">
-        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -9554,13 +9571,13 @@
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="27" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F157" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G157" s="27">
-        <v>12352</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -9575,13 +9592,13 @@
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="27" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F158" s="27">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G158" s="27">
-        <v>3583</v>
+        <v>385</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -9596,13 +9613,13 @@
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F159" s="27">
         <v>386</v>
       </c>
       <c r="G159" s="27">
-        <v>889</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -9617,13 +9634,13 @@
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="27" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F160" s="27">
-        <v>890</v>
+        <v>386</v>
       </c>
       <c r="G160" s="27">
-        <v>1195</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -9638,13 +9655,13 @@
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F161" s="27">
-        <v>1196</v>
+        <v>386</v>
       </c>
       <c r="G161" s="27">
-        <v>1876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -9659,13 +9676,13 @@
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F162" s="27">
-        <v>1877</v>
+        <v>890</v>
       </c>
       <c r="G162" s="27">
-        <v>2461</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -9680,13 +9697,13 @@
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F163" s="27">
-        <v>2462</v>
+        <v>1196</v>
       </c>
       <c r="G163" s="27">
-        <v>3583</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -9701,13 +9718,13 @@
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F164" s="27">
-        <v>3584</v>
+        <v>1877</v>
       </c>
       <c r="G164" s="27">
-        <v>3793</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -9722,13 +9739,13 @@
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F165" s="27">
-        <v>3794</v>
+        <v>2462</v>
       </c>
       <c r="G165" s="27">
-        <v>7471</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -9743,13 +9760,13 @@
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F166" s="27">
-        <v>7472</v>
+        <v>3584</v>
       </c>
       <c r="G166" s="27">
-        <v>7663</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -9764,13 +9781,13 @@
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="27" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F167" s="27">
-        <v>7664</v>
+        <v>3794</v>
       </c>
       <c r="G167" s="27">
-        <v>8704</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -9785,13 +9802,13 @@
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="27" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F168" s="27">
-        <v>8705</v>
+        <v>7472</v>
       </c>
       <c r="G168" s="27">
-        <v>12349</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -9806,13 +9823,13 @@
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F169" s="27">
-        <v>8705</v>
+        <v>7664</v>
       </c>
       <c r="G169" s="27">
-        <v>10192</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -9827,10 +9844,10 @@
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F170" s="27">
-        <v>10193</v>
+        <v>8705</v>
       </c>
       <c r="G170" s="27">
         <v>12349</v>
@@ -9848,55 +9865,55 @@
       </c>
       <c r="D171" s="27"/>
       <c r="E171" s="27" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F171" s="27">
-        <v>12360</v>
+        <v>8705</v>
       </c>
       <c r="G171" s="27">
-        <v>12573</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>57</v>
+      <c r="A172" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F172" s="27">
-        <v>1</v>
+        <v>10193</v>
       </c>
       <c r="G172" s="27">
-        <v>10053</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B173" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C173" s="27" t="s">
-        <v>57</v>
+      <c r="A173" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D173" s="27"/>
       <c r="E173" s="27" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F173" s="27">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G173" s="27">
-        <v>10053</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -9911,13 +9928,13 @@
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F174" s="27">
         <v>1</v>
       </c>
       <c r="G174" s="27">
-        <v>2358</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -9932,13 +9949,13 @@
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="27" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="F175" s="27">
         <v>1</v>
       </c>
       <c r="G175" s="27">
-        <v>345</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -9953,13 +9970,13 @@
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="27" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F176" s="27">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="G176" s="27">
-        <v>852</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -9974,13 +9991,13 @@
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F177" s="27">
-        <v>655</v>
+        <v>1</v>
       </c>
       <c r="G177" s="27">
-        <v>852</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -9995,13 +10012,13 @@
       </c>
       <c r="D178" s="27"/>
       <c r="E178" s="27" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F178" s="27">
-        <v>853</v>
+        <v>346</v>
       </c>
       <c r="G178" s="27">
-        <v>2358</v>
+        <v>852</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -10016,13 +10033,13 @@
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="27" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F179" s="27">
-        <v>2359</v>
+        <v>655</v>
       </c>
       <c r="G179" s="27">
-        <v>10050</v>
+        <v>852</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -10037,13 +10054,13 @@
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F180" s="27">
-        <v>2359</v>
+        <v>853</v>
       </c>
       <c r="G180" s="27">
-        <v>3390</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -10058,13 +10075,13 @@
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F181" s="27">
-        <v>3391</v>
+        <v>2359</v>
       </c>
       <c r="G181" s="27">
-        <v>3978</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -10079,13 +10096,13 @@
       </c>
       <c r="D182" s="27"/>
       <c r="E182" s="27" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="F182" s="27">
-        <v>3979</v>
+        <v>2359</v>
       </c>
       <c r="G182" s="27">
-        <v>4431</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -10100,13 +10117,13 @@
       </c>
       <c r="D183" s="27"/>
       <c r="E183" s="27" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="F183" s="27">
-        <v>4432</v>
+        <v>3391</v>
       </c>
       <c r="G183" s="27">
-        <v>6303</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -10121,13 +10138,13 @@
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="27" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F184" s="27">
-        <v>6304</v>
+        <v>3979</v>
       </c>
       <c r="G184" s="27">
-        <v>6687</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -10142,13 +10159,13 @@
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F185" s="27">
-        <v>6688</v>
+        <v>4432</v>
       </c>
       <c r="G185" s="27">
-        <v>6762</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -10163,13 +10180,13 @@
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F186" s="27">
-        <v>6763</v>
+        <v>6304</v>
       </c>
       <c r="G186" s="27">
-        <v>7557</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -10184,55 +10201,57 @@
       </c>
       <c r="D187" s="27"/>
       <c r="E187" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="27">
+        <v>6688</v>
+      </c>
+      <c r="G187" s="27">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F188" s="27">
+        <v>6763</v>
+      </c>
+      <c r="G188" s="27">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F187" s="27">
+      <c r="F189" s="27">
         <v>7558</v>
       </c>
-      <c r="G187" s="27">
+      <c r="G189" s="27">
         <v>10050</v>
       </c>
-      <c r="H187" s="25"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>118</v>
-      </c>
-      <c r="B188" t="s">
-        <v>119</v>
-      </c>
-      <c r="C188" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E188" t="s">
-        <v>83</v>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>118</v>
-      </c>
-      <c r="B189" t="s">
-        <v>119</v>
-      </c>
-      <c r="C189" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="E189" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F189" s="27">
-        <v>117</v>
-      </c>
-      <c r="G189" s="27">
-        <v>2543</v>
-      </c>
+      <c r="H189" s="25"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -10244,30 +10263,60 @@
       <c r="C190" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E190" s="27" t="s">
+      <c r="E190" t="s">
+        <v>83</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>118</v>
+      </c>
+      <c r="B191" t="s">
+        <v>119</v>
+      </c>
+      <c r="C191" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E191" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F191" s="27">
+        <v>117</v>
+      </c>
+      <c r="G191" s="27">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>118</v>
+      </c>
+      <c r="B192" t="s">
+        <v>119</v>
+      </c>
+      <c r="C192" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E192" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F190">
-        <f t="shared" ref="F190" si="0">(D190+2824)</f>
+      <c r="F192">
+        <f t="shared" ref="F192" si="0">(D192+2824)</f>
         <v>2824</v>
       </c>
-      <c r="G190" s="27">
+      <c r="G192" s="27">
         <v>5673</v>
       </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B229" s="1"/>
-      <c r="C229" s="5"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B230" s="1"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
@@ -10376,21 +10425,21 @@
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
+      <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
-      <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
@@ -10413,22 +10462,26 @@
       <c r="D260" s="5"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="1"/>
+      <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="943" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E943" s="1"/>
-    </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1079" s="1"/>
-    </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1080" s="1"/>
-    </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1205" s="1"/>
-    </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1206" s="1"/>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" s="1"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D263" s="5"/>
+    </row>
+    <row r="945" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E945" s="1"/>
+    </row>
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1081" s="1"/>
+    </row>
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1082" s="1"/>
     </row>
     <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1207" s="1"/>
@@ -10442,23 +10495,23 @@
     <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1210" s="1"/>
     </row>
-    <row r="1255" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1255" s="1"/>
-      <c r="F1255" s="1"/>
-    </row>
-    <row r="1256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1256" s="1"/>
-      <c r="F1256" s="1"/>
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1211" s="1"/>
+    </row>
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1212" s="1"/>
     </row>
     <row r="1257" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1257" s="1"/>
       <c r="F1257" s="1"/>
     </row>
+    <row r="1258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1258" s="1"/>
+      <c r="F1258" s="1"/>
+    </row>
     <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1259" s="1"/>
-    </row>
-    <row r="1260" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1260" s="1"/>
+      <c r="E1259" s="1"/>
+      <c r="F1259" s="1"/>
     </row>
     <row r="1261" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1261" s="1"/>
@@ -10469,11 +10522,11 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1263" s="1"/>
     </row>
-    <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1282" s="1"/>
-    </row>
-    <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1283" s="1"/>
+    <row r="1264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1264" s="1"/>
+    </row>
+    <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1265" s="1"/>
     </row>
     <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1284" s="1"/>
@@ -10490,12 +10543,12 @@
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1"/>
     </row>
+    <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1289" s="1"/>
+    </row>
     <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1290" s="1"/>
     </row>
-    <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1291" s="1"/>
-    </row>
     <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1292" s="1"/>
     </row>
@@ -10508,11 +10561,11 @@
     <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1295" s="1"/>
     </row>
-    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1347" s="1"/>
-    </row>
-    <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1348" s="1"/>
+    <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1296" s="1"/>
+    </row>
+    <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1297" s="1"/>
     </row>
     <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1349" s="1"/>
@@ -10520,23 +10573,23 @@
     <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1350" s="1"/>
     </row>
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1351" s="1"/>
+    </row>
     <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1352" s="1"/>
     </row>
-    <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1353" s="1"/>
-    </row>
     <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1354" s="1"/>
     </row>
     <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1355" s="1"/>
     </row>
-    <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1390" s="1"/>
-    </row>
-    <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1391" s="1"/>
+    <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1356" s="1"/>
+    </row>
+    <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1357" s="1"/>
     </row>
     <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1392" s="1"/>
@@ -10550,37 +10603,37 @@
     <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1395" s="1"/>
     </row>
-    <row r="1437" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1437" s="1"/>
-      <c r="F1437" s="1"/>
-    </row>
-    <row r="1438" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1438" s="6"/>
-      <c r="E1438" s="1"/>
-      <c r="F1438" s="1"/>
+    <row r="1396" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1396" s="1"/>
+    </row>
+    <row r="1397" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1397" s="1"/>
     </row>
     <row r="1439" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1439" s="6"/>
-      <c r="D1439" s="6"/>
       <c r="E1439" s="1"/>
       <c r="F1439" s="1"/>
     </row>
     <row r="1440" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1440" s="6"/>
-      <c r="D1440" s="6"/>
       <c r="E1440" s="1"/>
       <c r="F1440" s="1"/>
     </row>
-    <row r="1441" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1441" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1441" s="6"/>
       <c r="D1441" s="6"/>
       <c r="E1441" s="1"/>
       <c r="F1441" s="1"/>
     </row>
-    <row r="1504" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1504" s="1"/>
-    </row>
-    <row r="1505" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1505" s="1"/>
+    <row r="1442" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1442" s="6"/>
+      <c r="D1442" s="6"/>
+      <c r="E1442" s="1"/>
+      <c r="F1442" s="1"/>
+    </row>
+    <row r="1443" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1443" s="6"/>
+      <c r="E1443" s="1"/>
+      <c r="F1443" s="1"/>
     </row>
     <row r="1506" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1506" s="1"/>
@@ -10588,10 +10641,16 @@
     <row r="1507" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1507" s="1"/>
     </row>
+    <row r="1508" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1508" s="1"/>
+    </row>
+    <row r="1509" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1509" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1460">
-    <sortCondition ref="C2:C1460"/>
-    <sortCondition ref="D2:D1460"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1462">
+    <sortCondition ref="C2:C1462"/>
+    <sortCondition ref="D2:D1462"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D86BD-6A79-C54C-9F61-C16183D52965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0588F-C9FD-5346-8B26-13832A3807C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23760" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="135">
   <si>
     <t>featureName</t>
   </si>
@@ -403,9 +403,6 @@
     <t>seg3-NS3</t>
   </si>
   <si>
-    <t>seg1-NS5</t>
-  </si>
-  <si>
     <t>REF_Aedes_FV</t>
   </si>
   <si>
@@ -422,13 +419,37 @@
   </si>
   <si>
     <t>precursor_polyprotein2</t>
+  </si>
+  <si>
+    <t>REF_JMTV_Seg1</t>
+  </si>
+  <si>
+    <t>REF_JMTV_Seg3</t>
+  </si>
+  <si>
+    <t>REF_LTNV</t>
+  </si>
+  <si>
+    <t>KY320649</t>
+  </si>
+  <si>
+    <t>dISF1B</t>
+  </si>
+  <si>
+    <t>REF_NHUV</t>
+  </si>
+  <si>
+    <t>dISF1A</t>
+  </si>
+  <si>
+    <t>NC_024017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -491,9 +512,17 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,18 +651,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC66"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF18FFA5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6699"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -641,6 +658,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5FC79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EFA00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -3113,7 +3160,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3142,9 +3189,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3170,9 +3214,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3181,17 +3222,23 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2457">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -5654,6 +5701,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8EFA00"/>
+      <color rgb="FFD5FC79"/>
+      <color rgb="FFFCE2E8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5987,10 +6041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1509"/>
+  <dimension ref="A1:H1513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6028,13 +6082,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -6051,13 +6105,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -6074,13 +6128,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -6097,13 +6151,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -6120,13 +6174,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -6143,13 +6197,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -6166,13 +6220,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -6189,13 +6243,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -6212,13 +6266,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -6235,13 +6289,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -6258,13 +6312,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -6281,13 +6335,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -6304,13 +6358,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -6327,13 +6381,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -6350,13 +6404,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -6373,13 +6427,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -6396,13 +6450,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -6419,13 +6473,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="B19" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -6442,13 +6496,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6465,13 +6519,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -6488,13 +6542,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -6511,3832 +6565,3991 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="26" t="s">
+      <c r="C23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>1</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>10761</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="26" t="s">
+      <c r="C24" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>1</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="C25" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>120</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="25">
         <v>10445</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="26" t="s">
+      <c r="C26" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>10446</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>10761</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="7">
         <v>10320</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="7">
         <v>16</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="7">
         <v>10320</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="7">
         <v>16</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="7">
         <v>2385</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="7">
         <v>16</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="7">
         <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="7">
         <v>382</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="7">
         <v>888</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="7">
         <v>889</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="7">
         <v>2385</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="7">
         <v>2386</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="7">
         <v>3444</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="7">
         <v>3445</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="7">
         <v>4125</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="7">
         <v>4126</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="7">
         <v>4518</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="7">
         <v>4519</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="7">
         <v>6381</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="7">
         <v>6382</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="7">
         <v>6759</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="7">
         <v>6760</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="7">
         <v>6828</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="7">
         <v>6829</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="7">
         <v>7593</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="7">
         <v>7594</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="7">
         <v>10317</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>45</v>
+      <c r="C42" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="7">
         <v>2386</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="7">
         <v>10317</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="7">
+        <v>103</v>
+      </c>
+      <c r="G46" s="7">
+        <v>10440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B47" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="28">
-        <v>1</v>
-      </c>
-      <c r="G43" s="28">
-        <v>10735</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="28">
-        <v>1</v>
-      </c>
-      <c r="G44" s="28">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="27">
-        <v>95</v>
-      </c>
-      <c r="G45" s="27">
-        <v>10273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="27">
-        <v>95</v>
-      </c>
-      <c r="G46" s="27">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>94</v>
+      <c r="E47" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="F47" s="27">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="G47" s="27">
-        <v>436</v>
+        <v>10735</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>71</v>
+      <c r="E48" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="F48" s="27">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="G48" s="27">
-        <v>934</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="26">
         <v>95</v>
       </c>
-      <c r="F49" s="27">
-        <v>935</v>
-      </c>
-      <c r="G49" s="27">
-        <v>2419</v>
+      <c r="G49" s="26">
+        <v>10273</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="27">
-        <v>2420</v>
-      </c>
-      <c r="G50" s="27">
-        <v>10270</v>
+      <c r="E50" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="26">
+        <v>95</v>
+      </c>
+      <c r="G50" s="26">
+        <v>2419</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="27">
-        <v>2420</v>
-      </c>
-      <c r="G51" s="27">
-        <v>3475</v>
+      <c r="E51" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="26">
+        <v>95</v>
+      </c>
+      <c r="G51" s="26">
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" s="27">
-        <v>3476</v>
-      </c>
-      <c r="G52" s="27">
-        <v>4129</v>
+      <c r="E52" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="26">
+        <v>437</v>
+      </c>
+      <c r="G52" s="26">
+        <v>934</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="27">
-        <v>4130</v>
-      </c>
-      <c r="G53" s="27">
-        <v>4519</v>
+      <c r="E53" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="26">
+        <v>935</v>
+      </c>
+      <c r="G53" s="26">
+        <v>2419</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="27">
-        <v>4520</v>
-      </c>
-      <c r="G54" s="27">
-        <v>6376</v>
+      <c r="E54" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="26">
+        <v>2420</v>
+      </c>
+      <c r="G54" s="26">
+        <v>10270</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="27">
-        <v>6377</v>
-      </c>
-      <c r="G55" s="27">
-        <v>6757</v>
+      <c r="E55" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="26">
+        <v>2420</v>
+      </c>
+      <c r="G55" s="26">
+        <v>3475</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="27">
-        <v>6758</v>
-      </c>
-      <c r="G56" s="27">
-        <v>6826</v>
+      <c r="E56" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="26">
+        <v>3476</v>
+      </c>
+      <c r="G56" s="26">
+        <v>4129</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="27">
-        <v>6827</v>
-      </c>
-      <c r="G57" s="27">
-        <v>7573</v>
+      <c r="E57" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="26">
+        <v>4130</v>
+      </c>
+      <c r="G57" s="26">
+        <v>4519</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="27">
-        <v>7574</v>
-      </c>
-      <c r="G58" s="27">
-        <v>10270</v>
+      <c r="E58" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="26">
+        <v>4520</v>
+      </c>
+      <c r="G58" s="26">
+        <v>6376</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="26">
+        <v>6377</v>
+      </c>
+      <c r="G59" s="26">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="26">
+        <v>6758</v>
+      </c>
+      <c r="G60" s="26">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="26">
+        <v>6827</v>
+      </c>
+      <c r="G61" s="26">
+        <v>7573</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="26">
+        <v>7574</v>
+      </c>
+      <c r="G62" s="26">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F63" s="26">
         <v>10274</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G63" s="26">
         <v>10735</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="36" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B64" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="7">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="7">
-        <v>119</v>
-      </c>
-      <c r="G62" s="7">
-        <v>10354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="7">
-        <v>119</v>
-      </c>
-      <c r="G63" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F64" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="G64" s="7">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="36" t="s">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F65" s="7">
-        <v>482</v>
+        <v>1</v>
       </c>
       <c r="G65" s="7">
-        <v>973</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F66" s="7">
-        <v>974</v>
+        <v>119</v>
       </c>
       <c r="G66" s="7">
-        <v>2452</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="7">
-        <v>2453</v>
+        <v>119</v>
       </c>
       <c r="G67" s="7">
-        <v>10351</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="F68" s="7">
-        <v>2453</v>
+        <v>119</v>
       </c>
       <c r="G68" s="7">
-        <v>3508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F69" s="7">
-        <v>3509</v>
+        <v>482</v>
       </c>
       <c r="G69" s="7">
-        <v>4180</v>
+        <v>973</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F70" s="7">
-        <v>4181</v>
+        <v>974</v>
       </c>
       <c r="G70" s="7">
-        <v>4570</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B71" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C71" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="F71" s="7">
-        <v>4571</v>
+        <v>2453</v>
       </c>
       <c r="G71" s="7">
-        <v>6439</v>
+        <v>10351</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="F72" s="7">
-        <v>6440</v>
+        <v>2453</v>
       </c>
       <c r="G72" s="7">
-        <v>6817</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="F73" s="7">
-        <v>6818</v>
+        <v>3509</v>
       </c>
       <c r="G73" s="7">
-        <v>6886</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F74" s="7">
-        <v>6887</v>
+        <v>4181</v>
       </c>
       <c r="G74" s="7">
-        <v>7636</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F75" s="7">
-        <v>7637</v>
+        <v>4571</v>
       </c>
       <c r="G75" s="7">
-        <v>10351</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E76" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="7">
+        <v>6440</v>
+      </c>
+      <c r="G76" s="7">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="7">
+        <v>6818</v>
+      </c>
+      <c r="G77" s="7">
+        <v>6886</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="7">
+        <v>6887</v>
+      </c>
+      <c r="G78" s="7">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="7">
+        <v>7637</v>
+      </c>
+      <c r="G79" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F80" s="7">
         <v>10355</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G80" s="7">
         <v>10862</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="37" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B81" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="23" t="s">
+      <c r="C81" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E81" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F81" s="26">
         <v>1</v>
       </c>
-      <c r="G77" s="27">
+      <c r="G81" s="26">
         <v>10116</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="37" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B82" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="23" t="s">
+      <c r="C82" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E82" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F78" s="27">
+      <c r="F82" s="26">
         <v>1</v>
       </c>
-      <c r="G78" s="27">
+      <c r="G82" s="26">
         <v>10116</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="37" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="B83" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="23" t="s">
+      <c r="C83" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E83" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F83" s="26">
         <v>1</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G83" s="26">
         <v>2268</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="37" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B84" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="23" t="s">
+      <c r="C84" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E84" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F84" s="26">
         <v>1</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G84" s="26">
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="37" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B85" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="23" t="s">
+      <c r="C85" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E85" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F85" s="26">
         <v>331</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G85" s="26">
         <v>813</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="37" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B86" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="23" t="s">
+      <c r="C86" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E86" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F86" s="26">
         <v>589</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G86" s="26">
         <v>813</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="37" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B87" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="23" t="s">
+      <c r="C87" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E87" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F87" s="26">
         <v>814</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G87" s="26">
         <v>2268</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="37" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B88" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="23" t="s">
+      <c r="C88" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E88" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="27">
+      <c r="F88" s="26">
         <v>2269</v>
       </c>
-      <c r="G84" s="27">
+      <c r="G88" s="26">
         <v>3327</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="37" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B89" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="23" t="s">
+      <c r="C89" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E89" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F89" s="26">
         <v>3328</v>
       </c>
-      <c r="G85" s="27">
+      <c r="G89" s="26">
         <v>4002</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="37" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B90" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="23" t="s">
+      <c r="C90" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E90" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F90" s="26">
         <v>4003</v>
       </c>
-      <c r="G86" s="27">
+      <c r="G90" s="26">
         <v>4392</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="37" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B91" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="23" t="s">
+      <c r="C91" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E91" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F91" s="26">
         <v>4393</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G91" s="26">
         <v>6240</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="37" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B92" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="23" t="s">
+      <c r="C92" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E92" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F92" s="26">
         <v>6241</v>
       </c>
-      <c r="G88" s="27">
+      <c r="G92" s="26">
         <v>6597</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="37" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B93" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="23" t="s">
+      <c r="C93" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E93" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F93" s="26">
         <v>6598</v>
       </c>
-      <c r="G89" s="27">
+      <c r="G93" s="26">
         <v>6666</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="37" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B94" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="23" t="s">
+      <c r="C94" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E94" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F94" s="26">
         <v>6667</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G94" s="26">
         <v>7422</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="37" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B95" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="23" t="s">
+      <c r="C95" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E95" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F95" s="26">
         <v>7423</v>
       </c>
-      <c r="G91" s="27">
+      <c r="G95" s="26">
         <v>10113</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="37" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B96" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="23" t="s">
+      <c r="C96" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E96" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="27">
+      <c r="F96" s="26">
         <v>2269</v>
       </c>
-      <c r="G92" s="27">
+      <c r="G96" s="26">
         <v>10116</v>
       </c>
-      <c r="H92" s="27"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="37" t="s">
+      <c r="H96" s="26"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B97" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="47" t="s">
+      <c r="C97" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E93" s="27" t="s">
+      <c r="E97" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F97" s="7">
         <v>1</v>
       </c>
-      <c r="G93" s="27">
+      <c r="G97" s="7">
         <v>10242</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="37" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B98" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C94" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="47" t="s">
+      <c r="C98" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="E98" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="27">
+      <c r="F98" s="7">
         <v>1</v>
       </c>
-      <c r="G94" s="27">
+      <c r="G98" s="7">
         <v>10242</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="44" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B99" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="24" t="s">
+      <c r="C99" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E99" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F95" s="27">
+      <c r="F99" s="26">
         <v>1</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G99" s="26">
         <v>11434</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="44" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B100" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="24" t="s">
+      <c r="C100" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E100" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="26">
+        <v>97</v>
+      </c>
+      <c r="G100" s="26">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F96" s="27">
-        <v>97</v>
-      </c>
-      <c r="G96" s="27">
-        <v>4197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F97" s="27">
+      <c r="F101" s="26">
         <v>4359</v>
       </c>
-      <c r="G97" s="27">
+      <c r="G101" s="26">
         <v>10976</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="36" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="36" t="s">
+      <c r="B102" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F98" s="27">
-        <v>1</v>
-      </c>
-      <c r="G98" s="27">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="27">
-        <v>1</v>
-      </c>
-      <c r="G99" s="27">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F100" s="27">
-        <v>112</v>
-      </c>
-      <c r="G100" s="27">
-        <v>10359</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F101" s="27">
-        <v>112</v>
-      </c>
-      <c r="G101" s="27">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F102" s="27">
-        <v>112</v>
-      </c>
-      <c r="G102" s="27">
-        <v>441</v>
+      <c r="E102" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="7">
+        <v>10839</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="36" t="s">
+      <c r="A103" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E103" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F103" s="27">
-        <v>442</v>
-      </c>
-      <c r="G103" s="27">
-        <v>945</v>
+      <c r="E103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="7">
+        <v>1</v>
+      </c>
+      <c r="G103" s="7">
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="36" t="s">
+      <c r="A104" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="36" t="s">
+      <c r="B104" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F104" s="27">
-        <v>946</v>
-      </c>
-      <c r="G104" s="27">
-        <v>2436</v>
+      <c r="E104" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F104" s="7">
+        <v>112</v>
+      </c>
+      <c r="G104" s="7">
+        <v>10359</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="36" t="s">
+      <c r="A105" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E105" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F105" s="27">
-        <v>2437</v>
-      </c>
-      <c r="G105" s="27">
-        <v>10356</v>
+      <c r="E105" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" s="7">
+        <v>112</v>
+      </c>
+      <c r="G105" s="7">
+        <v>2436</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="36" t="s">
+      <c r="A106" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E106" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="27">
-        <v>2437</v>
-      </c>
-      <c r="G106" s="27">
-        <v>3495</v>
+      <c r="E106" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106" s="7">
+        <v>112</v>
+      </c>
+      <c r="G106" s="7">
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E107" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F107" s="27">
-        <v>3496</v>
-      </c>
-      <c r="G107" s="27">
-        <v>4185</v>
+      <c r="E107" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F107" s="7">
+        <v>442</v>
+      </c>
+      <c r="G107" s="7">
+        <v>945</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="36" t="s">
+      <c r="A108" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B108" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F108" s="27">
-        <v>4186</v>
-      </c>
-      <c r="G108" s="27">
-        <v>4578</v>
+      <c r="E108" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="7">
+        <v>946</v>
+      </c>
+      <c r="G108" s="7">
+        <v>2436</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="36" t="s">
+      <c r="A109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="36" t="s">
+      <c r="B109" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E109" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="27">
-        <v>4579</v>
-      </c>
-      <c r="G109" s="27">
-        <v>6444</v>
+      <c r="E109" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="7">
+        <v>2437</v>
+      </c>
+      <c r="G109" s="7">
+        <v>10356</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E110" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F110" s="27">
-        <v>6445</v>
-      </c>
-      <c r="G110" s="27">
-        <v>6822</v>
+      <c r="E110" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="7">
+        <v>2437</v>
+      </c>
+      <c r="G110" s="7">
+        <v>3495</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="36" t="s">
+      <c r="A111" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B111" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E111" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="27">
-        <v>6823</v>
-      </c>
-      <c r="G111" s="27">
-        <v>6891</v>
+      <c r="E111" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F111" s="7">
+        <v>3496</v>
+      </c>
+      <c r="G111" s="7">
+        <v>4185</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F112" s="27">
-        <v>6892</v>
-      </c>
-      <c r="G112" s="27">
-        <v>7647</v>
+      <c r="E112" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F112" s="7">
+        <v>4186</v>
+      </c>
+      <c r="G112" s="7">
+        <v>4578</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="36" t="s">
+      <c r="A113" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="27">
-        <v>7648</v>
-      </c>
-      <c r="G113" s="27">
-        <v>10356</v>
+      <c r="E113" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="7">
+        <v>4579</v>
+      </c>
+      <c r="G113" s="7">
+        <v>6444</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B114" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E114" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F114" s="7">
+        <v>6445</v>
+      </c>
+      <c r="G114" s="7">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="7">
+        <v>6823</v>
+      </c>
+      <c r="G115" s="7">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F116" s="7">
+        <v>6892</v>
+      </c>
+      <c r="G116" s="7">
+        <v>7647</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="7">
+        <v>7648</v>
+      </c>
+      <c r="G117" s="7">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="27">
+      <c r="F118" s="7">
         <v>10357</v>
       </c>
-      <c r="G114" s="27">
+      <c r="G118" s="7">
         <v>10839</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="31" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B119" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C119" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="40" t="s">
+      <c r="D119" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E119" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F115" s="27">
+      <c r="F119" s="26">
         <v>1</v>
       </c>
-      <c r="G115" s="27">
+      <c r="G119" s="26">
         <v>9646</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="31" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C116" s="31" t="s">
+      <c r="C120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="40" t="s">
+      <c r="D120" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="E120" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="27">
+      <c r="F120" s="26">
         <v>1</v>
       </c>
-      <c r="G116" s="27">
+      <c r="G120" s="26">
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="31" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B121" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C117" s="31" t="s">
+      <c r="C121" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="D121" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E117" s="27" t="s">
+      <c r="E121" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F117" s="27">
+      <c r="F121" s="26">
         <v>342</v>
       </c>
-      <c r="G117" s="27">
+      <c r="G121" s="26">
         <v>9377</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="31" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B122" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C122" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="D122" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E122" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F122" s="26">
         <v>342</v>
       </c>
-      <c r="G118" s="27">
+      <c r="G122" s="26">
         <v>2579</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="31" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B123" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C123" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="40" t="s">
+      <c r="D123" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E119" s="27" t="s">
+      <c r="E123" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F119" s="27">
+      <c r="F123" s="26">
         <v>342</v>
       </c>
-      <c r="G119" s="27">
+      <c r="G123" s="26">
         <v>914</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="31" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B124" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C124" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D120" s="40" t="s">
+      <c r="D124" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E120" s="27" t="s">
+      <c r="E124" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F120" s="27">
+      <c r="F124" s="26">
         <v>915</v>
       </c>
-      <c r="G120" s="27">
+      <c r="G124" s="26">
         <v>1490</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="31" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B125" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="C125" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D121" s="40" t="s">
+      <c r="D125" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E121" s="27" t="s">
+      <c r="E125" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F121" s="27">
+      <c r="F125" s="26">
         <v>1491</v>
       </c>
-      <c r="G121" s="27">
+      <c r="G125" s="26">
         <v>2579</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="31" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B126" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C122" s="31" t="s">
+      <c r="C126" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D122" s="40" t="s">
+      <c r="D126" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E122" s="27" t="s">
+      <c r="E126" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F122" s="27">
+      <c r="F126" s="26">
         <v>2580</v>
       </c>
-      <c r="G122" s="27">
+      <c r="G126" s="26">
         <v>9374</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="31" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B127" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C127" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="40" t="s">
+      <c r="D127" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E127" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F123" s="27">
+      <c r="F127" s="26">
         <v>2580</v>
       </c>
-      <c r="G123" s="27">
+      <c r="G127" s="26">
         <v>2768</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="31" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C128" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D124" s="40" t="s">
+      <c r="D128" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E128" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F124" s="27">
+      <c r="F128" s="26">
         <v>2769</v>
       </c>
-      <c r="G124" s="27">
+      <c r="G128" s="26">
         <v>3419</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="31" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B129" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C129" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="D129" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E125" s="27" t="s">
+      <c r="E129" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F129" s="26">
         <v>3420</v>
       </c>
-      <c r="G125" s="27">
+      <c r="G129" s="26">
         <v>5312</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="31" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B130" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C126" s="31" t="s">
+      <c r="C130" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D126" s="40" t="s">
+      <c r="D130" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="E130" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F126" s="27">
+      <c r="F130" s="26">
         <v>5313</v>
       </c>
-      <c r="G126" s="27">
+      <c r="G130" s="26">
         <v>5474</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="31" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B131" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C131" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="40" t="s">
+      <c r="D131" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E131" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F127" s="27">
+      <c r="F131" s="26">
         <v>5475</v>
       </c>
-      <c r="G127" s="27">
+      <c r="G131" s="26">
         <v>6257</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="31" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B132" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C132" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D132" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E128" s="27" t="s">
+      <c r="E132" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="27">
+      <c r="F132" s="26">
         <v>6258</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G132" s="26">
         <v>9374</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="31" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B133" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C129" s="31" t="s">
+      <c r="C133" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="40" t="s">
+      <c r="D133" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E129" s="27" t="s">
+      <c r="E133" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F129" s="27">
+      <c r="F133" s="26">
         <v>6258</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G133" s="26">
         <v>7601</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="31" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B130" s="31" t="s">
+      <c r="B134" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C130" s="31" t="s">
+      <c r="C134" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D130" s="40" t="s">
+      <c r="D134" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E130" s="27" t="s">
+      <c r="E134" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F134" s="26">
         <v>7602</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G134" s="26">
         <v>9374</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="31" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B135" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C135" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D131" s="40" t="s">
+      <c r="D135" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E131" s="27" t="s">
+      <c r="E135" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="27">
+      <c r="F135" s="26">
         <v>9378</v>
       </c>
-      <c r="G131" s="27">
+      <c r="G135" s="26">
         <v>9646</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="35" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B132" s="35" t="s">
+      <c r="B136" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C136" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D132"/>
-      <c r="E132" s="27" t="s">
+      <c r="D136"/>
+      <c r="E136" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F132" s="27">
+      <c r="F136" s="26">
         <v>1</v>
       </c>
-      <c r="G132" s="27">
+      <c r="G136" s="26">
         <v>9867</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="35" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B137" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C137" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D133"/>
-      <c r="E133" s="27" t="s">
+      <c r="D137"/>
+      <c r="E137" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F133" s="27">
+      <c r="F137" s="26">
         <v>1</v>
       </c>
-      <c r="G133" s="27">
+      <c r="G137" s="26">
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="35" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B138" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C138" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D134"/>
-      <c r="E134" s="27" t="s">
+      <c r="D138"/>
+      <c r="E138" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F134" s="27">
+      <c r="F138" s="26">
         <v>328</v>
       </c>
-      <c r="G134" s="27">
+      <c r="G138" s="26">
         <v>9501</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="35" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B139" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="35" t="s">
+      <c r="C139" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D135"/>
-      <c r="E135" s="27" t="s">
+      <c r="D139"/>
+      <c r="E139" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F135" s="27">
+      <c r="F139" s="26">
         <v>328</v>
       </c>
-      <c r="G135" s="27">
+      <c r="G139" s="26">
         <v>2199</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="35" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B140" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C136" s="35" t="s">
+      <c r="C140" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D136"/>
-      <c r="E136" s="27" t="s">
+      <c r="D140"/>
+      <c r="E140" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F136" s="27">
+      <c r="F140" s="26">
         <v>328</v>
       </c>
-      <c r="G136" s="27">
+      <c r="G140" s="26">
         <v>564</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="35" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B141" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C137" s="35" t="s">
+      <c r="C141" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D137"/>
-      <c r="E137" s="27" t="s">
+      <c r="D141"/>
+      <c r="E141" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F137" s="27">
+      <c r="F141" s="26">
         <v>565</v>
       </c>
-      <c r="G137" s="27">
+      <c r="G141" s="26">
         <v>1137</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="35" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B138" s="35" t="s">
+      <c r="B142" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C138" s="35" t="s">
+      <c r="C142" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D138"/>
-      <c r="E138" s="27" t="s">
+      <c r="D142"/>
+      <c r="E142" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F138" s="27">
+      <c r="F142" s="26">
         <v>1138</v>
       </c>
-      <c r="G138" s="27">
+      <c r="G142" s="26">
         <v>2199</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="35" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B139" s="35" t="s">
+      <c r="B143" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C139" s="35" t="s">
+      <c r="C143" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D139"/>
-      <c r="E139" s="27" t="s">
+      <c r="D143"/>
+      <c r="E143" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F139" s="27">
+      <c r="F143" s="26">
         <v>2200</v>
       </c>
-      <c r="G139" s="27">
+      <c r="G143" s="26">
         <v>2910</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="35" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B140" s="35" t="s">
+      <c r="B144" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C140" s="35" t="s">
+      <c r="C144" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D140"/>
-      <c r="E140" s="27" t="s">
+      <c r="D144"/>
+      <c r="E144" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F140" s="27">
+      <c r="F144" s="26">
         <v>2911</v>
       </c>
-      <c r="G140" s="27">
+      <c r="G144" s="26">
         <v>9498</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="35" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B141" s="35" t="s">
+      <c r="B145" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C141" s="35" t="s">
+      <c r="C145" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D141"/>
-      <c r="E141" s="27" t="s">
+      <c r="D145"/>
+      <c r="E145" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F141" s="27">
+      <c r="F145" s="26">
         <v>2911</v>
       </c>
-      <c r="G141" s="27">
+      <c r="G145" s="26">
         <v>3630</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="35" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B146" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C142" s="35" t="s">
+      <c r="C146" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D142"/>
-      <c r="E142" s="27" t="s">
+      <c r="D146"/>
+      <c r="E146" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="27">
+      <c r="F146" s="26">
         <v>3631</v>
       </c>
-      <c r="G142" s="27">
+      <c r="G146" s="26">
         <v>5514</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="35" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B147" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C143" s="35" t="s">
+      <c r="C147" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D143"/>
-      <c r="E143" s="27" t="s">
+      <c r="D147"/>
+      <c r="E147" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F143" s="27">
+      <c r="F147" s="26">
         <v>5515</v>
       </c>
-      <c r="G143" s="27">
+      <c r="G147" s="26">
         <v>5637</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="35" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B148" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C144" s="35" t="s">
+      <c r="C148" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D144"/>
-      <c r="E144" s="27" t="s">
+      <c r="D148"/>
+      <c r="E148" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F144" s="27">
+      <c r="F148" s="26">
         <v>5638</v>
       </c>
-      <c r="G144" s="27">
+      <c r="G148" s="26">
         <v>6423</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="35" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B149" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C149" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D145"/>
-      <c r="E145" s="27" t="s">
+      <c r="D149"/>
+      <c r="E149" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="27">
+      <c r="F149" s="26">
         <v>6424</v>
       </c>
-      <c r="G145" s="27">
+      <c r="G149" s="26">
         <v>9498</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="35" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B146" s="35" t="s">
+      <c r="B150" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C146" s="35" t="s">
+      <c r="C150" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D146"/>
-      <c r="E146" s="27" t="s">
+      <c r="D150"/>
+      <c r="E150" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F146" s="27">
+      <c r="F150" s="26">
         <v>6424</v>
       </c>
-      <c r="G146" s="27">
+      <c r="G150" s="26">
         <v>7797</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="35" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B151" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C147" s="35" t="s">
+      <c r="C151" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D147"/>
-      <c r="E147" s="27" t="s">
+      <c r="D151"/>
+      <c r="E151" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F147" s="27">
+      <c r="F151" s="26">
         <v>7798</v>
       </c>
-      <c r="G147" s="27">
+      <c r="G151" s="26">
         <v>9498</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="35" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="35" t="s">
+      <c r="B152" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C148" s="35" t="s">
+      <c r="C152" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D148"/>
-      <c r="E148" s="27" t="s">
+      <c r="D152"/>
+      <c r="E152" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F148" s="27">
+      <c r="F152" s="26">
         <v>9502</v>
       </c>
-      <c r="G148" s="27">
+      <c r="G152" s="26">
         <v>9867</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>54</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B153" t="s">
         <v>63</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C153" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="D153" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E149" s="27" t="s">
+      <c r="E153" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F149" s="27">
+      <c r="F153" s="26">
         <v>1</v>
       </c>
-      <c r="G149" s="27">
+      <c r="G153" s="26">
         <v>19199</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>54</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B154" t="s">
         <v>63</v>
       </c>
-      <c r="C150" s="16" t="s">
+      <c r="C154" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D150" s="22" t="s">
+      <c r="D154" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E150" s="27" t="s">
+      <c r="E154" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F150" s="27">
+      <c r="F154" s="26">
         <v>1</v>
       </c>
-      <c r="G150" s="27">
+      <c r="G154" s="26">
         <v>350</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>54</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B155" t="s">
         <v>63</v>
       </c>
-      <c r="C151" s="16" t="s">
+      <c r="C155" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D151" s="22" t="s">
+      <c r="D155" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E151" s="27" t="s">
+      <c r="E155" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F151" s="27">
+      <c r="F155" s="26">
         <v>351</v>
       </c>
-      <c r="G151" s="27">
+      <c r="G155" s="26">
         <v>18068</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>54</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B156" t="s">
         <v>63</v>
       </c>
-      <c r="C152" s="16" t="s">
+      <c r="C156" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="D156" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E152" s="27" t="s">
+      <c r="E156" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F152" s="27">
+      <c r="F156" s="26">
         <v>18069</v>
       </c>
-      <c r="G152" s="27">
+      <c r="G156" s="26">
         <v>19199</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="32" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B157" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="C157" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D153" s="27" t="s">
+      <c r="D157" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E153" s="27" t="s">
+      <c r="E157" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F153" s="27">
+      <c r="F157" s="26">
         <v>1</v>
       </c>
-      <c r="G153" s="27">
+      <c r="G157" s="26">
         <v>18554</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="34" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B158" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C154" s="33" t="s">
+      <c r="C158" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D154" s="27" t="s">
+      <c r="D158" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E154" s="27" t="s">
+      <c r="E158" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F154" s="27">
+      <c r="F158" s="26">
         <v>1</v>
       </c>
-      <c r="G154" s="27">
+      <c r="G158" s="26">
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="34" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B159" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C155" s="33" t="s">
+      <c r="C159" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D155" s="27" t="s">
+      <c r="D159" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E155" s="27" t="s">
+      <c r="E159" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F155" s="27">
+      <c r="F159" s="26">
         <v>200</v>
       </c>
-      <c r="G155" s="27">
+      <c r="G159" s="26">
         <v>17905</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="34" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="B160" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C156" s="33" t="s">
+      <c r="C160" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D156" s="27" t="s">
+      <c r="D160" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E156" s="27" t="s">
+      <c r="E160" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F156" s="27">
+      <c r="F160" s="26">
         <v>17906</v>
       </c>
-      <c r="G156" s="27">
+      <c r="G160" s="26">
         <v>18554</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="30" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B161" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C157" s="30" t="s">
+      <c r="C161" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27" t="s">
+      <c r="D161" s="26"/>
+      <c r="E161" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F157" s="27">
+      <c r="F161" s="26">
         <v>1</v>
       </c>
-      <c r="G157" s="27">
+      <c r="G161" s="26">
         <v>12573</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="30" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B162" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="C162" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27" t="s">
+      <c r="D162" s="26"/>
+      <c r="E162" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F158" s="27">
+      <c r="F162" s="26">
         <v>1</v>
       </c>
-      <c r="G158" s="27">
+      <c r="G162" s="26">
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="30" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B163" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C159" s="30" t="s">
+      <c r="C163" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27" t="s">
+      <c r="D163" s="26"/>
+      <c r="E163" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F159" s="27">
+      <c r="F163" s="26">
         <v>386</v>
       </c>
-      <c r="G159" s="27">
+      <c r="G163" s="26">
         <v>12352</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="30" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B164" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C160" s="30" t="s">
+      <c r="C164" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27" t="s">
+      <c r="D164" s="26"/>
+      <c r="E164" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F160" s="27">
+      <c r="F164" s="26">
         <v>386</v>
       </c>
-      <c r="G160" s="27">
+      <c r="G164" s="26">
         <v>3583</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="30" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B165" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="C165" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27" t="s">
+      <c r="D165" s="26"/>
+      <c r="E165" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F161" s="27">
+      <c r="F165" s="26">
         <v>386</v>
       </c>
-      <c r="G161" s="27">
+      <c r="G165" s="26">
         <v>889</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="30" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B166" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="C166" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27" t="s">
+      <c r="D166" s="26"/>
+      <c r="E166" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F162" s="27">
+      <c r="F166" s="26">
         <v>890</v>
       </c>
-      <c r="G162" s="27">
+      <c r="G166" s="26">
         <v>1195</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="30" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B167" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C163" s="30" t="s">
+      <c r="C167" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27" t="s">
+      <c r="D167" s="26"/>
+      <c r="E167" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F163" s="27">
+      <c r="F167" s="26">
         <v>1196</v>
       </c>
-      <c r="G163" s="27">
+      <c r="G167" s="26">
         <v>1876</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="30" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B168" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C164" s="30" t="s">
+      <c r="C168" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27" t="s">
+      <c r="D168" s="26"/>
+      <c r="E168" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F164" s="27">
+      <c r="F168" s="26">
         <v>1877</v>
       </c>
-      <c r="G164" s="27">
+      <c r="G168" s="26">
         <v>2461</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="30" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B169" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C165" s="30" t="s">
+      <c r="C169" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27" t="s">
+      <c r="D169" s="26"/>
+      <c r="E169" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F165" s="27">
+      <c r="F169" s="26">
         <v>2462</v>
       </c>
-      <c r="G165" s="27">
+      <c r="G169" s="26">
         <v>3583</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="30" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B170" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C166" s="30" t="s">
+      <c r="C170" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27" t="s">
+      <c r="D170" s="26"/>
+      <c r="E170" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F166" s="27">
+      <c r="F170" s="26">
         <v>3584</v>
       </c>
-      <c r="G166" s="27">
+      <c r="G170" s="26">
         <v>3793</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="30" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B171" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C167" s="30" t="s">
+      <c r="C171" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27" t="s">
+      <c r="D171" s="26"/>
+      <c r="E171" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F167" s="27">
+      <c r="F171" s="26">
         <v>3794</v>
       </c>
-      <c r="G167" s="27">
+      <c r="G171" s="26">
         <v>7471</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="30" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B172" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C168" s="30" t="s">
+      <c r="C172" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27" t="s">
+      <c r="D172" s="26"/>
+      <c r="E172" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F168" s="27">
+      <c r="F172" s="26">
         <v>7472</v>
       </c>
-      <c r="G168" s="27">
+      <c r="G172" s="26">
         <v>7663</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="30" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B173" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C169" s="30" t="s">
+      <c r="C173" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27" t="s">
+      <c r="D173" s="26"/>
+      <c r="E173" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F169" s="27">
+      <c r="F173" s="26">
         <v>7664</v>
       </c>
-      <c r="G169" s="27">
+      <c r="G173" s="26">
         <v>8704</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="30" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B174" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C170" s="30" t="s">
+      <c r="C174" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27" t="s">
+      <c r="D174" s="26"/>
+      <c r="E174" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F170" s="27">
+      <c r="F174" s="26">
         <v>8705</v>
       </c>
-      <c r="G170" s="27">
+      <c r="G174" s="26">
         <v>12349</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="30" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B175" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C171" s="30" t="s">
+      <c r="C175" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27" t="s">
+      <c r="D175" s="26"/>
+      <c r="E175" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F171" s="27">
+      <c r="F175" s="26">
         <v>8705</v>
       </c>
-      <c r="G171" s="27">
+      <c r="G175" s="26">
         <v>10192</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="30" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B176" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C172" s="30" t="s">
+      <c r="C176" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27" t="s">
+      <c r="D176" s="26"/>
+      <c r="E176" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F172" s="27">
+      <c r="F176" s="26">
         <v>10193</v>
       </c>
-      <c r="G172" s="27">
+      <c r="G176" s="26">
         <v>12349</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="30" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B177" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C173" s="30" t="s">
+      <c r="C177" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27" t="s">
+      <c r="D177" s="26"/>
+      <c r="E177" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F173" s="27">
+      <c r="F177" s="26">
         <v>12360</v>
       </c>
-      <c r="G173" s="27">
+      <c r="G177" s="26">
         <v>12573</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="27" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B178" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C178" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27" t="s">
+      <c r="D178" s="26"/>
+      <c r="E178" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F174" s="27">
+      <c r="F178" s="26">
         <v>1</v>
       </c>
-      <c r="G174" s="27">
+      <c r="G178" s="26">
         <v>10053</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="27" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="B179" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C175" s="27" t="s">
+      <c r="C179" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27" t="s">
+      <c r="D179" s="26"/>
+      <c r="E179" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F175" s="27">
+      <c r="F179" s="26">
         <v>1</v>
       </c>
-      <c r="G175" s="27">
+      <c r="G179" s="26">
         <v>10053</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="27" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B180" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C180" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27" t="s">
+      <c r="D180" s="26"/>
+      <c r="E180" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F176" s="27">
+      <c r="F180" s="26">
         <v>1</v>
       </c>
-      <c r="G176" s="27">
+      <c r="G180" s="26">
         <v>2358</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="27" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="B181" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C181" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27" t="s">
+      <c r="D181" s="26"/>
+      <c r="E181" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F177" s="27">
+      <c r="F181" s="26">
         <v>1</v>
       </c>
-      <c r="G177" s="27">
+      <c r="G181" s="26">
         <v>345</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="27" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="B182" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C178" s="27" t="s">
+      <c r="C182" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27" t="s">
+      <c r="D182" s="26"/>
+      <c r="E182" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F178" s="27">
+      <c r="F182" s="26">
         <v>346</v>
       </c>
-      <c r="G178" s="27">
+      <c r="G182" s="26">
         <v>852</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="27" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B183" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C183" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27" t="s">
+      <c r="D183" s="26"/>
+      <c r="E183" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F179" s="27">
+      <c r="F183" s="26">
         <v>655</v>
       </c>
-      <c r="G179" s="27">
+      <c r="G183" s="26">
         <v>852</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="27" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B184" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C184" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27" t="s">
+      <c r="D184" s="26"/>
+      <c r="E184" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F180" s="27">
+      <c r="F184" s="26">
         <v>853</v>
       </c>
-      <c r="G180" s="27">
+      <c r="G184" s="26">
         <v>2358</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="27" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B185" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C185" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27" t="s">
+      <c r="D185" s="26"/>
+      <c r="E185" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F181" s="27">
+      <c r="F185" s="26">
         <v>2359</v>
       </c>
-      <c r="G181" s="27">
+      <c r="G185" s="26">
         <v>10050</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="27" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B186" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C182" s="27" t="s">
+      <c r="C186" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27" t="s">
+      <c r="D186" s="26"/>
+      <c r="E186" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F182" s="27">
+      <c r="F186" s="26">
         <v>2359</v>
       </c>
-      <c r="G182" s="27">
+      <c r="G186" s="26">
         <v>3390</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="27" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B183" s="27" t="s">
+      <c r="B187" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C183" s="27" t="s">
+      <c r="C187" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27" t="s">
+      <c r="D187" s="26"/>
+      <c r="E187" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F183" s="27">
+      <c r="F187" s="26">
         <v>3391</v>
       </c>
-      <c r="G183" s="27">
+      <c r="G187" s="26">
         <v>3978</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="27" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B188" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C188" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27" t="s">
+      <c r="D188" s="26"/>
+      <c r="E188" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F184" s="27">
+      <c r="F188" s="26">
         <v>3979</v>
       </c>
-      <c r="G184" s="27">
+      <c r="G188" s="26">
         <v>4431</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="27" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B189" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C185" s="27" t="s">
+      <c r="C189" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27" t="s">
+      <c r="D189" s="26"/>
+      <c r="E189" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F185" s="27">
+      <c r="F189" s="26">
         <v>4432</v>
       </c>
-      <c r="G185" s="27">
+      <c r="G189" s="26">
         <v>6303</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="27" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B190" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C186" s="27" t="s">
+      <c r="C190" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27" t="s">
+      <c r="D190" s="26"/>
+      <c r="E190" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F186" s="27">
+      <c r="F190" s="26">
         <v>6304</v>
       </c>
-      <c r="G186" s="27">
+      <c r="G190" s="26">
         <v>6687</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="27" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B191" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="C191" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27" t="s">
+      <c r="D191" s="26"/>
+      <c r="E191" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F187" s="27">
+      <c r="F191" s="26">
         <v>6688</v>
       </c>
-      <c r="G187" s="27">
+      <c r="G191" s="26">
         <v>6762</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="27" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="B192" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C188" s="27" t="s">
+      <c r="C192" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27" t="s">
+      <c r="D192" s="26"/>
+      <c r="E192" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F188" s="27">
+      <c r="F192" s="26">
         <v>6763</v>
       </c>
-      <c r="G188" s="27">
+      <c r="G192" s="26">
         <v>7557</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="27" t="s">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B189" s="27" t="s">
+      <c r="B193" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C193" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27" t="s">
+      <c r="D193" s="26"/>
+      <c r="E193" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F189" s="27">
+      <c r="F193" s="26">
         <v>7558</v>
       </c>
-      <c r="G189" s="27">
+      <c r="G193" s="26">
         <v>10050</v>
       </c>
-      <c r="H189" s="25"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="H193" s="24"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B194" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C190" s="46" t="s">
+      <c r="C194" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E190" t="s">
+      <c r="D194" s="26"/>
+      <c r="E194" t="s">
         <v>83</v>
       </c>
-      <c r="F190">
+      <c r="F194">
         <v>1</v>
       </c>
-      <c r="G190">
+      <c r="G194">
         <v>5938</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B195" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C191" s="46" t="s">
+      <c r="C195" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E191" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="F191" s="27">
+      <c r="D195" s="26"/>
+      <c r="E195" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="26">
         <v>117</v>
       </c>
-      <c r="G191" s="27">
+      <c r="G195" s="26">
         <v>2543</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B196" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C192" s="46" t="s">
+      <c r="C196" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E192" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F192">
-        <f t="shared" ref="F192" si="0">(D192+2824)</f>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196">
+        <f t="shared" ref="F196" si="0">(D196+2824)</f>
         <v>2824</v>
       </c>
-      <c r="G192" s="27">
+      <c r="G196" s="26">
         <v>5673</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B231" s="1"/>
-      <c r="C231" s="5"/>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B232" s="1"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B233" s="1"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B234" s="1"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D197" s="26"/>
+      <c r="E197" t="s">
+        <v>83</v>
+      </c>
+      <c r="F197" s="26">
+        <v>1</v>
+      </c>
+      <c r="G197" s="26">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198">
+        <v>105</v>
+      </c>
+      <c r="G198">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D199" s="26"/>
+      <c r="E199" t="s">
+        <v>83</v>
+      </c>
+      <c r="F199" s="26">
+        <v>1</v>
+      </c>
+      <c r="G199" s="26">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200">
+        <v>117</v>
+      </c>
+      <c r="G200">
+        <v>2543</v>
+      </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
@@ -10435,11 +10648,13 @@
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
+      <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
@@ -10453,13 +10668,11 @@
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
-      <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
       <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
@@ -10472,28 +10685,36 @@
       <c r="D262" s="5"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" s="1"/>
+      <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="945" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E945" s="1"/>
-    </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1081" s="1"/>
-    </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1082" s="1"/>
-    </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1207" s="1"/>
-    </row>
-    <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1208" s="1"/>
-    </row>
-    <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1209" s="1"/>
-    </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1210" s="1"/>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B264" s="1"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="1"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B266" s="1"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D267" s="5"/>
+    </row>
+    <row r="949" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E949" s="1"/>
+    </row>
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1085" s="1"/>
+    </row>
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1086" s="1"/>
     </row>
     <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1211" s="1"/>
@@ -10501,44 +10722,44 @@
     <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1212" s="1"/>
     </row>
-    <row r="1257" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1257" s="1"/>
-      <c r="F1257" s="1"/>
-    </row>
-    <row r="1258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1258" s="1"/>
-      <c r="F1258" s="1"/>
-    </row>
-    <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1259" s="1"/>
-      <c r="F1259" s="1"/>
-    </row>
-    <row r="1261" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1261" s="1"/>
-    </row>
-    <row r="1262" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1262" s="1"/>
-    </row>
-    <row r="1263" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1263" s="1"/>
-    </row>
-    <row r="1264" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1264" s="1"/>
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1213" s="1"/>
+    </row>
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1214" s="1"/>
+    </row>
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1215" s="1"/>
+    </row>
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1216" s="1"/>
+    </row>
+    <row r="1261" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E1261" s="1"/>
+      <c r="F1261" s="1"/>
+    </row>
+    <row r="1262" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E1262" s="1"/>
+      <c r="F1262" s="1"/>
+    </row>
+    <row r="1263" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E1263" s="1"/>
+      <c r="F1263" s="1"/>
     </row>
     <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1265" s="1"/>
     </row>
-    <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1284" s="1"/>
-    </row>
-    <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1285" s="1"/>
-    </row>
-    <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1286" s="1"/>
-    </row>
-    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1287" s="1"/>
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1266" s="1"/>
+    </row>
+    <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1267" s="1"/>
+    </row>
+    <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1268" s="1"/>
+    </row>
+    <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1269" s="1"/>
     </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1"/>
@@ -10549,6 +10770,9 @@
     <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1290" s="1"/>
     </row>
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1291" s="1"/>
+    </row>
     <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1292" s="1"/>
     </row>
@@ -10558,26 +10782,26 @@
     <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1294" s="1"/>
     </row>
-    <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1295" s="1"/>
-    </row>
     <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1296" s="1"/>
     </row>
     <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1297" s="1"/>
     </row>
-    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1349" s="1"/>
-    </row>
-    <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1350" s="1"/>
-    </row>
-    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1351" s="1"/>
-    </row>
-    <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1352" s="1"/>
+    <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1298" s="1"/>
+    </row>
+    <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1299" s="1"/>
+    </row>
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1300" s="1"/>
+    </row>
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1301" s="1"/>
+    </row>
+    <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1353" s="1"/>
     </row>
     <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1354" s="1"/>
@@ -10588,20 +10812,17 @@
     <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1356" s="1"/>
     </row>
-    <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1357" s="1"/>
-    </row>
-    <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1392" s="1"/>
-    </row>
-    <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1393" s="1"/>
-    </row>
-    <row r="1394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1394" s="1"/>
-    </row>
-    <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1395" s="1"/>
+    <row r="1358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1358" s="1"/>
+    </row>
+    <row r="1359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1359" s="1"/>
+    </row>
+    <row r="1360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1360" s="1"/>
+    </row>
+    <row r="1361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1361" s="1"/>
     </row>
     <row r="1396" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1396" s="1"/>
@@ -10609,49 +10830,62 @@
     <row r="1397" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1397" s="1"/>
     </row>
-    <row r="1439" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1439" s="1"/>
-      <c r="F1439" s="1"/>
-    </row>
-    <row r="1440" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1440" s="6"/>
-      <c r="E1440" s="1"/>
-      <c r="F1440" s="1"/>
-    </row>
-    <row r="1441" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1441" s="6"/>
-      <c r="D1441" s="6"/>
-      <c r="E1441" s="1"/>
-      <c r="F1441" s="1"/>
-    </row>
-    <row r="1442" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1442" s="6"/>
-      <c r="D1442" s="6"/>
-      <c r="E1442" s="1"/>
-      <c r="F1442" s="1"/>
+    <row r="1398" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1398" s="1"/>
+    </row>
+    <row r="1399" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1399" s="1"/>
+    </row>
+    <row r="1400" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1400" s="1"/>
+    </row>
+    <row r="1401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1401" s="1"/>
     </row>
     <row r="1443" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D1443" s="6"/>
       <c r="E1443" s="1"/>
       <c r="F1443" s="1"/>
     </row>
-    <row r="1506" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1506" s="1"/>
-    </row>
-    <row r="1507" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1507" s="1"/>
-    </row>
-    <row r="1508" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1508" s="1"/>
-    </row>
-    <row r="1509" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1509" s="1"/>
+    <row r="1444" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1444" s="6"/>
+      <c r="E1444" s="1"/>
+      <c r="F1444" s="1"/>
+    </row>
+    <row r="1445" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1445" s="6"/>
+      <c r="D1445" s="6"/>
+      <c r="E1445" s="1"/>
+      <c r="F1445" s="1"/>
+    </row>
+    <row r="1446" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1446" s="6"/>
+      <c r="D1446" s="6"/>
+      <c r="E1446" s="1"/>
+      <c r="F1446" s="1"/>
+    </row>
+    <row r="1447" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1447" s="6"/>
+      <c r="E1447" s="1"/>
+      <c r="F1447" s="1"/>
+    </row>
+    <row r="1510" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1510" s="1"/>
+    </row>
+    <row r="1511" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1511" s="1"/>
+    </row>
+    <row r="1512" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1512" s="1"/>
+    </row>
+    <row r="1513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1513" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1462">
-    <sortCondition ref="C2:C1462"/>
-    <sortCondition ref="D2:D1462"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1466">
+    <sortCondition ref="C2:C1466"/>
+    <sortCondition ref="D2:D1466"/>
   </sortState>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -11303,7 +11537,7 @@
       <c r="C28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -11326,7 +11560,7 @@
       <c r="C29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -11629,7 +11863,7 @@
       <c r="C44" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E44" s="10" t="s">
@@ -11652,7 +11886,7 @@
       <c r="C45" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E45" s="10" t="s">
@@ -11675,7 +11909,7 @@
       <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -11698,7 +11932,7 @@
       <c r="C47" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -11736,25 +11970,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="26">
         <v>105</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="26">
         <v>2849</v>
       </c>
       <c r="H1">
@@ -11767,25 +12001,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>105</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="26">
         <v>2849</v>
       </c>
       <c r="H2">
@@ -11832,22 +12066,22 @@
       <c r="A4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>117</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <v>2543</v>
       </c>
     </row>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0588F-C9FD-5346-8B26-13832A3807C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842CC58-69B4-8C48-AFD6-C8E93506C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23760" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6043,8 +6043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842CC58-69B4-8C48-AFD6-C8E93506C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344BA083-78F7-1345-89E0-B23274C69331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23760" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="131">
   <si>
     <t>featureName</t>
   </si>
@@ -385,15 +385,6 @@
     <t>REF_JMTV_SEG3</t>
   </si>
   <si>
-    <t>Crustacean</t>
-  </si>
-  <si>
-    <t>MK473878</t>
-  </si>
-  <si>
-    <t>REF_ccCFV</t>
-  </si>
-  <si>
     <t>JMTV_CONCAT</t>
   </si>
   <si>
@@ -415,12 +406,6 @@
     <t>NC_027817</t>
   </si>
   <si>
-    <t>precursor_polyprotein1</t>
-  </si>
-  <si>
-    <t>precursor_polyprotein2</t>
-  </si>
-  <si>
     <t>REF_JMTV_Seg1</t>
   </si>
   <si>
@@ -443,6 +428,9 @@
   </si>
   <si>
     <t>NC_024017</t>
+  </si>
+  <si>
+    <t>seg1-NS5</t>
   </si>
 </sst>
 </file>
@@ -522,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,12 +597,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -646,12 +628,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,6 +667,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3160,7 +3142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3196,49 +3178,46 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2457">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -6041,10 +6020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1513"/>
+  <dimension ref="A1:H1510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6082,13 +6061,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -6105,13 +6084,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -6128,13 +6107,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -6151,13 +6130,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -6174,13 +6153,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -6197,13 +6176,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -6220,13 +6199,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -6243,13 +6222,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -6266,13 +6245,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -6289,13 +6268,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -6312,13 +6291,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -6335,13 +6314,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -6358,13 +6337,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -6381,13 +6360,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -6404,13 +6383,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -6427,13 +6406,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -6450,13 +6429,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -6473,13 +6452,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="A19" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -6496,13 +6475,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="36" t="s">
+      <c r="A20" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -6519,13 +6498,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="A21" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -6542,13 +6521,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="A22" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="48" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -6565,109 +6544,109 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="44" t="s">
+      <c r="C23" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <v>1</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>10761</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="44" t="s">
+      <c r="C24" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <v>1</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>120</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <v>10445</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="44" t="s">
+      <c r="C26" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>10446</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <v>10761</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
@@ -6680,17 +6659,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>15</v>
@@ -6703,17 +6682,17 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>70</v>
@@ -6726,17 +6705,17 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>105</v>
@@ -6749,17 +6728,17 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>94</v>
@@ -6772,17 +6751,17 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>71</v>
@@ -6795,17 +6774,17 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>95</v>
@@ -6818,17 +6797,17 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>4</v>
@@ -6841,17 +6820,17 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>103</v>
@@ -6864,17 +6843,17 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>104</v>
@@ -6887,17 +6866,17 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>7</v>
@@ -6910,17 +6889,17 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>90</v>
@@ -6933,17 +6912,17 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -6956,17 +6935,17 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>96</v>
@@ -6979,17 +6958,17 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>10</v>
@@ -7002,17 +6981,17 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>106</v>
@@ -7025,16 +7004,16 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="45" t="s">
+      <c r="A43" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="42" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -7048,16 +7027,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="45" t="s">
+      <c r="A44" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="42" t="s">
         <v>47</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -7071,17 +7050,17 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>133</v>
+      <c r="A45" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>83</v>
@@ -7094,17 +7073,17 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>133</v>
+      <c r="A46" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>128</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>70</v>
@@ -7117,404 +7096,404 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="26">
         <v>1</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="26">
         <v>10735</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <v>1</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="26">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="25">
         <v>95</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="25">
         <v>10273</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="25">
         <v>95</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="25">
         <v>2419</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="25">
         <v>95</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="25">
         <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="26">
+      <c r="F52" s="25">
         <v>437</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="25">
         <v>934</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="25">
         <v>935</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="25">
         <v>2419</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="25">
         <v>2420</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="25">
         <v>10270</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="25">
         <v>2420</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="25">
         <v>3475</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F56" s="25">
         <v>3476</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="25">
         <v>4129</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="25">
         <v>4130</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="25">
         <v>4519</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="25">
         <v>4520</v>
       </c>
-      <c r="G58" s="26">
+      <c r="G58" s="25">
         <v>6376</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="25">
         <v>6377</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="25">
         <v>6757</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="25">
         <v>6758</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="25">
         <v>6826</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="25">
         <v>6827</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="25">
         <v>7573</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="26">
+      <c r="F62" s="25">
         <v>7574</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="25">
         <v>10270</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="25">
         <v>10274</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="25">
         <v>10735</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -7531,13 +7510,13 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -7554,13 +7533,13 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -7577,13 +7556,13 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -7600,13 +7579,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -7623,13 +7602,13 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -7646,13 +7625,13 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -7669,13 +7648,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -7692,13 +7671,13 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="13" t="s">
@@ -7715,13 +7694,13 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="13" t="s">
@@ -7738,13 +7717,13 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="13" t="s">
@@ -7761,13 +7740,13 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -7784,13 +7763,13 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -7807,13 +7786,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="13" t="s">
@@ -7830,13 +7809,13 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="13" t="s">
@@ -7853,13 +7832,13 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="13" t="s">
@@ -7876,13 +7855,13 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="42" t="s">
+      <c r="B80" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="13" t="s">
@@ -7899,385 +7878,385 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="36" t="s">
+      <c r="A81" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="26">
+      <c r="F81" s="25">
         <v>1</v>
       </c>
-      <c r="G81" s="26">
+      <c r="G81" s="25">
         <v>10116</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C82" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F82" s="26">
+      <c r="F82" s="25">
         <v>1</v>
       </c>
-      <c r="G82" s="26">
+      <c r="G82" s="25">
         <v>10116</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F83" s="26">
+      <c r="F83" s="25">
         <v>1</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="25">
         <v>2268</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F84" s="25">
         <v>1</v>
       </c>
-      <c r="G84" s="26">
+      <c r="G84" s="25">
         <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F85" s="25">
         <v>331</v>
       </c>
-      <c r="G85" s="26">
+      <c r="G85" s="25">
         <v>813</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="25">
         <v>589</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="25">
         <v>813</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E87" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="26">
+      <c r="F87" s="25">
         <v>814</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G87" s="25">
         <v>2268</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="36" t="s">
+      <c r="B88" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E88" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="26">
+      <c r="F88" s="25">
         <v>2269</v>
       </c>
-      <c r="G88" s="26">
+      <c r="G88" s="25">
         <v>3327</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F89" s="26">
+      <c r="F89" s="25">
         <v>3328</v>
       </c>
-      <c r="G89" s="26">
+      <c r="G89" s="25">
         <v>4002</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E90" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F90" s="26">
+      <c r="F90" s="25">
         <v>4003</v>
       </c>
-      <c r="G90" s="26">
+      <c r="G90" s="25">
         <v>4392</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C91" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E91" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="26">
+      <c r="F91" s="25">
         <v>4393</v>
       </c>
-      <c r="G91" s="26">
+      <c r="G91" s="25">
         <v>6240</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B92" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="26">
+      <c r="F92" s="25">
         <v>6241</v>
       </c>
-      <c r="G92" s="26">
+      <c r="G92" s="25">
         <v>6597</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="36" t="s">
+      <c r="A93" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="37" t="s">
+      <c r="C93" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="26">
+      <c r="F93" s="25">
         <v>6598</v>
       </c>
-      <c r="G93" s="26">
+      <c r="G93" s="25">
         <v>6666</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="37" t="s">
+      <c r="C94" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F94" s="26">
+      <c r="F94" s="25">
         <v>6667</v>
       </c>
-      <c r="G94" s="26">
+      <c r="G94" s="25">
         <v>7422</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="37" t="s">
+      <c r="C95" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="26">
+      <c r="F95" s="25">
         <v>7423</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G95" s="25">
         <v>10113</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="36" t="s">
+      <c r="A96" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E96" s="26" t="s">
+      <c r="E96" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F96" s="26">
+      <c r="F96" s="25">
         <v>2269</v>
       </c>
-      <c r="G96" s="26">
+      <c r="G96" s="25">
         <v>10116</v>
       </c>
-      <c r="H96" s="26"/>
+      <c r="H96" s="25"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="41" t="s">
+      <c r="C97" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="38" t="s">
         <v>50</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -8291,16 +8270,16 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C98" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="41" t="s">
+      <c r="C98" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>50</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -8314,1211 +8293,1211 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E99" s="26" t="s">
+      <c r="A99" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F99" s="26">
+      <c r="F99" s="7">
         <v>1</v>
       </c>
-      <c r="G99" s="26">
-        <v>11434</v>
+      <c r="G99" s="7">
+        <v>10839</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F100" s="26">
-        <v>97</v>
-      </c>
-      <c r="G100" s="26">
-        <v>4197</v>
+      <c r="A100" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="7">
+        <v>1</v>
+      </c>
+      <c r="G100" s="7">
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B101" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F101" s="26">
-        <v>4359</v>
-      </c>
-      <c r="G101" s="26">
-        <v>10976</v>
+      <c r="A101" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F101" s="7">
+        <v>112</v>
+      </c>
+      <c r="G101" s="7">
+        <v>10359</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F102" s="7">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G102" s="7">
-        <v>10839</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="F103" s="7">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="G103" s="7">
-        <v>111</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F104" s="7">
-        <v>112</v>
+        <v>442</v>
       </c>
       <c r="G104" s="7">
-        <v>10359</v>
+        <v>945</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F105" s="7">
-        <v>112</v>
+        <v>946</v>
       </c>
       <c r="G105" s="7">
         <v>2436</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F106" s="7">
-        <v>112</v>
+        <v>2437</v>
       </c>
       <c r="G106" s="7">
-        <v>441</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F107" s="7">
-        <v>442</v>
+        <v>2437</v>
       </c>
       <c r="G107" s="7">
-        <v>945</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="35" t="s">
+      <c r="A108" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F108" s="7">
-        <v>946</v>
+        <v>3496</v>
       </c>
       <c r="G108" s="7">
-        <v>2436</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F109" s="7">
-        <v>2437</v>
+        <v>4186</v>
       </c>
       <c r="G109" s="7">
-        <v>10356</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="35" t="s">
+      <c r="A110" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F110" s="7">
-        <v>2437</v>
+        <v>4579</v>
       </c>
       <c r="G110" s="7">
-        <v>3495</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="35" t="s">
+      <c r="A111" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F111" s="7">
-        <v>3496</v>
+        <v>6445</v>
       </c>
       <c r="G111" s="7">
-        <v>4185</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="35" t="s">
+      <c r="A112" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F112" s="7">
-        <v>4186</v>
+        <v>6823</v>
       </c>
       <c r="G112" s="7">
-        <v>4578</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="F113" s="7">
-        <v>4579</v>
+        <v>6892</v>
       </c>
       <c r="G113" s="7">
-        <v>6444</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F114" s="7">
-        <v>6445</v>
+        <v>7648</v>
       </c>
       <c r="G114" s="7">
-        <v>6822</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F115" s="7">
-        <v>6823</v>
+        <v>10357</v>
       </c>
       <c r="G115" s="7">
-        <v>6891</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F116" s="7">
-        <v>6892</v>
-      </c>
-      <c r="G116" s="7">
-        <v>7647</v>
+      <c r="A116" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" s="25">
+        <v>1</v>
+      </c>
+      <c r="G116" s="25">
+        <v>9646</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B117" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E117" s="7" t="s">
+      <c r="A117" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="25">
+        <v>1</v>
+      </c>
+      <c r="G117" s="25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F118" s="25">
+        <v>342</v>
+      </c>
+      <c r="G118" s="25">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F119" s="25">
+        <v>342</v>
+      </c>
+      <c r="G119" s="25">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="25">
+        <v>342</v>
+      </c>
+      <c r="G120" s="25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" s="25">
+        <v>915</v>
+      </c>
+      <c r="G121" s="25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F122" s="25">
+        <v>1491</v>
+      </c>
+      <c r="G122" s="25">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123" s="25">
+        <v>2580</v>
+      </c>
+      <c r="G123" s="25">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F124" s="25">
+        <v>2580</v>
+      </c>
+      <c r="G124" s="25">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F125" s="25">
+        <v>2769</v>
+      </c>
+      <c r="G125" s="25">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="25">
+        <v>3420</v>
+      </c>
+      <c r="G126" s="25">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F127" s="25">
+        <v>5313</v>
+      </c>
+      <c r="G127" s="25">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="25">
+        <v>5475</v>
+      </c>
+      <c r="G128" s="25">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="7">
-        <v>7648</v>
-      </c>
-      <c r="G117" s="7">
-        <v>10356</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B118" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="7" t="s">
+      <c r="F129" s="25">
+        <v>6258</v>
+      </c>
+      <c r="G129" s="25">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="25">
+        <v>6258</v>
+      </c>
+      <c r="G130" s="25">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="25">
+        <v>7602</v>
+      </c>
+      <c r="G131" s="25">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E132" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="7">
-        <v>10357</v>
-      </c>
-      <c r="G118" s="7">
-        <v>10839</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E119" s="26" t="s">
+      <c r="F132" s="25">
+        <v>9378</v>
+      </c>
+      <c r="G132" s="25">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F119" s="26">
+      <c r="F133" s="25">
         <v>1</v>
       </c>
-      <c r="G119" s="26">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E120" s="26" t="s">
+      <c r="G133" s="25">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F120" s="26">
+      <c r="F134" s="25">
         <v>1</v>
       </c>
-      <c r="G120" s="26">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E121" s="26" t="s">
+      <c r="G134" s="25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F121" s="26">
-        <v>342</v>
-      </c>
-      <c r="G121" s="26">
-        <v>9377</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E122" s="26" t="s">
+      <c r="F135" s="25">
+        <v>328</v>
+      </c>
+      <c r="G135" s="25">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F122" s="26">
-        <v>342</v>
-      </c>
-      <c r="G122" s="26">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="26">
-        <v>342</v>
-      </c>
-      <c r="G123" s="26">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="26" t="s">
+      <c r="F136" s="25">
+        <v>328</v>
+      </c>
+      <c r="G136" s="25">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F137" s="25">
+        <v>328</v>
+      </c>
+      <c r="G137" s="25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F124" s="26">
-        <v>915</v>
-      </c>
-      <c r="G124" s="26">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" s="26" t="s">
+      <c r="F138" s="25">
+        <v>565</v>
+      </c>
+      <c r="G138" s="25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F125" s="26">
-        <v>1491</v>
-      </c>
-      <c r="G125" s="26">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E126" s="26" t="s">
+      <c r="F139" s="25">
+        <v>1138</v>
+      </c>
+      <c r="G139" s="25">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F140" s="25">
+        <v>2200</v>
+      </c>
+      <c r="G140" s="25">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F126" s="26">
-        <v>2580</v>
-      </c>
-      <c r="G126" s="26">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F127" s="26">
-        <v>2580</v>
-      </c>
-      <c r="G127" s="26">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E128" s="26" t="s">
+      <c r="F141" s="25">
+        <v>2911</v>
+      </c>
+      <c r="G141" s="25">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F128" s="26">
-        <v>2769</v>
-      </c>
-      <c r="G128" s="26">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" s="26" t="s">
+      <c r="F142" s="25">
+        <v>2911</v>
+      </c>
+      <c r="G142" s="25">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F129" s="26">
-        <v>3420</v>
-      </c>
-      <c r="G129" s="26">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B130" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C130" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E130" s="26" t="s">
+      <c r="F143" s="25">
+        <v>3631</v>
+      </c>
+      <c r="G143" s="25">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F130" s="26">
-        <v>5313</v>
-      </c>
-      <c r="G130" s="26">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E131" s="26" t="s">
+      <c r="F144" s="25">
+        <v>5515</v>
+      </c>
+      <c r="G144" s="25">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F131" s="26">
-        <v>5475</v>
-      </c>
-      <c r="G131" s="26">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C132" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E132" s="26" t="s">
+      <c r="F145" s="25">
+        <v>5638</v>
+      </c>
+      <c r="G145" s="25">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F132" s="26">
-        <v>6258</v>
-      </c>
-      <c r="G132" s="26">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E133" s="26" t="s">
+      <c r="F146" s="25">
+        <v>6424</v>
+      </c>
+      <c r="G146" s="25">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F133" s="26">
-        <v>6258</v>
-      </c>
-      <c r="G133" s="26">
-        <v>7601</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D134" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E134" s="26" t="s">
+      <c r="F147" s="25">
+        <v>6424</v>
+      </c>
+      <c r="G147" s="25">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F134" s="26">
-        <v>7602</v>
-      </c>
-      <c r="G134" s="26">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B135" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135" s="26" t="s">
+      <c r="F148" s="25">
+        <v>7798</v>
+      </c>
+      <c r="G148" s="25">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="26">
-        <v>9378</v>
-      </c>
-      <c r="G135" s="26">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136"/>
-      <c r="E136" s="26" t="s">
+      <c r="F149" s="25">
+        <v>9502</v>
+      </c>
+      <c r="G149" s="25">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E150" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F136" s="26">
+      <c r="F150" s="25">
         <v>1</v>
       </c>
-      <c r="G136" s="26">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D137"/>
-      <c r="E137" s="26" t="s">
+      <c r="G150" s="25">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E151" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F137" s="26">
+      <c r="F151" s="25">
         <v>1</v>
       </c>
-      <c r="G137" s="26">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C138" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138"/>
-      <c r="E138" s="26" t="s">
+      <c r="G151" s="25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E152" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F138" s="26">
-        <v>328</v>
-      </c>
-      <c r="G138" s="26">
-        <v>9501</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C139" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139"/>
-      <c r="E139" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F139" s="26">
-        <v>328</v>
-      </c>
-      <c r="G139" s="26">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140"/>
-      <c r="E140" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F140" s="26">
-        <v>328</v>
-      </c>
-      <c r="G140" s="26">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C141" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141"/>
-      <c r="E141" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F141" s="26">
-        <v>565</v>
-      </c>
-      <c r="G141" s="26">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142"/>
-      <c r="E142" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F142" s="26">
-        <v>1138</v>
-      </c>
-      <c r="G142" s="26">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C143" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143"/>
-      <c r="E143" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F143" s="26">
-        <v>2200</v>
-      </c>
-      <c r="G143" s="26">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C144" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144"/>
-      <c r="E144" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F144" s="26">
-        <v>2911</v>
-      </c>
-      <c r="G144" s="26">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145"/>
-      <c r="E145" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F145" s="26">
-        <v>2911</v>
-      </c>
-      <c r="G145" s="26">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C146" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146"/>
-      <c r="E146" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" s="26">
-        <v>3631</v>
-      </c>
-      <c r="G146" s="26">
-        <v>5514</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147"/>
-      <c r="E147" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F147" s="26">
-        <v>5515</v>
-      </c>
-      <c r="G147" s="26">
-        <v>5637</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C148" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148"/>
-      <c r="E148" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F148" s="26">
-        <v>5638</v>
-      </c>
-      <c r="G148" s="26">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149"/>
-      <c r="E149" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="26">
-        <v>6424</v>
-      </c>
-      <c r="G149" s="26">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B150" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150"/>
-      <c r="E150" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F150" s="26">
-        <v>6424</v>
-      </c>
-      <c r="G150" s="26">
-        <v>7797</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B151" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151"/>
-      <c r="E151" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F151" s="26">
-        <v>7798</v>
-      </c>
-      <c r="G151" s="26">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C152" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152"/>
-      <c r="E152" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="26">
-        <v>9502</v>
-      </c>
-      <c r="G152" s="26">
-        <v>9867</v>
+      <c r="F152" s="25">
+        <v>351</v>
+      </c>
+      <c r="G152" s="25">
+        <v>18068</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -9534,1022 +9513,968 @@
       <c r="D153" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="25">
+        <v>18069</v>
+      </c>
+      <c r="G153" s="25">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E154" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F153" s="26">
+      <c r="F154" s="25">
         <v>1</v>
       </c>
-      <c r="G153" s="26">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>54</v>
-      </c>
-      <c r="B154" t="s">
-        <v>63</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D154" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E154" s="26" t="s">
+      <c r="G154" s="25">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E155" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F154" s="26">
+      <c r="F155" s="25">
         <v>1</v>
       </c>
-      <c r="G154" s="26">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>54</v>
-      </c>
-      <c r="B155" t="s">
-        <v>63</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D155" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E155" s="26" t="s">
+      <c r="G155" s="25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E156" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F155" s="26">
-        <v>351</v>
-      </c>
-      <c r="G155" s="26">
-        <v>18068</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>54</v>
-      </c>
-      <c r="B156" t="s">
-        <v>63</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E156" s="26" t="s">
+      <c r="F156" s="25">
+        <v>200</v>
+      </c>
+      <c r="G156" s="25">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E157" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F156" s="26">
-        <v>18069</v>
-      </c>
-      <c r="G156" s="26">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B157" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C157" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E157" s="26" t="s">
+      <c r="F157" s="25">
+        <v>17906</v>
+      </c>
+      <c r="G157" s="25">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C158" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F157" s="26">
+      <c r="F158" s="25">
         <v>1</v>
       </c>
-      <c r="G157" s="26">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B158" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C158" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E158" s="26" t="s">
+      <c r="G158" s="25">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F158" s="26">
+      <c r="F159" s="25">
         <v>1</v>
       </c>
-      <c r="G158" s="26">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B159" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C159" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E159" s="26" t="s">
+      <c r="G159" s="25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F159" s="26">
-        <v>200</v>
-      </c>
-      <c r="G159" s="26">
-        <v>17905</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E160" s="26" t="s">
+      <c r="F160" s="25">
+        <v>386</v>
+      </c>
+      <c r="G160" s="25">
+        <v>12352</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C161" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F161" s="25">
+        <v>386</v>
+      </c>
+      <c r="G161" s="25">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F162" s="25">
+        <v>386</v>
+      </c>
+      <c r="G162" s="25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F163" s="25">
+        <v>890</v>
+      </c>
+      <c r="G163" s="25">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" s="25">
+        <v>1196</v>
+      </c>
+      <c r="G164" s="25">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C165" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F165" s="25">
+        <v>1877</v>
+      </c>
+      <c r="G165" s="25">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C166" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F166" s="25">
+        <v>2462</v>
+      </c>
+      <c r="G166" s="25">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F167" s="25">
+        <v>3584</v>
+      </c>
+      <c r="G167" s="25">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="25">
+        <v>3794</v>
+      </c>
+      <c r="G168" s="25">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F169" s="25">
+        <v>7472</v>
+      </c>
+      <c r="G169" s="25">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F170" s="25">
+        <v>7664</v>
+      </c>
+      <c r="G170" s="25">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="25">
+        <v>8705</v>
+      </c>
+      <c r="G171" s="25">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" s="25">
+        <v>8705</v>
+      </c>
+      <c r="G172" s="25">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="25">
+        <v>10193</v>
+      </c>
+      <c r="G173" s="25">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F160" s="26">
-        <v>17906</v>
-      </c>
-      <c r="G160" s="26">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B161" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26" t="s">
+      <c r="F174" s="25">
+        <v>12360</v>
+      </c>
+      <c r="G174" s="25">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F161" s="26">
+      <c r="F175" s="25">
         <v>1</v>
       </c>
-      <c r="G161" s="26">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B162" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" s="26">
+      <c r="G175" s="25">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F176" s="25">
         <v>1</v>
       </c>
-      <c r="G162" s="26">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B163" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C163" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F163" s="26">
-        <v>386</v>
-      </c>
-      <c r="G163" s="26">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B164" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26" t="s">
+      <c r="G176" s="25">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F164" s="26">
-        <v>386</v>
-      </c>
-      <c r="G164" s="26">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B165" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C165" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F165" s="26">
-        <v>386</v>
-      </c>
-      <c r="G165" s="26">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B166" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C166" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F166" s="26">
-        <v>890</v>
-      </c>
-      <c r="G166" s="26">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B167" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C167" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F167" s="26">
-        <v>1196</v>
-      </c>
-      <c r="G167" s="26">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B168" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F168" s="26">
-        <v>1877</v>
-      </c>
-      <c r="G168" s="26">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B169" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C169" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F169" s="26">
-        <v>2462</v>
-      </c>
-      <c r="G169" s="26">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C170" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F170" s="26">
-        <v>3584</v>
-      </c>
-      <c r="G170" s="26">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B171" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C171" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26" t="s">
+      <c r="F177" s="25">
+        <v>1</v>
+      </c>
+      <c r="G177" s="25">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178" s="25">
+        <v>1</v>
+      </c>
+      <c r="G178" s="25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F179" s="25">
+        <v>346</v>
+      </c>
+      <c r="G179" s="25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F180" s="25">
+        <v>655</v>
+      </c>
+      <c r="G180" s="25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F181" s="25">
+        <v>853</v>
+      </c>
+      <c r="G181" s="25">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F182" s="25">
+        <v>2359</v>
+      </c>
+      <c r="G182" s="25">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="25">
+        <v>2359</v>
+      </c>
+      <c r="G183" s="25">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F184" s="25">
+        <v>3391</v>
+      </c>
+      <c r="G184" s="25">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F185" s="25">
+        <v>3979</v>
+      </c>
+      <c r="G185" s="25">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F171" s="26">
-        <v>3794</v>
-      </c>
-      <c r="G171" s="26">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B172" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C172" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F172" s="26">
-        <v>7472</v>
-      </c>
-      <c r="G172" s="26">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B173" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C173" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F173" s="26">
-        <v>7664</v>
-      </c>
-      <c r="G173" s="26">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B174" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26" t="s">
+      <c r="F186" s="25">
+        <v>4432</v>
+      </c>
+      <c r="G186" s="25">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C187" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F187" s="25">
+        <v>6304</v>
+      </c>
+      <c r="G187" s="25">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D188" s="25"/>
+      <c r="E188" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" s="25">
+        <v>6688</v>
+      </c>
+      <c r="G188" s="25">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F189" s="25">
+        <v>6763</v>
+      </c>
+      <c r="G189" s="25">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D190" s="25"/>
+      <c r="E190" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F174" s="26">
-        <v>8705</v>
-      </c>
-      <c r="G174" s="26">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B175" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F175" s="26">
-        <v>8705</v>
-      </c>
-      <c r="G175" s="26">
-        <v>10192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B176" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F176" s="26">
-        <v>10193</v>
-      </c>
-      <c r="G176" s="26">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B177" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C177" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="26">
-        <v>12360</v>
-      </c>
-      <c r="G177" s="26">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C178" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26" t="s">
+      <c r="F190" s="25">
+        <v>7558</v>
+      </c>
+      <c r="G190" s="25">
+        <v>10050</v>
+      </c>
+      <c r="H190" s="23"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D191" s="25"/>
+      <c r="E191" t="s">
         <v>83</v>
       </c>
-      <c r="F178" s="26">
+      <c r="F191">
         <v>1</v>
       </c>
-      <c r="G178" s="26">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C179" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F179" s="26">
-        <v>1</v>
-      </c>
-      <c r="G179" s="26">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B180" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C180" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F180" s="26">
-        <v>1</v>
-      </c>
-      <c r="G180" s="26">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B181" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F181" s="26">
-        <v>1</v>
-      </c>
-      <c r="G181" s="26">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B182" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C182" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F182" s="26">
-        <v>346</v>
-      </c>
-      <c r="G182" s="26">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B183" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C183" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F183" s="26">
-        <v>655</v>
-      </c>
-      <c r="G183" s="26">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B184" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C184" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F184" s="26">
-        <v>853</v>
-      </c>
-      <c r="G184" s="26">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B185" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F185" s="26">
-        <v>2359</v>
-      </c>
-      <c r="G185" s="26">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B186" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C186" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F186" s="26">
-        <v>2359</v>
-      </c>
-      <c r="G186" s="26">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B187" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C187" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F187" s="26">
-        <v>3391</v>
-      </c>
-      <c r="G187" s="26">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F188" s="26">
-        <v>3979</v>
-      </c>
-      <c r="G188" s="26">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C189" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" s="26">
-        <v>4432</v>
-      </c>
-      <c r="G189" s="26">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C190" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F190" s="26">
-        <v>6304</v>
-      </c>
-      <c r="G190" s="26">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B191" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="26">
-        <v>6688</v>
-      </c>
-      <c r="G191" s="26">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F192" s="26">
-        <v>6763</v>
-      </c>
-      <c r="G192" s="26">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B193" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C193" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F193" s="26">
-        <v>7558</v>
-      </c>
-      <c r="G193" s="26">
-        <v>10050</v>
-      </c>
-      <c r="H193" s="24"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B194" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C194" s="26" t="s">
+      <c r="G191">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C192" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D194" s="26"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F192" s="25">
+        <v>117</v>
+      </c>
+      <c r="G192" s="25">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F193">
+        <f t="shared" ref="F193" si="0">(D193+2824)</f>
+        <v>2824</v>
+      </c>
+      <c r="G193" s="25">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C194" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D194" s="25"/>
       <c r="E194" t="s">
         <v>83</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="25">
         <v>1</v>
       </c>
-      <c r="G194">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B195" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C195" s="26" t="s">
+      <c r="G194" s="25">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C195" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" s="26">
+      <c r="D195" s="25"/>
+      <c r="E195" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F195">
+        <v>105</v>
+      </c>
+      <c r="G195">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C196" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D196" s="25"/>
+      <c r="E196" t="s">
+        <v>83</v>
+      </c>
+      <c r="F196" s="25">
+        <v>1</v>
+      </c>
+      <c r="G196" s="25">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C197" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D197" s="25"/>
+      <c r="E197" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G195" s="26">
+      <c r="F197">
+        <v>117</v>
+      </c>
+      <c r="G197">
         <v>2543</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B196" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C196" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196">
-        <f t="shared" ref="F196" si="0">(D196+2824)</f>
-        <v>2824</v>
-      </c>
-      <c r="G196" s="26">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B197" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C197" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D197" s="26"/>
-      <c r="E197" t="s">
-        <v>83</v>
-      </c>
-      <c r="F197" s="26">
-        <v>1</v>
-      </c>
-      <c r="G197" s="26">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B198" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C198" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198">
-        <v>105</v>
-      </c>
-      <c r="G198">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B199" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C199" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D199" s="26"/>
-      <c r="E199" t="s">
-        <v>83</v>
-      </c>
-      <c r="F199" s="26">
-        <v>1</v>
-      </c>
-      <c r="G199" s="26">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B200" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C200" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F200">
-        <v>117</v>
-      </c>
-      <c r="G200">
-        <v>2543</v>
-      </c>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B232" s="1"/>
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B233" s="1"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234" s="1"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
@@ -10653,13 +10578,11 @@
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
-      <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" s="1"/>
@@ -10668,11 +10591,13 @@
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
+      <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
       <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
@@ -10690,31 +10615,25 @@
       <c r="D263" s="5"/>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B264" s="1"/>
-      <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B265" s="1"/>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B266" s="1"/>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D267" s="5"/>
-    </row>
-    <row r="949" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E949" s="1"/>
-    </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1085" s="1"/>
-    </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1086" s="1"/>
+    <row r="946" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E946" s="1"/>
+    </row>
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1082" s="1"/>
+    </row>
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1083" s="1"/>
+    </row>
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1208" s="1"/>
+    </row>
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1209" s="1"/>
+    </row>
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1210" s="1"/>
     </row>
     <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1211" s="1"/>
@@ -10725,26 +10644,26 @@
     <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1213" s="1"/>
     </row>
-    <row r="1214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1214" s="1"/>
-    </row>
-    <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1215" s="1"/>
-    </row>
-    <row r="1216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1216" s="1"/>
-    </row>
-    <row r="1261" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E1261" s="1"/>
-      <c r="F1261" s="1"/>
-    </row>
-    <row r="1262" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E1262" s="1"/>
-      <c r="F1262" s="1"/>
-    </row>
-    <row r="1263" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E1263" s="1"/>
-      <c r="F1263" s="1"/>
+    <row r="1258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1258" s="1"/>
+      <c r="F1258" s="1"/>
+    </row>
+    <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1259" s="1"/>
+      <c r="F1259" s="1"/>
+    </row>
+    <row r="1260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1260" s="1"/>
+      <c r="F1260" s="1"/>
+    </row>
+    <row r="1262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1262" s="1"/>
+    </row>
+    <row r="1263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1263" s="1"/>
+    </row>
+    <row r="1264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1264" s="1"/>
     </row>
     <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1265" s="1"/>
@@ -10752,14 +10671,14 @@
     <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1266" s="1"/>
     </row>
-    <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1267" s="1"/>
-    </row>
-    <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1268" s="1"/>
-    </row>
-    <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1269" s="1"/>
+    <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1285" s="1"/>
+    </row>
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1286" s="1"/>
+    </row>
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1287" s="1"/>
     </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1288" s="1"/>
@@ -10773,15 +10692,15 @@
     <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1291" s="1"/>
     </row>
-    <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1292" s="1"/>
-    </row>
     <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1293" s="1"/>
     </row>
     <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1294" s="1"/>
     </row>
+    <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1295" s="1"/>
+    </row>
     <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1296" s="1"/>
     </row>
@@ -10791,38 +10710,38 @@
     <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1298" s="1"/>
     </row>
-    <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1299" s="1"/>
-    </row>
-    <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1300" s="1"/>
-    </row>
-    <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1301" s="1"/>
+    <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1350" s="1"/>
+    </row>
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1351" s="1"/>
+    </row>
+    <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1352" s="1"/>
     </row>
     <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1353" s="1"/>
     </row>
-    <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1354" s="1"/>
-    </row>
     <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1355" s="1"/>
     </row>
     <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1356" s="1"/>
     </row>
+    <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1357" s="1"/>
+    </row>
     <row r="1358" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1358" s="1"/>
     </row>
-    <row r="1359" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1359" s="1"/>
-    </row>
-    <row r="1360" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1360" s="1"/>
-    </row>
-    <row r="1361" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1361" s="1"/>
+    <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1393" s="1"/>
+    </row>
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1394" s="1"/>
+    </row>
+    <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1395" s="1"/>
     </row>
     <row r="1396" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1396" s="1"/>
@@ -10833,57 +10752,48 @@
     <row r="1398" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1398" s="1"/>
     </row>
-    <row r="1399" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1399" s="1"/>
-    </row>
-    <row r="1400" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1400" s="1"/>
-    </row>
-    <row r="1401" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1401" s="1"/>
+    <row r="1440" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E1440" s="1"/>
+      <c r="F1440" s="1"/>
+    </row>
+    <row r="1441" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1441" s="6"/>
+      <c r="E1441" s="1"/>
+      <c r="F1441" s="1"/>
+    </row>
+    <row r="1442" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1442" s="6"/>
+      <c r="D1442" s="6"/>
+      <c r="E1442" s="1"/>
+      <c r="F1442" s="1"/>
     </row>
     <row r="1443" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1443" s="6"/>
+      <c r="D1443" s="6"/>
       <c r="E1443" s="1"/>
       <c r="F1443" s="1"/>
     </row>
     <row r="1444" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1444" s="6"/>
+      <c r="D1444" s="6"/>
       <c r="E1444" s="1"/>
       <c r="F1444" s="1"/>
     </row>
-    <row r="1445" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1445" s="6"/>
-      <c r="D1445" s="6"/>
-      <c r="E1445" s="1"/>
-      <c r="F1445" s="1"/>
-    </row>
-    <row r="1446" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1446" s="6"/>
-      <c r="D1446" s="6"/>
-      <c r="E1446" s="1"/>
-      <c r="F1446" s="1"/>
-    </row>
-    <row r="1447" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D1447" s="6"/>
-      <c r="E1447" s="1"/>
-      <c r="F1447" s="1"/>
+    <row r="1507" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1507" s="1"/>
+    </row>
+    <row r="1508" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1508" s="1"/>
+    </row>
+    <row r="1509" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1509" s="1"/>
     </row>
     <row r="1510" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1510" s="1"/>
     </row>
-    <row r="1511" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1511" s="1"/>
-    </row>
-    <row r="1512" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1512" s="1"/>
-    </row>
-    <row r="1513" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1513" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1466">
-    <sortCondition ref="C2:C1466"/>
-    <sortCondition ref="D2:D1466"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1463">
+    <sortCondition ref="C2:C1463"/>
+    <sortCondition ref="D2:D1463"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11970,25 +11880,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="25">
         <v>105</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="25">
         <v>2849</v>
       </c>
       <c r="H1">
@@ -12001,25 +11911,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>105</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>2849</v>
       </c>
       <c r="H2">
@@ -12066,22 +11976,22 @@
       <c r="A4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="E4" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="26">
+      <c r="F4" s="25">
+        <v>117</v>
+      </c>
+      <c r="G4" s="25">
         <v>2543</v>
       </c>
     </row>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344BA083-78F7-1345-89E0-B23274C69331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9A51FC-468B-2B4F-A1A8-BAB652BD9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23760" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="128">
   <si>
     <t>featureName</t>
   </si>
@@ -175,15 +175,9 @@
     <t>NC_024806</t>
   </si>
   <si>
-    <t>dISF2</t>
-  </si>
-  <si>
     <t>NC_027999</t>
   </si>
   <si>
-    <t>dISF1</t>
-  </si>
-  <si>
     <t>NC_003676</t>
   </si>
   <si>
@@ -418,19 +412,16 @@
     <t>KY320649</t>
   </si>
   <si>
-    <t>dISF1B</t>
-  </si>
-  <si>
     <t>REF_NHUV</t>
   </si>
   <si>
-    <t>dISF1A</t>
-  </si>
-  <si>
     <t>NC_024017</t>
   </si>
   <si>
     <t>seg1-NS5</t>
+  </si>
+  <si>
+    <t>dISF</t>
   </si>
 </sst>
 </file>
@@ -510,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,12 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF18FFA5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,12 +636,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EFA00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3142,7 +3121,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3168,56 +3147,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2457">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -6022,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6039,10 +6012,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
@@ -6061,20 +6034,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -6084,13 +6057,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -6107,20 +6080,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
@@ -6130,20 +6103,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7">
         <v>97</v>
@@ -6153,20 +6126,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" s="7">
         <v>97</v>
@@ -6176,20 +6149,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7">
         <v>526</v>
@@ -6199,20 +6172,20 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7">
         <v>955</v>
@@ -6222,20 +6195,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="7">
         <v>2251</v>
@@ -6245,13 +6218,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -6268,20 +6241,20 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7">
         <v>3421</v>
@@ -6291,20 +6264,20 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F12" s="7">
         <v>4042</v>
@@ -6314,13 +6287,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -6337,20 +6310,20 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7">
         <v>6250</v>
@@ -6360,13 +6333,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -6383,20 +6356,20 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7">
         <v>6724</v>
@@ -6406,13 +6379,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -6429,13 +6402,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -6452,20 +6425,20 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="A19" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -6475,20 +6448,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7">
         <v>97</v>
@@ -6498,20 +6471,20 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="48" t="s">
+      <c r="A21" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
@@ -6521,20 +6494,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="48" t="s">
+      <c r="A22" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7">
         <v>110</v>
@@ -6544,112 +6517,112 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="41" t="s">
+      <c r="A23" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="24">
+      <c r="B23" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="23">
         <v>1</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>10761</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="41" t="s">
+      <c r="A24" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="B24" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>1</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="41" t="s">
+      <c r="A25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="24">
+      <c r="B25" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="23">
         <v>120</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>10445</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="41" t="s">
+      <c r="A26" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="B26" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>10446</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>10761</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>126</v>
+      <c r="B27" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
@@ -6659,17 +6632,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>126</v>
+      <c r="B28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>15</v>
@@ -6682,20 +6655,20 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>126</v>
+      <c r="B29" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="7">
         <v>16</v>
@@ -6705,20 +6678,20 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>126</v>
+      <c r="B30" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F30" s="7">
         <v>16</v>
@@ -6728,20 +6701,20 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>126</v>
+      <c r="B31" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F31" s="7">
         <v>16</v>
@@ -6751,20 +6724,20 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>126</v>
+      <c r="B32" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7">
         <v>382</v>
@@ -6774,20 +6747,20 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>126</v>
+      <c r="B33" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F33" s="7">
         <v>889</v>
@@ -6797,17 +6770,17 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>126</v>
+      <c r="B34" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>4</v>
@@ -6820,20 +6793,20 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>126</v>
+      <c r="B35" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F35" s="7">
         <v>3445</v>
@@ -6843,20 +6816,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>126</v>
+      <c r="B36" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="7">
         <v>4126</v>
@@ -6866,17 +6839,17 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>126</v>
+      <c r="B37" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>7</v>
@@ -6889,20 +6862,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>126</v>
+      <c r="B38" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F38" s="7">
         <v>6382</v>
@@ -6912,17 +6885,17 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>126</v>
+      <c r="B39" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -6935,20 +6908,20 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>126</v>
+      <c r="B40" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F40" s="7">
         <v>6829</v>
@@ -6958,17 +6931,17 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>126</v>
+      <c r="B41" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>10</v>
@@ -6981,20 +6954,20 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>126</v>
+      <c r="B42" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F42" s="7">
         <v>2386</v>
@@ -7004,20 +6977,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>47</v>
+      <c r="A43" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
@@ -7027,20 +7000,20 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>47</v>
+      <c r="A44" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
@@ -7050,20 +7023,20 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>128</v>
-      </c>
       <c r="E45" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
@@ -7073,20 +7046,20 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>128</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46" s="7">
         <v>103</v>
@@ -7096,411 +7069,411 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="34" t="s">
+      <c r="B47" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="26">
+      <c r="E47" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="25">
         <v>1</v>
       </c>
-      <c r="G47" s="26">
+      <c r="G47" s="25">
         <v>10735</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="34" t="s">
+      <c r="B48" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="25">
         <v>1</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="25">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="34" t="s">
+      <c r="B49" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="25">
+      <c r="E49" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="24">
         <v>95</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="24">
         <v>10273</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="34" t="s">
+      <c r="B50" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="25">
+      <c r="E50" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="24">
         <v>95</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="24">
         <v>2419</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="34" t="s">
+      <c r="B51" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="25">
+      <c r="E51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="24">
         <v>95</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="24">
         <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="34" t="s">
+      <c r="B52" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="25">
+      <c r="E52" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="24">
         <v>437</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="24">
         <v>934</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="34" t="s">
+      <c r="B53" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="25">
+      <c r="E53" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="24">
         <v>935</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="24">
         <v>2419</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="34" t="s">
+      <c r="B54" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="25">
+      <c r="E54" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="24">
         <v>2420</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="24">
         <v>10270</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="34" t="s">
+      <c r="B55" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="24">
         <v>2420</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="24">
         <v>3475</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="34" t="s">
+      <c r="B56" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="25">
+      <c r="E56" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="24">
         <v>3476</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="24">
         <v>4129</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="34" t="s">
+      <c r="B57" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57" s="25">
+      <c r="E57" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="24">
         <v>4130</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="24">
         <v>4519</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="34" t="s">
+      <c r="B58" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="24">
         <v>4520</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="24">
         <v>6376</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="34" t="s">
+      <c r="B59" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="25">
+      <c r="E59" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="24">
         <v>6377</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="24">
         <v>6757</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="34" t="s">
+      <c r="B60" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="24">
         <v>6758</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="24">
         <v>6826</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="34" t="s">
+      <c r="B61" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="25">
+      <c r="E61" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61" s="24">
         <v>6827</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="24">
         <v>7573</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="34" t="s">
+      <c r="B62" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="24">
         <v>7574</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="24">
         <v>10270</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="34" t="s">
+      <c r="B63" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="24">
         <v>10274</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="24">
         <v>10735</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="40" t="s">
+      <c r="B64" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="7">
         <v>1</v>
@@ -7510,13 +7483,13 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="40" t="s">
+      <c r="B65" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -7533,20 +7506,20 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="40" t="s">
+      <c r="B66" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F66" s="7">
         <v>119</v>
@@ -7556,20 +7529,20 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="40" t="s">
+      <c r="B67" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F67" s="7">
         <v>119</v>
@@ -7579,20 +7552,20 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="40" t="s">
+      <c r="B68" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="7">
         <v>119</v>
@@ -7602,20 +7575,20 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="40" t="s">
+      <c r="B69" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F69" s="7">
         <v>482</v>
@@ -7625,20 +7598,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="40" t="s">
+      <c r="B70" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F70" s="7">
         <v>974</v>
@@ -7648,20 +7621,20 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="40" t="s">
+      <c r="B71" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="7">
         <v>2453</v>
@@ -7671,13 +7644,13 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="40" t="s">
+      <c r="B72" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="13" t="s">
@@ -7694,20 +7667,20 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="40" t="s">
+      <c r="B73" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="7">
         <v>3509</v>
@@ -7717,20 +7690,20 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="40" t="s">
+      <c r="B74" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="7">
         <v>4181</v>
@@ -7740,13 +7713,13 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="40" t="s">
+      <c r="B75" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -7763,20 +7736,20 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="40" t="s">
+      <c r="B76" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F76" s="7">
         <v>6440</v>
@@ -7786,13 +7759,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B77" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="40" t="s">
+      <c r="B77" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="13" t="s">
@@ -7809,20 +7782,20 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B78" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="40" t="s">
+      <c r="B78" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F78" s="7">
         <v>6887</v>
@@ -7832,13 +7805,13 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="40" t="s">
+      <c r="B79" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="13" t="s">
@@ -7855,13 +7828,13 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="40" t="s">
+      <c r="B80" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="13" t="s">
@@ -7878,389 +7851,389 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="24">
+        <v>1</v>
+      </c>
+      <c r="G81" s="24">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="24">
+        <v>1</v>
+      </c>
+      <c r="G82" s="24">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="24">
+        <v>1</v>
+      </c>
+      <c r="G83" s="24">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="24">
+        <v>1</v>
+      </c>
+      <c r="G84" s="24">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="24">
+        <v>331</v>
+      </c>
+      <c r="G85" s="24">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" s="24">
+        <v>589</v>
+      </c>
+      <c r="G86" s="24">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="24">
+        <v>814</v>
+      </c>
+      <c r="G87" s="24">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="24">
+        <v>2269</v>
+      </c>
+      <c r="G88" s="24">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="24">
+        <v>3328</v>
+      </c>
+      <c r="G89" s="24">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="24">
+        <v>4003</v>
+      </c>
+      <c r="G90" s="24">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="24">
+        <v>4393</v>
+      </c>
+      <c r="G91" s="24">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F92" s="24">
+        <v>6241</v>
+      </c>
+      <c r="G92" s="24">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="24">
+        <v>6598</v>
+      </c>
+      <c r="G93" s="24">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" s="24">
+        <v>6667</v>
+      </c>
+      <c r="G94" s="24">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="24">
+        <v>7423</v>
+      </c>
+      <c r="G95" s="24">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96" s="24">
+        <v>2269</v>
+      </c>
+      <c r="G96" s="24">
+        <v>10116</v>
+      </c>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F81" s="25">
-        <v>1</v>
-      </c>
-      <c r="G81" s="25">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="25">
-        <v>1</v>
-      </c>
-      <c r="G82" s="25">
-        <v>10116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F83" s="25">
-        <v>1</v>
-      </c>
-      <c r="G83" s="25">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="25">
-        <v>1</v>
-      </c>
-      <c r="G84" s="25">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F85" s="25">
-        <v>331</v>
-      </c>
-      <c r="G85" s="25">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F86" s="25">
-        <v>589</v>
-      </c>
-      <c r="G86" s="25">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="25">
-        <v>814</v>
-      </c>
-      <c r="G87" s="25">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="25">
-        <v>2269</v>
-      </c>
-      <c r="G88" s="25">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" s="25">
-        <v>3328</v>
-      </c>
-      <c r="G89" s="25">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F90" s="25">
-        <v>4003</v>
-      </c>
-      <c r="G90" s="25">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="25">
-        <v>4393</v>
-      </c>
-      <c r="G91" s="25">
-        <v>6240</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F92" s="25">
-        <v>6241</v>
-      </c>
-      <c r="G92" s="25">
-        <v>6597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="25">
-        <v>6598</v>
-      </c>
-      <c r="G93" s="25">
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F94" s="25">
-        <v>6667</v>
-      </c>
-      <c r="G94" s="25">
-        <v>7422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="25">
-        <v>7423</v>
-      </c>
-      <c r="G95" s="25">
-        <v>10113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F96" s="25">
-        <v>2269</v>
-      </c>
-      <c r="G96" s="25">
-        <v>10116</v>
-      </c>
-      <c r="H96" s="25"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="E97" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F97" s="7">
         <v>1</v>
@@ -8270,20 +8243,20 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="30" t="s">
+      <c r="A98" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="F98" s="7">
         <v>1</v>
@@ -8293,20 +8266,20 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="34" t="s">
+      <c r="B99" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F99" s="7">
         <v>1</v>
@@ -8316,13 +8289,13 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="34" t="s">
+      <c r="B100" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -8339,20 +8312,20 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="34" t="s">
+      <c r="B101" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F101" s="7">
         <v>112</v>
@@ -8362,20 +8335,20 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B102" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="34" t="s">
+      <c r="B102" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F102" s="7">
         <v>112</v>
@@ -8385,20 +8358,20 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="34" t="s">
+      <c r="A103" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B103" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" s="34" t="s">
+      <c r="B103" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F103" s="7">
         <v>112</v>
@@ -8408,20 +8381,20 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="34" t="s">
+      <c r="B104" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F104" s="7">
         <v>442</v>
@@ -8431,20 +8404,20 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="34" t="s">
+      <c r="A105" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" s="34" t="s">
+      <c r="B105" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F105" s="7">
         <v>946</v>
@@ -8454,20 +8427,20 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C106" s="34" t="s">
+      <c r="B106" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F106" s="7">
         <v>2437</v>
@@ -8477,13 +8450,13 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" s="34" t="s">
+      <c r="B107" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="15" t="s">
@@ -8500,20 +8473,20 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C108" s="34" t="s">
+      <c r="B108" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F108" s="7">
         <v>3496</v>
@@ -8523,20 +8496,20 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" s="34" t="s">
+      <c r="B109" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F109" s="7">
         <v>4186</v>
@@ -8546,13 +8519,13 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C110" s="34" t="s">
+      <c r="B110" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="15" t="s">
@@ -8569,20 +8542,20 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="34" t="s">
+      <c r="A111" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="34" t="s">
+      <c r="B111" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F111" s="7">
         <v>6445</v>
@@ -8592,13 +8565,13 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="34" t="s">
+      <c r="A112" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C112" s="34" t="s">
+      <c r="B112" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="15" t="s">
@@ -8615,20 +8588,20 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="34" t="s">
+      <c r="A113" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C113" s="34" t="s">
+      <c r="B113" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F113" s="7">
         <v>6892</v>
@@ -8638,13 +8611,13 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C114" s="34" t="s">
+      <c r="B114" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="15" t="s">
@@ -8661,13 +8634,13 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="34" t="s">
+      <c r="A115" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="34" t="s">
+      <c r="B115" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="15" t="s">
@@ -8684,1644 +8657,1644 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B116" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" s="29" t="s">
+      <c r="B116" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F116" s="25">
+      <c r="D116" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F116" s="24">
         <v>1</v>
       </c>
-      <c r="G116" s="25">
+      <c r="G116" s="24">
         <v>9646</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B117" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" s="29" t="s">
+      <c r="B117" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E117" s="25" t="s">
+      <c r="D117" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F117" s="25">
+      <c r="F117" s="24">
         <v>1</v>
       </c>
-      <c r="G117" s="25">
+      <c r="G117" s="24">
         <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="29" t="s">
+      <c r="A118" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B118" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C118" s="29" t="s">
+      <c r="B118" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F118" s="25">
+      <c r="D118" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F118" s="24">
         <v>342</v>
       </c>
-      <c r="G118" s="25">
+      <c r="G118" s="24">
         <v>9377</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="29" t="s">
+      <c r="B119" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E119" s="25" t="s">
+      <c r="D119" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F119" s="25">
+      <c r="E119" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F119" s="24">
         <v>342</v>
       </c>
-      <c r="G119" s="25">
+      <c r="G119" s="24">
         <v>2579</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="29" t="s">
+      <c r="B120" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D120" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E120" s="25" t="s">
+      <c r="D120" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F120" s="25">
+      <c r="F120" s="24">
         <v>342</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G120" s="24">
         <v>914</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B121" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C121" s="29" t="s">
+      <c r="B121" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D121" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E121" s="25" t="s">
+      <c r="D121" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="24">
+        <v>915</v>
+      </c>
+      <c r="G121" s="24">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122" s="24">
+        <v>1491</v>
+      </c>
+      <c r="G122" s="24">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F123" s="24">
+        <v>2580</v>
+      </c>
+      <c r="G123" s="24">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F124" s="24">
+        <v>2580</v>
+      </c>
+      <c r="G124" s="24">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F125" s="24">
+        <v>2769</v>
+      </c>
+      <c r="G125" s="24">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="24">
+        <v>3420</v>
+      </c>
+      <c r="G126" s="24">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E127" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F121" s="25">
-        <v>915</v>
-      </c>
-      <c r="G121" s="25">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="29" t="s">
+      <c r="F127" s="24">
+        <v>5313</v>
+      </c>
+      <c r="G127" s="24">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B122" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C122" s="29" t="s">
+      <c r="B128" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D122" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E122" s="25" t="s">
+      <c r="D128" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="F122" s="25">
-        <v>1491</v>
-      </c>
-      <c r="G122" s="25">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="29" t="s">
+      <c r="F128" s="24">
+        <v>5475</v>
+      </c>
+      <c r="G128" s="24">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B123" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C123" s="29" t="s">
+      <c r="B129" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D123" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F123" s="25">
-        <v>2580</v>
-      </c>
-      <c r="G123" s="25">
+      <c r="D129" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="24">
+        <v>6258</v>
+      </c>
+      <c r="G129" s="24">
         <v>9374</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="29" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B124" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C124" s="29" t="s">
+      <c r="B130" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D124" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E124" s="25" t="s">
+      <c r="D130" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="24">
+        <v>6258</v>
+      </c>
+      <c r="G130" s="24">
+        <v>7601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" s="24">
+        <v>7602</v>
+      </c>
+      <c r="G131" s="24">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="24">
+        <v>9378</v>
+      </c>
+      <c r="G132" s="24">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F133" s="24">
+        <v>1</v>
+      </c>
+      <c r="G133" s="24">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="24">
+        <v>1</v>
+      </c>
+      <c r="G134" s="24">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F135" s="24">
+        <v>328</v>
+      </c>
+      <c r="G135" s="24">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136" s="24">
+        <v>328</v>
+      </c>
+      <c r="G136" s="24">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137" s="24">
+        <v>328</v>
+      </c>
+      <c r="G137" s="24">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F138" s="24">
+        <v>565</v>
+      </c>
+      <c r="G138" s="24">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F124" s="25">
-        <v>2580</v>
-      </c>
-      <c r="G124" s="25">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C125" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125" s="25">
-        <v>2769</v>
-      </c>
-      <c r="G125" s="25">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E126" s="25" t="s">
+      <c r="F139" s="24">
+        <v>1138</v>
+      </c>
+      <c r="G139" s="24">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F140" s="24">
+        <v>2200</v>
+      </c>
+      <c r="G140" s="24">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F141" s="24">
+        <v>2911</v>
+      </c>
+      <c r="G141" s="24">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142" s="24">
+        <v>2911</v>
+      </c>
+      <c r="G142" s="24">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F126" s="25">
-        <v>3420</v>
-      </c>
-      <c r="G126" s="25">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F127" s="25">
-        <v>5313</v>
-      </c>
-      <c r="G127" s="25">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F128" s="25">
-        <v>5475</v>
-      </c>
-      <c r="G128" s="25">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" s="25" t="s">
+      <c r="F143" s="24">
+        <v>3631</v>
+      </c>
+      <c r="G143" s="24">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F144" s="24">
+        <v>5515</v>
+      </c>
+      <c r="G144" s="24">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F145" s="24">
+        <v>5638</v>
+      </c>
+      <c r="G145" s="24">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="25">
-        <v>6258</v>
-      </c>
-      <c r="G129" s="25">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C130" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E130" s="25" t="s">
+      <c r="F146" s="24">
+        <v>6424</v>
+      </c>
+      <c r="G146" s="24">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F130" s="25">
-        <v>6258</v>
-      </c>
-      <c r="G130" s="25">
-        <v>7601</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C131" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E131" s="25" t="s">
+      <c r="F147" s="24">
+        <v>6424</v>
+      </c>
+      <c r="G147" s="24">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F131" s="25">
-        <v>7602</v>
-      </c>
-      <c r="G131" s="25">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C132" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E132" s="25" t="s">
+      <c r="F148" s="24">
+        <v>7798</v>
+      </c>
+      <c r="G148" s="24">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="25">
-        <v>9378</v>
-      </c>
-      <c r="G132" s="25">
-        <v>9646</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133"/>
-      <c r="E133" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F133" s="25">
-        <v>1</v>
-      </c>
-      <c r="G133" s="25">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134"/>
-      <c r="E134" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="25">
-        <v>1</v>
-      </c>
-      <c r="G134" s="25">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135"/>
-      <c r="E135" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F135" s="25">
-        <v>328</v>
-      </c>
-      <c r="G135" s="25">
-        <v>9501</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136"/>
-      <c r="E136" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F136" s="25">
-        <v>328</v>
-      </c>
-      <c r="G136" s="25">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D137"/>
-      <c r="E137" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F137" s="25">
-        <v>328</v>
-      </c>
-      <c r="G137" s="25">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138"/>
-      <c r="E138" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F138" s="25">
-        <v>565</v>
-      </c>
-      <c r="G138" s="25">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139"/>
-      <c r="E139" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F139" s="25">
-        <v>1138</v>
-      </c>
-      <c r="G139" s="25">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140"/>
-      <c r="E140" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F140" s="25">
-        <v>2200</v>
-      </c>
-      <c r="G140" s="25">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141"/>
-      <c r="E141" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F141" s="25">
-        <v>2911</v>
-      </c>
-      <c r="G141" s="25">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B142" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C142" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142"/>
-      <c r="E142" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F142" s="25">
-        <v>2911</v>
-      </c>
-      <c r="G142" s="25">
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143"/>
-      <c r="E143" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F143" s="25">
-        <v>3631</v>
-      </c>
-      <c r="G143" s="25">
-        <v>5514</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144"/>
-      <c r="E144" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F144" s="25">
-        <v>5515</v>
-      </c>
-      <c r="G144" s="25">
-        <v>5637</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145"/>
-      <c r="E145" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F145" s="25">
-        <v>5638</v>
-      </c>
-      <c r="G145" s="25">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146"/>
-      <c r="E146" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="25">
-        <v>6424</v>
-      </c>
-      <c r="G146" s="25">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147"/>
-      <c r="E147" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F147" s="25">
-        <v>6424</v>
-      </c>
-      <c r="G147" s="25">
-        <v>7797</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148"/>
-      <c r="E148" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F148" s="25">
-        <v>7798</v>
-      </c>
-      <c r="G148" s="25">
-        <v>9498</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149"/>
-      <c r="E149" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="25">
+      <c r="F149" s="24">
         <v>9502</v>
       </c>
-      <c r="G149" s="25">
+      <c r="G149" s="24">
         <v>9867</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F150" s="25">
+        <v>53</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F150" s="24">
         <v>1</v>
       </c>
-      <c r="G150" s="25">
+      <c r="G150" s="24">
         <v>19199</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B151" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D151" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E151" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E151" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F151" s="25">
+      <c r="F151" s="24">
         <v>1</v>
       </c>
-      <c r="G151" s="25">
+      <c r="G151" s="24">
         <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B152" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E152" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F152" s="25">
+        <v>53</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F152" s="24">
         <v>351</v>
       </c>
-      <c r="G152" s="25">
+      <c r="G152" s="24">
         <v>18068</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C153" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="24">
+        <v>18069</v>
+      </c>
+      <c r="G153" s="24">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F154" s="24">
+        <v>1</v>
+      </c>
+      <c r="G154" s="24">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="24">
+        <v>1</v>
+      </c>
+      <c r="G155" s="24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F156" s="24">
+        <v>200</v>
+      </c>
+      <c r="G156" s="24">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="24">
+        <v>17906</v>
+      </c>
+      <c r="G157" s="24">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F158" s="24">
+        <v>1</v>
+      </c>
+      <c r="G158" s="24">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="24">
+        <v>1</v>
+      </c>
+      <c r="G159" s="24">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F160" s="24">
+        <v>386</v>
+      </c>
+      <c r="G160" s="24">
+        <v>12352</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F161" s="24">
+        <v>386</v>
+      </c>
+      <c r="G161" s="24">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F162" s="24">
+        <v>386</v>
+      </c>
+      <c r="G162" s="24">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F163" s="24">
+        <v>890</v>
+      </c>
+      <c r="G163" s="24">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" s="24">
+        <v>1196</v>
+      </c>
+      <c r="G164" s="24">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F165" s="24">
+        <v>1877</v>
+      </c>
+      <c r="G165" s="24">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F166" s="24">
+        <v>2462</v>
+      </c>
+      <c r="G166" s="24">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F167" s="24">
+        <v>3584</v>
+      </c>
+      <c r="G167" s="24">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C168" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="24">
+        <v>3794</v>
+      </c>
+      <c r="G168" s="24">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F169" s="24">
+        <v>7472</v>
+      </c>
+      <c r="G169" s="24">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F170" s="24">
+        <v>7664</v>
+      </c>
+      <c r="G170" s="24">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="24">
+        <v>8705</v>
+      </c>
+      <c r="G171" s="24">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F172" s="24">
+        <v>8705</v>
+      </c>
+      <c r="G172" s="24">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="24">
+        <v>10193</v>
+      </c>
+      <c r="G173" s="24">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="24">
+        <v>12360</v>
+      </c>
+      <c r="G174" s="24">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D153" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E153" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="25">
-        <v>18069</v>
-      </c>
-      <c r="G153" s="25">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F154" s="25">
+      <c r="D175" s="24"/>
+      <c r="E175" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F175" s="24">
         <v>1</v>
       </c>
-      <c r="G154" s="25">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B155" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C155" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D155" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E155" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F155" s="25">
+      <c r="G175" s="24">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F176" s="24">
         <v>1</v>
       </c>
-      <c r="G155" s="25">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B156" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E156" s="25" t="s">
+      <c r="G176" s="24">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F177" s="24">
+        <v>1</v>
+      </c>
+      <c r="G177" s="24">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B178" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F178" s="24">
+        <v>1</v>
+      </c>
+      <c r="G178" s="24">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F179" s="24">
+        <v>346</v>
+      </c>
+      <c r="G179" s="24">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F156" s="25">
-        <v>200</v>
-      </c>
-      <c r="G156" s="25">
-        <v>17905</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B157" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C157" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="25">
-        <v>17906</v>
-      </c>
-      <c r="G157" s="25">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F158" s="25">
-        <v>1</v>
-      </c>
-      <c r="G158" s="25">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C159" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F159" s="25">
-        <v>1</v>
-      </c>
-      <c r="G159" s="25">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B160" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C160" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F160" s="25">
-        <v>386</v>
-      </c>
-      <c r="G160" s="25">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B161" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F161" s="25">
-        <v>386</v>
-      </c>
-      <c r="G161" s="25">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B162" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F162" s="25">
-        <v>386</v>
-      </c>
-      <c r="G162" s="25">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B163" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C163" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25" t="s">
+      <c r="F180" s="24">
+        <v>655</v>
+      </c>
+      <c r="G180" s="24">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F163" s="25">
-        <v>890</v>
-      </c>
-      <c r="G163" s="25">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B164" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C164" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" s="25"/>
-      <c r="E164" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F164" s="25">
-        <v>1196</v>
-      </c>
-      <c r="G164" s="25">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B165" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C165" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F165" s="25">
-        <v>1877</v>
-      </c>
-      <c r="G165" s="25">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B166" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C166" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25" t="s">
+      <c r="F181" s="24">
+        <v>853</v>
+      </c>
+      <c r="G181" s="24">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F182" s="24">
+        <v>2359</v>
+      </c>
+      <c r="G182" s="24">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="24">
+        <v>2359</v>
+      </c>
+      <c r="G183" s="24">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F184" s="24">
+        <v>3391</v>
+      </c>
+      <c r="G184" s="24">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B185" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F185" s="24">
+        <v>3979</v>
+      </c>
+      <c r="G185" s="24">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" s="24">
+        <v>4432</v>
+      </c>
+      <c r="G186" s="24">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B187" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F166" s="25">
-        <v>2462</v>
-      </c>
-      <c r="G166" s="25">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B167" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F167" s="25">
-        <v>3584</v>
-      </c>
-      <c r="G167" s="25">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B168" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C168" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F168" s="25">
-        <v>3794</v>
-      </c>
-      <c r="G168" s="25">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B169" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C169" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F169" s="25">
-        <v>7472</v>
-      </c>
-      <c r="G169" s="25">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C170" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F170" s="25">
-        <v>7664</v>
-      </c>
-      <c r="G170" s="25">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B171" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C171" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25" t="s">
+      <c r="F187" s="24">
+        <v>6304</v>
+      </c>
+      <c r="G187" s="24">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B188" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" s="24">
+        <v>6688</v>
+      </c>
+      <c r="G188" s="24">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F189" s="24">
+        <v>6763</v>
+      </c>
+      <c r="G189" s="24">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F171" s="25">
-        <v>8705</v>
-      </c>
-      <c r="G171" s="25">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B172" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C172" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F172" s="25">
-        <v>8705</v>
-      </c>
-      <c r="G172" s="25">
-        <v>10192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B173" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C173" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="25">
-        <v>10193</v>
-      </c>
-      <c r="G173" s="25">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B174" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C174" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F174" s="25">
-        <v>12360</v>
-      </c>
-      <c r="G174" s="25">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C175" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F175" s="25">
-        <v>1</v>
-      </c>
-      <c r="G175" s="25">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C176" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F176" s="25">
-        <v>1</v>
-      </c>
-      <c r="G176" s="25">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B177" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F177" s="25">
-        <v>1</v>
-      </c>
-      <c r="G177" s="25">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F178" s="25">
-        <v>1</v>
-      </c>
-      <c r="G178" s="25">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C179" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F179" s="25">
-        <v>346</v>
-      </c>
-      <c r="G179" s="25">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B180" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C180" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F180" s="25">
-        <v>655</v>
-      </c>
-      <c r="G180" s="25">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B181" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C181" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F181" s="25">
-        <v>853</v>
-      </c>
-      <c r="G181" s="25">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B182" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F182" s="25">
-        <v>2359</v>
-      </c>
-      <c r="G182" s="25">
+      <c r="F190" s="24">
+        <v>7558</v>
+      </c>
+      <c r="G190" s="24">
         <v>10050</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B183" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C183" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F183" s="25">
-        <v>2359</v>
-      </c>
-      <c r="G183" s="25">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B184" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C184" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D184" s="25"/>
-      <c r="E184" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F184" s="25">
-        <v>3391</v>
-      </c>
-      <c r="G184" s="25">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B185" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C185" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D185" s="25"/>
-      <c r="E185" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F185" s="25">
-        <v>3979</v>
-      </c>
-      <c r="G185" s="25">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B186" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C186" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D186" s="25"/>
-      <c r="E186" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" s="25">
-        <v>4432</v>
-      </c>
-      <c r="G186" s="25">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B187" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C187" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F187" s="25">
-        <v>6304</v>
-      </c>
-      <c r="G187" s="25">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B188" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D188" s="25"/>
-      <c r="E188" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" s="25">
-        <v>6688</v>
-      </c>
-      <c r="G188" s="25">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B189" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C189" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D189" s="25"/>
-      <c r="E189" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F189" s="25">
-        <v>6763</v>
-      </c>
-      <c r="G189" s="25">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B190" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C190" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D190" s="25"/>
-      <c r="E190" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" s="25">
-        <v>7558</v>
-      </c>
-      <c r="G190" s="25">
-        <v>10050</v>
-      </c>
-      <c r="H190" s="23"/>
+      <c r="H190" s="22"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B191" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C191" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D191" s="25"/>
+      <c r="A191" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B191" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D191" s="24"/>
       <c r="E191" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -10331,82 +10304,82 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B192" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C192" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D192" s="25"/>
-      <c r="E192" s="25" t="s">
+      <c r="F192" s="24">
         <v>117</v>
       </c>
-      <c r="F192" s="25">
-        <v>117</v>
-      </c>
-      <c r="G192" s="25">
+      <c r="G192" s="24">
         <v>2543</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B193" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C193" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25" t="s">
-        <v>130</v>
+      <c r="A193" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="F193">
         <f t="shared" ref="F193" si="0">(D193+2824)</f>
         <v>2824</v>
       </c>
-      <c r="G193" s="25">
+      <c r="G193" s="24">
         <v>5673</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B194" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C194" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D194" s="25"/>
+      <c r="A194" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D194" s="24"/>
       <c r="E194" t="s">
-        <v>83</v>
-      </c>
-      <c r="F194" s="25">
+        <v>81</v>
+      </c>
+      <c r="F194" s="24">
         <v>1</v>
       </c>
-      <c r="G194" s="25">
+      <c r="G194" s="24">
         <v>3114</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B195" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C195" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25" t="s">
-        <v>130</v>
+      <c r="A195" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="F195">
         <v>105</v>
@@ -10416,39 +10389,39 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B196" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C196" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D196" s="25"/>
+      <c r="A196" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B196" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D196" s="24"/>
       <c r="E196" t="s">
-        <v>83</v>
-      </c>
-      <c r="F196" s="25">
+        <v>81</v>
+      </c>
+      <c r="F196" s="24">
         <v>1</v>
       </c>
-      <c r="G196" s="25">
+      <c r="G196" s="24">
         <v>2824</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B197" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C197" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D197" s="25"/>
-      <c r="E197" s="25" t="s">
-        <v>117</v>
+      <c r="A197" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="F197">
         <v>117</v>
@@ -11439,19 +11412,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>56</v>
+      <c r="D28" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -11462,19 +11435,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -11488,7 +11461,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -11508,13 +11481,13 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="10">
         <v>386</v>
@@ -11528,13 +11501,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="9">
         <v>386</v>
@@ -11548,7 +11521,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -11568,7 +11541,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -11588,13 +11561,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F35" s="9">
         <v>1877</v>
@@ -11608,13 +11581,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" s="9">
         <v>2462</v>
@@ -11628,7 +11601,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -11648,7 +11621,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -11668,7 +11641,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -11688,7 +11661,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -11708,7 +11681,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -11728,7 +11701,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -11748,7 +11721,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -11765,16 +11738,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>15</v>
@@ -11788,16 +11761,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>15</v>
@@ -11811,19 +11784,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F46">
         <v>105</v>
@@ -11834,16 +11807,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>11</v>
@@ -11880,25 +11853,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="24">
         <v>105</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="24">
         <v>2849</v>
       </c>
       <c r="H1">
@@ -11911,25 +11884,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="25">
+      <c r="A2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="24">
         <v>105</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>2849</v>
       </c>
       <c r="H2">
@@ -11943,19 +11916,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -11974,42 +11947,42 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="24">
         <v>117</v>
       </c>
-      <c r="F4" s="25">
-        <v>117</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>2543</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flaviviridae-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9A51FC-468B-2B4F-A1A8-BAB652BD9878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD8CA42-19A1-8446-AC77-3B076EB1EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23760" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5995,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD8CA42-19A1-8446-AC77-3B076EB1EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47B4C50-5745-F941-849F-06EA71D90492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23760" yWindow="500" windowWidth="26680" windowHeight="24820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="131">
   <si>
     <t>featureName</t>
   </si>
@@ -232,9 +233,6 @@
     <t>REF_JMTV_SEG1</t>
   </si>
   <si>
-    <t>REF_HCV</t>
-  </si>
-  <si>
     <t>REF_POWV</t>
   </si>
   <si>
@@ -422,6 +420,18 @@
   </si>
   <si>
     <t>dISF</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_1_HCV</t>
+  </si>
+  <si>
+    <t>REF_TDAV</t>
+  </si>
+  <si>
+    <t>KC145265</t>
+  </si>
+  <si>
+    <t>Core</t>
   </si>
 </sst>
 </file>
@@ -501,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,6 +662,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3121,7 +3137,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3191,6 +3207,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2457">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -5993,10 +6010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1510"/>
+  <dimension ref="A1:H1504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E148" sqref="A1:G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6012,7 +6029,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>56</v>
@@ -6047,7 +6064,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -6093,7 +6110,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
@@ -6116,7 +6133,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7">
         <v>97</v>
@@ -6139,7 +6156,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="7">
         <v>97</v>
@@ -6162,7 +6179,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7">
         <v>526</v>
@@ -6185,7 +6202,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7">
         <v>955</v>
@@ -6208,7 +6225,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="7">
         <v>2251</v>
@@ -6254,7 +6271,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7">
         <v>3421</v>
@@ -6277,7 +6294,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="7">
         <v>4042</v>
@@ -6323,7 +6340,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7">
         <v>6250</v>
@@ -6369,7 +6386,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7">
         <v>6724</v>
@@ -6425,100 +6442,100 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>42</v>
+      <c r="A19" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>11064</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>42</v>
+      <c r="A20" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>10122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>42</v>
+      <c r="A21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F21" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7">
-        <v>10893</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>42</v>
+      <c r="A22" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G22" s="7">
-        <v>10264</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="41" t="s">
         <v>77</v>
@@ -6527,21 +6544,21 @@
         <v>14</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23">
-        <v>10761</v>
+        <v>126</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="7">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7">
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>77</v>
@@ -6550,21 +6567,21 @@
         <v>14</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7">
+        <v>382</v>
+      </c>
+      <c r="G24" s="7">
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>77</v>
@@ -6573,21 +6590,21 @@
         <v>14</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="23">
-        <v>120</v>
-      </c>
-      <c r="G25" s="23">
-        <v>10445</v>
+        <v>126</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7">
+        <v>889</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2385</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>77</v>
@@ -6596,16 +6613,16 @@
         <v>14</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="23">
-        <v>10446</v>
-      </c>
-      <c r="G26" s="23">
-        <v>10761</v>
+        <v>126</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2386</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3444</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -6613,22 +6630,22 @@
         <v>44</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F27" s="7">
-        <v>1</v>
+        <v>3445</v>
       </c>
       <c r="G27" s="7">
-        <v>10320</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -6636,22 +6653,22 @@
         <v>44</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7">
-        <v>1</v>
+        <v>4126</v>
       </c>
       <c r="G28" s="7">
-        <v>15</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -6659,22 +6676,22 @@
         <v>44</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="F29" s="7">
-        <v>16</v>
+        <v>4519</v>
       </c>
       <c r="G29" s="7">
-        <v>10320</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -6682,22 +6699,22 @@
         <v>44</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F30" s="7">
-        <v>16</v>
+        <v>6382</v>
       </c>
       <c r="G30" s="7">
-        <v>2385</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -6705,22 +6722,22 @@
         <v>44</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="F31" s="7">
-        <v>16</v>
+        <v>6760</v>
       </c>
       <c r="G31" s="7">
-        <v>381</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -6728,22 +6745,22 @@
         <v>44</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F32" s="7">
-        <v>382</v>
+        <v>6829</v>
       </c>
       <c r="G32" s="7">
-        <v>888</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -6751,321 +6768,321 @@
         <v>44</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="F33" s="7">
-        <v>889</v>
+        <v>7594</v>
       </c>
       <c r="G33" s="7">
-        <v>2385</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F34" s="7">
         <v>2386</v>
       </c>
       <c r="G34" s="7">
-        <v>3444</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="A35" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="25">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="25">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="24">
+        <v>95</v>
+      </c>
+      <c r="G37" s="24">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="24">
+        <v>95</v>
+      </c>
+      <c r="G38" s="24">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="24">
+        <v>95</v>
+      </c>
+      <c r="G39" s="24">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="24">
+        <v>437</v>
+      </c>
+      <c r="G40" s="24">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="24">
+        <v>935</v>
+      </c>
+      <c r="G41" s="24">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="24">
+        <v>2420</v>
+      </c>
+      <c r="G42" s="24">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="24">
+        <v>2420</v>
+      </c>
+      <c r="G43" s="24">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="24">
+        <v>3476</v>
+      </c>
+      <c r="G44" s="24">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="7">
-        <v>3445</v>
-      </c>
-      <c r="G35" s="7">
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="7">
-        <v>4126</v>
-      </c>
-      <c r="G36" s="7">
-        <v>4518</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="F45" s="24">
+        <v>4130</v>
+      </c>
+      <c r="G45" s="24">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="7">
-        <v>4519</v>
-      </c>
-      <c r="G37" s="7">
-        <v>6381</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="7">
-        <v>6382</v>
-      </c>
-      <c r="G38" s="7">
-        <v>6759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="7">
-        <v>6760</v>
-      </c>
-      <c r="G39" s="7">
-        <v>6828</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="7">
-        <v>6829</v>
-      </c>
-      <c r="G40" s="7">
-        <v>7593</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="7">
-        <v>7594</v>
-      </c>
-      <c r="G41" s="7">
-        <v>10317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2386</v>
-      </c>
-      <c r="G42" s="7">
-        <v>10317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7">
-        <v>10891</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="7">
-        <v>103</v>
-      </c>
-      <c r="G46" s="7">
-        <v>10440</v>
+      <c r="F46" s="24">
+        <v>4520</v>
+      </c>
+      <c r="G46" s="24">
+        <v>6376</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -7082,13 +7099,13 @@
         <v>39</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="25">
-        <v>1</v>
-      </c>
-      <c r="G47" s="25">
-        <v>10735</v>
+        <v>87</v>
+      </c>
+      <c r="F47" s="24">
+        <v>6377</v>
+      </c>
+      <c r="G47" s="24">
+        <v>6757</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -7105,13 +7122,13 @@
         <v>39</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="25">
-        <v>1</v>
-      </c>
-      <c r="G48" s="25">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="F48" s="24">
+        <v>6758</v>
+      </c>
+      <c r="G48" s="24">
+        <v>6826</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -7128,13 +7145,13 @@
         <v>39</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F49" s="24">
-        <v>95</v>
+        <v>6827</v>
       </c>
       <c r="G49" s="24">
-        <v>10273</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -7150,14 +7167,14 @@
       <c r="D50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="26" t="s">
-        <v>103</v>
+      <c r="E50" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="F50" s="24">
-        <v>95</v>
+        <v>7574</v>
       </c>
       <c r="G50" s="24">
-        <v>2419</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -7174,289 +7191,289 @@
         <v>39</v>
       </c>
       <c r="E51" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="24">
+        <v>10274</v>
+      </c>
+      <c r="G51" s="24">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="7">
+        <v>119</v>
+      </c>
+      <c r="G54" s="7">
+        <v>10354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="7">
+        <v>119</v>
+      </c>
+      <c r="G55" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="7">
+        <v>119</v>
+      </c>
+      <c r="G56" s="7">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="7">
+        <v>482</v>
+      </c>
+      <c r="G57" s="7">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="24">
-        <v>95</v>
-      </c>
-      <c r="G51" s="24">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="24">
-        <v>437</v>
-      </c>
-      <c r="G52" s="24">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="24">
-        <v>935</v>
-      </c>
-      <c r="G53" s="24">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="24">
-        <v>2420</v>
-      </c>
-      <c r="G54" s="24">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="24" t="s">
+      <c r="F58" s="7">
+        <v>974</v>
+      </c>
+      <c r="G58" s="7">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G59" s="7">
+        <v>10351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="24">
-        <v>2420</v>
-      </c>
-      <c r="G55" s="24">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="24" t="s">
+      <c r="F60" s="7">
+        <v>2453</v>
+      </c>
+      <c r="G60" s="7">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="7">
+        <v>3509</v>
+      </c>
+      <c r="G61" s="7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="24">
-        <v>3476</v>
-      </c>
-      <c r="G56" s="24">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="24">
-        <v>4130</v>
-      </c>
-      <c r="G57" s="24">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="24" t="s">
+      <c r="F62" s="7">
+        <v>4181</v>
+      </c>
+      <c r="G62" s="7">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="24">
-        <v>4520</v>
-      </c>
-      <c r="G58" s="24">
-        <v>6376</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" s="24">
-        <v>6377</v>
-      </c>
-      <c r="G59" s="24">
-        <v>6757</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="24">
-        <v>6758</v>
-      </c>
-      <c r="G60" s="24">
-        <v>6826</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="24">
-        <v>6827</v>
-      </c>
-      <c r="G61" s="24">
-        <v>7573</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="24">
-        <v>7574</v>
-      </c>
-      <c r="G62" s="24">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="24">
-        <v>10274</v>
-      </c>
-      <c r="G63" s="24">
-        <v>10735</v>
+      <c r="F63" s="7">
+        <v>4571</v>
+      </c>
+      <c r="G63" s="7">
+        <v>6439</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -7464,7 +7481,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>14</v>
@@ -7473,21 +7490,21 @@
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F64" s="7">
-        <v>1</v>
+        <v>6440</v>
       </c>
       <c r="G64" s="7">
-        <v>10862</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="38" t="s">
         <v>30</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>14</v>
@@ -7496,13 +7513,13 @@
         <v>41</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F65" s="7">
-        <v>1</v>
+        <v>6818</v>
       </c>
       <c r="G65" s="7">
-        <v>118</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -7510,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="39" t="s">
         <v>14</v>
@@ -7519,13 +7536,13 @@
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F66" s="7">
-        <v>119</v>
+        <v>6887</v>
       </c>
       <c r="G66" s="7">
-        <v>10354</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -7533,7 +7550,7 @@
         <v>30</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>14</v>
@@ -7542,13 +7559,13 @@
         <v>41</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="F67" s="7">
-        <v>119</v>
+        <v>7637</v>
       </c>
       <c r="G67" s="7">
-        <v>2452</v>
+        <v>10351</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -7556,7 +7573,7 @@
         <v>30</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>14</v>
@@ -7565,289 +7582,289 @@
         <v>41</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="7">
+        <v>10355</v>
+      </c>
+      <c r="G68" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" s="24">
+        <v>1</v>
+      </c>
+      <c r="G69" s="24">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="24">
+        <v>1</v>
+      </c>
+      <c r="G70" s="24">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="24">
+        <v>1</v>
+      </c>
+      <c r="G71" s="24">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="24">
+        <v>1</v>
+      </c>
+      <c r="G72" s="24">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="24">
+        <v>331</v>
+      </c>
+      <c r="G73" s="24">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="24">
+        <v>589</v>
+      </c>
+      <c r="G74" s="24">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F68" s="7">
-        <v>119</v>
-      </c>
-      <c r="G68" s="7">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="7">
-        <v>482</v>
-      </c>
-      <c r="G69" s="7">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="7">
-        <v>974</v>
-      </c>
-      <c r="G70" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F71" s="7">
-        <v>2453</v>
-      </c>
-      <c r="G71" s="7">
-        <v>10351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="F75" s="24">
+        <v>814</v>
+      </c>
+      <c r="G75" s="24">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="7">
-        <v>2453</v>
-      </c>
-      <c r="G72" s="7">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="7" t="s">
+      <c r="F76" s="24">
+        <v>2269</v>
+      </c>
+      <c r="G76" s="24">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" s="24">
+        <v>3328</v>
+      </c>
+      <c r="G77" s="24">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="7">
-        <v>3509</v>
-      </c>
-      <c r="G73" s="7">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F74" s="7">
-        <v>4181</v>
-      </c>
-      <c r="G74" s="7">
-        <v>4570</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="F78" s="24">
+        <v>4003</v>
+      </c>
+      <c r="G78" s="24">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="7">
-        <v>4571</v>
-      </c>
-      <c r="G75" s="7">
-        <v>6439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F76" s="7">
-        <v>6440</v>
-      </c>
-      <c r="G76" s="7">
-        <v>6817</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="7">
-        <v>6818</v>
-      </c>
-      <c r="G77" s="7">
-        <v>6886</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F78" s="7">
-        <v>6887</v>
-      </c>
-      <c r="G78" s="7">
-        <v>7636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="7">
-        <v>7637</v>
-      </c>
-      <c r="G79" s="7">
-        <v>10351</v>
+      <c r="F79" s="24">
+        <v>4393</v>
+      </c>
+      <c r="G79" s="24">
+        <v>6240</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B80" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="7">
-        <v>10355</v>
-      </c>
-      <c r="G80" s="7">
-        <v>10862</v>
+      <c r="A80" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="24">
+        <v>6241</v>
+      </c>
+      <c r="G80" s="24">
+        <v>6597</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -7855,7 +7872,7 @@
         <v>46</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>14</v>
@@ -7864,13 +7881,13 @@
         <v>54</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F81" s="24">
-        <v>1</v>
+        <v>6598</v>
       </c>
       <c r="G81" s="24">
-        <v>10116</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -7878,7 +7895,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>14</v>
@@ -7887,13 +7904,13 @@
         <v>54</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F82" s="24">
-        <v>1</v>
+        <v>6667</v>
       </c>
       <c r="G82" s="24">
-        <v>10116</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -7901,7 +7918,7 @@
         <v>46</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>14</v>
@@ -7910,13 +7927,13 @@
         <v>54</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="F83" s="24">
-        <v>1</v>
+        <v>7423</v>
       </c>
       <c r="G83" s="24">
-        <v>2268</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -7924,7 +7941,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>14</v>
@@ -7933,336 +7950,336 @@
         <v>54</v>
       </c>
       <c r="E84" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F84" s="24">
+        <v>2269</v>
+      </c>
+      <c r="G84" s="24">
+        <v>10116</v>
+      </c>
+      <c r="H84" s="24"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+      <c r="G85" s="7">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1</v>
+      </c>
+      <c r="G86" s="7">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1</v>
+      </c>
+      <c r="G87" s="7">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1</v>
+      </c>
+      <c r="G88" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="7">
+        <v>112</v>
+      </c>
+      <c r="G89" s="7">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" s="7">
+        <v>112</v>
+      </c>
+      <c r="G90" s="7">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="7">
+        <v>112</v>
+      </c>
+      <c r="G91" s="7">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="7">
+        <v>442</v>
+      </c>
+      <c r="G92" s="7">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F84" s="24">
-        <v>1</v>
-      </c>
-      <c r="G84" s="24">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F85" s="24">
-        <v>331</v>
-      </c>
-      <c r="G85" s="24">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F86" s="24">
-        <v>589</v>
-      </c>
-      <c r="G86" s="24">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E87" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" s="24">
-        <v>814</v>
-      </c>
-      <c r="G87" s="24">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E88" s="24" t="s">
+      <c r="F93" s="7">
+        <v>946</v>
+      </c>
+      <c r="G93" s="7">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94" s="7">
+        <v>2437</v>
+      </c>
+      <c r="G94" s="7">
+        <v>10356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="24">
-        <v>2269</v>
-      </c>
-      <c r="G88" s="24">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="24" t="s">
+      <c r="F95" s="7">
+        <v>2437</v>
+      </c>
+      <c r="G95" s="7">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="7">
+        <v>3496</v>
+      </c>
+      <c r="G96" s="7">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F89" s="24">
-        <v>3328</v>
-      </c>
-      <c r="G89" s="24">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" s="24">
-        <v>4003</v>
-      </c>
-      <c r="G90" s="24">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E91" s="24" t="s">
+      <c r="F97" s="7">
+        <v>4186</v>
+      </c>
+      <c r="G97" s="7">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F91" s="24">
-        <v>4393</v>
-      </c>
-      <c r="G91" s="24">
-        <v>6240</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F92" s="24">
-        <v>6241</v>
-      </c>
-      <c r="G92" s="24">
-        <v>6597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="24">
-        <v>6598</v>
-      </c>
-      <c r="G93" s="24">
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F94" s="24">
-        <v>6667</v>
-      </c>
-      <c r="G94" s="24">
-        <v>7422</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="24">
-        <v>7423</v>
-      </c>
-      <c r="G95" s="24">
-        <v>10113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E96" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F96" s="24">
-        <v>2269</v>
-      </c>
-      <c r="G96" s="24">
-        <v>10116</v>
-      </c>
-      <c r="H96" s="24"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F97" s="7">
-        <v>1</v>
-      </c>
-      <c r="G97" s="7">
-        <v>10242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F98" s="7">
-        <v>1</v>
+        <v>4579</v>
       </c>
       <c r="G98" s="7">
-        <v>10242</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -8270,7 +8287,7 @@
         <v>33</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>14</v>
@@ -8279,13 +8296,13 @@
         <v>43</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F99" s="7">
-        <v>1</v>
+        <v>6445</v>
       </c>
       <c r="G99" s="7">
-        <v>10839</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -8293,7 +8310,7 @@
         <v>33</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>14</v>
@@ -8302,13 +8319,13 @@
         <v>43</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F100" s="7">
-        <v>1</v>
+        <v>6823</v>
       </c>
       <c r="G100" s="7">
-        <v>111</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -8316,7 +8333,7 @@
         <v>33</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>14</v>
@@ -8325,13 +8342,13 @@
         <v>43</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F101" s="7">
-        <v>112</v>
+        <v>6892</v>
       </c>
       <c r="G101" s="7">
-        <v>10359</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -8339,7 +8356,7 @@
         <v>33</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>14</v>
@@ -8348,13 +8365,13 @@
         <v>43</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="F102" s="7">
-        <v>112</v>
+        <v>7648</v>
       </c>
       <c r="G102" s="7">
-        <v>2436</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -8362,7 +8379,7 @@
         <v>33</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>14</v>
@@ -8371,289 +8388,289 @@
         <v>43</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F103" s="7">
-        <v>112</v>
+        <v>10357</v>
       </c>
       <c r="G103" s="7">
-        <v>441</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F104" s="7">
-        <v>442</v>
-      </c>
-      <c r="G104" s="7">
-        <v>945</v>
+      <c r="A104" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F104" s="24">
+        <v>1</v>
+      </c>
+      <c r="G104" s="24">
+        <v>9646</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F105" s="7">
-        <v>946</v>
-      </c>
-      <c r="G105" s="7">
-        <v>2436</v>
+      <c r="A105" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="24">
+        <v>1</v>
+      </c>
+      <c r="G105" s="24">
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="A106" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F106" s="7">
-        <v>2437</v>
-      </c>
-      <c r="G106" s="7">
-        <v>10356</v>
+      <c r="E106" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F106" s="24">
+        <v>342</v>
+      </c>
+      <c r="G106" s="24">
+        <v>9377</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="7">
-        <v>2437</v>
-      </c>
-      <c r="G107" s="7">
-        <v>3495</v>
+      <c r="A107" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F107" s="24">
+        <v>342</v>
+      </c>
+      <c r="G107" s="24">
+        <v>2579</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F108" s="7">
-        <v>3496</v>
-      </c>
-      <c r="G108" s="7">
-        <v>4185</v>
+      <c r="A108" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="24">
+        <v>342</v>
+      </c>
+      <c r="G108" s="24">
+        <v>914</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F109" s="7">
-        <v>4186</v>
-      </c>
-      <c r="G109" s="7">
-        <v>4578</v>
+      <c r="A109" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F109" s="24">
+        <v>915</v>
+      </c>
+      <c r="G109" s="24">
+        <v>1490</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="7" t="s">
+      <c r="A110" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F110" s="24">
+        <v>1491</v>
+      </c>
+      <c r="G110" s="24">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F111" s="24">
+        <v>2580</v>
+      </c>
+      <c r="G111" s="24">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" s="24">
+        <v>2580</v>
+      </c>
+      <c r="G112" s="24">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F113" s="24">
+        <v>2769</v>
+      </c>
+      <c r="G113" s="24">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="7">
-        <v>4579</v>
-      </c>
-      <c r="G110" s="7">
-        <v>6444</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F111" s="7">
-        <v>6445</v>
-      </c>
-      <c r="G111" s="7">
-        <v>6822</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F112" s="7">
-        <v>6823</v>
-      </c>
-      <c r="G112" s="7">
-        <v>6891</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F113" s="7">
-        <v>6892</v>
-      </c>
-      <c r="G113" s="7">
-        <v>7647</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="7">
-        <v>7648</v>
-      </c>
-      <c r="G114" s="7">
-        <v>10356</v>
+      <c r="F114" s="24">
+        <v>3420</v>
+      </c>
+      <c r="G114" s="24">
+        <v>5312</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="7">
-        <v>10357</v>
-      </c>
-      <c r="G115" s="7">
-        <v>10839</v>
+      <c r="A115" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F115" s="24">
+        <v>5313</v>
+      </c>
+      <c r="G115" s="24">
+        <v>5474</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -8661,22 +8678,22 @@
         <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C116" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F116" s="24">
-        <v>1</v>
+        <v>5475</v>
       </c>
       <c r="G116" s="24">
-        <v>9646</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -8684,22 +8701,22 @@
         <v>34</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C117" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F117" s="24">
-        <v>1</v>
+        <v>6258</v>
       </c>
       <c r="G117" s="24">
-        <v>341</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -8707,22 +8724,22 @@
         <v>34</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C118" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F118" s="24">
-        <v>342</v>
+        <v>6258</v>
       </c>
       <c r="G118" s="24">
-        <v>9377</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -8730,22 +8747,22 @@
         <v>34</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C119" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F119" s="24">
-        <v>342</v>
+        <v>7602</v>
       </c>
       <c r="G119" s="24">
-        <v>2579</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -8753,298 +8770,274 @@
         <v>34</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C120" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F120" s="24">
-        <v>342</v>
+        <v>9378</v>
       </c>
       <c r="G120" s="24">
-        <v>914</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D121" s="36" t="s">
-        <v>105</v>
-      </c>
+      <c r="A121" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121"/>
       <c r="E121" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" s="24">
+        <v>1</v>
+      </c>
+      <c r="G121" s="24">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="24">
+        <v>1</v>
+      </c>
+      <c r="G122" s="24">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" s="24">
+        <v>328</v>
+      </c>
+      <c r="G123" s="24">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F124" s="24">
+        <v>328</v>
+      </c>
+      <c r="G124" s="24">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F125" s="24">
+        <v>328</v>
+      </c>
+      <c r="G125" s="24">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F126" s="24">
+        <v>565</v>
+      </c>
+      <c r="G126" s="24">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F121" s="24">
-        <v>915</v>
-      </c>
-      <c r="G121" s="24">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E122" s="24" t="s">
+      <c r="F127" s="24">
+        <v>1138</v>
+      </c>
+      <c r="G127" s="24">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" s="24">
+        <v>2200</v>
+      </c>
+      <c r="G128" s="24">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" s="24">
+        <v>2911</v>
+      </c>
+      <c r="G129" s="24">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" s="24">
+        <v>2911</v>
+      </c>
+      <c r="G130" s="24">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="24">
+        <v>3631</v>
+      </c>
+      <c r="G131" s="24">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F122" s="24">
-        <v>1491</v>
-      </c>
-      <c r="G122" s="24">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F123" s="24">
-        <v>2580</v>
-      </c>
-      <c r="G123" s="24">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F124" s="24">
-        <v>2580</v>
-      </c>
-      <c r="G124" s="24">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D125" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F125" s="24">
-        <v>2769</v>
-      </c>
-      <c r="G125" s="24">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="24">
-        <v>3420</v>
-      </c>
-      <c r="G126" s="24">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D127" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F127" s="24">
-        <v>5313</v>
-      </c>
-      <c r="G127" s="24">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F128" s="24">
-        <v>5475</v>
-      </c>
-      <c r="G128" s="24">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="24">
-        <v>6258</v>
-      </c>
-      <c r="G129" s="24">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B130" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F130" s="24">
-        <v>6258</v>
-      </c>
-      <c r="G130" s="24">
-        <v>7601</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="24">
-        <v>7602</v>
-      </c>
-      <c r="G131" s="24">
-        <v>9374</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>11</v>
-      </c>
       <c r="F132" s="24">
-        <v>9378</v>
+        <v>5515</v>
       </c>
       <c r="G132" s="24">
-        <v>9646</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -9059,13 +9052,13 @@
       </c>
       <c r="D133"/>
       <c r="E133" s="24" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F133" s="24">
-        <v>1</v>
+        <v>5638</v>
       </c>
       <c r="G133" s="24">
-        <v>9867</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -9080,13 +9073,13 @@
       </c>
       <c r="D134"/>
       <c r="E134" s="24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F134" s="24">
-        <v>1</v>
+        <v>6424</v>
       </c>
       <c r="G134" s="24">
-        <v>327</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -9101,13 +9094,13 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="24" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F135" s="24">
-        <v>328</v>
+        <v>6424</v>
       </c>
       <c r="G135" s="24">
-        <v>9501</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -9122,13 +9115,13 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="24" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F136" s="24">
-        <v>328</v>
+        <v>7798</v>
       </c>
       <c r="G136" s="24">
-        <v>2199</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -9143,449 +9136,449 @@
       </c>
       <c r="D137"/>
       <c r="E137" s="24" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F137" s="24">
-        <v>328</v>
+        <v>9502</v>
       </c>
       <c r="G137" s="24">
-        <v>564</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C138" s="32" t="s">
+      <c r="A138" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D138"/>
       <c r="E138" s="24" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F138" s="24">
-        <v>565</v>
+        <v>1</v>
       </c>
       <c r="G138" s="24">
-        <v>1137</v>
+        <v>10479</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C139" s="32" t="s">
+      <c r="A139" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D139"/>
       <c r="E139" s="24" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F139" s="24">
-        <v>1138</v>
+        <v>618</v>
       </c>
       <c r="G139" s="24">
-        <v>2199</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C140" s="32" t="s">
+      <c r="A140" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D140"/>
       <c r="E140" s="24" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="F140" s="24">
-        <v>2200</v>
+        <v>618</v>
       </c>
       <c r="G140" s="24">
-        <v>2910</v>
+        <v>695</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C141" s="32" t="s">
+      <c r="A141" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D141"/>
       <c r="E141" s="24" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F141" s="24">
-        <v>2911</v>
+        <v>696</v>
       </c>
       <c r="G141" s="24">
-        <v>9498</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B142" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C142" s="32" t="s">
+      <c r="A142" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D142"/>
       <c r="E142" s="24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F142" s="24">
-        <v>2911</v>
+        <v>1218</v>
       </c>
       <c r="G142" s="24">
-        <v>3630</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B143" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C143" s="32" t="s">
+      <c r="A143" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="24" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F143" s="24">
-        <v>3631</v>
+        <v>8388</v>
       </c>
       <c r="G143" s="24">
-        <v>5514</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144"/>
+      <c r="A144" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="E144" s="24" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F144" s="24">
-        <v>5515</v>
+        <v>1</v>
       </c>
       <c r="G144" s="24">
-        <v>5637</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C145" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145"/>
+      <c r="A145" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="E145" s="24" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="F145" s="24">
-        <v>5638</v>
+        <v>1</v>
       </c>
       <c r="G145" s="24">
-        <v>6423</v>
+        <v>350</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C146" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146"/>
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="E146" s="24" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F146" s="24">
-        <v>6424</v>
+        <v>351</v>
       </c>
       <c r="G146" s="24">
-        <v>9498</v>
+        <v>18068</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C147" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147"/>
+      <c r="A147" t="s">
+        <v>52</v>
+      </c>
+      <c r="B147" t="s">
+        <v>61</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="E147" s="24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F147" s="24">
-        <v>6424</v>
+        <v>18069</v>
       </c>
       <c r="G147" s="24">
-        <v>7797</v>
+        <v>19199</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C148" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148"/>
+      <c r="A148" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="E148" s="24" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F148" s="24">
-        <v>7798</v>
+        <v>1</v>
       </c>
       <c r="G148" s="24">
-        <v>9498</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C149" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149"/>
+      <c r="A149" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="E149" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="24">
+        <v>1</v>
+      </c>
+      <c r="G149" s="24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F150" s="24">
+        <v>200</v>
+      </c>
+      <c r="G150" s="24">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D151" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E151" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="24">
-        <v>9502</v>
-      </c>
-      <c r="G149" s="24">
-        <v>9867</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>52</v>
-      </c>
-      <c r="B150" t="s">
-        <v>61</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F150" s="24">
+      <c r="F151" s="24">
+        <v>17906</v>
+      </c>
+      <c r="G151" s="24">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F152" s="24">
         <v>1</v>
       </c>
-      <c r="G150" s="24">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>52</v>
-      </c>
-      <c r="B151" t="s">
-        <v>61</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E151" s="24" t="s">
+      <c r="G152" s="24">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F151" s="24">
+      <c r="F153" s="24">
         <v>1</v>
       </c>
-      <c r="G151" s="24">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>52</v>
-      </c>
-      <c r="B152" t="s">
-        <v>61</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E152" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F152" s="24">
-        <v>351</v>
-      </c>
-      <c r="G152" s="24">
-        <v>18068</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" t="s">
-        <v>61</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="24">
-        <v>18069</v>
-      </c>
       <c r="G153" s="24">
-        <v>19199</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B154" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C154" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D154" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="A154" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="24"/>
       <c r="E154" s="24" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F154" s="24">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G154" s="24">
-        <v>18554</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B155" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="A155" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="24"/>
       <c r="E155" s="24" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F155" s="24">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G155" s="24">
-        <v>199</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="A156" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="24"/>
       <c r="E156" s="24" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F156" s="24">
-        <v>200</v>
+        <v>386</v>
       </c>
       <c r="G156" s="24">
-        <v>17905</v>
+        <v>889</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="A157" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="24"/>
       <c r="E157" s="24" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F157" s="24">
-        <v>17906</v>
+        <v>890</v>
       </c>
       <c r="G157" s="24">
-        <v>18554</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -9600,13 +9593,13 @@
       </c>
       <c r="D158" s="24"/>
       <c r="E158" s="24" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F158" s="24">
-        <v>1</v>
+        <v>1196</v>
       </c>
       <c r="G158" s="24">
-        <v>12573</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -9621,13 +9614,13 @@
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="24" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F159" s="24">
-        <v>1</v>
+        <v>1877</v>
       </c>
       <c r="G159" s="24">
-        <v>385</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -9642,13 +9635,13 @@
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="24" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F160" s="24">
-        <v>386</v>
+        <v>2462</v>
       </c>
       <c r="G160" s="24">
-        <v>12352</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -9663,13 +9656,13 @@
       </c>
       <c r="D161" s="24"/>
       <c r="E161" s="24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F161" s="24">
-        <v>386</v>
+        <v>3584</v>
       </c>
       <c r="G161" s="24">
-        <v>3583</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -9684,13 +9677,13 @@
       </c>
       <c r="D162" s="24"/>
       <c r="E162" s="24" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F162" s="24">
-        <v>386</v>
+        <v>3794</v>
       </c>
       <c r="G162" s="24">
-        <v>889</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -9705,13 +9698,13 @@
       </c>
       <c r="D163" s="24"/>
       <c r="E163" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F163" s="24">
-        <v>890</v>
+        <v>7472</v>
       </c>
       <c r="G163" s="24">
-        <v>1195</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -9726,13 +9719,13 @@
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="24" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F164" s="24">
-        <v>1196</v>
+        <v>7664</v>
       </c>
       <c r="G164" s="24">
-        <v>1876</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -9747,13 +9740,13 @@
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="24" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F165" s="24">
-        <v>1877</v>
+        <v>8705</v>
       </c>
       <c r="G165" s="24">
-        <v>2461</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -9768,13 +9761,13 @@
       </c>
       <c r="D166" s="24"/>
       <c r="E166" s="24" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="F166" s="24">
-        <v>2462</v>
+        <v>8705</v>
       </c>
       <c r="G166" s="24">
-        <v>3583</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -9789,13 +9782,13 @@
       </c>
       <c r="D167" s="24"/>
       <c r="E167" s="24" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F167" s="24">
-        <v>3584</v>
+        <v>10193</v>
       </c>
       <c r="G167" s="24">
-        <v>3793</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -9810,139 +9803,139 @@
       </c>
       <c r="D168" s="24"/>
       <c r="E168" s="24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F168" s="24">
-        <v>3794</v>
+        <v>12360</v>
       </c>
       <c r="G168" s="24">
-        <v>7471</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B169" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C169" s="27" t="s">
-        <v>27</v>
+      <c r="A169" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F169" s="24">
-        <v>7472</v>
+        <v>1</v>
       </c>
       <c r="G169" s="24">
-        <v>7663</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>27</v>
+      <c r="A170" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D170" s="24"/>
       <c r="E170" s="24" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F170" s="24">
-        <v>7664</v>
+        <v>1</v>
       </c>
       <c r="G170" s="24">
-        <v>8704</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B171" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>27</v>
+      <c r="A171" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D171" s="24"/>
       <c r="E171" s="24" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="F171" s="24">
-        <v>8705</v>
+        <v>1</v>
       </c>
       <c r="G171" s="24">
-        <v>12349</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>27</v>
+      <c r="A172" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D172" s="24"/>
       <c r="E172" s="24" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F172" s="24">
-        <v>8705</v>
+        <v>1</v>
       </c>
       <c r="G172" s="24">
-        <v>10192</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B173" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C173" s="27" t="s">
-        <v>27</v>
+      <c r="A173" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D173" s="24"/>
       <c r="E173" s="24" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F173" s="24">
-        <v>10193</v>
+        <v>346</v>
       </c>
       <c r="G173" s="24">
-        <v>12349</v>
+        <v>852</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B174" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>27</v>
+      <c r="A174" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D174" s="24"/>
       <c r="E174" s="24" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F174" s="24">
-        <v>12360</v>
+        <v>655</v>
       </c>
       <c r="G174" s="24">
-        <v>12573</v>
+        <v>852</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -9957,13 +9950,13 @@
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="24" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F175" s="24">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="G175" s="24">
-        <v>10053</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -9978,13 +9971,13 @@
       </c>
       <c r="D176" s="24"/>
       <c r="E176" s="24" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F176" s="24">
-        <v>1</v>
+        <v>2359</v>
       </c>
       <c r="G176" s="24">
-        <v>10053</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -9999,13 +9992,13 @@
       </c>
       <c r="D177" s="24"/>
       <c r="E177" s="24" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F177" s="24">
-        <v>1</v>
+        <v>2359</v>
       </c>
       <c r="G177" s="24">
-        <v>2358</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -10020,13 +10013,13 @@
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="24" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F178" s="24">
-        <v>1</v>
+        <v>3391</v>
       </c>
       <c r="G178" s="24">
-        <v>345</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -10041,13 +10034,13 @@
       </c>
       <c r="D179" s="24"/>
       <c r="E179" s="24" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="F179" s="24">
-        <v>346</v>
+        <v>3979</v>
       </c>
       <c r="G179" s="24">
-        <v>852</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -10062,13 +10055,13 @@
       </c>
       <c r="D180" s="24"/>
       <c r="E180" s="24" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F180" s="24">
-        <v>655</v>
+        <v>4432</v>
       </c>
       <c r="G180" s="24">
-        <v>852</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -10083,13 +10076,13 @@
       </c>
       <c r="D181" s="24"/>
       <c r="E181" s="24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F181" s="24">
-        <v>853</v>
+        <v>6304</v>
       </c>
       <c r="G181" s="24">
-        <v>2358</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -10104,13 +10097,13 @@
       </c>
       <c r="D182" s="24"/>
       <c r="E182" s="24" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F182" s="24">
-        <v>2359</v>
+        <v>6688</v>
       </c>
       <c r="G182" s="24">
-        <v>10050</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -10125,13 +10118,13 @@
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="24" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F183" s="24">
-        <v>2359</v>
+        <v>6763</v>
       </c>
       <c r="G183" s="24">
-        <v>3390</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -10146,293 +10139,197 @@
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="24" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F184" s="24">
-        <v>3391</v>
+        <v>7558</v>
       </c>
       <c r="G184" s="24">
-        <v>3978</v>
-      </c>
+        <v>10050</v>
+      </c>
+      <c r="H184" s="22"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="24" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B185" s="24" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D185" s="24"/>
-      <c r="E185" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F185" s="24">
-        <v>3979</v>
-      </c>
-      <c r="G185" s="24">
-        <v>4431</v>
+      <c r="E185" t="s">
+        <v>80</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>5938</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="24" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B186" s="24" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D186" s="24"/>
       <c r="E186" s="24" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F186" s="24">
-        <v>4432</v>
+        <v>117</v>
       </c>
       <c r="G186" s="24">
-        <v>6303</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="24" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B187" s="24" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D187" s="24"/>
       <c r="E187" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F187" s="24">
-        <v>6304</v>
+        <v>125</v>
+      </c>
+      <c r="F187">
+        <f t="shared" ref="F187" si="0">(D187+2824)</f>
+        <v>2824</v>
       </c>
       <c r="G187" s="24">
-        <v>6687</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="24" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="B188" s="24" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D188" s="24"/>
-      <c r="E188" s="24" t="s">
-        <v>19</v>
+      <c r="E188" t="s">
+        <v>80</v>
       </c>
       <c r="F188" s="24">
-        <v>6688</v>
+        <v>1</v>
       </c>
       <c r="G188" s="24">
-        <v>6762</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="24" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="B189" s="24" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F189" s="24">
-        <v>6763</v>
-      </c>
-      <c r="G189" s="24">
-        <v>7557</v>
+        <v>125</v>
+      </c>
+      <c r="F189">
+        <v>105</v>
+      </c>
+      <c r="G189">
+        <v>2849</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="24" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="B190" s="24" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D190" s="24"/>
-      <c r="E190" s="24" t="s">
-        <v>10</v>
+      <c r="E190" t="s">
+        <v>80</v>
       </c>
       <c r="F190" s="24">
-        <v>7558</v>
+        <v>1</v>
       </c>
       <c r="G190" s="24">
-        <v>10050</v>
-      </c>
-      <c r="H190" s="22"/>
+        <v>2824</v>
+      </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="24" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B191" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C191" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D191" s="24"/>
-      <c r="E191" t="s">
-        <v>81</v>
-      </c>
       <c r="F191">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G191">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B192" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C192" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F192" s="24">
-        <v>117</v>
-      </c>
-      <c r="G192" s="24">
         <v>2543</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B193" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C193" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F193">
-        <f t="shared" ref="F193" si="0">(D193+2824)</f>
-        <v>2824</v>
-      </c>
-      <c r="G193" s="24">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B194" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C194" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D194" s="24"/>
-      <c r="E194" t="s">
-        <v>81</v>
-      </c>
-      <c r="F194" s="24">
-        <v>1</v>
-      </c>
-      <c r="G194" s="24">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B195" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C195" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="F195">
-        <v>105</v>
-      </c>
-      <c r="G195">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B196" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C196" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D196" s="24"/>
-      <c r="E196" t="s">
-        <v>81</v>
-      </c>
-      <c r="F196" s="24">
-        <v>1</v>
-      </c>
-      <c r="G196" s="24">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B197" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C197" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F197">
-        <v>117</v>
-      </c>
-      <c r="G197">
-        <v>2543</v>
-      </c>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B226" s="1"/>
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227" s="1"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B228" s="1"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B229" s="1"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B230" s="1"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B231" s="1"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
       <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
@@ -10521,13 +10418,11 @@
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
-      <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
@@ -10551,105 +10446,92 @@
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
+      <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B258" s="1"/>
-      <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B259" s="1"/>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B260" s="1"/>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B261" s="1"/>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B262" s="1"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B263" s="1"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D264" s="5"/>
-    </row>
-    <row r="946" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E946" s="1"/>
-    </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1082" s="1"/>
-    </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1083" s="1"/>
-    </row>
-    <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1208" s="1"/>
-    </row>
-    <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1209" s="1"/>
-    </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1210" s="1"/>
-    </row>
-    <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1211" s="1"/>
-    </row>
-    <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1212" s="1"/>
-    </row>
-    <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1213" s="1"/>
+    <row r="940" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E940" s="1"/>
+    </row>
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1076" s="1"/>
+    </row>
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1077" s="1"/>
+    </row>
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1202" s="1"/>
+    </row>
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1203" s="1"/>
+    </row>
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1204" s="1"/>
+    </row>
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1205" s="1"/>
+    </row>
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1206" s="1"/>
+    </row>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1207" s="1"/>
+    </row>
+    <row r="1252" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1252" s="1"/>
+      <c r="F1252" s="1"/>
+    </row>
+    <row r="1253" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1253" s="1"/>
+      <c r="F1253" s="1"/>
+    </row>
+    <row r="1254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1254" s="1"/>
+      <c r="F1254" s="1"/>
+    </row>
+    <row r="1256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1256" s="1"/>
+    </row>
+    <row r="1257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1257" s="1"/>
     </row>
     <row r="1258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1258" s="1"/>
-      <c r="F1258" s="1"/>
+      <c r="B1258" s="1"/>
     </row>
     <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1259" s="1"/>
-      <c r="F1259" s="1"/>
+      <c r="B1259" s="1"/>
     </row>
     <row r="1260" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1260" s="1"/>
-      <c r="F1260" s="1"/>
-    </row>
-    <row r="1262" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1262" s="1"/>
-    </row>
-    <row r="1263" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1263" s="1"/>
-    </row>
-    <row r="1264" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1264" s="1"/>
-    </row>
-    <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1265" s="1"/>
-    </row>
-    <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1266" s="1"/>
+      <c r="B1260" s="1"/>
+    </row>
+    <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1279" s="1"/>
+    </row>
+    <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1280" s="1"/>
+    </row>
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1281" s="1"/>
+    </row>
+    <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1282" s="1"/>
+    </row>
+    <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1283" s="1"/>
+    </row>
+    <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1284" s="1"/>
     </row>
     <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1285" s="1"/>
     </row>
-    <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1286" s="1"/>
-    </row>
     <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1287" s="1"/>
     </row>
@@ -10665,23 +10547,23 @@
     <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1291" s="1"/>
     </row>
-    <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1293" s="1"/>
-    </row>
-    <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1294" s="1"/>
-    </row>
-    <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1295" s="1"/>
-    </row>
-    <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1296" s="1"/>
-    </row>
-    <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1297" s="1"/>
-    </row>
-    <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1298" s="1"/>
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1292" s="1"/>
+    </row>
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1344" s="1"/>
+    </row>
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1345" s="1"/>
+    </row>
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1346" s="1"/>
+    </row>
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1347" s="1"/>
+    </row>
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1349" s="1"/>
     </row>
     <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1350" s="1"/>
@@ -10692,81 +10574,66 @@
     <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1352" s="1"/>
     </row>
-    <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1353" s="1"/>
-    </row>
-    <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1355" s="1"/>
-    </row>
-    <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1356" s="1"/>
-    </row>
-    <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1357" s="1"/>
-    </row>
-    <row r="1358" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1358" s="1"/>
-    </row>
-    <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1393" s="1"/>
-    </row>
-    <row r="1394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1394" s="1"/>
-    </row>
-    <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1395" s="1"/>
-    </row>
-    <row r="1396" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1396" s="1"/>
-    </row>
-    <row r="1397" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1397" s="1"/>
-    </row>
-    <row r="1398" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1398" s="1"/>
-    </row>
-    <row r="1440" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E1440" s="1"/>
-      <c r="F1440" s="1"/>
-    </row>
-    <row r="1441" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1441" s="6"/>
-      <c r="E1441" s="1"/>
-      <c r="F1441" s="1"/>
-    </row>
-    <row r="1442" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1442" s="6"/>
-      <c r="D1442" s="6"/>
-      <c r="E1442" s="1"/>
-      <c r="F1442" s="1"/>
-    </row>
-    <row r="1443" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1443" s="6"/>
-      <c r="D1443" s="6"/>
-      <c r="E1443" s="1"/>
-      <c r="F1443" s="1"/>
-    </row>
-    <row r="1444" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D1444" s="6"/>
-      <c r="E1444" s="1"/>
-      <c r="F1444" s="1"/>
-    </row>
-    <row r="1507" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1507" s="1"/>
-    </row>
-    <row r="1508" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1508" s="1"/>
-    </row>
-    <row r="1509" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1509" s="1"/>
-    </row>
-    <row r="1510" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1510" s="1"/>
+    <row r="1387" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1387" s="1"/>
+    </row>
+    <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1388" s="1"/>
+    </row>
+    <row r="1389" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1389" s="1"/>
+    </row>
+    <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1390" s="1"/>
+    </row>
+    <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1391" s="1"/>
+    </row>
+    <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1392" s="1"/>
+    </row>
+    <row r="1434" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E1434" s="1"/>
+      <c r="F1434" s="1"/>
+    </row>
+    <row r="1435" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1435" s="6"/>
+      <c r="E1435" s="1"/>
+      <c r="F1435" s="1"/>
+    </row>
+    <row r="1436" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1436" s="6"/>
+      <c r="D1436" s="6"/>
+      <c r="E1436" s="1"/>
+      <c r="F1436" s="1"/>
+    </row>
+    <row r="1437" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1437" s="6"/>
+      <c r="D1437" s="6"/>
+      <c r="E1437" s="1"/>
+      <c r="F1437" s="1"/>
+    </row>
+    <row r="1438" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1438" s="6"/>
+      <c r="E1438" s="1"/>
+      <c r="F1438" s="1"/>
+    </row>
+    <row r="1501" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1501" s="1"/>
+    </row>
+    <row r="1502" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1502" s="1"/>
+    </row>
+    <row r="1503" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1503" s="1"/>
+    </row>
+    <row r="1504" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1504" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1463">
-    <sortCondition ref="C2:C1463"/>
-    <sortCondition ref="D2:D1463"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1457">
+    <sortCondition ref="C2:C1457"/>
+    <sortCondition ref="D2:D1457"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10780,6 +10647,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3F548B-FE68-2540-97AE-6E1DDD0B842F}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7">
+        <v>11064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="7">
+        <v>97</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="7">
+        <v>110</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="23">
+        <v>120</v>
+      </c>
+      <c r="G7" s="23">
+        <v>10445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="23">
+        <v>10446</v>
+      </c>
+      <c r="G8" s="23">
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7">
+        <v>103</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -11415,7 +11573,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>14</v>
@@ -11424,7 +11582,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -11438,7 +11596,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>14</v>
@@ -11447,7 +11605,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -11487,7 +11645,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="10">
         <v>386</v>
@@ -11507,7 +11665,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="9">
         <v>386</v>
@@ -11567,7 +11725,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="9">
         <v>1877</v>
@@ -11587,7 +11745,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F36" s="9">
         <v>2462</v>
@@ -11796,7 +11954,7 @@
         <v>47</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F46">
         <v>105</v>
@@ -11839,12 +11997,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8293D89-B7CB-1741-83BA-13C722E955F9}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11854,16 +12012,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>10</v>
@@ -11885,19 +12043,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="24">
         <v>105</v>
@@ -11916,19 +12074,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -11947,19 +12105,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="C4" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="24">
         <v>117</v>
@@ -11970,19 +12128,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47B4C50-5745-F941-849F-06EA71D90492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70352F9-7C82-2C4B-9FCA-5454AAD89513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>REF_SCNV5</t>
   </si>
   <si>
-    <t>REF_HPgV2</t>
-  </si>
-  <si>
     <t>REF_JMTV_SEG1</t>
   </si>
   <si>
@@ -425,13 +422,16 @@
     <t>REF_HEPACI_1_HCV</t>
   </si>
   <si>
-    <t>REF_TDAV</t>
-  </si>
-  <si>
     <t>KC145265</t>
   </si>
   <si>
     <t>Core</t>
+  </si>
+  <si>
+    <t>REF_PEGI_1_HPgV2</t>
+  </si>
+  <si>
+    <t>REF_PEGI_2_TDAV</t>
   </si>
 </sst>
 </file>
@@ -6012,8 +6012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E148" sqref="A1:G191"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6029,7 +6029,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>56</v>
@@ -6064,7 +6064,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -6110,7 +6110,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
@@ -6133,7 +6133,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7">
         <v>97</v>
@@ -6156,7 +6156,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7">
         <v>97</v>
@@ -6179,7 +6179,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="7">
         <v>526</v>
@@ -6202,7 +6202,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="7">
         <v>955</v>
@@ -6225,7 +6225,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="7">
         <v>2251</v>
@@ -6271,7 +6271,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7">
         <v>3421</v>
@@ -6294,7 +6294,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7">
         <v>4042</v>
@@ -6340,7 +6340,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7">
         <v>6250</v>
@@ -6386,7 +6386,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7">
         <v>6724</v>
@@ -6446,16 +6446,16 @@
         <v>44</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -6469,13 +6469,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>15</v>
@@ -6492,16 +6492,16 @@
         <v>44</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="7">
         <v>16</v>
@@ -6515,16 +6515,16 @@
         <v>44</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7">
         <v>16</v>
@@ -6538,16 +6538,16 @@
         <v>44</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="7">
         <v>16</v>
@@ -6561,16 +6561,16 @@
         <v>44</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7">
         <v>382</v>
@@ -6584,16 +6584,16 @@
         <v>44</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7">
         <v>889</v>
@@ -6607,13 +6607,13 @@
         <v>44</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>4</v>
@@ -6630,16 +6630,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="7">
         <v>3445</v>
@@ -6653,16 +6653,16 @@
         <v>44</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7">
         <v>4126</v>
@@ -6676,13 +6676,13 @@
         <v>44</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>7</v>
@@ -6699,16 +6699,16 @@
         <v>44</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="7">
         <v>6382</v>
@@ -6722,13 +6722,13 @@
         <v>44</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -6745,16 +6745,16 @@
         <v>44</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="7">
         <v>6829</v>
@@ -6768,13 +6768,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>10</v>
@@ -6791,16 +6791,16 @@
         <v>44</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34" s="7">
         <v>2386</v>
@@ -6823,7 +6823,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="25">
         <v>1</v>
@@ -6869,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="24">
         <v>95</v>
@@ -6892,7 +6892,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F38" s="24">
         <v>95</v>
@@ -6915,7 +6915,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="24">
         <v>95</v>
@@ -6938,7 +6938,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" s="24">
         <v>437</v>
@@ -6961,7 +6961,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="24">
         <v>935</v>
@@ -6984,7 +6984,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="24">
         <v>2420</v>
@@ -7030,7 +7030,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="24">
         <v>3476</v>
@@ -7053,7 +7053,7 @@
         <v>39</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="24">
         <v>4130</v>
@@ -7099,7 +7099,7 @@
         <v>39</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="24">
         <v>6377</v>
@@ -7145,7 +7145,7 @@
         <v>39</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" s="24">
         <v>6827</v>
@@ -7205,7 +7205,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>14</v>
@@ -7214,7 +7214,7 @@
         <v>41</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
@@ -7228,7 +7228,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>14</v>
@@ -7251,7 +7251,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>14</v>
@@ -7260,7 +7260,7 @@
         <v>41</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="7">
         <v>119</v>
@@ -7274,7 +7274,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>14</v>
@@ -7283,7 +7283,7 @@
         <v>41</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F55" s="7">
         <v>119</v>
@@ -7297,7 +7297,7 @@
         <v>30</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>14</v>
@@ -7306,7 +7306,7 @@
         <v>41</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="7">
         <v>119</v>
@@ -7320,7 +7320,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>14</v>
@@ -7329,7 +7329,7 @@
         <v>41</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57" s="7">
         <v>482</v>
@@ -7343,7 +7343,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="39" t="s">
         <v>14</v>
@@ -7352,7 +7352,7 @@
         <v>41</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="7">
         <v>974</v>
@@ -7366,7 +7366,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>14</v>
@@ -7375,7 +7375,7 @@
         <v>41</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F59" s="7">
         <v>2453</v>
@@ -7389,7 +7389,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>14</v>
@@ -7412,7 +7412,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>14</v>
@@ -7421,7 +7421,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F61" s="7">
         <v>3509</v>
@@ -7435,7 +7435,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>14</v>
@@ -7444,7 +7444,7 @@
         <v>41</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F62" s="7">
         <v>4181</v>
@@ -7458,7 +7458,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="39" t="s">
         <v>14</v>
@@ -7481,7 +7481,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>14</v>
@@ -7490,7 +7490,7 @@
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F64" s="7">
         <v>6440</v>
@@ -7504,7 +7504,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>14</v>
@@ -7527,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="39" t="s">
         <v>14</v>
@@ -7536,7 +7536,7 @@
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F66" s="7">
         <v>6887</v>
@@ -7550,7 +7550,7 @@
         <v>30</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>14</v>
@@ -7573,7 +7573,7 @@
         <v>30</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>14</v>
@@ -7596,7 +7596,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>14</v>
@@ -7605,7 +7605,7 @@
         <v>54</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F69" s="24">
         <v>1</v>
@@ -7619,7 +7619,7 @@
         <v>46</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>14</v>
@@ -7628,7 +7628,7 @@
         <v>54</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F70" s="24">
         <v>1</v>
@@ -7642,7 +7642,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>14</v>
@@ -7651,7 +7651,7 @@
         <v>54</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F71" s="24">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>14</v>
@@ -7674,7 +7674,7 @@
         <v>54</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F72" s="24">
         <v>1</v>
@@ -7688,7 +7688,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>14</v>
@@ -7697,7 +7697,7 @@
         <v>54</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F73" s="24">
         <v>331</v>
@@ -7711,7 +7711,7 @@
         <v>46</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>14</v>
@@ -7720,7 +7720,7 @@
         <v>54</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F74" s="24">
         <v>589</v>
@@ -7734,7 +7734,7 @@
         <v>46</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>14</v>
@@ -7743,7 +7743,7 @@
         <v>54</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F75" s="24">
         <v>814</v>
@@ -7757,7 +7757,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C76" s="35" t="s">
         <v>14</v>
@@ -7780,7 +7780,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>14</v>
@@ -7789,7 +7789,7 @@
         <v>54</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F77" s="24">
         <v>3328</v>
@@ -7803,7 +7803,7 @@
         <v>46</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>14</v>
@@ -7812,7 +7812,7 @@
         <v>54</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F78" s="24">
         <v>4003</v>
@@ -7826,7 +7826,7 @@
         <v>46</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>14</v>
@@ -7849,7 +7849,7 @@
         <v>46</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>14</v>
@@ -7858,7 +7858,7 @@
         <v>54</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F80" s="24">
         <v>6241</v>
@@ -7872,7 +7872,7 @@
         <v>46</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>14</v>
@@ -7895,7 +7895,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>14</v>
@@ -7904,7 +7904,7 @@
         <v>54</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F82" s="24">
         <v>6667</v>
@@ -7918,7 +7918,7 @@
         <v>46</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>14</v>
@@ -7941,7 +7941,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>14</v>
@@ -7950,7 +7950,7 @@
         <v>54</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F84" s="24">
         <v>2269</v>
@@ -7965,7 +7965,7 @@
         <v>49</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C85" s="30" t="s">
         <v>14</v>
@@ -7974,7 +7974,7 @@
         <v>48</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
@@ -7988,7 +7988,7 @@
         <v>49</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>14</v>
@@ -7997,7 +7997,7 @@
         <v>48</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F86" s="7">
         <v>1</v>
@@ -8011,7 +8011,7 @@
         <v>33</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>14</v>
@@ -8020,7 +8020,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F87" s="7">
         <v>1</v>
@@ -8034,7 +8034,7 @@
         <v>33</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>14</v>
@@ -8057,7 +8057,7 @@
         <v>33</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>14</v>
@@ -8066,7 +8066,7 @@
         <v>43</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F89" s="7">
         <v>112</v>
@@ -8080,7 +8080,7 @@
         <v>33</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>14</v>
@@ -8089,7 +8089,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="7">
         <v>112</v>
@@ -8103,7 +8103,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>14</v>
@@ -8112,7 +8112,7 @@
         <v>43</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F91" s="7">
         <v>112</v>
@@ -8126,7 +8126,7 @@
         <v>33</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>14</v>
@@ -8135,7 +8135,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F92" s="7">
         <v>442</v>
@@ -8149,7 +8149,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>14</v>
@@ -8158,7 +8158,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="7">
         <v>946</v>
@@ -8172,7 +8172,7 @@
         <v>33</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>14</v>
@@ -8181,7 +8181,7 @@
         <v>43</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F94" s="7">
         <v>2437</v>
@@ -8195,7 +8195,7 @@
         <v>33</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>14</v>
@@ -8218,7 +8218,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>14</v>
@@ -8227,7 +8227,7 @@
         <v>43</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F96" s="7">
         <v>3496</v>
@@ -8241,7 +8241,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>14</v>
@@ -8250,7 +8250,7 @@
         <v>43</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F97" s="7">
         <v>4186</v>
@@ -8264,7 +8264,7 @@
         <v>33</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>14</v>
@@ -8287,7 +8287,7 @@
         <v>33</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>14</v>
@@ -8296,7 +8296,7 @@
         <v>43</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F99" s="7">
         <v>6445</v>
@@ -8310,7 +8310,7 @@
         <v>33</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>14</v>
@@ -8333,7 +8333,7 @@
         <v>33</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>14</v>
@@ -8342,7 +8342,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F101" s="7">
         <v>6892</v>
@@ -8356,7 +8356,7 @@
         <v>33</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>14</v>
@@ -8379,7 +8379,7 @@
         <v>33</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>14</v>
@@ -8402,16 +8402,16 @@
         <v>34</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C104" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F104" s="24">
         <v>1</v>
@@ -8425,13 +8425,13 @@
         <v>34</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C105" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>15</v>
@@ -8448,16 +8448,16 @@
         <v>34</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C106" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F106" s="24">
         <v>342</v>
@@ -8471,16 +8471,16 @@
         <v>34</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F107" s="24">
         <v>342</v>
@@ -8494,13 +8494,13 @@
         <v>34</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>22</v>
@@ -8517,16 +8517,16 @@
         <v>34</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F109" s="24">
         <v>915</v>
@@ -8540,16 +8540,16 @@
         <v>34</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C110" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F110" s="24">
         <v>1491</v>
@@ -8563,16 +8563,16 @@
         <v>34</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C111" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F111" s="24">
         <v>2580</v>
@@ -8586,16 +8586,16 @@
         <v>34</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F112" s="24">
         <v>2580</v>
@@ -8609,16 +8609,16 @@
         <v>34</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F113" s="24">
         <v>2769</v>
@@ -8632,13 +8632,13 @@
         <v>34</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>7</v>
@@ -8655,16 +8655,16 @@
         <v>34</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F115" s="24">
         <v>5313</v>
@@ -8678,16 +8678,16 @@
         <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C116" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F116" s="24">
         <v>5475</v>
@@ -8701,13 +8701,13 @@
         <v>34</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C117" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>10</v>
@@ -8724,13 +8724,13 @@
         <v>34</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>24</v>
@@ -8747,13 +8747,13 @@
         <v>34</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>25</v>
@@ -8770,13 +8770,13 @@
         <v>34</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C120" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>11</v>
@@ -8793,14 +8793,14 @@
         <v>37</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C121" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D121"/>
       <c r="E121" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F121" s="24">
         <v>1</v>
@@ -8814,7 +8814,7 @@
         <v>37</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C122" s="32" t="s">
         <v>26</v>
@@ -8835,14 +8835,14 @@
         <v>37</v>
       </c>
       <c r="B123" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C123" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D123"/>
       <c r="E123" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F123" s="24">
         <v>328</v>
@@ -8856,14 +8856,14 @@
         <v>37</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D124"/>
       <c r="E124" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F124" s="24">
         <v>328</v>
@@ -8877,14 +8877,14 @@
         <v>37</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C125" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D125"/>
       <c r="E125" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F125" s="24">
         <v>328</v>
@@ -8898,14 +8898,14 @@
         <v>37</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D126"/>
       <c r="E126" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F126" s="24">
         <v>565</v>
@@ -8919,14 +8919,14 @@
         <v>37</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D127"/>
       <c r="E127" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F127" s="24">
         <v>1138</v>
@@ -8940,14 +8940,14 @@
         <v>37</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D128"/>
       <c r="E128" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F128" s="24">
         <v>2200</v>
@@ -8961,14 +8961,14 @@
         <v>37</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D129"/>
       <c r="E129" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F129" s="24">
         <v>2911</v>
@@ -8982,14 +8982,14 @@
         <v>37</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D130"/>
       <c r="E130" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F130" s="24">
         <v>2911</v>
@@ -9003,7 +9003,7 @@
         <v>37</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>26</v>
@@ -9024,14 +9024,14 @@
         <v>37</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D132"/>
       <c r="E132" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F132" s="24">
         <v>5515</v>
@@ -9045,14 +9045,14 @@
         <v>37</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D133"/>
       <c r="E133" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F133" s="24">
         <v>5638</v>
@@ -9066,7 +9066,7 @@
         <v>37</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>26</v>
@@ -9087,7 +9087,7 @@
         <v>37</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>26</v>
@@ -9108,7 +9108,7 @@
         <v>37</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C136" s="32" t="s">
         <v>26</v>
@@ -9129,7 +9129,7 @@
         <v>37</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>26</v>
@@ -9147,17 +9147,17 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C138" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D138"/>
       <c r="E138" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F138" s="24">
         <v>1</v>
@@ -9168,17 +9168,17 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C139" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D139"/>
       <c r="E139" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F139" s="24">
         <v>618</v>
@@ -9189,17 +9189,17 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C140" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D140"/>
       <c r="E140" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F140" s="24">
         <v>618</v>
@@ -9210,17 +9210,17 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C141" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D141"/>
       <c r="E141" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F141" s="24">
         <v>696</v>
@@ -9231,17 +9231,17 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C142" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D142"/>
       <c r="E142" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F142" s="24">
         <v>1218</v>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C143" s="47" t="s">
         <v>26</v>
@@ -9282,10 +9282,10 @@
         <v>53</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F144" s="24">
         <v>1</v>
@@ -9305,7 +9305,7 @@
         <v>53</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E145" s="24" t="s">
         <v>15</v>
@@ -9328,10 +9328,10 @@
         <v>53</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F146" s="24">
         <v>351</v>
@@ -9351,7 +9351,7 @@
         <v>53</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>11</v>
@@ -9365,19 +9365,19 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B148" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="C148" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="30" t="s">
-        <v>83</v>
-      </c>
       <c r="D148" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F148" s="24">
         <v>1</v>
@@ -9388,16 +9388,16 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B149" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="C149" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="30" t="s">
-        <v>83</v>
-      </c>
       <c r="D149" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E149" s="24" t="s">
         <v>15</v>
@@ -9411,19 +9411,19 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="C150" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C150" s="30" t="s">
-        <v>83</v>
-      </c>
       <c r="D150" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E150" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F150" s="24">
         <v>200</v>
@@ -9434,16 +9434,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="C151" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C151" s="30" t="s">
-        <v>83</v>
-      </c>
       <c r="D151" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E151" s="24" t="s">
         <v>11</v>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D152" s="24"/>
       <c r="E152" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F152" s="24">
         <v>1</v>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="D154" s="24"/>
       <c r="E154" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F154" s="24">
         <v>386</v>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="D155" s="24"/>
       <c r="E155" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F155" s="24">
         <v>386</v>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="D156" s="24"/>
       <c r="E156" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F156" s="24">
         <v>386</v>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="D157" s="24"/>
       <c r="E157" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F157" s="24">
         <v>890</v>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="D159" s="24"/>
       <c r="E159" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F159" s="24">
         <v>1877</v>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D160" s="24"/>
       <c r="E160" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F160" s="24">
         <v>2462</v>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="D161" s="24"/>
       <c r="E161" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F161" s="24">
         <v>3584</v>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="D163" s="24"/>
       <c r="E163" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F163" s="24">
         <v>7472</v>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F164" s="24">
         <v>7664</v>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="D169" s="24"/>
       <c r="E169" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F169" s="24">
         <v>1</v>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="D170" s="24"/>
       <c r="E170" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F170" s="24">
         <v>1</v>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="D171" s="24"/>
       <c r="E171" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F171" s="24">
         <v>1</v>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="D172" s="24"/>
       <c r="E172" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F172" s="24">
         <v>1</v>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="D173" s="24"/>
       <c r="E173" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F173" s="24">
         <v>346</v>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="D174" s="24"/>
       <c r="E174" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F174" s="24">
         <v>655</v>
@@ -9950,7 +9950,7 @@
       </c>
       <c r="D175" s="24"/>
       <c r="E175" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F175" s="24">
         <v>853</v>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="D176" s="24"/>
       <c r="E176" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F176" s="24">
         <v>2359</v>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="D178" s="24"/>
       <c r="E178" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F178" s="24">
         <v>3391</v>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="D179" s="24"/>
       <c r="E179" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F179" s="24">
         <v>3979</v>
@@ -10076,7 +10076,7 @@
       </c>
       <c r="D181" s="24"/>
       <c r="E181" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F181" s="24">
         <v>6304</v>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="D183" s="24"/>
       <c r="E183" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F183" s="24">
         <v>6763</v>
@@ -10151,17 +10151,17 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B185" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B185" s="24" t="s">
-        <v>113</v>
-      </c>
       <c r="C185" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D185" s="24"/>
       <c r="E185" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -10172,17 +10172,17 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B186" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B186" s="24" t="s">
-        <v>113</v>
-      </c>
       <c r="C186" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D186" s="24"/>
       <c r="E186" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F186" s="24">
         <v>117</v>
@@ -10193,17 +10193,17 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B187" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B187" s="24" t="s">
-        <v>113</v>
-      </c>
       <c r="C187" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D187" s="24"/>
       <c r="E187" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F187">
         <f t="shared" ref="F187" si="0">(D187+2824)</f>
@@ -10215,17 +10215,17 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B188" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D188" s="24"/>
       <c r="E188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F188" s="24">
         <v>1</v>
@@ -10236,17 +10236,17 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B189" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D189" s="24"/>
       <c r="E189" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F189">
         <v>105</v>
@@ -10257,17 +10257,17 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B190" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D190" s="24"/>
       <c r="E190" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F190" s="24">
         <v>1</v>
@@ -10278,17 +10278,17 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D191" s="24"/>
       <c r="E191" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F191">
         <v>117</v>
@@ -10658,10 +10658,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>14</v>
@@ -10670,7 +10670,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
@@ -10681,10 +10681,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>14</v>
@@ -10693,7 +10693,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="7">
         <v>97</v>
@@ -10704,10 +10704,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>14</v>
@@ -10716,7 +10716,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -10727,10 +10727,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>14</v>
@@ -10739,7 +10739,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="7">
         <v>110</v>
@@ -10753,16 +10753,16 @@
         <v>45</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="23">
         <v>1</v>
@@ -10776,13 +10776,13 @@
         <v>45</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>15</v>
@@ -10799,16 +10799,16 @@
         <v>45</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="23">
         <v>120</v>
@@ -10822,13 +10822,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>11</v>
@@ -10842,19 +10842,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -10865,19 +10865,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -10888,19 +10888,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -10911,19 +10911,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7">
         <v>103</v>
@@ -11573,7 +11573,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>14</v>
@@ -11582,7 +11582,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -11596,7 +11596,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>14</v>
@@ -11605,7 +11605,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -11645,7 +11645,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="10">
         <v>386</v>
@@ -11665,7 +11665,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="9">
         <v>386</v>
@@ -11725,7 +11725,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="9">
         <v>1877</v>
@@ -11745,7 +11745,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="9">
         <v>2462</v>
@@ -11899,7 +11899,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -11922,7 +11922,7 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -11945,7 +11945,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -11954,7 +11954,7 @@
         <v>47</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F46">
         <v>105</v>
@@ -11968,7 +11968,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -12012,16 +12012,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>106</v>
-      </c>
       <c r="D1" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>10</v>
@@ -12043,19 +12043,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>106</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="24">
         <v>105</v>
@@ -12074,19 +12074,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -12105,19 +12105,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="C4" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="24">
         <v>117</v>
@@ -12128,19 +12128,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70352F9-7C82-2C4B-9FCA-5454AAD89513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F175AF-CA37-2045-B853-C296F4E739A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="132">
   <si>
     <t>featureName</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>REF_PEGI_2_TDAV</t>
+  </si>
+  <si>
+    <t>REF_PESTI_1_BVDV1</t>
   </si>
 </sst>
 </file>
@@ -6012,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B162" sqref="A1:G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9460,7 +9463,7 @@
         <v>35</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C152" s="27" t="s">
         <v>27</v>
@@ -9481,7 +9484,7 @@
         <v>35</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C153" s="27" t="s">
         <v>27</v>
@@ -9502,7 +9505,7 @@
         <v>35</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C154" s="27" t="s">
         <v>27</v>
@@ -9523,7 +9526,7 @@
         <v>35</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C155" s="27" t="s">
         <v>27</v>
@@ -9544,7 +9547,7 @@
         <v>35</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C156" s="27" t="s">
         <v>27</v>
@@ -9565,7 +9568,7 @@
         <v>35</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C157" s="27" t="s">
         <v>27</v>
@@ -9586,7 +9589,7 @@
         <v>35</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C158" s="27" t="s">
         <v>27</v>
@@ -9607,7 +9610,7 @@
         <v>35</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C159" s="27" t="s">
         <v>27</v>
@@ -9628,7 +9631,7 @@
         <v>35</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C160" s="27" t="s">
         <v>27</v>
@@ -9649,7 +9652,7 @@
         <v>35</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C161" s="27" t="s">
         <v>27</v>
@@ -9670,7 +9673,7 @@
         <v>35</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C162" s="27" t="s">
         <v>27</v>
@@ -9691,7 +9694,7 @@
         <v>35</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C163" s="27" t="s">
         <v>27</v>
@@ -9712,7 +9715,7 @@
         <v>35</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C164" s="27" t="s">
         <v>27</v>
@@ -9733,7 +9736,7 @@
         <v>35</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C165" s="27" t="s">
         <v>27</v>
@@ -9754,7 +9757,7 @@
         <v>35</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C166" s="27" t="s">
         <v>27</v>
@@ -9775,7 +9778,7 @@
         <v>35</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C167" s="27" t="s">
         <v>27</v>
@@ -9796,7 +9799,7 @@
         <v>35</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C168" s="27" t="s">
         <v>27</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F175AF-CA37-2045-B853-C296F4E739A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE26BE1-D72C-DD4F-92A8-9C0263FF45A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="166">
   <si>
     <t>featureName</t>
   </si>
@@ -350,9 +350,6 @@
     <t>non_structural_proteins</t>
   </si>
   <si>
-    <t>Primate</t>
-  </si>
-  <si>
     <t>NC_024113</t>
   </si>
   <si>
@@ -435,13 +432,118 @@
   </si>
   <si>
     <t>REF_PESTI_1_BVDV1</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_2_HCV_L</t>
+  </si>
+  <si>
+    <t>NC_031916</t>
+  </si>
+  <si>
+    <t>Hepaci1</t>
+  </si>
+  <si>
+    <t>Hepaci2</t>
+  </si>
+  <si>
+    <t>NC_038430</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_3_HCV_K</t>
+  </si>
+  <si>
+    <t>Hepaci3</t>
+  </si>
+  <si>
+    <t>Hepaci4</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_4_HCV_J</t>
+  </si>
+  <si>
+    <t>NC_038429</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_5_BEHV</t>
+  </si>
+  <si>
+    <t>MN062427</t>
+  </si>
+  <si>
+    <t>MT371439</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_7_WHCV</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_6_GHV</t>
+  </si>
+  <si>
+    <t>Hepaci5</t>
+  </si>
+  <si>
+    <t>Hepaci6</t>
+  </si>
+  <si>
+    <t>Hepaci7</t>
+  </si>
+  <si>
+    <t>MG599993</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_8_WmeHCV</t>
+  </si>
+  <si>
+    <t>Hepaci8</t>
+  </si>
+  <si>
+    <t>REF_HEPACI_9_WLSV</t>
+  </si>
+  <si>
+    <t>Hepaci9</t>
+  </si>
+  <si>
+    <t>NC_028377</t>
+  </si>
+  <si>
+    <t>MG599990</t>
+  </si>
+  <si>
+    <t>REF_PESTI_2_NrPeV</t>
+  </si>
+  <si>
+    <t>Pesti1</t>
+  </si>
+  <si>
+    <t>Pesti2</t>
+  </si>
+  <si>
+    <t>Pesti3</t>
+  </si>
+  <si>
+    <t>Pesti4</t>
+  </si>
+  <si>
+    <t>NC_025677</t>
+  </si>
+  <si>
+    <t>REF_PESTI_3_APPeV</t>
+  </si>
+  <si>
+    <t>REF_PESTI_4_NdsPV</t>
+  </si>
+  <si>
+    <t>MG599984</t>
+  </si>
+  <si>
+    <t>NC_038964</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,8 +615,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,6 +779,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3140,7 +3254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3211,6 +3325,9 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2457">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -6013,10 +6130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1504"/>
+  <dimension ref="A1:H1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B162" sqref="A1:G191"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E177" sqref="A1:G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6455,7 +6572,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>79</v>
@@ -6478,7 +6595,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>15</v>
@@ -6501,7 +6618,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>66</v>
@@ -6524,7 +6641,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>101</v>
@@ -6547,7 +6664,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>90</v>
@@ -6570,7 +6687,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>67</v>
@@ -6593,7 +6710,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>91</v>
@@ -6616,7 +6733,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>4</v>
@@ -6639,7 +6756,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>99</v>
@@ -6662,7 +6779,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>100</v>
@@ -6685,7 +6802,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>7</v>
@@ -6708,7 +6825,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>86</v>
@@ -6731,7 +6848,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -6754,7 +6871,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>92</v>
@@ -6777,7 +6894,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>10</v>
@@ -6800,7 +6917,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>102</v>
@@ -8405,13 +8522,13 @@
         <v>34</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>79</v>
@@ -8428,13 +8545,13 @@
         <v>34</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>15</v>
@@ -8451,13 +8568,13 @@
         <v>34</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E106" s="24" t="s">
         <v>66</v>
@@ -8474,13 +8591,13 @@
         <v>34</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>101</v>
@@ -8497,13 +8614,13 @@
         <v>34</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C108" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>22</v>
@@ -8520,13 +8637,13 @@
         <v>34</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E109" s="24" t="s">
         <v>94</v>
@@ -8543,13 +8660,13 @@
         <v>34</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E110" s="24" t="s">
         <v>95</v>
@@ -8566,13 +8683,13 @@
         <v>34</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E111" s="24" t="s">
         <v>102</v>
@@ -8589,13 +8706,13 @@
         <v>34</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E112" s="24" t="s">
         <v>93</v>
@@ -8612,13 +8729,13 @@
         <v>34</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E113" s="24" t="s">
         <v>98</v>
@@ -8635,13 +8752,13 @@
         <v>34</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>7</v>
@@ -8658,13 +8775,13 @@
         <v>34</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E115" s="24" t="s">
         <v>96</v>
@@ -8681,13 +8798,13 @@
         <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C116" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E116" s="24" t="s">
         <v>97</v>
@@ -8704,13 +8821,13 @@
         <v>34</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>10</v>
@@ -8727,13 +8844,13 @@
         <v>34</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>24</v>
@@ -8750,13 +8867,13 @@
         <v>34</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>25</v>
@@ -8773,13 +8890,13 @@
         <v>34</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>11</v>
@@ -8792,16 +8909,18 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121"/>
+      <c r="A121" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="49" t="s">
+        <v>134</v>
+      </c>
       <c r="E121" s="24" t="s">
         <v>79</v>
       </c>
@@ -8809,322 +8928,352 @@
         <v>1</v>
       </c>
       <c r="G121" s="24">
-        <v>9867</v>
+        <v>8916</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122"/>
+      <c r="A122" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="49" t="s">
+        <v>134</v>
+      </c>
       <c r="E122" s="24" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F122" s="24">
+        <v>174</v>
+      </c>
+      <c r="G122" s="24">
+        <v>8879</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="24">
         <v>1</v>
       </c>
-      <c r="G122" s="24">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D123"/>
-      <c r="E123" s="24" t="s">
+      <c r="G123" s="24">
+        <v>9609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F123" s="24">
-        <v>328</v>
-      </c>
-      <c r="G123" s="24">
-        <v>9501</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124"/>
-      <c r="E124" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="F124" s="24">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="G124" s="24">
-        <v>2199</v>
+        <v>9355</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D125"/>
+      <c r="A125" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E125" s="24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F125" s="24">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="G125" s="24">
-        <v>564</v>
+        <v>9687</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D126"/>
+      <c r="A126" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E126" s="24" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F126" s="24">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G126" s="24">
-        <v>1137</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C127" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127"/>
+      <c r="A127" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="49" t="s">
+        <v>146</v>
+      </c>
       <c r="E127" s="24" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F127" s="24">
-        <v>1138</v>
+        <v>1</v>
       </c>
       <c r="G127" s="24">
-        <v>2199</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B128" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D128"/>
+      <c r="A128" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="49" t="s">
+        <v>146</v>
+      </c>
       <c r="E128" s="24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F128" s="24">
-        <v>2200</v>
+        <v>578</v>
       </c>
       <c r="G128" s="24">
-        <v>2910</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D129"/>
+      <c r="A129" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="49" t="s">
+        <v>147</v>
+      </c>
       <c r="E129" s="24" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="F129" s="24">
-        <v>2911</v>
+        <v>1</v>
       </c>
       <c r="G129" s="24">
-        <v>9498</v>
+        <v>10199</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B130" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130"/>
+      <c r="A130" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="49" t="s">
+        <v>147</v>
+      </c>
       <c r="E130" s="24" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F130" s="24">
-        <v>2911</v>
+        <v>3</v>
       </c>
       <c r="G130" s="24">
-        <v>3630</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B131" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D131"/>
+      <c r="A131" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C131" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="49" t="s">
+        <v>148</v>
+      </c>
       <c r="E131" s="24" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F131" s="24">
-        <v>3631</v>
+        <v>1</v>
       </c>
       <c r="G131" s="24">
-        <v>5514</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B132" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132"/>
+      <c r="A132" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="49" t="s">
+        <v>148</v>
+      </c>
       <c r="E132" s="24" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F132" s="24">
-        <v>5515</v>
+        <v>174</v>
       </c>
       <c r="G132" s="24">
-        <v>5637</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B133" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133"/>
+      <c r="A133" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="49" t="s">
+        <v>151</v>
+      </c>
       <c r="E133" s="24" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F133" s="24">
-        <v>5638</v>
+        <v>1</v>
       </c>
       <c r="G133" s="24">
-        <v>6423</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134"/>
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A134" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="49" t="s">
+        <v>151</v>
+      </c>
       <c r="E134" s="24" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F134" s="24">
-        <v>6424</v>
-      </c>
-      <c r="G134" s="24">
-        <v>9498</v>
+        <v>1</v>
+      </c>
+      <c r="G134" s="50">
+        <v>8622</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B135" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135"/>
+      <c r="A135" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="49" t="s">
+        <v>153</v>
+      </c>
       <c r="E135" s="24" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F135" s="24">
-        <v>6424</v>
+        <v>1</v>
       </c>
       <c r="G135" s="24">
-        <v>7797</v>
+        <v>9653</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B136" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136"/>
+      <c r="A136" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="49" t="s">
+        <v>153</v>
+      </c>
       <c r="E136" s="24" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F136" s="24">
-        <v>7798</v>
+        <v>132</v>
       </c>
       <c r="G136" s="24">
-        <v>9498</v>
+        <v>9392</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -9132,51 +9281,51 @@
         <v>37</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D137"/>
       <c r="E137" s="24" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F137" s="24">
-        <v>9502</v>
+        <v>1</v>
       </c>
       <c r="G137" s="24">
         <v>9867</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B138" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C138" s="47" t="s">
+      <c r="A138" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D138"/>
       <c r="E138" s="24" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F138" s="24">
         <v>1</v>
       </c>
       <c r="G138" s="24">
-        <v>10479</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C139" s="47" t="s">
+      <c r="A139" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D139"/>
@@ -9184,614 +9333,614 @@
         <v>66</v>
       </c>
       <c r="F139" s="24">
-        <v>618</v>
+        <v>328</v>
       </c>
       <c r="G139" s="24">
-        <v>10187</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B140" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C140" s="47" t="s">
+      <c r="A140" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D140"/>
       <c r="E140" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F140" s="24">
+        <v>328</v>
+      </c>
+      <c r="G140" s="24">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F140" s="24">
-        <v>618</v>
-      </c>
-      <c r="G140" s="24">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D141"/>
       <c r="E141" s="24" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F141" s="24">
-        <v>696</v>
+        <v>328</v>
       </c>
       <c r="G141" s="24">
-        <v>1217</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B142" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C142" s="47" t="s">
+      <c r="A142" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D142"/>
       <c r="E142" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F142" s="24">
-        <v>1218</v>
+        <v>565</v>
       </c>
       <c r="G142" s="24">
-        <v>2483</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B143" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C143" s="47" t="s">
+      <c r="A143" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D143"/>
       <c r="E143" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F143" s="24">
+        <v>1138</v>
+      </c>
+      <c r="G143" s="24">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F144" s="24">
+        <v>2200</v>
+      </c>
+      <c r="G144" s="24">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C145" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F145" s="24">
+        <v>2911</v>
+      </c>
+      <c r="G145" s="24">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="24">
+        <v>2911</v>
+      </c>
+      <c r="G146" s="24">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="24">
+        <v>3631</v>
+      </c>
+      <c r="G147" s="24">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F148" s="24">
+        <v>5515</v>
+      </c>
+      <c r="G148" s="24">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F149" s="24">
+        <v>5638</v>
+      </c>
+      <c r="G149" s="24">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="24">
+        <v>6424</v>
+      </c>
+      <c r="G150" s="24">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" s="24">
+        <v>6424</v>
+      </c>
+      <c r="G151" s="24">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F143" s="24">
+      <c r="F152" s="24">
+        <v>7798</v>
+      </c>
+      <c r="G152" s="24">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="24">
+        <v>9502</v>
+      </c>
+      <c r="G153" s="24">
+        <v>9867</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F154" s="24">
+        <v>1</v>
+      </c>
+      <c r="G154" s="24">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F155" s="24">
+        <v>618</v>
+      </c>
+      <c r="G155" s="24">
+        <v>10187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F156" s="24">
+        <v>618</v>
+      </c>
+      <c r="G156" s="24">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C157" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F157" s="24">
+        <v>696</v>
+      </c>
+      <c r="G157" s="24">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F158" s="24">
+        <v>1218</v>
+      </c>
+      <c r="G158" s="24">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="24">
         <v>8388</v>
       </c>
-      <c r="G143" s="24">
+      <c r="G159" s="24">
         <v>10184</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>52</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B160" t="s">
         <v>61</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="C160" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D144" s="20" t="s">
+      <c r="D160" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F160" s="24">
+        <v>1</v>
+      </c>
+      <c r="G160" s="24">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" t="s">
+        <v>61</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="24">
+        <v>1</v>
+      </c>
+      <c r="G161" s="24">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" t="s">
+        <v>61</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F162" s="24">
+        <v>351</v>
+      </c>
+      <c r="G162" s="24">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="24">
+        <v>18069</v>
+      </c>
+      <c r="G163" s="24">
+        <v>19199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E144" s="24" t="s">
+      <c r="E164" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F144" s="24">
+      <c r="F164" s="24">
         <v>1</v>
       </c>
-      <c r="G144" s="24">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>52</v>
-      </c>
-      <c r="B145" t="s">
-        <v>61</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D145" s="20" t="s">
+      <c r="G164" s="24">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B165" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D165" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E145" s="24" t="s">
+      <c r="E165" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F145" s="24">
+      <c r="F165" s="24">
         <v>1</v>
       </c>
-      <c r="G145" s="24">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>52</v>
-      </c>
-      <c r="B146" t="s">
-        <v>61</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D146" s="20" t="s">
+      <c r="G165" s="24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E146" s="24" t="s">
+      <c r="E166" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F146" s="24">
-        <v>351</v>
-      </c>
-      <c r="G146" s="24">
-        <v>18068</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>52</v>
-      </c>
-      <c r="B147" t="s">
-        <v>61</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D147" s="20" t="s">
+      <c r="F166" s="24">
+        <v>200</v>
+      </c>
+      <c r="G166" s="24">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E147" s="24" t="s">
+      <c r="E167" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F147" s="24">
-        <v>18069</v>
-      </c>
-      <c r="G147" s="24">
-        <v>19199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B148" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E148" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F148" s="24">
-        <v>1</v>
-      </c>
-      <c r="G148" s="24">
+      <c r="F167" s="24">
+        <v>17906</v>
+      </c>
+      <c r="G167" s="24">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B149" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C149" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149" s="24">
-        <v>1</v>
-      </c>
-      <c r="G149" s="24">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B150" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C150" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F150" s="24">
-        <v>200</v>
-      </c>
-      <c r="G150" s="24">
-        <v>17905</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B151" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="24">
-        <v>17906</v>
-      </c>
-      <c r="G151" s="24">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="24"/>
-      <c r="E152" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F152" s="24">
-        <v>1</v>
-      </c>
-      <c r="G152" s="24">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="24"/>
-      <c r="E153" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F153" s="24">
-        <v>1</v>
-      </c>
-      <c r="G153" s="24">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F154" s="24">
-        <v>386</v>
-      </c>
-      <c r="G154" s="24">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F155" s="24">
-        <v>386</v>
-      </c>
-      <c r="G155" s="24">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F156" s="24">
-        <v>386</v>
-      </c>
-      <c r="G156" s="24">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F157" s="24">
-        <v>890</v>
-      </c>
-      <c r="G157" s="24">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F158" s="24">
-        <v>1196</v>
-      </c>
-      <c r="G158" s="24">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F159" s="24">
-        <v>1877</v>
-      </c>
-      <c r="G159" s="24">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F160" s="24">
-        <v>2462</v>
-      </c>
-      <c r="G160" s="24">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B161" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F161" s="24">
-        <v>3584</v>
-      </c>
-      <c r="G161" s="24">
-        <v>3793</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C162" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="24">
-        <v>3794</v>
-      </c>
-      <c r="G162" s="24">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C163" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F163" s="24">
-        <v>7472</v>
-      </c>
-      <c r="G163" s="24">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F164" s="24">
-        <v>7664</v>
-      </c>
-      <c r="G164" s="24">
-        <v>8704</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C165" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="24">
-        <v>8705</v>
-      </c>
-      <c r="G165" s="24">
-        <v>12349</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F166" s="24">
-        <v>8705</v>
-      </c>
-      <c r="G166" s="24">
-        <v>10192</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="24"/>
-      <c r="E167" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F167" s="24">
-        <v>10193</v>
-      </c>
-      <c r="G167" s="24">
-        <v>12349</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -9799,620 +9948,1018 @@
         <v>35</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="24"/>
+      <c r="D168" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="E168" s="24" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F168" s="24">
-        <v>12360</v>
+        <v>1</v>
       </c>
       <c r="G168" s="24">
         <v>12573</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B169" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C169" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D169" s="24"/>
+      <c r="A169" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="E169" s="24" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F169" s="24">
         <v>1</v>
       </c>
       <c r="G169" s="24">
-        <v>10053</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C170" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D170" s="24"/>
+      <c r="A170" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="E170" s="24" t="s">
         <v>66</v>
       </c>
       <c r="F170" s="24">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G170" s="24">
-        <v>10053</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B171" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C171" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D171" s="24"/>
+      <c r="A171" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="E171" s="24" t="s">
         <v>101</v>
       </c>
       <c r="F171" s="24">
+        <v>386</v>
+      </c>
+      <c r="G171" s="24">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F172" s="24">
+        <v>386</v>
+      </c>
+      <c r="G172" s="24">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F173" s="24">
+        <v>890</v>
+      </c>
+      <c r="G173" s="24">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" s="24">
+        <v>1196</v>
+      </c>
+      <c r="G174" s="24">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F175" s="24">
+        <v>1877</v>
+      </c>
+      <c r="G175" s="24">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F176" s="24">
+        <v>2462</v>
+      </c>
+      <c r="G176" s="24">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F177" s="24">
+        <v>3584</v>
+      </c>
+      <c r="G177" s="24">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="24">
+        <v>3794</v>
+      </c>
+      <c r="G178" s="24">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F179" s="24">
+        <v>7472</v>
+      </c>
+      <c r="G179" s="24">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C180" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="24">
+        <v>7664</v>
+      </c>
+      <c r="G180" s="24">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="24">
+        <v>8705</v>
+      </c>
+      <c r="G181" s="24">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" s="24">
+        <v>8705</v>
+      </c>
+      <c r="G182" s="24">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E183" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="24">
+        <v>10193</v>
+      </c>
+      <c r="G183" s="24">
+        <v>12349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="24">
+        <v>12360</v>
+      </c>
+      <c r="G184" s="24">
+        <v>12573</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F185" s="24">
         <v>1</v>
       </c>
-      <c r="G171" s="24">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B172" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C172" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D172" s="24"/>
-      <c r="E172" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F172" s="24">
+      <c r="G185" s="24">
+        <v>12983</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E186" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F186" s="24">
+        <v>499</v>
+      </c>
+      <c r="G186" s="24">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F187" s="24">
         <v>1</v>
       </c>
-      <c r="G172" s="24">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C173" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D173" s="24"/>
-      <c r="E173" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F173" s="24">
-        <v>346</v>
-      </c>
-      <c r="G173" s="24">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B174" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D174" s="24"/>
-      <c r="E174" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F174" s="24">
-        <v>655</v>
-      </c>
-      <c r="G174" s="24">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B175" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C175" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F175" s="24">
-        <v>853</v>
-      </c>
-      <c r="G175" s="24">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F176" s="24">
-        <v>2359</v>
-      </c>
-      <c r="G176" s="24">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B177" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C177" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F177" s="24">
-        <v>2359</v>
-      </c>
-      <c r="G177" s="24">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B178" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F178" s="24">
-        <v>3391</v>
-      </c>
-      <c r="G178" s="24">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F179" s="24">
-        <v>3979</v>
-      </c>
-      <c r="G179" s="24">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C180" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F180" s="24">
-        <v>4432</v>
-      </c>
-      <c r="G180" s="24">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B181" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C181" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F181" s="24">
-        <v>6304</v>
-      </c>
-      <c r="G181" s="24">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C182" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D182" s="24"/>
-      <c r="E182" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F182" s="24">
-        <v>6688</v>
-      </c>
-      <c r="G182" s="24">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B183" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C183" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F183" s="24">
-        <v>6763</v>
-      </c>
-      <c r="G183" s="24">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B184" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C184" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="24">
-        <v>7558</v>
-      </c>
-      <c r="G184" s="24">
-        <v>10050</v>
-      </c>
-      <c r="H184" s="22"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B185" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C185" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D185" s="24"/>
-      <c r="E185" t="s">
+      <c r="G187" s="24">
+        <v>11276</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C188" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F188" s="24">
+        <v>124</v>
+      </c>
+      <c r="G188" s="24">
+        <v>11031</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E189" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F185">
+      <c r="F189" s="24">
         <v>1</v>
       </c>
-      <c r="G185">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B186" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C186" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F186" s="24">
-        <v>117</v>
-      </c>
-      <c r="G186" s="24">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B187" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C187" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F187">
-        <f t="shared" ref="F187" si="0">(D187+2824)</f>
-        <v>2824</v>
-      </c>
-      <c r="G187" s="24">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B188" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D188" s="24"/>
-      <c r="E188" t="s">
-        <v>79</v>
-      </c>
-      <c r="F188" s="24">
-        <v>1</v>
-      </c>
-      <c r="G188" s="24">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B189" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F189">
-        <v>105</v>
-      </c>
-      <c r="G189">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B190" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C190" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D190" s="24"/>
-      <c r="E190" t="s">
-        <v>79</v>
+      <c r="G189" s="24">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E190" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="F190" s="24">
         <v>1</v>
       </c>
       <c r="G190" s="24">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="24" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D191" s="24"/>
       <c r="E191" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F191">
+        <v>79</v>
+      </c>
+      <c r="F191" s="24">
+        <v>1</v>
+      </c>
+      <c r="G191" s="24">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F192" s="24">
+        <v>1</v>
+      </c>
+      <c r="G192" s="24">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B193" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F193" s="24">
+        <v>1</v>
+      </c>
+      <c r="G193" s="24">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B194" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F194" s="24">
+        <v>1</v>
+      </c>
+      <c r="G194" s="24">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B195" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F195" s="24">
+        <v>346</v>
+      </c>
+      <c r="G195" s="24">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B196" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F196" s="24">
+        <v>655</v>
+      </c>
+      <c r="G196" s="24">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B197" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F197" s="24">
+        <v>853</v>
+      </c>
+      <c r="G197" s="24">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198" s="24">
+        <v>2359</v>
+      </c>
+      <c r="G198" s="24">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="24">
+        <v>2359</v>
+      </c>
+      <c r="G199" s="24">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F200" s="24">
+        <v>3391</v>
+      </c>
+      <c r="G200" s="24">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F201" s="24">
+        <v>3979</v>
+      </c>
+      <c r="G201" s="24">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="24">
+        <v>4432</v>
+      </c>
+      <c r="G202" s="24">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F203" s="24">
+        <v>6304</v>
+      </c>
+      <c r="G203" s="24">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D204" s="24"/>
+      <c r="E204" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" s="24">
+        <v>6688</v>
+      </c>
+      <c r="G204" s="24">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F205" s="24">
+        <v>6763</v>
+      </c>
+      <c r="G205" s="24">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="24">
+        <v>7558</v>
+      </c>
+      <c r="G206" s="24">
+        <v>10050</v>
+      </c>
+      <c r="H206" s="22"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D207" s="24"/>
+      <c r="E207" t="s">
+        <v>79</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B208" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F208" s="24">
         <v>117</v>
       </c>
-      <c r="G191">
+      <c r="G208" s="24">
         <v>2543</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B226" s="1"/>
-      <c r="C226" s="5"/>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B227" s="1"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B228" s="1"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B229" s="1"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B230" s="1"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B231" s="1"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B232" s="1"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B233" s="1"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B234" s="1"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B235" s="1"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B236" s="1"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237" s="1"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B238" s="1"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B239" s="1"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B240" s="1"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B241" s="1"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B242" s="1"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B243" s="1"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B244" s="1"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245" s="1"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B246" s="1"/>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B247" s="1"/>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F209">
+        <f t="shared" ref="F209" si="0">(D209+2824)</f>
+        <v>2824</v>
+      </c>
+      <c r="G209" s="24">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D210" s="24"/>
+      <c r="E210" t="s">
+        <v>79</v>
+      </c>
+      <c r="F210" s="24">
+        <v>1</v>
+      </c>
+      <c r="G210" s="24">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B211" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F211">
+        <v>105</v>
+      </c>
+      <c r="G211">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B212" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D212" s="24"/>
+      <c r="E212" t="s">
+        <v>79</v>
+      </c>
+      <c r="F212" s="24">
+        <v>1</v>
+      </c>
+      <c r="G212" s="24">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B213" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D213" s="24"/>
+      <c r="E213" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F213">
+        <v>117</v>
+      </c>
+      <c r="G213">
+        <v>2543</v>
+      </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
@@ -10421,11 +10968,13 @@
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
+      <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
@@ -10458,66 +11007,180 @@
       <c r="D257" s="5"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="1"/>
+      <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="940" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E940" s="1"/>
-    </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1076" s="1"/>
-    </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1077" s="1"/>
-    </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1202" s="1"/>
-    </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1203" s="1"/>
-    </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1204" s="1"/>
-    </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1205" s="1"/>
-    </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1206" s="1"/>
-    </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1207" s="1"/>
-    </row>
-    <row r="1252" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1252" s="1"/>
-      <c r="F1252" s="1"/>
-    </row>
-    <row r="1253" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1253" s="1"/>
-      <c r="F1253" s="1"/>
-    </row>
-    <row r="1254" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1254" s="1"/>
-      <c r="F1254" s="1"/>
-    </row>
-    <row r="1256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1256" s="1"/>
-    </row>
-    <row r="1257" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1257" s="1"/>
-    </row>
-    <row r="1258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1258" s="1"/>
-    </row>
-    <row r="1259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1259" s="1"/>
-    </row>
-    <row r="1260" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1260" s="1"/>
-    </row>
-    <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="1"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260" s="1"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="1"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" s="1"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263" s="1"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B264" s="1"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="1"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B266" s="1"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267" s="1"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B268" s="1"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="1"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B270" s="1"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B271" s="1"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B272" s="1"/>
+      <c r="D272" s="5"/>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B273" s="1"/>
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B274" s="1"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B275" s="1"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B276" s="1"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B277" s="1"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B278" s="1"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B279" s="1"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D280" s="5"/>
+    </row>
+    <row r="962" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C962"/>
+      <c r="D962"/>
+      <c r="E962" s="1"/>
+    </row>
+    <row r="1098" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1098" s="1"/>
+      <c r="C1098"/>
+      <c r="D1098"/>
+    </row>
+    <row r="1099" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1099" s="1"/>
+      <c r="C1099"/>
+      <c r="D1099"/>
+    </row>
+    <row r="1224" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1224" s="1"/>
+      <c r="C1224"/>
+      <c r="D1224"/>
+    </row>
+    <row r="1225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1225" s="1"/>
+      <c r="C1225"/>
+      <c r="D1225"/>
+    </row>
+    <row r="1226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1226" s="1"/>
+      <c r="C1226"/>
+      <c r="D1226"/>
+    </row>
+    <row r="1227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1227" s="1"/>
+      <c r="C1227"/>
+      <c r="D1227"/>
+    </row>
+    <row r="1228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1228" s="1"/>
+      <c r="C1228"/>
+      <c r="D1228"/>
+    </row>
+    <row r="1229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1229" s="1"/>
+      <c r="C1229"/>
+      <c r="D1229"/>
+    </row>
+    <row r="1274" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1274" s="1"/>
+      <c r="F1274" s="1"/>
+    </row>
+    <row r="1275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1275" s="1"/>
+      <c r="F1275" s="1"/>
+    </row>
+    <row r="1276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1276" s="1"/>
+      <c r="F1276" s="1"/>
+    </row>
+    <row r="1278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1278" s="1"/>
+    </row>
+    <row r="1279" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1279" s="1"/>
     </row>
-    <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1280" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1280" s="1"/>
     </row>
     <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
@@ -10526,117 +11189,191 @@
     <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1282" s="1"/>
     </row>
-    <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1283" s="1"/>
-    </row>
-    <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1284" s="1"/>
-    </row>
-    <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1285" s="1"/>
-    </row>
-    <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1287" s="1"/>
-    </row>
-    <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1288" s="1"/>
-    </row>
-    <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1289" s="1"/>
-    </row>
-    <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1290" s="1"/>
-    </row>
-    <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1291" s="1"/>
-    </row>
-    <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1292" s="1"/>
-    </row>
-    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1344" s="1"/>
-    </row>
-    <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1345" s="1"/>
-    </row>
-    <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1346" s="1"/>
-    </row>
-    <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1347" s="1"/>
-    </row>
-    <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1349" s="1"/>
-    </row>
-    <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1350" s="1"/>
-    </row>
-    <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1351" s="1"/>
-    </row>
-    <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1352" s="1"/>
-    </row>
-    <row r="1387" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1387" s="1"/>
-    </row>
-    <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1388" s="1"/>
-    </row>
-    <row r="1389" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1389" s="1"/>
-    </row>
-    <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1390" s="1"/>
-    </row>
-    <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1391" s="1"/>
-    </row>
-    <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1392" s="1"/>
-    </row>
-    <row r="1434" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1434" s="1"/>
-      <c r="F1434" s="1"/>
-    </row>
-    <row r="1435" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1435" s="6"/>
-      <c r="E1435" s="1"/>
-      <c r="F1435" s="1"/>
-    </row>
-    <row r="1436" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1436" s="6"/>
-      <c r="D1436" s="6"/>
-      <c r="E1436" s="1"/>
-      <c r="F1436" s="1"/>
-    </row>
-    <row r="1437" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1437" s="6"/>
-      <c r="D1437" s="6"/>
-      <c r="E1437" s="1"/>
-      <c r="F1437" s="1"/>
-    </row>
-    <row r="1438" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D1438" s="6"/>
-      <c r="E1438" s="1"/>
-      <c r="F1438" s="1"/>
-    </row>
-    <row r="1501" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1501" s="1"/>
-    </row>
-    <row r="1502" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1502" s="1"/>
-    </row>
-    <row r="1503" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1503" s="1"/>
-    </row>
-    <row r="1504" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1504" s="1"/>
+    <row r="1301" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1301" s="1"/>
+      <c r="C1301"/>
+      <c r="D1301"/>
+    </row>
+    <row r="1302" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1302" s="1"/>
+      <c r="C1302"/>
+      <c r="D1302"/>
+    </row>
+    <row r="1303" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1303" s="1"/>
+      <c r="C1303"/>
+      <c r="D1303"/>
+    </row>
+    <row r="1304" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1304" s="1"/>
+      <c r="C1304"/>
+      <c r="D1304"/>
+    </row>
+    <row r="1305" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1305" s="1"/>
+      <c r="C1305"/>
+      <c r="D1305"/>
+    </row>
+    <row r="1306" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1306" s="1"/>
+      <c r="C1306"/>
+      <c r="D1306"/>
+    </row>
+    <row r="1307" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1307" s="1"/>
+      <c r="C1307"/>
+      <c r="D1307"/>
+    </row>
+    <row r="1309" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1309" s="1"/>
+      <c r="C1309"/>
+      <c r="D1309"/>
+    </row>
+    <row r="1310" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1310" s="1"/>
+      <c r="C1310"/>
+      <c r="D1310"/>
+    </row>
+    <row r="1311" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1311" s="1"/>
+      <c r="C1311"/>
+      <c r="D1311"/>
+    </row>
+    <row r="1312" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1312" s="1"/>
+      <c r="C1312"/>
+      <c r="D1312"/>
+    </row>
+    <row r="1313" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1313" s="1"/>
+      <c r="C1313"/>
+      <c r="D1313"/>
+    </row>
+    <row r="1314" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1314" s="1"/>
+      <c r="C1314"/>
+      <c r="D1314"/>
+    </row>
+    <row r="1366" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1366" s="1"/>
+      <c r="C1366"/>
+      <c r="D1366"/>
+    </row>
+    <row r="1367" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1367" s="1"/>
+      <c r="C1367"/>
+      <c r="D1367"/>
+    </row>
+    <row r="1368" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1368" s="1"/>
+      <c r="C1368"/>
+      <c r="D1368"/>
+    </row>
+    <row r="1369" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1369" s="1"/>
+      <c r="C1369"/>
+      <c r="D1369"/>
+    </row>
+    <row r="1371" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1371" s="1"/>
+      <c r="C1371"/>
+      <c r="D1371"/>
+    </row>
+    <row r="1372" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1372" s="1"/>
+      <c r="C1372"/>
+      <c r="D1372"/>
+    </row>
+    <row r="1373" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1373" s="1"/>
+      <c r="C1373"/>
+      <c r="D1373"/>
+    </row>
+    <row r="1374" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1374" s="1"/>
+      <c r="C1374"/>
+      <c r="D1374"/>
+    </row>
+    <row r="1409" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1409" s="1"/>
+      <c r="C1409"/>
+      <c r="D1409"/>
+    </row>
+    <row r="1410" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1410" s="1"/>
+      <c r="C1410"/>
+      <c r="D1410"/>
+    </row>
+    <row r="1411" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1411" s="1"/>
+      <c r="C1411"/>
+      <c r="D1411"/>
+    </row>
+    <row r="1412" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1412" s="1"/>
+      <c r="C1412"/>
+      <c r="D1412"/>
+    </row>
+    <row r="1413" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1413" s="1"/>
+      <c r="C1413"/>
+      <c r="D1413"/>
+    </row>
+    <row r="1414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1414" s="1"/>
+      <c r="C1414"/>
+      <c r="D1414"/>
+    </row>
+    <row r="1456" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E1456" s="1"/>
+      <c r="F1456" s="1"/>
+    </row>
+    <row r="1457" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1457" s="6"/>
+      <c r="E1457" s="1"/>
+      <c r="F1457" s="1"/>
+    </row>
+    <row r="1458" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1458" s="6"/>
+      <c r="D1458" s="6"/>
+      <c r="E1458" s="1"/>
+      <c r="F1458" s="1"/>
+    </row>
+    <row r="1459" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1459" s="6"/>
+      <c r="D1459" s="6"/>
+      <c r="E1459" s="1"/>
+      <c r="F1459" s="1"/>
+    </row>
+    <row r="1460" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1460" s="6"/>
+      <c r="E1460" s="1"/>
+      <c r="F1460" s="1"/>
+    </row>
+    <row r="1523" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1523" s="1"/>
+      <c r="C1523"/>
+      <c r="D1523"/>
+    </row>
+    <row r="1524" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1524" s="1"/>
+      <c r="C1524"/>
+      <c r="D1524"/>
+    </row>
+    <row r="1525" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1525" s="1"/>
+      <c r="C1525"/>
+      <c r="D1525"/>
+    </row>
+    <row r="1526" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1526" s="1"/>
+      <c r="C1526"/>
+      <c r="D1526"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1457">
-    <sortCondition ref="C2:C1457"/>
-    <sortCondition ref="D2:D1457"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1479">
+    <sortCondition ref="C2:C1479"/>
+    <sortCondition ref="D2:D1479"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10661,10 +11398,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>14</v>
@@ -10684,10 +11421,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>14</v>
@@ -10707,10 +11444,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>14</v>
@@ -10730,10 +11467,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>14</v>
@@ -10762,7 +11499,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>79</v>
@@ -10785,7 +11522,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>15</v>
@@ -10808,7 +11545,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>66</v>
@@ -10831,7 +11568,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>11</v>
@@ -10845,16 +11582,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>79</v>
@@ -10868,16 +11605,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -10891,16 +11628,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>79</v>
@@ -10914,16 +11651,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>66</v>
@@ -12015,16 +12752,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>10</v>
@@ -12046,16 +12783,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>66</v>
@@ -12077,16 +12814,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -12108,19 +12845,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="C4" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="24">
         <v>117</v>
@@ -12131,16 +12868,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE26BE1-D72C-DD4F-92A8-9C0263FF45A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0465901-F6E3-4247-A195-1300CEAB1C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="168">
   <si>
     <t>featureName</t>
   </si>
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t>NC_038964</t>
+  </si>
+  <si>
+    <t>Pegi1</t>
+  </si>
+  <si>
+    <t>Pegi2</t>
   </si>
 </sst>
 </file>
@@ -6132,8 +6138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E177" sqref="A1:G213"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9286,7 +9292,9 @@
       <c r="C137" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D137"/>
+      <c r="D137" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E137" s="24" t="s">
         <v>79</v>
       </c>
@@ -9307,7 +9315,9 @@
       <c r="C138" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D138"/>
+      <c r="D138" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E138" s="24" t="s">
         <v>15</v>
       </c>
@@ -9328,7 +9338,9 @@
       <c r="C139" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D139"/>
+      <c r="D139" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E139" s="24" t="s">
         <v>66</v>
       </c>
@@ -9349,7 +9361,9 @@
       <c r="C140" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D140"/>
+      <c r="D140" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E140" s="24" t="s">
         <v>101</v>
       </c>
@@ -9370,7 +9384,9 @@
       <c r="C141" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D141"/>
+      <c r="D141" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E141" s="24" t="s">
         <v>72</v>
       </c>
@@ -9391,7 +9407,9 @@
       <c r="C142" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D142"/>
+      <c r="D142" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E142" s="24" t="s">
         <v>94</v>
       </c>
@@ -9412,7 +9430,9 @@
       <c r="C143" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D143"/>
+      <c r="D143" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E143" s="24" t="s">
         <v>95</v>
       </c>
@@ -9433,7 +9453,9 @@
       <c r="C144" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D144"/>
+      <c r="D144" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E144" s="24" t="s">
         <v>73</v>
       </c>
@@ -9454,7 +9476,9 @@
       <c r="C145" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D145"/>
+      <c r="D145" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E145" s="24" t="s">
         <v>102</v>
       </c>
@@ -9475,7 +9499,9 @@
       <c r="C146" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D146"/>
+      <c r="D146" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E146" s="24" t="s">
         <v>98</v>
       </c>
@@ -9496,7 +9522,9 @@
       <c r="C147" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D147"/>
+      <c r="D147" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E147" s="24" t="s">
         <v>7</v>
       </c>
@@ -9517,7 +9545,9 @@
       <c r="C148" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D148"/>
+      <c r="D148" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E148" s="24" t="s">
         <v>96</v>
       </c>
@@ -9538,7 +9568,9 @@
       <c r="C149" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D149"/>
+      <c r="D149" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E149" s="24" t="s">
         <v>97</v>
       </c>
@@ -9559,7 +9591,9 @@
       <c r="C150" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D150"/>
+      <c r="D150" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E150" s="24" t="s">
         <v>10</v>
       </c>
@@ -9580,7 +9614,9 @@
       <c r="C151" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D151"/>
+      <c r="D151" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E151" s="24" t="s">
         <v>24</v>
       </c>
@@ -9601,7 +9637,9 @@
       <c r="C152" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D152"/>
+      <c r="D152" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E152" s="24" t="s">
         <v>25</v>
       </c>
@@ -9622,7 +9660,9 @@
       <c r="C153" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D153"/>
+      <c r="D153" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="E153" s="24" t="s">
         <v>11</v>
       </c>
@@ -9643,7 +9683,9 @@
       <c r="C154" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D154"/>
+      <c r="D154" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="E154" s="24" t="s">
         <v>79</v>
       </c>
@@ -9664,7 +9706,9 @@
       <c r="C155" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D155"/>
+      <c r="D155" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="E155" s="24" t="s">
         <v>66</v>
       </c>
@@ -9685,7 +9729,9 @@
       <c r="C156" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D156"/>
+      <c r="D156" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="E156" s="24" t="s">
         <v>127</v>
       </c>
@@ -9706,7 +9752,9 @@
       <c r="C157" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D157"/>
+      <c r="D157" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="E157" s="24" t="s">
         <v>94</v>
       </c>
@@ -9727,7 +9775,9 @@
       <c r="C158" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D158"/>
+      <c r="D158" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="E158" s="24" t="s">
         <v>95</v>
       </c>
@@ -9748,7 +9798,9 @@
       <c r="C159" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D159"/>
+      <c r="D159" s="47" t="s">
+        <v>167</v>
+      </c>
       <c r="E159" s="24" t="s">
         <v>25</v>
       </c>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0465901-F6E3-4247-A195-1300CEAB1C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CD0957-E961-F341-9AC3-3D3D254CD770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6138,8 +6138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CD0957-E961-F341-9AC3-3D3D254CD770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBFA9C0-F39A-1344-86F5-D932037A2E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9280" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="172">
   <si>
     <t>featureName</t>
   </si>
@@ -212,27 +212,12 @@
     <t>referenceName</t>
   </si>
   <si>
-    <t>REF_KRV</t>
-  </si>
-  <si>
-    <t>REF_DEN1</t>
-  </si>
-  <si>
-    <t>REF_TABV</t>
-  </si>
-  <si>
     <t>REF_BVDV1</t>
   </si>
   <si>
-    <t>REF_SCNV5</t>
-  </si>
-  <si>
     <t>REF_JMTV_SEG1</t>
   </si>
   <si>
-    <t>REF_POWV</t>
-  </si>
-  <si>
     <t>REF_SOKV</t>
   </si>
   <si>
@@ -269,12 +254,6 @@
     <t>REF_EPEV</t>
   </si>
   <si>
-    <t>REF_LAMV</t>
-  </si>
-  <si>
-    <t>REF_MASTER_YFV</t>
-  </si>
-  <si>
     <t>sequenceID</t>
   </si>
   <si>
@@ -284,9 +263,6 @@
     <t>NC_028373</t>
   </si>
   <si>
-    <t>REF_SLV2</t>
-  </si>
-  <si>
     <t>Pestinsect</t>
   </si>
   <si>
@@ -374,9 +350,6 @@
     <t>JMTV_CONCAT</t>
   </si>
   <si>
-    <t>REF_JMTV_CONCAT</t>
-  </si>
-  <si>
     <t>seg3-NS3</t>
   </si>
   <si>
@@ -416,27 +389,12 @@
     <t>dISF</t>
   </si>
   <si>
-    <t>REF_HEPACI_1_HCV</t>
-  </si>
-  <si>
     <t>KC145265</t>
   </si>
   <si>
     <t>Core</t>
   </si>
   <si>
-    <t>REF_PEGI_1_HPgV2</t>
-  </si>
-  <si>
-    <t>REF_PEGI_2_TDAV</t>
-  </si>
-  <si>
-    <t>REF_PESTI_1_BVDV1</t>
-  </si>
-  <si>
-    <t>REF_HEPACI_2_HCV_L</t>
-  </si>
-  <si>
     <t>NC_031916</t>
   </si>
   <si>
@@ -449,36 +407,21 @@
     <t>NC_038430</t>
   </si>
   <si>
-    <t>REF_HEPACI_3_HCV_K</t>
-  </si>
-  <si>
     <t>Hepaci3</t>
   </si>
   <si>
     <t>Hepaci4</t>
   </si>
   <si>
-    <t>REF_HEPACI_4_HCV_J</t>
-  </si>
-  <si>
     <t>NC_038429</t>
   </si>
   <si>
-    <t>REF_HEPACI_5_BEHV</t>
-  </si>
-  <si>
     <t>MN062427</t>
   </si>
   <si>
     <t>MT371439</t>
   </si>
   <si>
-    <t>REF_HEPACI_7_WHCV</t>
-  </si>
-  <si>
-    <t>REF_HEPACI_6_GHV</t>
-  </si>
-  <si>
     <t>Hepaci5</t>
   </si>
   <si>
@@ -491,15 +434,9 @@
     <t>MG599993</t>
   </si>
   <si>
-    <t>REF_HEPACI_8_WmeHCV</t>
-  </si>
-  <si>
     <t>Hepaci8</t>
   </si>
   <si>
-    <t>REF_HEPACI_9_WLSV</t>
-  </si>
-  <si>
     <t>Hepaci9</t>
   </si>
   <si>
@@ -509,9 +446,6 @@
     <t>MG599990</t>
   </si>
   <si>
-    <t>REF_PESTI_2_NrPeV</t>
-  </si>
-  <si>
     <t>Pesti1</t>
   </si>
   <si>
@@ -527,12 +461,6 @@
     <t>NC_025677</t>
   </si>
   <si>
-    <t>REF_PESTI_3_APPeV</t>
-  </si>
-  <si>
-    <t>REF_PESTI_4_NdsPV</t>
-  </si>
-  <si>
     <t>MG599984</t>
   </si>
   <si>
@@ -543,6 +471,90 @@
   </si>
   <si>
     <t>Pegi2</t>
+  </si>
+  <si>
+    <t>REF_MASTER_KRV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_LAMV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_DEN1</t>
+  </si>
+  <si>
+    <t>REF_MASTER_MASTER_YFV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_APOIV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_SOKV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_POWV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_1_HCV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_2_HCV_L</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_3_HCV_K</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_4_HCV_J</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_5_BEHV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_6_GHV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_7_WHCV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_8_WmeHCV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HEPACI_9_WLSV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_PEGI_1_HPgV2</t>
+  </si>
+  <si>
+    <t>REF_MASTER_PEGI_2_TDAV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_SCNV5</t>
+  </si>
+  <si>
+    <t>REF_MASTER_SLV2</t>
+  </si>
+  <si>
+    <t>REF_MASTER_PESTI_1_BVDV1</t>
+  </si>
+  <si>
+    <t>REF_MASTER_PESTI_2_NrPeV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_PESTI_3_APPeV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_PESTI_4_NdsPV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_TABV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_JMTV_CONCAT</t>
+  </si>
+  <si>
+    <t>REF_MASTER_JMTV_Seg1</t>
+  </si>
+  <si>
+    <t>REF_MASTER_JMTV_Seg3</t>
   </si>
 </sst>
 </file>
@@ -6138,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D208" sqref="A1:G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6155,7 +6167,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>56</v>
@@ -6181,7 +6193,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>14</v>
@@ -6190,7 +6202,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -6204,7 +6216,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>14</v>
@@ -6227,7 +6239,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>14</v>
@@ -6236,7 +6248,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7">
         <v>97</v>
@@ -6250,7 +6262,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>14</v>
@@ -6259,7 +6271,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7">
         <v>97</v>
@@ -6273,7 +6285,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>14</v>
@@ -6282,7 +6294,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F6" s="7">
         <v>97</v>
@@ -6296,7 +6308,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>14</v>
@@ -6305,7 +6317,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7">
         <v>526</v>
@@ -6319,7 +6331,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>14</v>
@@ -6328,7 +6340,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7">
         <v>955</v>
@@ -6342,7 +6354,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>14</v>
@@ -6351,7 +6363,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F9" s="7">
         <v>2251</v>
@@ -6365,7 +6377,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>14</v>
@@ -6388,7 +6400,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>14</v>
@@ -6397,7 +6409,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F11" s="7">
         <v>3421</v>
@@ -6411,7 +6423,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>14</v>
@@ -6420,7 +6432,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F12" s="7">
         <v>4042</v>
@@ -6434,7 +6446,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>14</v>
@@ -6457,7 +6469,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>14</v>
@@ -6466,7 +6478,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7">
         <v>6250</v>
@@ -6480,7 +6492,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>14</v>
@@ -6503,7 +6515,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>14</v>
@@ -6512,7 +6524,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7">
         <v>6724</v>
@@ -6526,7 +6538,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>14</v>
@@ -6549,7 +6561,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>14</v>
@@ -6572,16 +6584,16 @@
         <v>44</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -6595,13 +6607,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>15</v>
@@ -6618,16 +6630,16 @@
         <v>44</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7">
         <v>16</v>
@@ -6641,16 +6653,16 @@
         <v>44</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7">
         <v>16</v>
@@ -6664,16 +6676,16 @@
         <v>44</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F23" s="7">
         <v>16</v>
@@ -6687,16 +6699,16 @@
         <v>44</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F24" s="7">
         <v>382</v>
@@ -6710,16 +6722,16 @@
         <v>44</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7">
         <v>889</v>
@@ -6733,13 +6745,13 @@
         <v>44</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>4</v>
@@ -6756,16 +6768,16 @@
         <v>44</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F27" s="7">
         <v>3445</v>
@@ -6779,16 +6791,16 @@
         <v>44</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F28" s="7">
         <v>4126</v>
@@ -6802,13 +6814,13 @@
         <v>44</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>7</v>
@@ -6825,16 +6837,16 @@
         <v>44</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" s="7">
         <v>6382</v>
@@ -6848,13 +6860,13 @@
         <v>44</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -6871,16 +6883,16 @@
         <v>44</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F32" s="7">
         <v>6829</v>
@@ -6894,13 +6906,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>10</v>
@@ -6917,16 +6929,16 @@
         <v>44</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F34" s="7">
         <v>2386</v>
@@ -6940,7 +6952,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>14</v>
@@ -6949,7 +6961,7 @@
         <v>39</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F35" s="25">
         <v>1</v>
@@ -6963,7 +6975,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>14</v>
@@ -6986,7 +6998,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>14</v>
@@ -6995,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F37" s="24">
         <v>95</v>
@@ -7009,7 +7021,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>14</v>
@@ -7018,7 +7030,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F38" s="24">
         <v>95</v>
@@ -7032,7 +7044,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>14</v>
@@ -7041,7 +7053,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F39" s="24">
         <v>95</v>
@@ -7055,7 +7067,7 @@
         <v>29</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>14</v>
@@ -7064,7 +7076,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F40" s="24">
         <v>437</v>
@@ -7078,7 +7090,7 @@
         <v>29</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>14</v>
@@ -7087,7 +7099,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F41" s="24">
         <v>935</v>
@@ -7101,7 +7113,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>14</v>
@@ -7110,7 +7122,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F42" s="24">
         <v>2420</v>
@@ -7124,7 +7136,7 @@
         <v>29</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>14</v>
@@ -7147,7 +7159,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>14</v>
@@ -7156,7 +7168,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F44" s="24">
         <v>3476</v>
@@ -7170,7 +7182,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>14</v>
@@ -7179,7 +7191,7 @@
         <v>39</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F45" s="24">
         <v>4130</v>
@@ -7193,7 +7205,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>14</v>
@@ -7216,7 +7228,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>14</v>
@@ -7225,7 +7237,7 @@
         <v>39</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F47" s="24">
         <v>6377</v>
@@ -7239,7 +7251,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>14</v>
@@ -7262,7 +7274,7 @@
         <v>29</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>14</v>
@@ -7271,7 +7283,7 @@
         <v>39</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F49" s="24">
         <v>6827</v>
@@ -7285,7 +7297,7 @@
         <v>29</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>14</v>
@@ -7308,7 +7320,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>14</v>
@@ -7331,7 +7343,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>14</v>
@@ -7340,7 +7352,7 @@
         <v>41</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F52" s="7">
         <v>1</v>
@@ -7354,7 +7366,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>14</v>
@@ -7377,7 +7389,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>14</v>
@@ -7386,7 +7398,7 @@
         <v>41</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F54" s="7">
         <v>119</v>
@@ -7400,7 +7412,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>14</v>
@@ -7409,7 +7421,7 @@
         <v>41</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F55" s="7">
         <v>119</v>
@@ -7423,7 +7435,7 @@
         <v>30</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>14</v>
@@ -7432,7 +7444,7 @@
         <v>41</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F56" s="7">
         <v>119</v>
@@ -7446,7 +7458,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>14</v>
@@ -7455,7 +7467,7 @@
         <v>41</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F57" s="7">
         <v>482</v>
@@ -7469,7 +7481,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C58" s="39" t="s">
         <v>14</v>
@@ -7478,7 +7490,7 @@
         <v>41</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F58" s="7">
         <v>974</v>
@@ -7492,7 +7504,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>14</v>
@@ -7501,7 +7513,7 @@
         <v>41</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F59" s="7">
         <v>2453</v>
@@ -7515,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>14</v>
@@ -7538,7 +7550,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>14</v>
@@ -7547,7 +7559,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F61" s="7">
         <v>3509</v>
@@ -7561,7 +7573,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>14</v>
@@ -7570,7 +7582,7 @@
         <v>41</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F62" s="7">
         <v>4181</v>
@@ -7584,7 +7596,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C63" s="39" t="s">
         <v>14</v>
@@ -7607,7 +7619,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>14</v>
@@ -7616,7 +7628,7 @@
         <v>41</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" s="7">
         <v>6440</v>
@@ -7630,7 +7642,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>14</v>
@@ -7653,7 +7665,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C66" s="39" t="s">
         <v>14</v>
@@ -7662,7 +7674,7 @@
         <v>41</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F66" s="7">
         <v>6887</v>
@@ -7676,7 +7688,7 @@
         <v>30</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>14</v>
@@ -7699,7 +7711,7 @@
         <v>30</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>14</v>
@@ -7722,7 +7734,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>14</v>
@@ -7731,7 +7743,7 @@
         <v>54</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F69" s="24">
         <v>1</v>
@@ -7745,7 +7757,7 @@
         <v>46</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>14</v>
@@ -7754,7 +7766,7 @@
         <v>54</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F70" s="24">
         <v>1</v>
@@ -7768,7 +7780,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>14</v>
@@ -7777,7 +7789,7 @@
         <v>54</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F71" s="24">
         <v>1</v>
@@ -7791,7 +7803,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>14</v>
@@ -7800,7 +7812,7 @@
         <v>54</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F72" s="24">
         <v>1</v>
@@ -7814,7 +7826,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>14</v>
@@ -7823,7 +7835,7 @@
         <v>54</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F73" s="24">
         <v>331</v>
@@ -7837,7 +7849,7 @@
         <v>46</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>14</v>
@@ -7846,7 +7858,7 @@
         <v>54</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F74" s="24">
         <v>589</v>
@@ -7860,7 +7872,7 @@
         <v>46</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>14</v>
@@ -7869,7 +7881,7 @@
         <v>54</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F75" s="24">
         <v>814</v>
@@ -7883,7 +7895,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C76" s="35" t="s">
         <v>14</v>
@@ -7906,7 +7918,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>14</v>
@@ -7915,7 +7927,7 @@
         <v>54</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F77" s="24">
         <v>3328</v>
@@ -7929,7 +7941,7 @@
         <v>46</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>14</v>
@@ -7938,7 +7950,7 @@
         <v>54</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F78" s="24">
         <v>4003</v>
@@ -7952,7 +7964,7 @@
         <v>46</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>14</v>
@@ -7975,7 +7987,7 @@
         <v>46</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>14</v>
@@ -7984,7 +7996,7 @@
         <v>54</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F80" s="24">
         <v>6241</v>
@@ -7998,7 +8010,7 @@
         <v>46</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>14</v>
@@ -8021,7 +8033,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>14</v>
@@ -8030,7 +8042,7 @@
         <v>54</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F82" s="24">
         <v>6667</v>
@@ -8044,7 +8056,7 @@
         <v>46</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>14</v>
@@ -8067,7 +8079,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>14</v>
@@ -8076,7 +8088,7 @@
         <v>54</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F84" s="24">
         <v>2269</v>
@@ -8091,7 +8103,7 @@
         <v>49</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C85" s="30" t="s">
         <v>14</v>
@@ -8100,7 +8112,7 @@
         <v>48</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F85" s="7">
         <v>1</v>
@@ -8114,7 +8126,7 @@
         <v>49</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>14</v>
@@ -8123,7 +8135,7 @@
         <v>48</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F86" s="7">
         <v>1</v>
@@ -8137,7 +8149,7 @@
         <v>33</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>14</v>
@@ -8146,7 +8158,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F87" s="7">
         <v>1</v>
@@ -8160,7 +8172,7 @@
         <v>33</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>14</v>
@@ -8183,7 +8195,7 @@
         <v>33</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>14</v>
@@ -8192,7 +8204,7 @@
         <v>43</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F89" s="7">
         <v>112</v>
@@ -8206,7 +8218,7 @@
         <v>33</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>14</v>
@@ -8215,7 +8227,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F90" s="7">
         <v>112</v>
@@ -8229,7 +8241,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>14</v>
@@ -8238,7 +8250,7 @@
         <v>43</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F91" s="7">
         <v>112</v>
@@ -8252,7 +8264,7 @@
         <v>33</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>14</v>
@@ -8261,7 +8273,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F92" s="7">
         <v>442</v>
@@ -8275,7 +8287,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>14</v>
@@ -8284,7 +8296,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F93" s="7">
         <v>946</v>
@@ -8298,7 +8310,7 @@
         <v>33</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>14</v>
@@ -8307,7 +8319,7 @@
         <v>43</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F94" s="7">
         <v>2437</v>
@@ -8321,7 +8333,7 @@
         <v>33</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>14</v>
@@ -8344,7 +8356,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>14</v>
@@ -8353,7 +8365,7 @@
         <v>43</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F96" s="7">
         <v>3496</v>
@@ -8367,7 +8379,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>14</v>
@@ -8376,7 +8388,7 @@
         <v>43</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F97" s="7">
         <v>4186</v>
@@ -8390,7 +8402,7 @@
         <v>33</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>14</v>
@@ -8413,7 +8425,7 @@
         <v>33</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>14</v>
@@ -8422,7 +8434,7 @@
         <v>43</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F99" s="7">
         <v>6445</v>
@@ -8436,7 +8448,7 @@
         <v>33</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>14</v>
@@ -8459,7 +8471,7 @@
         <v>33</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>14</v>
@@ -8468,7 +8480,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F101" s="7">
         <v>6892</v>
@@ -8482,7 +8494,7 @@
         <v>33</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>14</v>
@@ -8505,7 +8517,7 @@
         <v>33</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>14</v>
@@ -8528,16 +8540,16 @@
         <v>34</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C104" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F104" s="24">
         <v>1</v>
@@ -8551,13 +8563,13 @@
         <v>34</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C105" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E105" s="24" t="s">
         <v>15</v>
@@ -8574,16 +8586,16 @@
         <v>34</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C106" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F106" s="24">
         <v>342</v>
@@ -8597,16 +8609,16 @@
         <v>34</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C107" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F107" s="24">
         <v>342</v>
@@ -8620,13 +8632,13 @@
         <v>34</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C108" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E108" s="24" t="s">
         <v>22</v>
@@ -8643,16 +8655,16 @@
         <v>34</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C109" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F109" s="24">
         <v>915</v>
@@ -8666,16 +8678,16 @@
         <v>34</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C110" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F110" s="24">
         <v>1491</v>
@@ -8689,16 +8701,16 @@
         <v>34</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C111" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F111" s="24">
         <v>2580</v>
@@ -8712,16 +8724,16 @@
         <v>34</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F112" s="24">
         <v>2580</v>
@@ -8735,16 +8747,16 @@
         <v>34</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C113" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F113" s="24">
         <v>2769</v>
@@ -8758,13 +8770,13 @@
         <v>34</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C114" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E114" s="24" t="s">
         <v>7</v>
@@ -8781,16 +8793,16 @@
         <v>34</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F115" s="24">
         <v>5313</v>
@@ -8804,16 +8816,16 @@
         <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C116" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F116" s="24">
         <v>5475</v>
@@ -8827,13 +8839,13 @@
         <v>34</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C117" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E117" s="24" t="s">
         <v>10</v>
@@ -8850,13 +8862,13 @@
         <v>34</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C118" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>24</v>
@@ -8873,13 +8885,13 @@
         <v>34</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C119" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>25</v>
@@ -8896,13 +8908,13 @@
         <v>34</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C120" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E120" s="24" t="s">
         <v>11</v>
@@ -8916,19 +8928,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="48" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C121" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D121" s="49" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F121" s="24">
         <v>1</v>
@@ -8939,19 +8951,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="48" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C122" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F122" s="24">
         <v>174</v>
@@ -8962,19 +8974,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="48" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C123" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="49" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F123" s="24">
         <v>1</v>
@@ -8985,19 +8997,19 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="48" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C124" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D124" s="49" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F124" s="24">
         <v>281</v>
@@ -9008,19 +9020,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="48" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C125" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F125" s="24">
         <v>1</v>
@@ -9031,19 +9043,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="48" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C126" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F126" s="24">
         <v>558</v>
@@ -9054,19 +9066,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="48" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C127" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F127" s="24">
         <v>1</v>
@@ -9077,19 +9089,19 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="48" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C128" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D128" s="49" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F128" s="24">
         <v>578</v>
@@ -9100,19 +9112,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="48" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C129" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D129" s="49" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F129" s="24">
         <v>1</v>
@@ -9123,19 +9135,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="48" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C130" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D130" s="49" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F130" s="24">
         <v>3</v>
@@ -9146,19 +9158,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="48" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C131" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D131" s="49" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F131" s="24">
         <v>1</v>
@@ -9169,19 +9181,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="48" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C132" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D132" s="49" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F132" s="24">
         <v>174</v>
@@ -9192,19 +9204,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="48" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C133" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D133" s="49" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F133" s="24">
         <v>1</v>
@@ -9215,19 +9227,19 @@
     </row>
     <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C134" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="49" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F134" s="24">
         <v>1</v>
@@ -9238,19 +9250,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="48" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C135" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="49" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F135" s="24">
         <v>1</v>
@@ -9261,19 +9273,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="48" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C136" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D136" s="49" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F136" s="24">
         <v>132</v>
@@ -9287,16 +9299,16 @@
         <v>37</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F137" s="24">
         <v>1</v>
@@ -9310,13 +9322,13 @@
         <v>37</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E138" s="24" t="s">
         <v>15</v>
@@ -9333,16 +9345,16 @@
         <v>37</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F139" s="24">
         <v>328</v>
@@ -9356,16 +9368,16 @@
         <v>37</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F140" s="24">
         <v>328</v>
@@ -9379,16 +9391,16 @@
         <v>37</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F141" s="24">
         <v>328</v>
@@ -9402,16 +9414,16 @@
         <v>37</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C142" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F142" s="24">
         <v>565</v>
@@ -9425,16 +9437,16 @@
         <v>37</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C143" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F143" s="24">
         <v>1138</v>
@@ -9448,16 +9460,16 @@
         <v>37</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F144" s="24">
         <v>2200</v>
@@ -9471,16 +9483,16 @@
         <v>37</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F145" s="24">
         <v>2911</v>
@@ -9494,16 +9506,16 @@
         <v>37</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F146" s="24">
         <v>2911</v>
@@ -9517,13 +9529,13 @@
         <v>37</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C147" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E147" s="24" t="s">
         <v>7</v>
@@ -9540,16 +9552,16 @@
         <v>37</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F148" s="24">
         <v>5515</v>
@@ -9563,16 +9575,16 @@
         <v>37</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F149" s="24">
         <v>5638</v>
@@ -9586,13 +9598,13 @@
         <v>37</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E150" s="24" t="s">
         <v>10</v>
@@ -9609,13 +9621,13 @@
         <v>37</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E151" s="24" t="s">
         <v>24</v>
@@ -9632,13 +9644,13 @@
         <v>37</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C152" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E152" s="24" t="s">
         <v>25</v>
@@ -9655,13 +9667,13 @@
         <v>37</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C153" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E153" s="24" t="s">
         <v>11</v>
@@ -9675,19 +9687,19 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C154" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F154" s="24">
         <v>1</v>
@@ -9698,19 +9710,19 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C155" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="47" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F155" s="24">
         <v>618</v>
@@ -9721,19 +9733,19 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C156" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="47" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F156" s="24">
         <v>618</v>
@@ -9744,19 +9756,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C157" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="47" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F157" s="24">
         <v>696</v>
@@ -9767,19 +9779,19 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C158" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="47" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F158" s="24">
         <v>1218</v>
@@ -9790,16 +9802,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C159" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D159" s="47" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E159" s="24" t="s">
         <v>25</v>
@@ -9816,16 +9828,16 @@
         <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E160" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F160" s="24">
         <v>1</v>
@@ -9839,13 +9851,13 @@
         <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E161" s="24" t="s">
         <v>15</v>
@@ -9862,16 +9874,16 @@
         <v>52</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F162" s="24">
         <v>351</v>
@@ -9885,13 +9897,13 @@
         <v>52</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E163" s="24" t="s">
         <v>11</v>
@@ -9905,19 +9917,19 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F164" s="24">
         <v>1</v>
@@ -9928,16 +9940,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E165" s="24" t="s">
         <v>15</v>
@@ -9951,19 +9963,19 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F166" s="24">
         <v>200</v>
@@ -9974,16 +9986,16 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E167" s="24" t="s">
         <v>11</v>
@@ -10000,16 +10012,16 @@
         <v>35</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C168" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F168" s="24">
         <v>1</v>
@@ -10023,13 +10035,13 @@
         <v>35</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C169" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E169" s="24" t="s">
         <v>15</v>
@@ -10046,16 +10058,16 @@
         <v>35</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C170" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F170" s="24">
         <v>386</v>
@@ -10069,16 +10081,16 @@
         <v>35</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C171" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E171" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F171" s="24">
         <v>386</v>
@@ -10092,16 +10104,16 @@
         <v>35</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C172" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F172" s="24">
         <v>386</v>
@@ -10115,16 +10127,16 @@
         <v>35</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C173" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F173" s="24">
         <v>890</v>
@@ -10138,13 +10150,13 @@
         <v>35</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C174" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E174" s="24" t="s">
         <v>28</v>
@@ -10161,16 +10173,16 @@
         <v>35</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C175" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F175" s="24">
         <v>1877</v>
@@ -10184,16 +10196,16 @@
         <v>35</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C176" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F176" s="24">
         <v>2462</v>
@@ -10207,16 +10219,16 @@
         <v>35</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C177" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F177" s="24">
         <v>3584</v>
@@ -10230,13 +10242,13 @@
         <v>35</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C178" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E178" s="24" t="s">
         <v>7</v>
@@ -10253,16 +10265,16 @@
         <v>35</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C179" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F179" s="24">
         <v>7472</v>
@@ -10276,16 +10288,16 @@
         <v>35</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C180" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E180" s="24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F180" s="24">
         <v>7664</v>
@@ -10299,13 +10311,13 @@
         <v>35</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C181" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E181" s="24" t="s">
         <v>10</v>
@@ -10322,13 +10334,13 @@
         <v>35</v>
       </c>
       <c r="B182" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C182" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E182" s="24" t="s">
         <v>24</v>
@@ -10345,13 +10357,13 @@
         <v>35</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C183" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E183" s="24" t="s">
         <v>25</v>
@@ -10368,13 +10380,13 @@
         <v>35</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E184" s="24" t="s">
         <v>11</v>
@@ -10388,19 +10400,19 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="27" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C185" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E185" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F185" s="24">
         <v>1</v>
@@ -10411,19 +10423,19 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="27" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F186" s="24">
         <v>499</v>
@@ -10434,19 +10446,19 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="27" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C187" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F187" s="24">
         <v>1</v>
@@ -10457,19 +10469,19 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C188" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F188" s="24">
         <v>124</v>
@@ -10480,19 +10492,19 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="27" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C189" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E189" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F189" s="24">
         <v>1</v>
@@ -10503,19 +10515,19 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="27" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C190" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F190" s="24">
         <v>1</v>
@@ -10529,14 +10541,14 @@
         <v>50</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C191" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D191" s="24"/>
       <c r="E191" s="24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F191" s="24">
         <v>1</v>
@@ -10550,14 +10562,14 @@
         <v>50</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C192" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D192" s="24"/>
       <c r="E192" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F192" s="24">
         <v>1</v>
@@ -10571,14 +10583,14 @@
         <v>50</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C193" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D193" s="24"/>
       <c r="E193" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F193" s="24">
         <v>1</v>
@@ -10592,14 +10604,14 @@
         <v>50</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C194" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F194" s="24">
         <v>1</v>
@@ -10613,14 +10625,14 @@
         <v>50</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C195" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D195" s="24"/>
       <c r="E195" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F195" s="24">
         <v>346</v>
@@ -10634,14 +10646,14 @@
         <v>50</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C196" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D196" s="24"/>
       <c r="E196" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F196" s="24">
         <v>655</v>
@@ -10655,14 +10667,14 @@
         <v>50</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D197" s="24"/>
       <c r="E197" s="24" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F197" s="24">
         <v>853</v>
@@ -10676,14 +10688,14 @@
         <v>50</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C198" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D198" s="24"/>
       <c r="E198" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F198" s="24">
         <v>2359</v>
@@ -10697,7 +10709,7 @@
         <v>50</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C199" s="24" t="s">
         <v>55</v>
@@ -10718,14 +10730,14 @@
         <v>50</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C200" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D200" s="24"/>
       <c r="E200" s="24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F200" s="24">
         <v>3391</v>
@@ -10739,14 +10751,14 @@
         <v>50</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F201" s="24">
         <v>3979</v>
@@ -10760,7 +10772,7 @@
         <v>50</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C202" s="24" t="s">
         <v>55</v>
@@ -10781,14 +10793,14 @@
         <v>50</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C203" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D203" s="24"/>
       <c r="E203" s="24" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F203" s="24">
         <v>6304</v>
@@ -10802,7 +10814,7 @@
         <v>50</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C204" s="24" t="s">
         <v>55</v>
@@ -10823,14 +10835,14 @@
         <v>50</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C205" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D205" s="24"/>
       <c r="E205" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F205" s="24">
         <v>6763</v>
@@ -10844,7 +10856,7 @@
         <v>50</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C206" s="24" t="s">
         <v>55</v>
@@ -10863,17 +10875,17 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D207" s="24"/>
       <c r="E207" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -10884,17 +10896,17 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F208" s="24">
         <v>117</v>
@@ -10905,17 +10917,17 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D209" s="24"/>
       <c r="E209" s="24" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F209">
         <f t="shared" ref="F209" si="0">(D209+2824)</f>
@@ -10927,17 +10939,17 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D210" s="24"/>
       <c r="E210" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F210" s="24">
         <v>1</v>
@@ -10948,17 +10960,17 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D211" s="24"/>
       <c r="E211" s="24" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F211">
         <v>105</v>
@@ -10969,17 +10981,17 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D212" s="24"/>
       <c r="E212" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F212" s="24">
         <v>1</v>
@@ -10990,17 +11002,17 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D213" s="24"/>
       <c r="E213" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F213">
         <v>117</v>
@@ -11450,10 +11462,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>14</v>
@@ -11462,7 +11474,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
@@ -11473,10 +11485,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>14</v>
@@ -11485,7 +11497,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" s="7">
         <v>97</v>
@@ -11496,10 +11508,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>14</v>
@@ -11508,7 +11520,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -11519,10 +11531,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>14</v>
@@ -11531,7 +11543,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7">
         <v>110</v>
@@ -11545,16 +11557,16 @@
         <v>45</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F5" s="23">
         <v>1</v>
@@ -11568,13 +11580,13 @@
         <v>45</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>15</v>
@@ -11591,16 +11603,16 @@
         <v>45</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F7" s="23">
         <v>120</v>
@@ -11614,13 +11626,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>11</v>
@@ -11634,19 +11646,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -11657,19 +11669,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -11680,19 +11692,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -11703,19 +11715,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F12" s="7">
         <v>103</v>
@@ -12365,7 +12377,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>14</v>
@@ -12374,7 +12386,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -12388,7 +12400,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>14</v>
@@ -12397,7 +12409,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -12411,7 +12423,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -12431,13 +12443,13 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F31" s="10">
         <v>386</v>
@@ -12451,13 +12463,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F32" s="9">
         <v>386</v>
@@ -12471,7 +12483,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -12491,7 +12503,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -12511,13 +12523,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F35" s="9">
         <v>1877</v>
@@ -12531,13 +12543,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F36" s="9">
         <v>2462</v>
@@ -12551,7 +12563,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -12571,7 +12583,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -12591,7 +12603,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -12611,7 +12623,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -12631,7 +12643,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -12651,7 +12663,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -12671,7 +12683,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -12691,7 +12703,7 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -12714,7 +12726,7 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -12737,7 +12749,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -12746,7 +12758,7 @@
         <v>47</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F46">
         <v>105</v>
@@ -12760,7 +12772,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -12804,16 +12816,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>10</v>
@@ -12835,19 +12847,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" s="24">
         <v>105</v>
@@ -12866,19 +12878,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -12897,19 +12909,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F4" s="24">
         <v>117</v>
@@ -12920,19 +12932,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>1</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBFA9C0-F39A-1344-86F5-D932037A2E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E730F9-DE7A-E741-A0D9-5177EB06889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9280" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,9 +482,6 @@
     <t>REF_MASTER_DEN1</t>
   </si>
   <si>
-    <t>REF_MASTER_MASTER_YFV</t>
-  </si>
-  <si>
     <t>REF_MASTER_APOIV</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>REF_MASTER_JMTV_Seg3</t>
+  </si>
+  <si>
+    <t>REF_MASTER_YFV</t>
   </si>
 </sst>
 </file>
@@ -6150,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D208" sqref="A1:G213"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7343,7 +7343,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>14</v>
@@ -7366,7 +7366,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>14</v>
@@ -7389,7 +7389,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>14</v>
@@ -7412,7 +7412,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>14</v>
@@ -7435,7 +7435,7 @@
         <v>30</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>14</v>
@@ -7458,7 +7458,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>14</v>
@@ -7481,7 +7481,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C58" s="39" t="s">
         <v>14</v>
@@ -7504,7 +7504,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>14</v>
@@ -7527,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>14</v>
@@ -7550,7 +7550,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>14</v>
@@ -7573,7 +7573,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>14</v>
@@ -7596,7 +7596,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C63" s="39" t="s">
         <v>14</v>
@@ -7619,7 +7619,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>14</v>
@@ -7642,7 +7642,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>14</v>
@@ -7665,7 +7665,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C66" s="39" t="s">
         <v>14</v>
@@ -7688,7 +7688,7 @@
         <v>30</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>14</v>
@@ -7711,7 +7711,7 @@
         <v>30</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>14</v>
@@ -7734,7 +7734,7 @@
         <v>46</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>14</v>
@@ -7757,7 +7757,7 @@
         <v>46</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>14</v>
@@ -7780,7 +7780,7 @@
         <v>46</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>14</v>
@@ -7803,7 +7803,7 @@
         <v>46</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>14</v>
@@ -7826,7 +7826,7 @@
         <v>46</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>14</v>
@@ -7849,7 +7849,7 @@
         <v>46</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>14</v>
@@ -7872,7 +7872,7 @@
         <v>46</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="35" t="s">
         <v>14</v>
@@ -7895,7 +7895,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="35" t="s">
         <v>14</v>
@@ -7918,7 +7918,7 @@
         <v>46</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>14</v>
@@ -7941,7 +7941,7 @@
         <v>46</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>14</v>
@@ -7964,7 +7964,7 @@
         <v>46</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>14</v>
@@ -7987,7 +7987,7 @@
         <v>46</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>14</v>
@@ -8010,7 +8010,7 @@
         <v>46</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>14</v>
@@ -8033,7 +8033,7 @@
         <v>46</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>14</v>
@@ -8056,7 +8056,7 @@
         <v>46</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>14</v>
@@ -8079,7 +8079,7 @@
         <v>46</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>14</v>
@@ -8103,7 +8103,7 @@
         <v>49</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="30" t="s">
         <v>14</v>
@@ -8126,7 +8126,7 @@
         <v>49</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>14</v>
@@ -8149,7 +8149,7 @@
         <v>33</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>14</v>
@@ -8172,7 +8172,7 @@
         <v>33</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>14</v>
@@ -8195,7 +8195,7 @@
         <v>33</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>14</v>
@@ -8218,7 +8218,7 @@
         <v>33</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>14</v>
@@ -8241,7 +8241,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>14</v>
@@ -8264,7 +8264,7 @@
         <v>33</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>14</v>
@@ -8287,7 +8287,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>14</v>
@@ -8310,7 +8310,7 @@
         <v>33</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>14</v>
@@ -8333,7 +8333,7 @@
         <v>33</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>14</v>
@@ -8356,7 +8356,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>14</v>
@@ -8379,7 +8379,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>14</v>
@@ -8402,7 +8402,7 @@
         <v>33</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>14</v>
@@ -8425,7 +8425,7 @@
         <v>33</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>14</v>
@@ -8448,7 +8448,7 @@
         <v>33</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>14</v>
@@ -8471,7 +8471,7 @@
         <v>33</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>14</v>
@@ -8494,7 +8494,7 @@
         <v>33</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>14</v>
@@ -8517,7 +8517,7 @@
         <v>33</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>14</v>
@@ -8540,7 +8540,7 @@
         <v>34</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C104" s="28" t="s">
         <v>21</v>
@@ -8563,7 +8563,7 @@
         <v>34</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C105" s="28" t="s">
         <v>21</v>
@@ -8586,7 +8586,7 @@
         <v>34</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C106" s="28" t="s">
         <v>21</v>
@@ -8609,7 +8609,7 @@
         <v>34</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C107" s="28" t="s">
         <v>21</v>
@@ -8632,7 +8632,7 @@
         <v>34</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108" s="28" t="s">
         <v>21</v>
@@ -8655,7 +8655,7 @@
         <v>34</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C109" s="28" t="s">
         <v>21</v>
@@ -8678,7 +8678,7 @@
         <v>34</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C110" s="28" t="s">
         <v>21</v>
@@ -8701,7 +8701,7 @@
         <v>34</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C111" s="28" t="s">
         <v>21</v>
@@ -8724,7 +8724,7 @@
         <v>34</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" s="28" t="s">
         <v>21</v>
@@ -8747,7 +8747,7 @@
         <v>34</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" s="28" t="s">
         <v>21</v>
@@ -8770,7 +8770,7 @@
         <v>34</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" s="28" t="s">
         <v>21</v>
@@ -8793,7 +8793,7 @@
         <v>34</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="28" t="s">
         <v>21</v>
@@ -8816,7 +8816,7 @@
         <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" s="28" t="s">
         <v>21</v>
@@ -8839,7 +8839,7 @@
         <v>34</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" s="28" t="s">
         <v>21</v>
@@ -8862,7 +8862,7 @@
         <v>34</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" s="28" t="s">
         <v>21</v>
@@ -8885,7 +8885,7 @@
         <v>34</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="28" t="s">
         <v>21</v>
@@ -8908,7 +8908,7 @@
         <v>34</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C120" s="28" t="s">
         <v>21</v>
@@ -8931,7 +8931,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C121" s="48" t="s">
         <v>21</v>
@@ -8954,7 +8954,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C122" s="48" t="s">
         <v>21</v>
@@ -8977,7 +8977,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C123" s="48" t="s">
         <v>21</v>
@@ -9000,7 +9000,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="48" t="s">
         <v>21</v>
@@ -9023,7 +9023,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C125" s="48" t="s">
         <v>21</v>
@@ -9046,7 +9046,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C126" s="48" t="s">
         <v>21</v>
@@ -9069,7 +9069,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C127" s="48" t="s">
         <v>21</v>
@@ -9092,7 +9092,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C128" s="48" t="s">
         <v>21</v>
@@ -9115,7 +9115,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C129" s="48" t="s">
         <v>21</v>
@@ -9138,7 +9138,7 @@
         <v>126</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C130" s="48" t="s">
         <v>21</v>
@@ -9161,7 +9161,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" s="48" t="s">
         <v>21</v>
@@ -9184,7 +9184,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" s="48" t="s">
         <v>21</v>
@@ -9207,7 +9207,7 @@
         <v>134</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" s="48" t="s">
         <v>21</v>
@@ -9230,7 +9230,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C134" s="48" t="s">
         <v>21</v>
@@ -9253,7 +9253,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" s="48" t="s">
         <v>21</v>
@@ -9276,7 +9276,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C136" s="48" t="s">
         <v>21</v>
@@ -9299,7 +9299,7 @@
         <v>37</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>26</v>
@@ -9322,7 +9322,7 @@
         <v>37</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>26</v>
@@ -9345,7 +9345,7 @@
         <v>37</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>26</v>
@@ -9368,7 +9368,7 @@
         <v>37</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>26</v>
@@ -9391,7 +9391,7 @@
         <v>37</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>26</v>
@@ -9414,7 +9414,7 @@
         <v>37</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C142" s="32" t="s">
         <v>26</v>
@@ -9437,7 +9437,7 @@
         <v>37</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C143" s="32" t="s">
         <v>26</v>
@@ -9460,7 +9460,7 @@
         <v>37</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>26</v>
@@ -9483,7 +9483,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C145" s="32" t="s">
         <v>26</v>
@@ -9506,7 +9506,7 @@
         <v>37</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C146" s="32" t="s">
         <v>26</v>
@@ -9529,7 +9529,7 @@
         <v>37</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" s="32" t="s">
         <v>26</v>
@@ -9552,7 +9552,7 @@
         <v>37</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="32" t="s">
         <v>26</v>
@@ -9575,7 +9575,7 @@
         <v>37</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>26</v>
@@ -9598,7 +9598,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>26</v>
@@ -9621,7 +9621,7 @@
         <v>37</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>26</v>
@@ -9644,7 +9644,7 @@
         <v>37</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C152" s="32" t="s">
         <v>26</v>
@@ -9667,7 +9667,7 @@
         <v>37</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C153" s="32" t="s">
         <v>26</v>
@@ -9690,7 +9690,7 @@
         <v>116</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C154" s="47" t="s">
         <v>26</v>
@@ -9713,7 +9713,7 @@
         <v>116</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C155" s="47" t="s">
         <v>26</v>
@@ -9736,7 +9736,7 @@
         <v>116</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C156" s="47" t="s">
         <v>26</v>
@@ -9759,7 +9759,7 @@
         <v>116</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C157" s="47" t="s">
         <v>26</v>
@@ -9782,7 +9782,7 @@
         <v>116</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158" s="47" t="s">
         <v>26</v>
@@ -9805,7 +9805,7 @@
         <v>116</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159" s="47" t="s">
         <v>26</v>
@@ -9828,7 +9828,7 @@
         <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>53</v>
@@ -9851,7 +9851,7 @@
         <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>53</v>
@@ -9874,7 +9874,7 @@
         <v>52</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>53</v>
@@ -9897,7 +9897,7 @@
         <v>52</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>53</v>
@@ -9920,7 +9920,7 @@
         <v>73</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164" s="30" t="s">
         <v>74</v>
@@ -9943,7 +9943,7 @@
         <v>73</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165" s="30" t="s">
         <v>74</v>
@@ -9966,7 +9966,7 @@
         <v>73</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="30" t="s">
         <v>74</v>
@@ -9989,7 +9989,7 @@
         <v>73</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="30" t="s">
         <v>74</v>
@@ -10012,7 +10012,7 @@
         <v>35</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="27" t="s">
         <v>27</v>
@@ -10035,7 +10035,7 @@
         <v>35</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C169" s="27" t="s">
         <v>27</v>
@@ -10058,7 +10058,7 @@
         <v>35</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" s="27" t="s">
         <v>27</v>
@@ -10081,7 +10081,7 @@
         <v>35</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C171" s="27" t="s">
         <v>27</v>
@@ -10104,7 +10104,7 @@
         <v>35</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="27" t="s">
         <v>27</v>
@@ -10127,7 +10127,7 @@
         <v>35</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C173" s="27" t="s">
         <v>27</v>
@@ -10150,7 +10150,7 @@
         <v>35</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174" s="27" t="s">
         <v>27</v>
@@ -10173,7 +10173,7 @@
         <v>35</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C175" s="27" t="s">
         <v>27</v>
@@ -10196,7 +10196,7 @@
         <v>35</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C176" s="27" t="s">
         <v>27</v>
@@ -10219,7 +10219,7 @@
         <v>35</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C177" s="27" t="s">
         <v>27</v>
@@ -10242,7 +10242,7 @@
         <v>35</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C178" s="27" t="s">
         <v>27</v>
@@ -10265,7 +10265,7 @@
         <v>35</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" s="27" t="s">
         <v>27</v>
@@ -10288,7 +10288,7 @@
         <v>35</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C180" s="27" t="s">
         <v>27</v>
@@ -10311,7 +10311,7 @@
         <v>35</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" s="27" t="s">
         <v>27</v>
@@ -10334,7 +10334,7 @@
         <v>35</v>
       </c>
       <c r="B182" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C182" s="27" t="s">
         <v>27</v>
@@ -10357,7 +10357,7 @@
         <v>35</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C183" s="27" t="s">
         <v>27</v>
@@ -10380,7 +10380,7 @@
         <v>35</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>27</v>
@@ -10403,7 +10403,7 @@
         <v>139</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" s="27" t="s">
         <v>27</v>
@@ -10426,7 +10426,7 @@
         <v>139</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>27</v>
@@ -10449,7 +10449,7 @@
         <v>141</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C187" s="27" t="s">
         <v>27</v>
@@ -10472,7 +10472,7 @@
         <v>141</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C188" s="27" t="s">
         <v>27</v>
@@ -10495,7 +10495,7 @@
         <v>140</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C189" s="27" t="s">
         <v>27</v>
@@ -10518,7 +10518,7 @@
         <v>140</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C190" s="27" t="s">
         <v>27</v>
@@ -10541,7 +10541,7 @@
         <v>50</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C191" s="24" t="s">
         <v>55</v>
@@ -10562,7 +10562,7 @@
         <v>50</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C192" s="24" t="s">
         <v>55</v>
@@ -10583,7 +10583,7 @@
         <v>50</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C193" s="24" t="s">
         <v>55</v>
@@ -10604,7 +10604,7 @@
         <v>50</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C194" s="24" t="s">
         <v>55</v>
@@ -10625,7 +10625,7 @@
         <v>50</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C195" s="24" t="s">
         <v>55</v>
@@ -10646,7 +10646,7 @@
         <v>50</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C196" s="24" t="s">
         <v>55</v>
@@ -10667,7 +10667,7 @@
         <v>50</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>55</v>
@@ -10688,7 +10688,7 @@
         <v>50</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C198" s="24" t="s">
         <v>55</v>
@@ -10709,7 +10709,7 @@
         <v>50</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C199" s="24" t="s">
         <v>55</v>
@@ -10730,7 +10730,7 @@
         <v>50</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C200" s="24" t="s">
         <v>55</v>
@@ -10751,7 +10751,7 @@
         <v>50</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>55</v>
@@ -10772,7 +10772,7 @@
         <v>50</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C202" s="24" t="s">
         <v>55</v>
@@ -10793,7 +10793,7 @@
         <v>50</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C203" s="24" t="s">
         <v>55</v>
@@ -10814,7 +10814,7 @@
         <v>50</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C204" s="24" t="s">
         <v>55</v>
@@ -10835,7 +10835,7 @@
         <v>50</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C205" s="24" t="s">
         <v>55</v>
@@ -10856,7 +10856,7 @@
         <v>50</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C206" s="24" t="s">
         <v>55</v>
@@ -10878,7 +10878,7 @@
         <v>102</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C207" s="24" t="s">
         <v>96</v>
@@ -10899,7 +10899,7 @@
         <v>102</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C208" s="24" t="s">
         <v>96</v>
@@ -10920,7 +10920,7 @@
         <v>102</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C209" s="24" t="s">
         <v>96</v>
@@ -10942,7 +10942,7 @@
         <v>108</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C210" s="24" t="s">
         <v>96</v>
@@ -10963,7 +10963,7 @@
         <v>108</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C211" s="24" t="s">
         <v>96</v>
@@ -10984,7 +10984,7 @@
         <v>109</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C212" s="24" t="s">
         <v>96</v>
@@ -11005,7 +11005,7 @@
         <v>109</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C213" s="24" t="s">
         <v>96</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E730F9-DE7A-E741-A0D9-5177EB06889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABFC2A-3A64-0A4B-B43F-6D79CB5014E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9280" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,9 +542,6 @@
     <t>REF_MASTER_PESTI_4_NdsPV</t>
   </si>
   <si>
-    <t>REF_MASTER_TABV</t>
-  </si>
-  <si>
     <t>REF_MASTER_JMTV_CONCAT</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>REF_MASTER_YFV</t>
+  </si>
+  <si>
+    <t>REF_MASTER_TAMANA_1_TABV</t>
   </si>
 </sst>
 </file>
@@ -6150,14 +6150,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -7343,7 +7343,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>14</v>
@@ -7366,7 +7366,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>14</v>
@@ -7389,7 +7389,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>14</v>
@@ -7412,7 +7412,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>14</v>
@@ -7435,7 +7435,7 @@
         <v>30</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>14</v>
@@ -7458,7 +7458,7 @@
         <v>30</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>14</v>
@@ -7481,7 +7481,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="39" t="s">
         <v>14</v>
@@ -7504,7 +7504,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>14</v>
@@ -7527,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>14</v>
@@ -7550,7 +7550,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>14</v>
@@ -7573,7 +7573,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>14</v>
@@ -7596,7 +7596,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="39" t="s">
         <v>14</v>
@@ -7619,7 +7619,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>14</v>
@@ -7642,7 +7642,7 @@
         <v>30</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>14</v>
@@ -7665,7 +7665,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66" s="39" t="s">
         <v>14</v>
@@ -7688,7 +7688,7 @@
         <v>30</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>14</v>
@@ -7711,7 +7711,7 @@
         <v>30</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>14</v>
@@ -10541,7 +10541,7 @@
         <v>50</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C191" s="24" t="s">
         <v>55</v>
@@ -10562,7 +10562,7 @@
         <v>50</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C192" s="24" t="s">
         <v>55</v>
@@ -10583,7 +10583,7 @@
         <v>50</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C193" s="24" t="s">
         <v>55</v>
@@ -10604,7 +10604,7 @@
         <v>50</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C194" s="24" t="s">
         <v>55</v>
@@ -10625,7 +10625,7 @@
         <v>50</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C195" s="24" t="s">
         <v>55</v>
@@ -10646,7 +10646,7 @@
         <v>50</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C196" s="24" t="s">
         <v>55</v>
@@ -10667,7 +10667,7 @@
         <v>50</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>55</v>
@@ -10688,7 +10688,7 @@
         <v>50</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C198" s="24" t="s">
         <v>55</v>
@@ -10709,7 +10709,7 @@
         <v>50</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C199" s="24" t="s">
         <v>55</v>
@@ -10730,7 +10730,7 @@
         <v>50</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C200" s="24" t="s">
         <v>55</v>
@@ -10751,7 +10751,7 @@
         <v>50</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>55</v>
@@ -10772,7 +10772,7 @@
         <v>50</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C202" s="24" t="s">
         <v>55</v>
@@ -10793,7 +10793,7 @@
         <v>50</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C203" s="24" t="s">
         <v>55</v>
@@ -10814,7 +10814,7 @@
         <v>50</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C204" s="24" t="s">
         <v>55</v>
@@ -10835,7 +10835,7 @@
         <v>50</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C205" s="24" t="s">
         <v>55</v>
@@ -10856,7 +10856,7 @@
         <v>50</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C206" s="24" t="s">
         <v>55</v>
@@ -10878,7 +10878,7 @@
         <v>102</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C207" s="24" t="s">
         <v>96</v>
@@ -10899,7 +10899,7 @@
         <v>102</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C208" s="24" t="s">
         <v>96</v>
@@ -10920,7 +10920,7 @@
         <v>102</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C209" s="24" t="s">
         <v>96</v>
@@ -10942,7 +10942,7 @@
         <v>108</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C210" s="24" t="s">
         <v>96</v>
@@ -10963,7 +10963,7 @@
         <v>108</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C211" s="24" t="s">
         <v>96</v>
@@ -10984,7 +10984,7 @@
         <v>109</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C212" s="24" t="s">
         <v>96</v>
@@ -11005,7 +11005,7 @@
         <v>109</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C213" s="24" t="s">
         <v>96</v>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABFC2A-3A64-0A4B-B43F-6D79CB5014E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC5ECCE-EB99-5C42-B5F7-96F7EECD4A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9280" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="172">
   <si>
     <t>featureName</t>
   </si>
@@ -6148,10 +6148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1526"/>
+  <dimension ref="A1:H1525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163:XFD163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9843,7 +9843,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="24">
-        <v>19199</v>
+        <v>10861</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -9889,34 +9889,34 @@
         <v>351</v>
       </c>
       <c r="G162" s="24">
-        <v>18068</v>
+        <v>10861</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>52</v>
-      </c>
-      <c r="B163" t="s">
-        <v>161</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D163" s="20" t="s">
-        <v>97</v>
+      <c r="A163" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B163" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F163" s="24">
-        <v>18069</v>
+        <v>1</v>
       </c>
       <c r="G163" s="24">
-        <v>19199</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="29" t="s">
+      <c r="A164" s="31" t="s">
         <v>73</v>
       </c>
       <c r="B164" s="29" t="s">
@@ -9929,13 +9929,13 @@
         <v>98</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F164" s="24">
         <v>1</v>
       </c>
       <c r="G164" s="24">
-        <v>18554</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -9952,13 +9952,13 @@
         <v>98</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F165" s="24">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G165" s="24">
-        <v>199</v>
+        <v>17905</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -9975,36 +9975,36 @@
         <v>98</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F166" s="24">
-        <v>200</v>
+        <v>17906</v>
       </c>
       <c r="G166" s="24">
-        <v>17905</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B167" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C167" s="30" t="s">
-        <v>74</v>
+      <c r="A167" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F167" s="24">
-        <v>17906</v>
+        <v>1</v>
       </c>
       <c r="G167" s="24">
-        <v>18554</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -10021,13 +10021,13 @@
         <v>135</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F168" s="24">
         <v>1</v>
       </c>
       <c r="G168" s="24">
-        <v>12573</v>
+        <v>385</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -10044,13 +10044,13 @@
         <v>135</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F169" s="24">
-        <v>1</v>
+        <v>386</v>
       </c>
       <c r="G169" s="24">
-        <v>385</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -10067,13 +10067,13 @@
         <v>135</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F170" s="24">
         <v>386</v>
       </c>
       <c r="G170" s="24">
-        <v>12352</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -10090,13 +10090,13 @@
         <v>135</v>
       </c>
       <c r="E171" s="24" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F171" s="24">
         <v>386</v>
       </c>
       <c r="G171" s="24">
-        <v>3583</v>
+        <v>889</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -10113,13 +10113,13 @@
         <v>135</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F172" s="24">
-        <v>386</v>
+        <v>890</v>
       </c>
       <c r="G172" s="24">
-        <v>889</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -10136,13 +10136,13 @@
         <v>135</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F173" s="24">
-        <v>890</v>
+        <v>1196</v>
       </c>
       <c r="G173" s="24">
-        <v>1195</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -10159,13 +10159,13 @@
         <v>135</v>
       </c>
       <c r="E174" s="24" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F174" s="24">
-        <v>1196</v>
+        <v>1877</v>
       </c>
       <c r="G174" s="24">
-        <v>1876</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -10182,13 +10182,13 @@
         <v>135</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F175" s="24">
-        <v>1877</v>
+        <v>2462</v>
       </c>
       <c r="G175" s="24">
-        <v>2461</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -10205,13 +10205,13 @@
         <v>135</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F176" s="24">
-        <v>2462</v>
+        <v>3584</v>
       </c>
       <c r="G176" s="24">
-        <v>3583</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -10228,13 +10228,13 @@
         <v>135</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F177" s="24">
-        <v>3584</v>
+        <v>3794</v>
       </c>
       <c r="G177" s="24">
-        <v>3793</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -10251,13 +10251,13 @@
         <v>135</v>
       </c>
       <c r="E178" s="24" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="F178" s="24">
-        <v>3794</v>
+        <v>7472</v>
       </c>
       <c r="G178" s="24">
-        <v>7471</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -10274,13 +10274,13 @@
         <v>135</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F179" s="24">
-        <v>7472</v>
+        <v>7664</v>
       </c>
       <c r="G179" s="24">
-        <v>7663</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -10297,13 +10297,13 @@
         <v>135</v>
       </c>
       <c r="E180" s="24" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F180" s="24">
-        <v>7664</v>
+        <v>8705</v>
       </c>
       <c r="G180" s="24">
-        <v>8704</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -10320,13 +10320,13 @@
         <v>135</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F181" s="24">
         <v>8705</v>
       </c>
       <c r="G181" s="24">
-        <v>12349</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -10343,13 +10343,13 @@
         <v>135</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F182" s="24">
-        <v>8705</v>
+        <v>10193</v>
       </c>
       <c r="G182" s="24">
-        <v>10192</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -10366,36 +10366,36 @@
         <v>135</v>
       </c>
       <c r="E183" s="24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F183" s="24">
-        <v>10193</v>
+        <v>12360</v>
       </c>
       <c r="G183" s="24">
-        <v>12349</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="27" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F184" s="24">
-        <v>12360</v>
+        <v>1</v>
       </c>
       <c r="G184" s="24">
-        <v>12573</v>
+        <v>12983</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -10412,36 +10412,36 @@
         <v>136</v>
       </c>
       <c r="E185" s="24" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F185" s="24">
-        <v>1</v>
+        <v>499</v>
       </c>
       <c r="G185" s="24">
-        <v>12983</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F186" s="24">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="G186" s="24">
-        <v>12480</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -10458,36 +10458,36 @@
         <v>137</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F187" s="24">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="G187" s="24">
-        <v>11276</v>
+        <v>11031</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C188" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F188" s="24">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="G188" s="24">
-        <v>11031</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -10504,36 +10504,34 @@
         <v>138</v>
       </c>
       <c r="E189" s="24" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F189" s="24">
         <v>1</v>
       </c>
       <c r="G189" s="24">
-        <v>7797</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B190" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C190" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D190" s="24" t="s">
-        <v>138</v>
-      </c>
+      <c r="A190" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D190" s="24"/>
       <c r="E190" s="24" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F190" s="24">
         <v>1</v>
       </c>
       <c r="G190" s="24">
-        <v>7770</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -10548,7 +10546,7 @@
       </c>
       <c r="D191" s="24"/>
       <c r="E191" s="24" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F191" s="24">
         <v>1</v>
@@ -10569,13 +10567,13 @@
       </c>
       <c r="D192" s="24"/>
       <c r="E192" s="24" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F192" s="24">
         <v>1</v>
       </c>
       <c r="G192" s="24">
-        <v>10053</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -10590,13 +10588,13 @@
       </c>
       <c r="D193" s="24"/>
       <c r="E193" s="24" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F193" s="24">
         <v>1</v>
       </c>
       <c r="G193" s="24">
-        <v>2358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -10611,13 +10609,13 @@
       </c>
       <c r="D194" s="24"/>
       <c r="E194" s="24" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F194" s="24">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="G194" s="24">
-        <v>345</v>
+        <v>852</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -10632,10 +10630,10 @@
       </c>
       <c r="D195" s="24"/>
       <c r="E195" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F195" s="24">
-        <v>346</v>
+        <v>655</v>
       </c>
       <c r="G195" s="24">
         <v>852</v>
@@ -10653,13 +10651,13 @@
       </c>
       <c r="D196" s="24"/>
       <c r="E196" s="24" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F196" s="24">
-        <v>655</v>
+        <v>853</v>
       </c>
       <c r="G196" s="24">
-        <v>852</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -10674,13 +10672,13 @@
       </c>
       <c r="D197" s="24"/>
       <c r="E197" s="24" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F197" s="24">
-        <v>853</v>
+        <v>2359</v>
       </c>
       <c r="G197" s="24">
-        <v>2358</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -10695,13 +10693,13 @@
       </c>
       <c r="D198" s="24"/>
       <c r="E198" s="24" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="F198" s="24">
         <v>2359</v>
       </c>
       <c r="G198" s="24">
-        <v>10050</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -10716,13 +10714,13 @@
       </c>
       <c r="D199" s="24"/>
       <c r="E199" s="24" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="F199" s="24">
-        <v>2359</v>
+        <v>3391</v>
       </c>
       <c r="G199" s="24">
-        <v>3390</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -10737,13 +10735,13 @@
       </c>
       <c r="D200" s="24"/>
       <c r="E200" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F200" s="24">
-        <v>3391</v>
+        <v>3979</v>
       </c>
       <c r="G200" s="24">
-        <v>3978</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -10758,13 +10756,13 @@
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="24" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F201" s="24">
-        <v>3979</v>
+        <v>4432</v>
       </c>
       <c r="G201" s="24">
-        <v>4431</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -10779,13 +10777,13 @@
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="24" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="F202" s="24">
-        <v>4432</v>
+        <v>6304</v>
       </c>
       <c r="G202" s="24">
-        <v>6303</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -10800,13 +10798,13 @@
       </c>
       <c r="D203" s="24"/>
       <c r="E203" s="24" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="F203" s="24">
-        <v>6304</v>
+        <v>6688</v>
       </c>
       <c r="G203" s="24">
-        <v>6687</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -10821,13 +10819,13 @@
       </c>
       <c r="D204" s="24"/>
       <c r="E204" s="24" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F204" s="24">
-        <v>6688</v>
+        <v>6763</v>
       </c>
       <c r="G204" s="24">
-        <v>6762</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -10842,36 +10840,36 @@
       </c>
       <c r="D205" s="24"/>
       <c r="E205" s="24" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="F205" s="24">
-        <v>6763</v>
+        <v>7558</v>
       </c>
       <c r="G205" s="24">
-        <v>7557</v>
-      </c>
+        <v>10050</v>
+      </c>
+      <c r="H205" s="22"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="24" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D206" s="24"/>
-      <c r="E206" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F206" s="24">
-        <v>7558</v>
-      </c>
-      <c r="G206" s="24">
-        <v>10050</v>
-      </c>
-      <c r="H206" s="22"/>
+      <c r="E206" t="s">
+        <v>72</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>5938</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="24" t="s">
@@ -10884,14 +10882,14 @@
         <v>96</v>
       </c>
       <c r="D207" s="24"/>
-      <c r="E207" t="s">
-        <v>72</v>
-      </c>
-      <c r="F207">
-        <v>1</v>
-      </c>
-      <c r="G207">
-        <v>5938</v>
+      <c r="E207" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F207" s="24">
+        <v>117</v>
+      </c>
+      <c r="G207" s="24">
+        <v>2543</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -10906,35 +10904,35 @@
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F208" s="24">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="F208">
+        <f t="shared" ref="F208" si="0">(D208+2824)</f>
+        <v>2824</v>
       </c>
       <c r="G208" s="24">
-        <v>2543</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="24" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C209" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D209" s="24"/>
-      <c r="E209" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F209">
-        <f t="shared" ref="F209" si="0">(D209+2824)</f>
-        <v>2824</v>
+      <c r="E209" t="s">
+        <v>72</v>
+      </c>
+      <c r="F209" s="24">
+        <v>1</v>
       </c>
       <c r="G209" s="24">
-        <v>5673</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -10948,35 +10946,35 @@
         <v>96</v>
       </c>
       <c r="D210" s="24"/>
-      <c r="E210" t="s">
-        <v>72</v>
-      </c>
-      <c r="F210" s="24">
-        <v>1</v>
-      </c>
-      <c r="G210" s="24">
-        <v>3114</v>
+      <c r="E210" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F210">
+        <v>105</v>
+      </c>
+      <c r="G210">
+        <v>2849</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C211" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D211" s="24"/>
-      <c r="E211" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F211">
-        <v>105</v>
-      </c>
-      <c r="G211">
-        <v>2849</v>
+      <c r="E211" t="s">
+        <v>72</v>
+      </c>
+      <c r="F211" s="24">
+        <v>1</v>
+      </c>
+      <c r="G211" s="24">
+        <v>2824</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -10990,40 +10988,24 @@
         <v>96</v>
       </c>
       <c r="D212" s="24"/>
-      <c r="E212" t="s">
-        <v>72</v>
-      </c>
-      <c r="F212" s="24">
-        <v>1</v>
-      </c>
-      <c r="G212" s="24">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B213" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C213" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D213" s="24"/>
-      <c r="E213" s="24" t="s">
+      <c r="E212" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F213">
+      <c r="F212">
         <v>117</v>
       </c>
-      <c r="G213">
+      <c r="G212">
         <v>2543</v>
       </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B247" s="1"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
@@ -11137,16 +11119,16 @@
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
-      <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" s="1"/>
-      <c r="D272" s="5"/>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B273" s="1"/>
       <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B274" s="1"/>
@@ -11174,27 +11156,27 @@
       <c r="D278" s="5"/>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B279" s="1"/>
-      <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D280" s="5"/>
-    </row>
-    <row r="962" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C962"/>
-      <c r="D962"/>
-      <c r="E962" s="1"/>
+    <row r="961" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C961"/>
+      <c r="D961"/>
+      <c r="E961" s="1"/>
+    </row>
+    <row r="1097" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1097" s="1"/>
+      <c r="C1097"/>
+      <c r="D1097"/>
     </row>
     <row r="1098" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1098" s="1"/>
       <c r="C1098"/>
       <c r="D1098"/>
     </row>
-    <row r="1099" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1099" s="1"/>
-      <c r="C1099"/>
-      <c r="D1099"/>
+    <row r="1223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1223" s="1"/>
+      <c r="C1223"/>
+      <c r="D1223"/>
     </row>
     <row r="1224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1224" s="1"/>
@@ -11221,10 +11203,9 @@
       <c r="C1228"/>
       <c r="D1228"/>
     </row>
-    <row r="1229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1229" s="1"/>
-      <c r="C1229"/>
-      <c r="D1229"/>
+    <row r="1273" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1273" s="1"/>
+      <c r="F1273" s="1"/>
     </row>
     <row r="1274" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1274" s="1"/>
@@ -11234,9 +11215,8 @@
       <c r="E1275" s="1"/>
       <c r="F1275" s="1"/>
     </row>
-    <row r="1276" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1276" s="1"/>
-      <c r="F1276" s="1"/>
+    <row r="1277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1277" s="1"/>
     </row>
     <row r="1278" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1278" s="1"/>
@@ -11250,8 +11230,10 @@
     <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1281" s="1"/>
     </row>
-    <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1282" s="1"/>
+    <row r="1300" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1300" s="1"/>
+      <c r="C1300"/>
+      <c r="D1300"/>
     </row>
     <row r="1301" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1301" s="1"/>
@@ -11283,10 +11265,10 @@
       <c r="C1306"/>
       <c r="D1306"/>
     </row>
-    <row r="1307" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1307" s="1"/>
-      <c r="C1307"/>
-      <c r="D1307"/>
+    <row r="1308" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1308" s="1"/>
+      <c r="C1308"/>
+      <c r="D1308"/>
     </row>
     <row r="1309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1309" s="1"/>
@@ -11313,10 +11295,10 @@
       <c r="C1313"/>
       <c r="D1313"/>
     </row>
-    <row r="1314" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1314" s="1"/>
-      <c r="C1314"/>
-      <c r="D1314"/>
+    <row r="1365" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1365" s="1"/>
+      <c r="C1365"/>
+      <c r="D1365"/>
     </row>
     <row r="1366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1366" s="1"/>
@@ -11333,10 +11315,10 @@
       <c r="C1368"/>
       <c r="D1368"/>
     </row>
-    <row r="1369" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1369" s="1"/>
-      <c r="C1369"/>
-      <c r="D1369"/>
+    <row r="1370" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1370" s="1"/>
+      <c r="C1370"/>
+      <c r="D1370"/>
     </row>
     <row r="1371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1371" s="1"/>
@@ -11353,10 +11335,10 @@
       <c r="C1373"/>
       <c r="D1373"/>
     </row>
-    <row r="1374" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1374" s="1"/>
-      <c r="C1374"/>
-      <c r="D1374"/>
+    <row r="1408" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1408" s="1"/>
+      <c r="C1408"/>
+      <c r="D1408"/>
     </row>
     <row r="1409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1409" s="1"/>
@@ -11383,17 +11365,18 @@
       <c r="C1413"/>
       <c r="D1413"/>
     </row>
-    <row r="1414" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1414" s="1"/>
-      <c r="C1414"/>
-      <c r="D1414"/>
-    </row>
-    <row r="1456" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1455" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E1455" s="1"/>
+      <c r="F1455" s="1"/>
+    </row>
+    <row r="1456" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1456" s="6"/>
       <c r="E1456" s="1"/>
       <c r="F1456" s="1"/>
     </row>
     <row r="1457" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1457" s="6"/>
+      <c r="D1457" s="6"/>
       <c r="E1457" s="1"/>
       <c r="F1457" s="1"/>
     </row>
@@ -11404,15 +11387,14 @@
       <c r="F1458" s="1"/>
     </row>
     <row r="1459" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1459" s="6"/>
       <c r="D1459" s="6"/>
       <c r="E1459" s="1"/>
       <c r="F1459" s="1"/>
     </row>
-    <row r="1460" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D1460" s="6"/>
-      <c r="E1460" s="1"/>
-      <c r="F1460" s="1"/>
+    <row r="1522" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1522" s="1"/>
+      <c r="C1522"/>
+      <c r="D1522"/>
     </row>
     <row r="1523" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1523" s="1"/>
@@ -11429,15 +11411,10 @@
       <c r="C1525"/>
       <c r="D1525"/>
     </row>
-    <row r="1526" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1526" s="1"/>
-      <c r="C1526"/>
-      <c r="D1526"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1479">
-    <sortCondition ref="C2:C1479"/>
-    <sortCondition ref="D2:D1479"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1478">
+    <sortCondition ref="C2:C1478"/>
+    <sortCondition ref="D2:D1478"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC5ECCE-EB99-5C42-B5F7-96F7EECD4A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E8659-667F-AE48-8DCE-8B7A246037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9280" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="172">
   <si>
     <t>featureName</t>
   </si>
@@ -6148,10 +6148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1525"/>
+  <dimension ref="A1:H1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163:XFD163"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E155" sqref="A1:G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9722,13 +9722,13 @@
         <v>143</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F155" s="24">
-        <v>618</v>
+        <v>1</v>
       </c>
       <c r="G155" s="24">
-        <v>10187</v>
+        <v>617</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -9745,13 +9745,13 @@
         <v>143</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F156" s="24">
         <v>618</v>
       </c>
       <c r="G156" s="24">
-        <v>695</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -9768,13 +9768,13 @@
         <v>143</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F157" s="24">
-        <v>696</v>
+        <v>618</v>
       </c>
       <c r="G157" s="24">
-        <v>1217</v>
+        <v>695</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -9791,13 +9791,13 @@
         <v>143</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F158" s="24">
-        <v>1218</v>
+        <v>696</v>
       </c>
       <c r="G158" s="24">
-        <v>2483</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -9814,312 +9814,312 @@
         <v>143</v>
       </c>
       <c r="E159" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" s="24">
+        <v>1218</v>
+      </c>
+      <c r="G159" s="24">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F160" s="24">
+        <v>2784</v>
+      </c>
+      <c r="G160" s="24">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="24">
+        <v>3450</v>
+      </c>
+      <c r="G161" s="24">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F162" s="24">
+        <v>5325</v>
+      </c>
+      <c r="G162" s="24">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F163" s="24">
+        <v>5592</v>
+      </c>
+      <c r="G163" s="24">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C164" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E164" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F159" s="24">
+      <c r="F164" s="24">
         <v>8388</v>
       </c>
-      <c r="G159" s="24">
+      <c r="G164" s="24">
         <v>10184</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C165" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="24">
+        <v>10188</v>
+      </c>
+      <c r="G165" s="24">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>52</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B166" t="s">
         <v>161</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="C166" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D160" s="20" t="s">
+      <c r="D166" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E160" s="24" t="s">
+      <c r="E166" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F160" s="24">
+      <c r="F166" s="24">
         <v>1</v>
       </c>
-      <c r="G160" s="24">
+      <c r="G166" s="24">
         <v>10861</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>52</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B167" t="s">
         <v>161</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="C167" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D161" s="20" t="s">
+      <c r="D167" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E161" s="24" t="s">
+      <c r="E167" s="24" t="s">
         <v>15</v>
-      </c>
-      <c r="F161" s="24">
-        <v>1</v>
-      </c>
-      <c r="G161" s="24">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>52</v>
-      </c>
-      <c r="B162" t="s">
-        <v>161</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D162" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E162" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F162" s="24">
-        <v>351</v>
-      </c>
-      <c r="G162" s="24">
-        <v>10861</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B163" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E163" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F163" s="24">
-        <v>1</v>
-      </c>
-      <c r="G163" s="24">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B164" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E164" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" s="24">
-        <v>1</v>
-      </c>
-      <c r="G164" s="24">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E165" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F165" s="24">
-        <v>200</v>
-      </c>
-      <c r="G165" s="24">
-        <v>17905</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B166" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D166" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E166" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="24">
-        <v>17906</v>
-      </c>
-      <c r="G166" s="24">
-        <v>18554</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D167" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="F167" s="24">
         <v>1</v>
       </c>
       <c r="G167" s="24">
-        <v>12573</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B168" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="24" t="s">
-        <v>135</v>
+      <c r="A168" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D168" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E168" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F168" s="24">
+        <v>351</v>
+      </c>
+      <c r="G168" s="24">
+        <v>10859</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F169" s="24">
+        <v>1</v>
+      </c>
+      <c r="G169" s="24">
+        <v>18554</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B170" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E170" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F168" s="24">
+      <c r="F170" s="24">
         <v>1</v>
       </c>
-      <c r="G168" s="24">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B169" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C169" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D169" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E169" s="24" t="s">
+      <c r="G170" s="24">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B171" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E171" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F169" s="24">
-        <v>386</v>
-      </c>
-      <c r="G169" s="24">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E170" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F170" s="24">
-        <v>386</v>
-      </c>
-      <c r="G170" s="24">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B171" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D171" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E171" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="F171" s="24">
-        <v>386</v>
+        <v>200</v>
       </c>
       <c r="G171" s="24">
-        <v>889</v>
+        <v>17905</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>27</v>
+      <c r="A172" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B172" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F172" s="24">
-        <v>890</v>
+        <v>17906</v>
       </c>
       <c r="G172" s="24">
-        <v>1195</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -10136,13 +10136,13 @@
         <v>135</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F173" s="24">
-        <v>1196</v>
+        <v>1</v>
       </c>
       <c r="G173" s="24">
-        <v>1876</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -10159,13 +10159,13 @@
         <v>135</v>
       </c>
       <c r="E174" s="24" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F174" s="24">
-        <v>1877</v>
+        <v>1</v>
       </c>
       <c r="G174" s="24">
-        <v>2461</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -10182,13 +10182,13 @@
         <v>135</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F175" s="24">
-        <v>2462</v>
+        <v>386</v>
       </c>
       <c r="G175" s="24">
-        <v>3583</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -10205,13 +10205,13 @@
         <v>135</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F176" s="24">
-        <v>3584</v>
+        <v>386</v>
       </c>
       <c r="G176" s="24">
-        <v>3793</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -10228,13 +10228,13 @@
         <v>135</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="F177" s="24">
-        <v>3794</v>
+        <v>386</v>
       </c>
       <c r="G177" s="24">
-        <v>7471</v>
+        <v>889</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -10251,13 +10251,13 @@
         <v>135</v>
       </c>
       <c r="E178" s="24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F178" s="24">
-        <v>7472</v>
+        <v>890</v>
       </c>
       <c r="G178" s="24">
-        <v>7663</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -10274,13 +10274,13 @@
         <v>135</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F179" s="24">
-        <v>7664</v>
+        <v>1196</v>
       </c>
       <c r="G179" s="24">
-        <v>8704</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -10297,13 +10297,13 @@
         <v>135</v>
       </c>
       <c r="E180" s="24" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F180" s="24">
-        <v>8705</v>
+        <v>1877</v>
       </c>
       <c r="G180" s="24">
-        <v>12349</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -10320,13 +10320,13 @@
         <v>135</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F181" s="24">
-        <v>8705</v>
+        <v>2462</v>
       </c>
       <c r="G181" s="24">
-        <v>10192</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -10343,13 +10343,13 @@
         <v>135</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F182" s="24">
-        <v>10193</v>
+        <v>3584</v>
       </c>
       <c r="G182" s="24">
-        <v>12349</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -10366,164 +10366,166 @@
         <v>135</v>
       </c>
       <c r="E183" s="24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F183" s="24">
-        <v>12360</v>
+        <v>3794</v>
       </c>
       <c r="G183" s="24">
-        <v>12573</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="27" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F184" s="24">
-        <v>1</v>
+        <v>7472</v>
       </c>
       <c r="G184" s="24">
-        <v>12983</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="27" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="B185" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C185" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E185" s="24" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F185" s="24">
-        <v>499</v>
+        <v>7664</v>
       </c>
       <c r="G185" s="24">
-        <v>12480</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="27" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F186" s="24">
-        <v>1</v>
+        <v>8705</v>
       </c>
       <c r="G186" s="24">
-        <v>11276</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="27" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C187" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F187" s="24">
-        <v>124</v>
+        <v>8705</v>
       </c>
       <c r="G187" s="24">
-        <v>11031</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C188" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F188" s="24">
-        <v>1</v>
+        <v>10193</v>
       </c>
       <c r="G188" s="24">
-        <v>7797</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="27" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C189" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E189" s="24" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F189" s="24">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G189" s="24">
-        <v>7770</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B190" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C190" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D190" s="24"/>
+      <c r="A190" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="E190" s="24" t="s">
         <v>72</v>
       </c>
@@ -10531,115 +10533,125 @@
         <v>1</v>
       </c>
       <c r="G190" s="24">
-        <v>10053</v>
+        <v>12983</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B191" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C191" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D191" s="24"/>
+      <c r="A191" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="24" t="s">
+        <v>136</v>
+      </c>
       <c r="E191" s="24" t="s">
         <v>61</v>
       </c>
       <c r="F191" s="24">
-        <v>1</v>
+        <v>499</v>
       </c>
       <c r="G191" s="24">
-        <v>10053</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B192" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C192" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D192" s="24"/>
+      <c r="A192" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="E192" s="24" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F192" s="24">
         <v>1</v>
       </c>
       <c r="G192" s="24">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B193" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C193" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D193" s="24"/>
+        <v>11276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="E193" s="24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F193" s="24">
+        <v>124</v>
+      </c>
+      <c r="G193" s="24">
+        <v>11031</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E194" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F194" s="24">
         <v>1</v>
       </c>
-      <c r="G193" s="24">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B194" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C194" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F194" s="24">
-        <v>346</v>
-      </c>
       <c r="G194" s="24">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B195" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C195" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="24"/>
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>138</v>
+      </c>
       <c r="E195" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F195" s="24">
-        <v>655</v>
+        <v>1</v>
       </c>
       <c r="G195" s="24">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="24" t="s">
         <v>50</v>
       </c>
@@ -10651,16 +10663,16 @@
       </c>
       <c r="D196" s="24"/>
       <c r="E196" s="24" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F196" s="24">
-        <v>853</v>
+        <v>1</v>
       </c>
       <c r="G196" s="24">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="24" t="s">
         <v>50</v>
       </c>
@@ -10672,16 +10684,16 @@
       </c>
       <c r="D197" s="24"/>
       <c r="E197" s="24" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F197" s="24">
-        <v>2359</v>
+        <v>1</v>
       </c>
       <c r="G197" s="24">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="24" t="s">
         <v>50</v>
       </c>
@@ -10693,16 +10705,16 @@
       </c>
       <c r="D198" s="24"/>
       <c r="E198" s="24" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F198" s="24">
-        <v>2359</v>
+        <v>1</v>
       </c>
       <c r="G198" s="24">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="24" t="s">
         <v>50</v>
       </c>
@@ -10714,16 +10726,16 @@
       </c>
       <c r="D199" s="24"/>
       <c r="E199" s="24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F199" s="24">
-        <v>3391</v>
+        <v>1</v>
       </c>
       <c r="G199" s="24">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="24" t="s">
         <v>50</v>
       </c>
@@ -10735,16 +10747,16 @@
       </c>
       <c r="D200" s="24"/>
       <c r="E200" s="24" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F200" s="24">
-        <v>3979</v>
+        <v>346</v>
       </c>
       <c r="G200" s="24">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="24" t="s">
         <v>50</v>
       </c>
@@ -10756,16 +10768,16 @@
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="24" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F201" s="24">
-        <v>4432</v>
+        <v>655</v>
       </c>
       <c r="G201" s="24">
-        <v>6303</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="24" t="s">
         <v>50</v>
       </c>
@@ -10777,16 +10789,16 @@
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F202" s="24">
-        <v>6304</v>
+        <v>853</v>
       </c>
       <c r="G202" s="24">
-        <v>6687</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="24" t="s">
         <v>50</v>
       </c>
@@ -10798,16 +10810,16 @@
       </c>
       <c r="D203" s="24"/>
       <c r="E203" s="24" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F203" s="24">
-        <v>6688</v>
+        <v>2359</v>
       </c>
       <c r="G203" s="24">
-        <v>6762</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="24" t="s">
         <v>50</v>
       </c>
@@ -10819,16 +10831,16 @@
       </c>
       <c r="D204" s="24"/>
       <c r="E204" s="24" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F204" s="24">
-        <v>6763</v>
+        <v>2359</v>
       </c>
       <c r="G204" s="24">
-        <v>7557</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="24" t="s">
         <v>50</v>
       </c>
@@ -10840,197 +10852,293 @@
       </c>
       <c r="D205" s="24"/>
       <c r="E205" s="24" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F205" s="24">
-        <v>7558</v>
+        <v>3391</v>
       </c>
       <c r="G205" s="24">
-        <v>10050</v>
-      </c>
-      <c r="H205" s="22"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="24" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D206" s="24"/>
-      <c r="E206" t="s">
-        <v>72</v>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E206" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F206" s="24">
+        <v>3979</v>
+      </c>
+      <c r="G206" s="24">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="24" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D207" s="24"/>
       <c r="E207" s="24" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="F207" s="24">
-        <v>117</v>
+        <v>4432</v>
       </c>
       <c r="G207" s="24">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="24" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D208" s="24"/>
       <c r="E208" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F208">
-        <f t="shared" ref="F208" si="0">(D208+2824)</f>
-        <v>2824</v>
+        <v>78</v>
+      </c>
+      <c r="F208" s="24">
+        <v>6304</v>
       </c>
       <c r="G208" s="24">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="24" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D209" s="24"/>
-      <c r="E209" t="s">
-        <v>72</v>
+      <c r="E209" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="F209" s="24">
-        <v>1</v>
+        <v>6688</v>
       </c>
       <c r="G209" s="24">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="24" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D210" s="24"/>
       <c r="E210" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F210">
-        <v>105</v>
-      </c>
-      <c r="G210">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F210" s="24">
+        <v>6763</v>
+      </c>
+      <c r="G210" s="24">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="24" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D211" s="24"/>
-      <c r="E211" t="s">
-        <v>72</v>
+      <c r="E211" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="F211" s="24">
-        <v>1</v>
+        <v>7558</v>
       </c>
       <c r="G211" s="24">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10050</v>
+      </c>
+      <c r="H211" s="22"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C212" s="24" t="s">
         <v>96</v>
       </c>
       <c r="D212" s="24"/>
-      <c r="E212" s="24" t="s">
+      <c r="E212" t="s">
+        <v>72</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B213" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D213" s="24"/>
+      <c r="E213" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F212">
+      <c r="F213" s="24">
         <v>117</v>
       </c>
-      <c r="G212">
+      <c r="G213" s="24">
         <v>2543</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B247" s="1"/>
-      <c r="C247" s="5"/>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B248" s="1"/>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B249" s="1"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B250" s="1"/>
-      <c r="C250" s="5"/>
-      <c r="D250" s="5"/>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B251" s="1"/>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B252" s="1"/>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B214" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D214" s="24"/>
+      <c r="E214" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F214">
+        <f t="shared" ref="F214" si="0">(D214+2824)</f>
+        <v>2824</v>
+      </c>
+      <c r="G214" s="24">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B215" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D215" s="24"/>
+      <c r="E215" t="s">
+        <v>72</v>
+      </c>
+      <c r="F215" s="24">
+        <v>1</v>
+      </c>
+      <c r="G215" s="24">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B216" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F216">
+        <v>105</v>
+      </c>
+      <c r="G216">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B217" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D217" s="24"/>
+      <c r="E217" t="s">
+        <v>72</v>
+      </c>
+      <c r="F217" s="24">
+        <v>1</v>
+      </c>
+      <c r="G217" s="24">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B218" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F218">
+        <v>117</v>
+      </c>
+      <c r="G218">
+        <v>2543</v>
+      </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="5"/>
-      <c r="D253" s="5"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
@@ -11119,11 +11227,13 @@
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
+      <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" s="1"/>
       <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B273" s="1"/>
@@ -11147,124 +11257,127 @@
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B277" s="1"/>
-      <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B278" s="1"/>
       <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B279" s="1"/>
+      <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="961" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C961"/>
-      <c r="D961"/>
-      <c r="E961" s="1"/>
-    </row>
-    <row r="1097" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1097" s="1"/>
-      <c r="C1097"/>
-      <c r="D1097"/>
-    </row>
-    <row r="1098" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1098" s="1"/>
-      <c r="C1098"/>
-      <c r="D1098"/>
-    </row>
-    <row r="1223" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1223" s="1"/>
-      <c r="C1223"/>
-      <c r="D1223"/>
-    </row>
-    <row r="1224" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1224" s="1"/>
-      <c r="C1224"/>
-      <c r="D1224"/>
-    </row>
-    <row r="1225" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1225" s="1"/>
-      <c r="C1225"/>
-      <c r="D1225"/>
-    </row>
-    <row r="1226" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1226" s="1"/>
-      <c r="C1226"/>
-      <c r="D1226"/>
-    </row>
-    <row r="1227" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1227" s="1"/>
-      <c r="C1227"/>
-      <c r="D1227"/>
-    </row>
-    <row r="1228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1228" s="1"/>
-      <c r="C1228"/>
-      <c r="D1228"/>
-    </row>
-    <row r="1273" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1273" s="1"/>
-      <c r="F1273" s="1"/>
-    </row>
-    <row r="1274" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1274" s="1"/>
-      <c r="F1274" s="1"/>
-    </row>
-    <row r="1275" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1275" s="1"/>
-      <c r="F1275" s="1"/>
-    </row>
-    <row r="1277" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1277" s="1"/>
-    </row>
-    <row r="1278" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1278" s="1"/>
-    </row>
-    <row r="1279" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1279" s="1"/>
-    </row>
-    <row r="1280" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1280" s="1"/>
-    </row>
-    <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1281" s="1"/>
-    </row>
-    <row r="1300" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1300" s="1"/>
-      <c r="C1300"/>
-      <c r="D1300"/>
-    </row>
-    <row r="1301" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1301" s="1"/>
-      <c r="C1301"/>
-      <c r="D1301"/>
-    </row>
-    <row r="1302" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1302" s="1"/>
-      <c r="C1302"/>
-      <c r="D1302"/>
-    </row>
-    <row r="1303" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1303" s="1"/>
-      <c r="C1303"/>
-      <c r="D1303"/>
-    </row>
-    <row r="1304" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1304" s="1"/>
-      <c r="C1304"/>
-      <c r="D1304"/>
-    </row>
-    <row r="1305" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1305" s="1"/>
-      <c r="C1305"/>
-      <c r="D1305"/>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B280" s="1"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B281" s="1"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282" s="1"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B283" s="1"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B284" s="1"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D285" s="5"/>
+    </row>
+    <row r="967" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C967"/>
+      <c r="D967"/>
+      <c r="E967" s="1"/>
+    </row>
+    <row r="1103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1103" s="1"/>
+      <c r="C1103"/>
+      <c r="D1103"/>
+    </row>
+    <row r="1104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1104" s="1"/>
+      <c r="C1104"/>
+      <c r="D1104"/>
+    </row>
+    <row r="1229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1229" s="1"/>
+      <c r="C1229"/>
+      <c r="D1229"/>
+    </row>
+    <row r="1230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1230" s="1"/>
+      <c r="C1230"/>
+      <c r="D1230"/>
+    </row>
+    <row r="1231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1231" s="1"/>
+      <c r="C1231"/>
+      <c r="D1231"/>
+    </row>
+    <row r="1232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1232" s="1"/>
+      <c r="C1232"/>
+      <c r="D1232"/>
+    </row>
+    <row r="1233" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1233" s="1"/>
+      <c r="C1233"/>
+      <c r="D1233"/>
+    </row>
+    <row r="1234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1234" s="1"/>
+      <c r="C1234"/>
+      <c r="D1234"/>
+    </row>
+    <row r="1279" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E1279" s="1"/>
+      <c r="F1279" s="1"/>
+    </row>
+    <row r="1280" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E1280" s="1"/>
+      <c r="F1280" s="1"/>
+    </row>
+    <row r="1281" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1281" s="1"/>
+      <c r="F1281" s="1"/>
+    </row>
+    <row r="1283" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1283" s="1"/>
+    </row>
+    <row r="1284" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1284" s="1"/>
+    </row>
+    <row r="1285" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1285" s="1"/>
+    </row>
+    <row r="1286" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1286" s="1"/>
+    </row>
+    <row r="1287" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1287" s="1"/>
     </row>
     <row r="1306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1306" s="1"/>
       <c r="C1306"/>
       <c r="D1306"/>
     </row>
+    <row r="1307" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1307" s="1"/>
+      <c r="C1307"/>
+      <c r="D1307"/>
+    </row>
     <row r="1308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1308" s="1"/>
       <c r="C1308"/>
@@ -11290,35 +11403,35 @@
       <c r="C1312"/>
       <c r="D1312"/>
     </row>
-    <row r="1313" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1313" s="1"/>
-      <c r="C1313"/>
-      <c r="D1313"/>
-    </row>
-    <row r="1365" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1365" s="1"/>
-      <c r="C1365"/>
-      <c r="D1365"/>
-    </row>
-    <row r="1366" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1366" s="1"/>
-      <c r="C1366"/>
-      <c r="D1366"/>
-    </row>
-    <row r="1367" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1367" s="1"/>
-      <c r="C1367"/>
-      <c r="D1367"/>
-    </row>
-    <row r="1368" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1368" s="1"/>
-      <c r="C1368"/>
-      <c r="D1368"/>
-    </row>
-    <row r="1370" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1370" s="1"/>
-      <c r="C1370"/>
-      <c r="D1370"/>
+    <row r="1314" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1314" s="1"/>
+      <c r="C1314"/>
+      <c r="D1314"/>
+    </row>
+    <row r="1315" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1315" s="1"/>
+      <c r="C1315"/>
+      <c r="D1315"/>
+    </row>
+    <row r="1316" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1316" s="1"/>
+      <c r="C1316"/>
+      <c r="D1316"/>
+    </row>
+    <row r="1317" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1317" s="1"/>
+      <c r="C1317"/>
+      <c r="D1317"/>
+    </row>
+    <row r="1318" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1318" s="1"/>
+      <c r="C1318"/>
+      <c r="D1318"/>
+    </row>
+    <row r="1319" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1319" s="1"/>
+      <c r="C1319"/>
+      <c r="D1319"/>
     </row>
     <row r="1371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1371" s="1"/>
@@ -11335,86 +11448,111 @@
       <c r="C1373"/>
       <c r="D1373"/>
     </row>
-    <row r="1408" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1408" s="1"/>
-      <c r="C1408"/>
-      <c r="D1408"/>
-    </row>
-    <row r="1409" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1409" s="1"/>
-      <c r="C1409"/>
-      <c r="D1409"/>
-    </row>
-    <row r="1410" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1410" s="1"/>
-      <c r="C1410"/>
-      <c r="D1410"/>
-    </row>
-    <row r="1411" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1411" s="1"/>
-      <c r="C1411"/>
-      <c r="D1411"/>
-    </row>
-    <row r="1412" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1412" s="1"/>
-      <c r="C1412"/>
-      <c r="D1412"/>
-    </row>
-    <row r="1413" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1413" s="1"/>
-      <c r="C1413"/>
-      <c r="D1413"/>
-    </row>
-    <row r="1455" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1455" s="1"/>
-      <c r="F1455" s="1"/>
-    </row>
-    <row r="1456" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1456" s="6"/>
-      <c r="E1456" s="1"/>
-      <c r="F1456" s="1"/>
-    </row>
-    <row r="1457" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1457" s="6"/>
-      <c r="D1457" s="6"/>
-      <c r="E1457" s="1"/>
-      <c r="F1457" s="1"/>
-    </row>
-    <row r="1458" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1458" s="6"/>
-      <c r="D1458" s="6"/>
-      <c r="E1458" s="1"/>
-      <c r="F1458" s="1"/>
-    </row>
-    <row r="1459" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D1459" s="6"/>
-      <c r="E1459" s="1"/>
-      <c r="F1459" s="1"/>
-    </row>
-    <row r="1522" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1522" s="1"/>
-      <c r="C1522"/>
-      <c r="D1522"/>
-    </row>
-    <row r="1523" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1523" s="1"/>
-      <c r="C1523"/>
-      <c r="D1523"/>
-    </row>
-    <row r="1524" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1524" s="1"/>
-      <c r="C1524"/>
-      <c r="D1524"/>
-    </row>
-    <row r="1525" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1525" s="1"/>
-      <c r="C1525"/>
-      <c r="D1525"/>
+    <row r="1374" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1374" s="1"/>
+      <c r="C1374"/>
+      <c r="D1374"/>
+    </row>
+    <row r="1376" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1376" s="1"/>
+      <c r="C1376"/>
+      <c r="D1376"/>
+    </row>
+    <row r="1377" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1377" s="1"/>
+      <c r="C1377"/>
+      <c r="D1377"/>
+    </row>
+    <row r="1378" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1378" s="1"/>
+      <c r="C1378"/>
+      <c r="D1378"/>
+    </row>
+    <row r="1379" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1379" s="1"/>
+      <c r="C1379"/>
+      <c r="D1379"/>
+    </row>
+    <row r="1414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1414" s="1"/>
+      <c r="C1414"/>
+      <c r="D1414"/>
+    </row>
+    <row r="1415" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1415" s="1"/>
+      <c r="C1415"/>
+      <c r="D1415"/>
+    </row>
+    <row r="1416" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1416" s="1"/>
+      <c r="C1416"/>
+      <c r="D1416"/>
+    </row>
+    <row r="1417" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1417" s="1"/>
+      <c r="C1417"/>
+      <c r="D1417"/>
+    </row>
+    <row r="1418" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1418" s="1"/>
+      <c r="C1418"/>
+      <c r="D1418"/>
+    </row>
+    <row r="1419" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1419" s="1"/>
+      <c r="C1419"/>
+      <c r="D1419"/>
+    </row>
+    <row r="1461" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E1461" s="1"/>
+      <c r="F1461" s="1"/>
+    </row>
+    <row r="1462" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1462" s="6"/>
+      <c r="E1462" s="1"/>
+      <c r="F1462" s="1"/>
+    </row>
+    <row r="1463" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1463" s="6"/>
+      <c r="D1463" s="6"/>
+      <c r="E1463" s="1"/>
+      <c r="F1463" s="1"/>
+    </row>
+    <row r="1464" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1464" s="6"/>
+      <c r="D1464" s="6"/>
+      <c r="E1464" s="1"/>
+      <c r="F1464" s="1"/>
+    </row>
+    <row r="1465" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1465" s="6"/>
+      <c r="E1465" s="1"/>
+      <c r="F1465" s="1"/>
+    </row>
+    <row r="1528" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1528" s="1"/>
+      <c r="C1528"/>
+      <c r="D1528"/>
+    </row>
+    <row r="1529" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1529" s="1"/>
+      <c r="C1529"/>
+      <c r="D1529"/>
+    </row>
+    <row r="1530" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1530" s="1"/>
+      <c r="C1530"/>
+      <c r="D1530"/>
+    </row>
+    <row r="1531" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1531" s="1"/>
+      <c r="C1531"/>
+      <c r="D1531"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1478">
-    <sortCondition ref="C2:C1478"/>
-    <sortCondition ref="D2:D1478"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1484">
+    <sortCondition ref="C2:C1484"/>
+    <sortCondition ref="D2:D1484"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E8659-667F-AE48-8DCE-8B7A246037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B243098-18A4-A940-A431-877ECE1A2E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="500" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="5440" windowWidth="34460" windowHeight="22160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6150,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E155" sqref="A1:G218"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9817,10 +9817,10 @@
         <v>87</v>
       </c>
       <c r="F159" s="24">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="G159" s="24">
-        <v>2483</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F868D-5EFA-0047-AD4E-97E924888D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB21716-7580-9041-9BB6-D9D8B21A4B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="1120" windowWidth="34460" windowHeight="22160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16740" yWindow="1120" windowWidth="34460" windowHeight="22160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="175">
   <si>
     <t>featureName</t>
   </si>
@@ -555,6 +555,15 @@
   </si>
   <si>
     <t>REF_MASTER_HEPACI_2_GBVB</t>
+  </si>
+  <si>
+    <t>NC_001656</t>
+  </si>
+  <si>
+    <t>NC_001657</t>
+  </si>
+  <si>
+    <t>NC_001658</t>
   </si>
 </sst>
 </file>
@@ -6189,10 +6198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1531"/>
+  <dimension ref="A1:H1540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E128" sqref="A1:G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9020,20 +9029,20 @@
       <c r="B123" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C123" s="59" t="s">
+      <c r="C123" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E123" s="17" t="s">
-        <v>86</v>
+      <c r="E123" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="F123" s="17">
-        <v>914</v>
+        <v>446</v>
       </c>
       <c r="G123" s="17">
-        <v>1492</v>
+        <v>913</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -9050,497 +9059,510 @@
         <v>119</v>
       </c>
       <c r="E124" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F124" s="17">
+        <v>914</v>
+      </c>
+      <c r="G124" s="17">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E125" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F125" s="17">
         <v>1493</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G125" s="17">
         <v>2452</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C125" s="58" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D125" s="36" t="s">
+      <c r="D126" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="17">
+        <v>2456</v>
+      </c>
+      <c r="G126" s="17">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F127" s="17">
+        <v>2642</v>
+      </c>
+      <c r="G127" s="17">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="17">
+        <v>3266</v>
+      </c>
+      <c r="G128" s="17">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B129" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E129" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="17">
+        <v>5126</v>
+      </c>
+      <c r="G129" s="17">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" s="17">
+        <v>5291</v>
+      </c>
+      <c r="G130" s="17">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="E125" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F125" s="30">
-        <v>1</v>
-      </c>
-      <c r="G125" s="30">
-        <v>9609</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B126" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C126" s="58" t="s">
+      <c r="E131" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="17">
+        <v>6035</v>
+      </c>
+      <c r="G131" s="17">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B132" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D126" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E126" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" s="30">
-        <v>281</v>
-      </c>
-      <c r="G126" s="30">
-        <v>9355</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B127" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C127" s="58" t="s">
+      <c r="D132" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="17">
+        <v>6035</v>
+      </c>
+      <c r="G132" s="17">
+        <v>7267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C133" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E127" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F127" s="30">
-        <v>1</v>
-      </c>
-      <c r="G127" s="30">
-        <v>9687</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C128" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E128" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F128" s="30">
-        <v>558</v>
-      </c>
-      <c r="G128" s="30">
-        <v>9602</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C129" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D129" s="36" t="s">
+      <c r="D133" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E129" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F129" s="30">
-        <v>1</v>
-      </c>
-      <c r="G129" s="30">
-        <v>11013</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C130" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E130" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F130" s="30">
-        <v>578</v>
-      </c>
-      <c r="G130" s="30">
-        <v>10870</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B131" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C131" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E131" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F131" s="30">
-        <v>1</v>
-      </c>
-      <c r="G131" s="30">
-        <v>10199</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B132" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C132" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D132" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E132" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F132" s="30">
-        <v>3</v>
-      </c>
-      <c r="G132" s="30">
-        <v>10127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C133" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" s="36" t="s">
-        <v>128</v>
-      </c>
       <c r="E133" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F133" s="30">
-        <v>1</v>
-      </c>
-      <c r="G133" s="30">
-        <v>10272</v>
+        <v>25</v>
+      </c>
+      <c r="F133" s="17">
+        <v>7268</v>
+      </c>
+      <c r="G133" s="17">
+        <v>9037</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="58" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C134" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F134" s="30">
-        <v>174</v>
-      </c>
-      <c r="G134" s="30">
-        <v>10241</v>
+        <v>121</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F134" s="17">
+        <v>1</v>
+      </c>
+      <c r="G134" s="17">
+        <v>9609</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="58" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C135" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E135" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F135" s="30">
-        <v>1</v>
-      </c>
-      <c r="G135" s="30">
-        <v>8697</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F135" s="17">
+        <v>281</v>
+      </c>
+      <c r="G135" s="17">
+        <v>9355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="58" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B136" s="58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C136" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D136" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F136" s="30">
+        <v>122</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="17">
         <v>1</v>
       </c>
-      <c r="G136" s="37">
-        <v>8622</v>
+      <c r="G136" s="17">
+        <v>9687</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="58" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C137" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E137" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F137" s="30">
-        <v>1</v>
-      </c>
-      <c r="G137" s="30">
-        <v>9653</v>
+        <v>122</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F137" s="17">
+        <v>558</v>
+      </c>
+      <c r="G137" s="17">
+        <v>9602</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="58" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C138" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E138" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F138" s="30">
+        <v>1</v>
+      </c>
+      <c r="G138" s="30">
+        <v>11013</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B139" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E139" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F138" s="30">
-        <v>132</v>
-      </c>
-      <c r="G138" s="30">
-        <v>9392</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D139" s="30"/>
-      <c r="E139" s="40" t="s">
+      <c r="F139" s="30">
+        <v>578</v>
+      </c>
+      <c r="G139" s="30">
+        <v>10870</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F139" s="40">
+      <c r="F140" s="30">
         <v>1</v>
       </c>
-      <c r="G139" s="40">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B140" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F140" s="30">
-        <v>117</v>
-      </c>
       <c r="G140" s="30">
-        <v>2543</v>
+        <v>10199</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B141" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D141" s="30"/>
+      <c r="A141" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B141" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="E141" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F141" s="40">
-        <f>(D141+2824)</f>
-        <v>2824</v>
+        <v>61</v>
+      </c>
+      <c r="F141" s="30">
+        <v>3</v>
       </c>
       <c r="G141" s="30">
-        <v>5673</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D142" s="30"/>
-      <c r="E142" s="40" t="s">
+      <c r="A142" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="30" t="s">
         <v>72</v>
       </c>
       <c r="F142" s="30">
         <v>1</v>
       </c>
       <c r="G142" s="30">
-        <v>3114</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D143" s="30"/>
+      <c r="A143" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>128</v>
+      </c>
       <c r="E143" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F143" s="40">
-        <v>105</v>
-      </c>
-      <c r="G143" s="40">
-        <v>2849</v>
+        <v>61</v>
+      </c>
+      <c r="F143" s="30">
+        <v>174</v>
+      </c>
+      <c r="G143" s="30">
+        <v>10241</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B144" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C144" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D144" s="30"/>
-      <c r="E144" s="40" t="s">
+      <c r="A144" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B144" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144" s="30" t="s">
         <v>72</v>
       </c>
       <c r="F144" s="30">
         <v>1</v>
       </c>
       <c r="G144" s="30">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B145" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C145" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D145" s="30"/>
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="A145" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C145" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="36" t="s">
+        <v>130</v>
+      </c>
       <c r="E145" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F145" s="40">
-        <v>117</v>
-      </c>
-      <c r="G145" s="40">
-        <v>2543</v>
+        <v>61</v>
+      </c>
+      <c r="F145" s="30">
+        <v>1</v>
+      </c>
+      <c r="G145" s="37">
+        <v>8622</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B146" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" s="38" t="s">
-        <v>141</v>
+      <c r="A146" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E146" s="30" t="s">
         <v>72</v>
@@ -9549,191 +9571,178 @@
         <v>1</v>
       </c>
       <c r="G146" s="30">
-        <v>9867</v>
+        <v>9653</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="38" t="s">
-        <v>141</v>
+      <c r="A147" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F147" s="30">
+        <v>132</v>
+      </c>
+      <c r="G147" s="30">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" s="30"/>
+      <c r="E148" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F148" s="40">
         <v>1</v>
       </c>
-      <c r="G147" s="30">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E148" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F148" s="30">
-        <v>328</v>
-      </c>
-      <c r="G148" s="30">
-        <v>9501</v>
+      <c r="G148" s="40">
+        <v>5938</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="38" t="s">
-        <v>141</v>
-      </c>
+      <c r="A149" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" s="30"/>
       <c r="E149" s="30" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F149" s="30">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="G149" s="30">
-        <v>2199</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B150" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="38" t="s">
-        <v>141</v>
-      </c>
+      <c r="A150" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="30"/>
       <c r="E150" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F150" s="30">
-        <v>328</v>
+        <v>114</v>
+      </c>
+      <c r="F150" s="40">
+        <f>(D150+2824)</f>
+        <v>2824</v>
       </c>
       <c r="G150" s="30">
-        <v>564</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B151" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C151" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E151" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F151" s="17">
-        <v>523</v>
-      </c>
-      <c r="G151" s="17">
-        <v>1137</v>
+      <c r="A151" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="30"/>
+      <c r="E151" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F151" s="30">
+        <v>1</v>
+      </c>
+      <c r="G151" s="30">
+        <v>3114</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B152" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" s="38" t="s">
-        <v>141</v>
-      </c>
+      <c r="A152" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="30"/>
       <c r="E152" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F152" s="30">
-        <v>1138</v>
-      </c>
-      <c r="G152" s="30">
-        <v>2199</v>
+        <v>114</v>
+      </c>
+      <c r="F152" s="40">
+        <v>105</v>
+      </c>
+      <c r="G152" s="40">
+        <v>2849</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B153" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D153" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153" s="30" t="s">
-        <v>68</v>
+      <c r="A153" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="30"/>
+      <c r="E153" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="F153" s="30">
-        <v>2200</v>
+        <v>1</v>
       </c>
       <c r="G153" s="30">
-        <v>2910</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D154" s="38" t="s">
-        <v>141</v>
-      </c>
+      <c r="A154" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" s="30"/>
       <c r="E154" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F154" s="30">
-        <v>2911</v>
-      </c>
-      <c r="G154" s="30">
-        <v>9498</v>
+        <v>103</v>
+      </c>
+      <c r="F154" s="40">
+        <v>117</v>
+      </c>
+      <c r="G154" s="40">
+        <v>2543</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -9750,13 +9759,13 @@
         <v>141</v>
       </c>
       <c r="E155" s="30" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F155" s="30">
-        <v>2911</v>
+        <v>1</v>
       </c>
       <c r="G155" s="30">
-        <v>3630</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -9773,13 +9782,13 @@
         <v>141</v>
       </c>
       <c r="E156" s="30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F156" s="30">
-        <v>3631</v>
+        <v>1</v>
       </c>
       <c r="G156" s="30">
-        <v>5514</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -9796,13 +9805,13 @@
         <v>141</v>
       </c>
       <c r="E157" s="30" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F157" s="30">
-        <v>5515</v>
+        <v>328</v>
       </c>
       <c r="G157" s="30">
-        <v>5637</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -9819,13 +9828,13 @@
         <v>141</v>
       </c>
       <c r="E158" s="30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F158" s="30">
-        <v>5638</v>
+        <v>328</v>
       </c>
       <c r="G158" s="30">
-        <v>6423</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -9842,36 +9851,36 @@
         <v>141</v>
       </c>
       <c r="E159" s="30" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F159" s="30">
-        <v>6424</v>
+        <v>328</v>
       </c>
       <c r="G159" s="30">
-        <v>9498</v>
+        <v>564</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="60" t="s">
+      <c r="A160" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B160" s="60" t="s">
+      <c r="B160" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="60" t="s">
+      <c r="C160" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D160" s="38" t="s">
+      <c r="D160" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="E160" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F160" s="30">
-        <v>6424</v>
-      </c>
-      <c r="G160" s="30">
-        <v>7797</v>
+      <c r="E160" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F160" s="17">
+        <v>523</v>
+      </c>
+      <c r="G160" s="17">
+        <v>1137</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -9888,13 +9897,13 @@
         <v>141</v>
       </c>
       <c r="E161" s="30" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F161" s="30">
-        <v>7798</v>
+        <v>1138</v>
       </c>
       <c r="G161" s="30">
-        <v>9498</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -9911,220 +9920,220 @@
         <v>141</v>
       </c>
       <c r="E162" s="30" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F162" s="30">
-        <v>9502</v>
+        <v>2200</v>
       </c>
       <c r="G162" s="30">
-        <v>9867</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="60" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B163" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D163" s="39" t="s">
-        <v>142</v>
+      <c r="D163" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E163" s="30" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F163" s="30">
-        <v>1</v>
+        <v>2911</v>
       </c>
       <c r="G163" s="30">
-        <v>10479</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="60" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B164" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D164" s="39" t="s">
-        <v>142</v>
+      <c r="D164" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E164" s="30" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F164" s="30">
-        <v>1</v>
+        <v>2911</v>
       </c>
       <c r="G164" s="30">
-        <v>617</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="60" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B165" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D165" s="39" t="s">
-        <v>142</v>
+      <c r="D165" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E165" s="30" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F165" s="30">
-        <v>618</v>
+        <v>3631</v>
       </c>
       <c r="G165" s="30">
-        <v>10187</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="60" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B166" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D166" s="39" t="s">
-        <v>142</v>
+      <c r="D166" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E166" s="30" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F166" s="30">
-        <v>618</v>
+        <v>5515</v>
       </c>
       <c r="G166" s="30">
-        <v>695</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B167" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="C167" s="61" t="s">
+      <c r="A167" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B167" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E167" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F167" s="17">
-        <v>678</v>
-      </c>
-      <c r="G167" s="17">
-        <v>1235</v>
+      <c r="D167" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E167" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F167" s="30">
+        <v>5638</v>
+      </c>
+      <c r="G167" s="30">
+        <v>6423</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="B168" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="C168" s="61" t="s">
+      <c r="A168" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D168" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E168" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F168" s="17">
-        <v>1236</v>
-      </c>
-      <c r="G168" s="17">
-        <v>2180</v>
+      <c r="D168" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="30">
+        <v>6424</v>
+      </c>
+      <c r="G168" s="30">
+        <v>9498</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="60" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B169" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C169" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D169" s="39" t="s">
-        <v>142</v>
+      <c r="D169" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E169" s="30" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="F169" s="30">
-        <v>2784</v>
+        <v>6424</v>
       </c>
       <c r="G169" s="30">
-        <v>3449</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="60" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B170" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C170" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D170" s="39" t="s">
-        <v>142</v>
+      <c r="D170" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E170" s="30" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F170" s="30">
-        <v>3450</v>
+        <v>7798</v>
       </c>
       <c r="G170" s="30">
-        <v>5324</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="60" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B171" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C171" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D171" s="39" t="s">
-        <v>142</v>
+      <c r="D171" s="38" t="s">
+        <v>141</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F171" s="30">
-        <v>5325</v>
+        <v>9502</v>
       </c>
       <c r="G171" s="30">
-        <v>5591</v>
+        <v>9867</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -10141,13 +10150,13 @@
         <v>142</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F172" s="30">
-        <v>5592</v>
+        <v>1</v>
       </c>
       <c r="G172" s="30">
-        <v>6422</v>
+        <v>10479</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -10164,13 +10173,13 @@
         <v>142</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F173" s="30">
-        <v>8388</v>
+        <v>1</v>
       </c>
       <c r="G173" s="30">
-        <v>10184</v>
+        <v>617</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -10187,381 +10196,381 @@
         <v>142</v>
       </c>
       <c r="E174" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F174" s="30">
+        <v>618</v>
+      </c>
+      <c r="G174" s="30">
+        <v>10187</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B175" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E175" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F175" s="30">
+        <v>618</v>
+      </c>
+      <c r="G175" s="30">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F176" s="17">
+        <v>678</v>
+      </c>
+      <c r="G176" s="17">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B177" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C177" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E177" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F177" s="17">
+        <v>1236</v>
+      </c>
+      <c r="G177" s="17">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B178" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E178" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F178" s="30">
+        <v>2784</v>
+      </c>
+      <c r="G178" s="30">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B179" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C179" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="30">
+        <v>3450</v>
+      </c>
+      <c r="G179" s="30">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B180" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E180" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" s="30">
+        <v>5325</v>
+      </c>
+      <c r="G180" s="30">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B181" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E181" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F181" s="30">
+        <v>5592</v>
+      </c>
+      <c r="G181" s="30">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B182" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C182" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E182" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182" s="30">
+        <v>8388</v>
+      </c>
+      <c r="G182" s="30">
+        <v>10184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C183" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E183" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F174" s="30">
+      <c r="F183" s="30">
         <v>10188</v>
       </c>
-      <c r="G174" s="30">
+      <c r="G183" s="30">
         <v>10479</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="40" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B175" s="40" t="s">
+      <c r="B184" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="41" t="s">
+      <c r="C184" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D175" s="42" t="s">
+      <c r="D184" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E175" s="30" t="s">
+      <c r="E184" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F175" s="30">
+      <c r="F184" s="30">
         <v>1</v>
       </c>
-      <c r="G175" s="30">
+      <c r="G184" s="30">
         <v>10861</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="40" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B176" s="40" t="s">
+      <c r="B185" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C176" s="41" t="s">
+      <c r="C185" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D176" s="42" t="s">
+      <c r="D185" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E176" s="30" t="s">
+      <c r="E185" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F176" s="30">
+      <c r="F185" s="30">
         <v>1</v>
       </c>
-      <c r="G176" s="30">
+      <c r="G185" s="30">
         <v>350</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="40" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B177" s="40" t="s">
+      <c r="B186" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C177" s="41" t="s">
+      <c r="C186" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D177" s="42" t="s">
+      <c r="D186" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E177" s="30" t="s">
+      <c r="E186" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F177" s="30">
+      <c r="F186" s="30">
         <v>351</v>
       </c>
-      <c r="G177" s="30">
+      <c r="G186" s="30">
         <v>10859</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="32" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B187" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C178" s="33" t="s">
+      <c r="C187" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D178" s="30" t="s">
+      <c r="D187" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E178" s="30" t="s">
+      <c r="E187" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F178" s="30">
+      <c r="F187" s="30">
         <v>1</v>
       </c>
-      <c r="G178" s="30">
+      <c r="G187" s="30">
         <v>18554</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="43" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="B188" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C179" s="33" t="s">
+      <c r="C188" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D179" s="30" t="s">
+      <c r="D188" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E179" s="30" t="s">
+      <c r="E188" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F179" s="30">
+      <c r="F188" s="30">
         <v>1</v>
       </c>
-      <c r="G179" s="30">
+      <c r="G188" s="30">
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="43" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B180" s="32" t="s">
+      <c r="B189" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C180" s="33" t="s">
+      <c r="C189" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D180" s="30" t="s">
+      <c r="D189" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E180" s="30" t="s">
+      <c r="E189" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F180" s="30">
+      <c r="F189" s="30">
         <v>200</v>
       </c>
-      <c r="G180" s="30">
+      <c r="G189" s="30">
         <v>17905</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="43" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B181" s="32" t="s">
+      <c r="B190" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C181" s="33" t="s">
+      <c r="C190" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D181" s="30" t="s">
+      <c r="D190" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E181" s="30" t="s">
+      <c r="E190" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F181" s="30">
+      <c r="F190" s="30">
         <v>17906</v>
       </c>
-      <c r="G181" s="30">
+      <c r="G190" s="30">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B182" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C182" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D182" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E182" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F182" s="30">
-        <v>1</v>
-      </c>
-      <c r="G182" s="30">
-        <v>12573</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B183" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C183" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D183" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E183" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" s="30">
-        <v>1</v>
-      </c>
-      <c r="G183" s="30">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B184" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C184" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D184" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E184" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F184" s="30">
-        <v>386</v>
-      </c>
-      <c r="G184" s="30">
-        <v>12352</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B185" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C185" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D185" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E185" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F185" s="30">
-        <v>386</v>
-      </c>
-      <c r="G185" s="30">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B186" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C186" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D186" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E186" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F186" s="30">
-        <v>386</v>
-      </c>
-      <c r="G186" s="30">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B187" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C187" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D187" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E187" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F187" s="30">
-        <v>890</v>
-      </c>
-      <c r="G187" s="30">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B188" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C188" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D188" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E188" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F188" s="30">
-        <v>1196</v>
-      </c>
-      <c r="G188" s="30">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B189" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C189" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D189" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E189" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F189" s="30">
-        <v>1877</v>
-      </c>
-      <c r="G189" s="30">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B190" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C190" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E190" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F190" s="30">
-        <v>2462</v>
-      </c>
-      <c r="G190" s="30">
-        <v>3583</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -10578,13 +10587,13 @@
         <v>134</v>
       </c>
       <c r="E191" s="30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F191" s="30">
-        <v>3584</v>
+        <v>1</v>
       </c>
       <c r="G191" s="30">
-        <v>3793</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -10601,13 +10610,13 @@
         <v>134</v>
       </c>
       <c r="E192" s="30" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F192" s="30">
-        <v>3794</v>
+        <v>1</v>
       </c>
       <c r="G192" s="30">
-        <v>7471</v>
+        <v>385</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -10624,13 +10633,13 @@
         <v>134</v>
       </c>
       <c r="E193" s="30" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F193" s="30">
-        <v>7472</v>
+        <v>386</v>
       </c>
       <c r="G193" s="30">
-        <v>7663</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -10647,13 +10656,13 @@
         <v>134</v>
       </c>
       <c r="E194" s="30" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F194" s="30">
-        <v>7664</v>
+        <v>386</v>
       </c>
       <c r="G194" s="30">
-        <v>8704</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -10670,13 +10679,13 @@
         <v>134</v>
       </c>
       <c r="E195" s="30" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F195" s="30">
-        <v>8705</v>
+        <v>386</v>
       </c>
       <c r="G195" s="30">
-        <v>12349</v>
+        <v>889</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -10693,13 +10702,13 @@
         <v>134</v>
       </c>
       <c r="E196" s="30" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F196" s="30">
-        <v>8705</v>
+        <v>890</v>
       </c>
       <c r="G196" s="30">
-        <v>10192</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -10716,13 +10725,13 @@
         <v>134</v>
       </c>
       <c r="E197" s="30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F197" s="30">
-        <v>10193</v>
+        <v>1196</v>
       </c>
       <c r="G197" s="30">
-        <v>12349</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -10739,433 +10748,450 @@
         <v>134</v>
       </c>
       <c r="E198" s="30" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F198" s="30">
-        <v>12360</v>
+        <v>1877</v>
       </c>
       <c r="G198" s="30">
-        <v>12573</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="44" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B199" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C199" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E199" s="30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F199" s="30">
-        <v>1</v>
+        <v>2462</v>
       </c>
       <c r="G199" s="30">
-        <v>12983</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="44" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B200" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C200" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D200" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E200" s="30" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F200" s="30">
-        <v>499</v>
+        <v>3584</v>
       </c>
       <c r="G200" s="30">
-        <v>12480</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="44" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B201" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C201" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D201" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E201" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F201" s="17">
-        <v>2311</v>
-      </c>
-      <c r="G201" s="17">
-        <v>2904</v>
+      <c r="D201" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E201" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201" s="30">
+        <v>3794</v>
+      </c>
+      <c r="G201" s="30">
+        <v>7471</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="44" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B202" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C202" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D202" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E202" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F202" s="17">
-        <v>2905</v>
-      </c>
-      <c r="G202" s="17">
-        <v>4035</v>
+      <c r="D202" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E202" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F202" s="30">
+        <v>7472</v>
+      </c>
+      <c r="G202" s="30">
+        <v>7663</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="44" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B203" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C203" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D203" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E203" s="30" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F203" s="30">
-        <v>1</v>
+        <v>7664</v>
       </c>
       <c r="G203" s="30">
-        <v>11276</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="44" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B204" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C204" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D204" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E204" s="30" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F204" s="30">
-        <v>124</v>
+        <v>8705</v>
       </c>
       <c r="G204" s="30">
-        <v>11031</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="44" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B205" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C205" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D205" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E205" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F205" s="17">
-        <v>1627</v>
-      </c>
-      <c r="G205" s="17">
-        <v>2223</v>
+      <c r="D205" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E205" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F205" s="30">
+        <v>8705</v>
+      </c>
+      <c r="G205" s="30">
+        <v>10192</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="44" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B206" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C206" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D206" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E206" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F206" s="17">
-        <v>2224</v>
-      </c>
-      <c r="G206" s="17">
-        <v>2943</v>
+      <c r="D206" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F206" s="30">
+        <v>10193</v>
+      </c>
+      <c r="G206" s="30">
+        <v>12349</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="44" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="B207" s="44" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C207" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D207" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E207" s="30" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F207" s="30">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G207" s="30">
-        <v>7797</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B208" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C208" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D208" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E208" s="30" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F208" s="30">
         <v>1</v>
       </c>
       <c r="G208" s="30">
-        <v>7770</v>
+        <v>12983</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B209" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C209" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D209" s="30"/>
+      <c r="A209" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B209" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C209" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209" s="30" t="s">
+        <v>135</v>
+      </c>
       <c r="E209" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F209" s="30">
+        <v>499</v>
+      </c>
+      <c r="G209" s="30">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B210" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C210" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F210" s="17">
+        <v>2311</v>
+      </c>
+      <c r="G210" s="17">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B211" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C211" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D211" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F211" s="17">
+        <v>2905</v>
+      </c>
+      <c r="G211" s="17">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B212" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C212" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E212" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="F209" s="30">
-        <v>1</v>
-      </c>
-      <c r="G209" s="30">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B210" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C210" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D210" s="30"/>
-      <c r="E210" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F210" s="30">
-        <v>1</v>
-      </c>
-      <c r="G210" s="30">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B211" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C211" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D211" s="30"/>
-      <c r="E211" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F211" s="30">
-        <v>1</v>
-      </c>
-      <c r="G211" s="30">
-        <v>2358</v>
-      </c>
-      <c r="H211" s="16"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B212" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C212" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D212" s="30"/>
-      <c r="E212" s="30" t="s">
-        <v>82</v>
       </c>
       <c r="F212" s="30">
         <v>1</v>
       </c>
       <c r="G212" s="30">
-        <v>345</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B213" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C213" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D213" s="30"/>
+      <c r="A213" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B213" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C213" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213" s="30" t="s">
+        <v>136</v>
+      </c>
       <c r="E213" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F213" s="30">
-        <v>346</v>
+        <v>124</v>
       </c>
       <c r="G213" s="30">
-        <v>852</v>
+        <v>11031</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B214" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C214" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F214" s="30">
-        <v>655</v>
-      </c>
-      <c r="G214" s="30">
-        <v>852</v>
+      <c r="A214" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B214" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C214" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F214" s="17">
+        <v>1627</v>
+      </c>
+      <c r="G214" s="17">
+        <v>2223</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B215" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C215" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D215" s="30"/>
-      <c r="E215" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F215" s="30">
-        <v>853</v>
-      </c>
-      <c r="G215" s="30">
-        <v>2358</v>
+      <c r="A215" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B215" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C215" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E215" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F215" s="17">
+        <v>2224</v>
+      </c>
+      <c r="G215" s="17">
+        <v>2943</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B216" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C216" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D216" s="30"/>
+      <c r="A216" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B216" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C216" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="E216" s="30" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F216" s="30">
-        <v>2359</v>
+        <v>1</v>
       </c>
       <c r="G216" s="30">
-        <v>10050</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B217" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C217" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D217" s="30"/>
+      <c r="A217" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B217" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C217" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D217" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="E217" s="30" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F217" s="30">
-        <v>2359</v>
+        <v>1</v>
       </c>
       <c r="G217" s="30">
-        <v>3390</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -11180,13 +11206,13 @@
       </c>
       <c r="D218" s="30"/>
       <c r="E218" s="30" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F218" s="30">
-        <v>3391</v>
+        <v>1</v>
       </c>
       <c r="G218" s="30">
-        <v>3978</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -11201,13 +11227,13 @@
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F219" s="30">
-        <v>3979</v>
+        <v>1</v>
       </c>
       <c r="G219" s="30">
-        <v>4431</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -11222,14 +11248,15 @@
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="F220" s="30">
-        <v>4432</v>
+        <v>1</v>
       </c>
       <c r="G220" s="30">
-        <v>6303</v>
-      </c>
+        <v>2358</v>
+      </c>
+      <c r="H220" s="16"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="30" t="s">
@@ -11243,13 +11270,13 @@
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F221" s="30">
-        <v>6304</v>
+        <v>1</v>
       </c>
       <c r="G221" s="30">
-        <v>6687</v>
+        <v>345</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -11264,13 +11291,13 @@
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F222" s="30">
-        <v>6688</v>
+        <v>346</v>
       </c>
       <c r="G222" s="30">
-        <v>6762</v>
+        <v>852</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -11285,13 +11312,13 @@
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F223" s="30">
-        <v>6763</v>
+        <v>655</v>
       </c>
       <c r="G223" s="30">
-        <v>7557</v>
+        <v>852</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -11306,95 +11333,203 @@
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F224" s="30">
+        <v>853</v>
+      </c>
+      <c r="G224" s="30">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B225" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C225" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D225" s="30"/>
+      <c r="E225" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F225" s="30">
+        <v>2359</v>
+      </c>
+      <c r="G225" s="30">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C226" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D226" s="30"/>
+      <c r="E226" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="30">
+        <v>2359</v>
+      </c>
+      <c r="G226" s="30">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B227" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D227" s="30"/>
+      <c r="E227" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F227" s="30">
+        <v>3391</v>
+      </c>
+      <c r="G227" s="30">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B228" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D228" s="30"/>
+      <c r="E228" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F228" s="30">
+        <v>3979</v>
+      </c>
+      <c r="G228" s="30">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B229" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C229" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D229" s="30"/>
+      <c r="E229" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229" s="30">
+        <v>4432</v>
+      </c>
+      <c r="G229" s="30">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B230" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D230" s="30"/>
+      <c r="E230" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F230" s="30">
+        <v>6304</v>
+      </c>
+      <c r="G230" s="30">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B231" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C231" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D231" s="30"/>
+      <c r="E231" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F231" s="30">
+        <v>6688</v>
+      </c>
+      <c r="G231" s="30">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B232" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F232" s="30">
+        <v>6763</v>
+      </c>
+      <c r="G232" s="30">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B233" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D233" s="30"/>
+      <c r="E233" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="30">
+      <c r="F233" s="30">
         <v>7558</v>
       </c>
-      <c r="G224" s="30">
+      <c r="G233" s="30">
         <v>10050</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="47"/>
-      <c r="B225" s="47"/>
-      <c r="C225" s="48"/>
-      <c r="D225" s="48"/>
-      <c r="E225" s="47"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="47"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="47"/>
-      <c r="B226" s="47"/>
-      <c r="C226" s="48"/>
-      <c r="D226" s="48"/>
-      <c r="E226" s="47"/>
-      <c r="F226" s="47"/>
-      <c r="G226" s="47"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="47"/>
-      <c r="B227" s="47"/>
-      <c r="C227" s="48"/>
-      <c r="D227" s="48"/>
-      <c r="E227" s="47"/>
-      <c r="F227" s="47"/>
-      <c r="G227" s="47"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="47"/>
-      <c r="B228" s="47"/>
-      <c r="C228" s="48"/>
-      <c r="D228" s="48"/>
-      <c r="E228" s="47"/>
-      <c r="F228" s="47"/>
-      <c r="G228" s="47"/>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="47"/>
-      <c r="B229" s="47"/>
-      <c r="C229" s="48"/>
-      <c r="D229" s="48"/>
-      <c r="E229" s="47"/>
-      <c r="F229" s="47"/>
-      <c r="G229" s="47"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="47"/>
-      <c r="B230" s="47"/>
-      <c r="C230" s="48"/>
-      <c r="D230" s="48"/>
-      <c r="E230" s="47"/>
-      <c r="F230" s="47"/>
-      <c r="G230" s="47"/>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="47"/>
-      <c r="B231" s="47"/>
-      <c r="C231" s="48"/>
-      <c r="D231" s="48"/>
-      <c r="E231" s="47"/>
-      <c r="F231" s="47"/>
-      <c r="G231" s="47"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="47"/>
-      <c r="B232" s="47"/>
-      <c r="C232" s="48"/>
-      <c r="D232" s="48"/>
-      <c r="E232" s="47"/>
-      <c r="F232" s="47"/>
-      <c r="G232" s="47"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="47"/>
-      <c r="B233" s="47"/>
-      <c r="C233" s="48"/>
-      <c r="D233" s="48"/>
-      <c r="E233" s="47"/>
-      <c r="F233" s="47"/>
-      <c r="G233" s="47"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="47"/>
@@ -11569,8 +11704,8 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="47"/>
-      <c r="B253" s="49"/>
-      <c r="C253" s="50"/>
+      <c r="B253" s="47"/>
+      <c r="C253" s="48"/>
       <c r="D253" s="48"/>
       <c r="E253" s="47"/>
       <c r="F253" s="47"/>
@@ -11578,72 +11713,72 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="47"/>
-      <c r="B254" s="49"/>
-      <c r="C254" s="50"/>
-      <c r="D254" s="50"/>
+      <c r="B254" s="47"/>
+      <c r="C254" s="48"/>
+      <c r="D254" s="48"/>
       <c r="E254" s="47"/>
       <c r="F254" s="47"/>
       <c r="G254" s="47"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="47"/>
-      <c r="B255" s="49"/>
-      <c r="C255" s="50"/>
-      <c r="D255" s="50"/>
+      <c r="B255" s="47"/>
+      <c r="C255" s="48"/>
+      <c r="D255" s="48"/>
       <c r="E255" s="47"/>
       <c r="F255" s="47"/>
       <c r="G255" s="47"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="47"/>
-      <c r="B256" s="49"/>
-      <c r="C256" s="50"/>
-      <c r="D256" s="50"/>
+      <c r="B256" s="47"/>
+      <c r="C256" s="48"/>
+      <c r="D256" s="48"/>
       <c r="E256" s="47"/>
       <c r="F256" s="47"/>
       <c r="G256" s="47"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="47"/>
-      <c r="B257" s="49"/>
-      <c r="C257" s="50"/>
-      <c r="D257" s="50"/>
+      <c r="B257" s="47"/>
+      <c r="C257" s="48"/>
+      <c r="D257" s="48"/>
       <c r="E257" s="47"/>
       <c r="F257" s="47"/>
       <c r="G257" s="47"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="47"/>
-      <c r="B258" s="49"/>
-      <c r="C258" s="50"/>
-      <c r="D258" s="50"/>
+      <c r="B258" s="47"/>
+      <c r="C258" s="48"/>
+      <c r="D258" s="48"/>
       <c r="E258" s="47"/>
       <c r="F258" s="47"/>
       <c r="G258" s="47"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="47"/>
-      <c r="B259" s="49"/>
-      <c r="C259" s="50"/>
-      <c r="D259" s="50"/>
+      <c r="B259" s="47"/>
+      <c r="C259" s="48"/>
+      <c r="D259" s="48"/>
       <c r="E259" s="47"/>
       <c r="F259" s="47"/>
       <c r="G259" s="47"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="47"/>
-      <c r="B260" s="49"/>
-      <c r="C260" s="50"/>
-      <c r="D260" s="50"/>
+      <c r="B260" s="47"/>
+      <c r="C260" s="48"/>
+      <c r="D260" s="48"/>
       <c r="E260" s="47"/>
       <c r="F260" s="47"/>
       <c r="G260" s="47"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="47"/>
-      <c r="B261" s="49"/>
-      <c r="C261" s="50"/>
-      <c r="D261" s="50"/>
+      <c r="B261" s="47"/>
+      <c r="C261" s="48"/>
+      <c r="D261" s="48"/>
       <c r="E261" s="47"/>
       <c r="F261" s="47"/>
       <c r="G261" s="47"/>
@@ -11652,7 +11787,7 @@
       <c r="A262" s="47"/>
       <c r="B262" s="49"/>
       <c r="C262" s="50"/>
-      <c r="D262" s="50"/>
+      <c r="D262" s="48"/>
       <c r="E262" s="47"/>
       <c r="F262" s="47"/>
       <c r="G262" s="47"/>
@@ -11786,7 +11921,7 @@
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="47"/>
       <c r="B277" s="49"/>
-      <c r="C277" s="48"/>
+      <c r="C277" s="50"/>
       <c r="D277" s="50"/>
       <c r="E277" s="47"/>
       <c r="F277" s="47"/>
@@ -11796,7 +11931,7 @@
       <c r="A278" s="47"/>
       <c r="B278" s="49"/>
       <c r="C278" s="50"/>
-      <c r="D278" s="48"/>
+      <c r="D278" s="50"/>
       <c r="E278" s="47"/>
       <c r="F278" s="47"/>
       <c r="G278" s="47"/>
@@ -11857,8 +11992,8 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="47"/>
-      <c r="B285" s="47"/>
-      <c r="C285" s="48"/>
+      <c r="B285" s="49"/>
+      <c r="C285" s="50"/>
       <c r="D285" s="50"/>
       <c r="E285" s="47"/>
       <c r="F285" s="47"/>
@@ -11866,17 +12001,17 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="47"/>
-      <c r="B286" s="47"/>
+      <c r="B286" s="49"/>
       <c r="C286" s="48"/>
-      <c r="D286" s="48"/>
+      <c r="D286" s="50"/>
       <c r="E286" s="47"/>
       <c r="F286" s="47"/>
       <c r="G286" s="47"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="47"/>
-      <c r="B287" s="47"/>
-      <c r="C287" s="48"/>
+      <c r="B287" s="49"/>
+      <c r="C287" s="50"/>
       <c r="D287" s="48"/>
       <c r="E287" s="47"/>
       <c r="F287" s="47"/>
@@ -11884,54 +12019,54 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="47"/>
-      <c r="B288" s="47"/>
-      <c r="C288" s="48"/>
-      <c r="D288" s="48"/>
+      <c r="B288" s="49"/>
+      <c r="C288" s="50"/>
+      <c r="D288" s="50"/>
       <c r="E288" s="47"/>
       <c r="F288" s="47"/>
       <c r="G288" s="47"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="47"/>
-      <c r="B289" s="47"/>
-      <c r="C289" s="48"/>
-      <c r="D289" s="48"/>
+      <c r="B289" s="49"/>
+      <c r="C289" s="50"/>
+      <c r="D289" s="50"/>
       <c r="E289" s="47"/>
       <c r="F289" s="47"/>
       <c r="G289" s="47"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="47"/>
-      <c r="B290" s="47"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="48"/>
+      <c r="B290" s="49"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="50"/>
       <c r="E290" s="47"/>
       <c r="F290" s="47"/>
       <c r="G290" s="47"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="47"/>
-      <c r="B291" s="47"/>
-      <c r="C291" s="48"/>
-      <c r="D291" s="48"/>
+      <c r="B291" s="49"/>
+      <c r="C291" s="50"/>
+      <c r="D291" s="50"/>
       <c r="E291" s="47"/>
       <c r="F291" s="47"/>
       <c r="G291" s="47"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="47"/>
-      <c r="B292" s="47"/>
-      <c r="C292" s="48"/>
-      <c r="D292" s="48"/>
+      <c r="B292" s="49"/>
+      <c r="C292" s="50"/>
+      <c r="D292" s="50"/>
       <c r="E292" s="47"/>
       <c r="F292" s="47"/>
       <c r="G292" s="47"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="47"/>
-      <c r="B293" s="47"/>
-      <c r="C293" s="48"/>
-      <c r="D293" s="48"/>
+      <c r="B293" s="49"/>
+      <c r="C293" s="50"/>
+      <c r="D293" s="50"/>
       <c r="E293" s="47"/>
       <c r="F293" s="47"/>
       <c r="G293" s="47"/>
@@ -11940,7 +12075,7 @@
       <c r="A294" s="47"/>
       <c r="B294" s="47"/>
       <c r="C294" s="48"/>
-      <c r="D294" s="48"/>
+      <c r="D294" s="50"/>
       <c r="E294" s="47"/>
       <c r="F294" s="47"/>
       <c r="G294" s="47"/>
@@ -11981,117 +12116,158 @@
       <c r="F298" s="47"/>
       <c r="G298" s="47"/>
     </row>
-    <row r="967" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C967"/>
-      <c r="D967"/>
-      <c r="E967" s="1"/>
-    </row>
-    <row r="1103" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1103" s="1"/>
-      <c r="C1103"/>
-      <c r="D1103"/>
-    </row>
-    <row r="1104" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1104" s="1"/>
-      <c r="C1104"/>
-      <c r="D1104"/>
-    </row>
-    <row r="1229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1229" s="1"/>
-      <c r="C1229"/>
-      <c r="D1229"/>
-    </row>
-    <row r="1230" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1230" s="1"/>
-      <c r="C1230"/>
-      <c r="D1230"/>
-    </row>
-    <row r="1231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1231" s="1"/>
-      <c r="C1231"/>
-      <c r="D1231"/>
-    </row>
-    <row r="1232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1232" s="1"/>
-      <c r="C1232"/>
-      <c r="D1232"/>
-    </row>
-    <row r="1233" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1233" s="1"/>
-      <c r="C1233"/>
-      <c r="D1233"/>
-    </row>
-    <row r="1234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1234" s="1"/>
-      <c r="C1234"/>
-      <c r="D1234"/>
-    </row>
-    <row r="1279" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E1279" s="1"/>
-      <c r="F1279" s="1"/>
-    </row>
-    <row r="1280" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E1280" s="1"/>
-      <c r="F1280" s="1"/>
-    </row>
-    <row r="1281" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1281" s="1"/>
-      <c r="F1281" s="1"/>
-    </row>
-    <row r="1283" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1283" s="1"/>
-    </row>
-    <row r="1284" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1284" s="1"/>
-    </row>
-    <row r="1285" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1285" s="1"/>
-    </row>
-    <row r="1286" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1286" s="1"/>
-    </row>
-    <row r="1287" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1287" s="1"/>
-    </row>
-    <row r="1306" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1306" s="1"/>
-      <c r="C1306"/>
-      <c r="D1306"/>
-    </row>
-    <row r="1307" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1307" s="1"/>
-      <c r="C1307"/>
-      <c r="D1307"/>
-    </row>
-    <row r="1308" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1308" s="1"/>
-      <c r="C1308"/>
-      <c r="D1308"/>
-    </row>
-    <row r="1309" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1309" s="1"/>
-      <c r="C1309"/>
-      <c r="D1309"/>
-    </row>
-    <row r="1310" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1310" s="1"/>
-      <c r="C1310"/>
-      <c r="D1310"/>
-    </row>
-    <row r="1311" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1311" s="1"/>
-      <c r="C1311"/>
-      <c r="D1311"/>
-    </row>
-    <row r="1312" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1312" s="1"/>
-      <c r="C1312"/>
-      <c r="D1312"/>
-    </row>
-    <row r="1314" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1314" s="1"/>
-      <c r="C1314"/>
-      <c r="D1314"/>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" s="47"/>
+      <c r="B299" s="47"/>
+      <c r="C299" s="48"/>
+      <c r="D299" s="48"/>
+      <c r="E299" s="47"/>
+      <c r="F299" s="47"/>
+      <c r="G299" s="47"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="47"/>
+      <c r="B300" s="47"/>
+      <c r="C300" s="48"/>
+      <c r="D300" s="48"/>
+      <c r="E300" s="47"/>
+      <c r="F300" s="47"/>
+      <c r="G300" s="47"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" s="47"/>
+      <c r="B301" s="47"/>
+      <c r="C301" s="48"/>
+      <c r="D301" s="48"/>
+      <c r="E301" s="47"/>
+      <c r="F301" s="47"/>
+      <c r="G301" s="47"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" s="47"/>
+      <c r="B302" s="47"/>
+      <c r="C302" s="48"/>
+      <c r="D302" s="48"/>
+      <c r="E302" s="47"/>
+      <c r="F302" s="47"/>
+      <c r="G302" s="47"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="47"/>
+      <c r="B303" s="47"/>
+      <c r="C303" s="48"/>
+      <c r="D303" s="48"/>
+      <c r="E303" s="47"/>
+      <c r="F303" s="47"/>
+      <c r="G303" s="47"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="47"/>
+      <c r="B304" s="47"/>
+      <c r="C304" s="48"/>
+      <c r="D304" s="48"/>
+      <c r="E304" s="47"/>
+      <c r="F304" s="47"/>
+      <c r="G304" s="47"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305" s="47"/>
+      <c r="B305" s="47"/>
+      <c r="C305" s="48"/>
+      <c r="D305" s="48"/>
+      <c r="E305" s="47"/>
+      <c r="F305" s="47"/>
+      <c r="G305" s="47"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306" s="47"/>
+      <c r="B306" s="47"/>
+      <c r="C306" s="48"/>
+      <c r="D306" s="48"/>
+      <c r="E306" s="47"/>
+      <c r="F306" s="47"/>
+      <c r="G306" s="47"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" s="47"/>
+      <c r="B307" s="47"/>
+      <c r="C307" s="48"/>
+      <c r="D307" s="48"/>
+      <c r="E307" s="47"/>
+      <c r="F307" s="47"/>
+      <c r="G307" s="47"/>
+    </row>
+    <row r="976" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C976"/>
+      <c r="D976"/>
+      <c r="E976" s="1"/>
+    </row>
+    <row r="1112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1112" s="1"/>
+      <c r="C1112"/>
+      <c r="D1112"/>
+    </row>
+    <row r="1113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1113" s="1"/>
+      <c r="C1113"/>
+      <c r="D1113"/>
+    </row>
+    <row r="1238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1238" s="1"/>
+      <c r="C1238"/>
+      <c r="D1238"/>
+    </row>
+    <row r="1239" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1239" s="1"/>
+      <c r="C1239"/>
+      <c r="D1239"/>
+    </row>
+    <row r="1240" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1240" s="1"/>
+      <c r="C1240"/>
+      <c r="D1240"/>
+    </row>
+    <row r="1241" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1241" s="1"/>
+      <c r="C1241"/>
+      <c r="D1241"/>
+    </row>
+    <row r="1242" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1242" s="1"/>
+      <c r="C1242"/>
+      <c r="D1242"/>
+    </row>
+    <row r="1243" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1243" s="1"/>
+      <c r="C1243"/>
+      <c r="D1243"/>
+    </row>
+    <row r="1288" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1288" s="1"/>
+      <c r="F1288" s="1"/>
+    </row>
+    <row r="1289" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1289" s="1"/>
+      <c r="F1289" s="1"/>
+    </row>
+    <row r="1290" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1290" s="1"/>
+      <c r="F1290" s="1"/>
+    </row>
+    <row r="1292" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1292" s="1"/>
+    </row>
+    <row r="1293" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1293" s="1"/>
+    </row>
+    <row r="1294" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1294" s="1"/>
+    </row>
+    <row r="1295" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1295" s="1"/>
+    </row>
+    <row r="1296" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1296" s="1"/>
     </row>
     <row r="1315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1315" s="1"/>
@@ -12118,126 +12294,166 @@
       <c r="C1319"/>
       <c r="D1319"/>
     </row>
-    <row r="1371" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1371" s="1"/>
-      <c r="C1371"/>
-      <c r="D1371"/>
-    </row>
-    <row r="1372" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1372" s="1"/>
-      <c r="C1372"/>
-      <c r="D1372"/>
-    </row>
-    <row r="1373" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1373" s="1"/>
-      <c r="C1373"/>
-      <c r="D1373"/>
-    </row>
-    <row r="1374" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1374" s="1"/>
-      <c r="C1374"/>
-      <c r="D1374"/>
-    </row>
-    <row r="1376" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1376" s="1"/>
-      <c r="C1376"/>
-      <c r="D1376"/>
-    </row>
-    <row r="1377" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1377" s="1"/>
-      <c r="C1377"/>
-      <c r="D1377"/>
-    </row>
-    <row r="1378" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1378" s="1"/>
-      <c r="C1378"/>
-      <c r="D1378"/>
-    </row>
-    <row r="1379" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1379" s="1"/>
-      <c r="C1379"/>
-      <c r="D1379"/>
-    </row>
-    <row r="1414" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1414" s="1"/>
-      <c r="C1414"/>
-      <c r="D1414"/>
-    </row>
-    <row r="1415" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1415" s="1"/>
-      <c r="C1415"/>
-      <c r="D1415"/>
-    </row>
-    <row r="1416" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1416" s="1"/>
-      <c r="C1416"/>
-      <c r="D1416"/>
-    </row>
-    <row r="1417" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1417" s="1"/>
-      <c r="C1417"/>
-      <c r="D1417"/>
-    </row>
-    <row r="1418" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1418" s="1"/>
-      <c r="C1418"/>
-      <c r="D1418"/>
-    </row>
-    <row r="1419" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1419" s="1"/>
-      <c r="C1419"/>
-      <c r="D1419"/>
-    </row>
-    <row r="1461" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1461" s="1"/>
-      <c r="F1461" s="1"/>
-    </row>
-    <row r="1462" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1462" s="3"/>
-      <c r="E1462" s="1"/>
-      <c r="F1462" s="1"/>
-    </row>
-    <row r="1463" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1463" s="3"/>
-      <c r="D1463" s="3"/>
-      <c r="E1463" s="1"/>
-      <c r="F1463" s="1"/>
-    </row>
-    <row r="1464" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1464" s="3"/>
-      <c r="D1464" s="3"/>
-      <c r="E1464" s="1"/>
-      <c r="F1464" s="1"/>
-    </row>
-    <row r="1465" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D1465" s="3"/>
-      <c r="E1465" s="1"/>
-      <c r="F1465" s="1"/>
-    </row>
-    <row r="1528" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1528" s="1"/>
-      <c r="C1528"/>
-      <c r="D1528"/>
-    </row>
-    <row r="1529" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1529" s="1"/>
-      <c r="C1529"/>
-      <c r="D1529"/>
-    </row>
-    <row r="1530" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1530" s="1"/>
-      <c r="C1530"/>
-      <c r="D1530"/>
-    </row>
-    <row r="1531" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1531" s="1"/>
-      <c r="C1531"/>
-      <c r="D1531"/>
+    <row r="1320" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1320" s="1"/>
+      <c r="C1320"/>
+      <c r="D1320"/>
+    </row>
+    <row r="1321" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1321" s="1"/>
+      <c r="C1321"/>
+      <c r="D1321"/>
+    </row>
+    <row r="1323" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1323" s="1"/>
+      <c r="C1323"/>
+      <c r="D1323"/>
+    </row>
+    <row r="1324" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1324" s="1"/>
+      <c r="C1324"/>
+      <c r="D1324"/>
+    </row>
+    <row r="1325" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1325" s="1"/>
+      <c r="C1325"/>
+      <c r="D1325"/>
+    </row>
+    <row r="1326" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1326" s="1"/>
+      <c r="C1326"/>
+      <c r="D1326"/>
+    </row>
+    <row r="1327" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1327" s="1"/>
+      <c r="C1327"/>
+      <c r="D1327"/>
+    </row>
+    <row r="1328" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1328" s="1"/>
+      <c r="C1328"/>
+      <c r="D1328"/>
+    </row>
+    <row r="1380" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1380" s="1"/>
+      <c r="C1380"/>
+      <c r="D1380"/>
+    </row>
+    <row r="1381" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1381" s="1"/>
+      <c r="C1381"/>
+      <c r="D1381"/>
+    </row>
+    <row r="1382" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1382" s="1"/>
+      <c r="C1382"/>
+      <c r="D1382"/>
+    </row>
+    <row r="1383" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1383" s="1"/>
+      <c r="C1383"/>
+      <c r="D1383"/>
+    </row>
+    <row r="1385" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1385" s="1"/>
+      <c r="C1385"/>
+      <c r="D1385"/>
+    </row>
+    <row r="1386" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1386" s="1"/>
+      <c r="C1386"/>
+      <c r="D1386"/>
+    </row>
+    <row r="1387" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1387" s="1"/>
+      <c r="C1387"/>
+      <c r="D1387"/>
+    </row>
+    <row r="1388" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1388" s="1"/>
+      <c r="C1388"/>
+      <c r="D1388"/>
+    </row>
+    <row r="1423" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1423" s="1"/>
+      <c r="C1423"/>
+      <c r="D1423"/>
+    </row>
+    <row r="1424" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1424" s="1"/>
+      <c r="C1424"/>
+      <c r="D1424"/>
+    </row>
+    <row r="1425" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1425" s="1"/>
+      <c r="C1425"/>
+      <c r="D1425"/>
+    </row>
+    <row r="1426" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1426" s="1"/>
+      <c r="C1426"/>
+      <c r="D1426"/>
+    </row>
+    <row r="1427" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1427" s="1"/>
+      <c r="C1427"/>
+      <c r="D1427"/>
+    </row>
+    <row r="1428" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1428" s="1"/>
+      <c r="C1428"/>
+      <c r="D1428"/>
+    </row>
+    <row r="1470" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E1470" s="1"/>
+      <c r="F1470" s="1"/>
+    </row>
+    <row r="1471" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1471" s="3"/>
+      <c r="E1471" s="1"/>
+      <c r="F1471" s="1"/>
+    </row>
+    <row r="1472" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1472" s="3"/>
+      <c r="D1472" s="3"/>
+      <c r="E1472" s="1"/>
+      <c r="F1472" s="1"/>
+    </row>
+    <row r="1473" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1473" s="3"/>
+      <c r="D1473" s="3"/>
+      <c r="E1473" s="1"/>
+      <c r="F1473" s="1"/>
+    </row>
+    <row r="1474" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1474" s="3"/>
+      <c r="E1474" s="1"/>
+      <c r="F1474" s="1"/>
+    </row>
+    <row r="1537" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1537" s="1"/>
+      <c r="C1537"/>
+      <c r="D1537"/>
+    </row>
+    <row r="1538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1538" s="1"/>
+      <c r="C1538"/>
+      <c r="D1538"/>
+    </row>
+    <row r="1539" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1539" s="1"/>
+      <c r="C1539"/>
+      <c r="D1539"/>
+    </row>
+    <row r="1540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1540" s="1"/>
+      <c r="C1540"/>
+      <c r="D1540"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G224">
-    <sortCondition ref="C2:C224"/>
-    <sortCondition ref="D2:D224"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G233">
+    <sortCondition ref="C2:C233"/>
+    <sortCondition ref="D2:D233"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB21716-7580-9041-9BB6-D9D8B21A4B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9F030-0EB5-5049-9EF5-5042E3086F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="1120" windowWidth="34460" windowHeight="22160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14660" yWindow="1440" windowWidth="34460" windowHeight="22160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="175">
   <si>
     <t>featureName</t>
   </si>
@@ -6198,10 +6198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1540"/>
+  <dimension ref="A1:H1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E128" sqref="A1:G233"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D189" sqref="A1:G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10541,13 +10541,13 @@
         <v>98</v>
       </c>
       <c r="E189" s="30" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F189" s="30">
-        <v>200</v>
+        <v>14168</v>
       </c>
       <c r="G189" s="30">
-        <v>17905</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -10564,36 +10564,36 @@
         <v>98</v>
       </c>
       <c r="E190" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F190" s="30">
+        <v>200</v>
+      </c>
+      <c r="G190" s="30">
+        <v>17905</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B191" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E191" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F190" s="30">
+      <c r="F191" s="30">
         <v>17906</v>
       </c>
-      <c r="G190" s="30">
+      <c r="G191" s="30">
         <v>18554</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B191" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C191" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D191" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E191" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F191" s="30">
-        <v>1</v>
-      </c>
-      <c r="G191" s="30">
-        <v>12573</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -10610,13 +10610,13 @@
         <v>134</v>
       </c>
       <c r="E192" s="30" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F192" s="30">
         <v>1</v>
       </c>
       <c r="G192" s="30">
-        <v>385</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -10633,13 +10633,13 @@
         <v>134</v>
       </c>
       <c r="E193" s="30" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F193" s="30">
-        <v>386</v>
+        <v>1</v>
       </c>
       <c r="G193" s="30">
-        <v>12352</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -10656,13 +10656,13 @@
         <v>134</v>
       </c>
       <c r="E194" s="30" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F194" s="30">
         <v>386</v>
       </c>
       <c r="G194" s="30">
-        <v>3583</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -10679,13 +10679,13 @@
         <v>134</v>
       </c>
       <c r="E195" s="30" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F195" s="30">
         <v>386</v>
       </c>
       <c r="G195" s="30">
-        <v>889</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -10702,13 +10702,13 @@
         <v>134</v>
       </c>
       <c r="E196" s="30" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F196" s="30">
-        <v>890</v>
+        <v>386</v>
       </c>
       <c r="G196" s="30">
-        <v>1195</v>
+        <v>889</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -10725,13 +10725,13 @@
         <v>134</v>
       </c>
       <c r="E197" s="30" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F197" s="30">
-        <v>1196</v>
+        <v>890</v>
       </c>
       <c r="G197" s="30">
-        <v>1876</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -10748,13 +10748,13 @@
         <v>134</v>
       </c>
       <c r="E198" s="30" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F198" s="30">
-        <v>1877</v>
+        <v>1196</v>
       </c>
       <c r="G198" s="30">
-        <v>2461</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -10771,13 +10771,13 @@
         <v>134</v>
       </c>
       <c r="E199" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F199" s="30">
-        <v>2462</v>
+        <v>1877</v>
       </c>
       <c r="G199" s="30">
-        <v>3583</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -10794,13 +10794,13 @@
         <v>134</v>
       </c>
       <c r="E200" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F200" s="30">
-        <v>3584</v>
+        <v>2462</v>
       </c>
       <c r="G200" s="30">
-        <v>3793</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -10817,13 +10817,13 @@
         <v>134</v>
       </c>
       <c r="E201" s="30" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F201" s="30">
-        <v>3794</v>
+        <v>3584</v>
       </c>
       <c r="G201" s="30">
-        <v>7471</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -10840,13 +10840,13 @@
         <v>134</v>
       </c>
       <c r="E202" s="30" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="F202" s="30">
-        <v>7472</v>
+        <v>3794</v>
       </c>
       <c r="G202" s="30">
-        <v>7663</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -10863,13 +10863,13 @@
         <v>134</v>
       </c>
       <c r="E203" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F203" s="30">
-        <v>7664</v>
+        <v>7472</v>
       </c>
       <c r="G203" s="30">
-        <v>8704</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -10886,13 +10886,13 @@
         <v>134</v>
       </c>
       <c r="E204" s="30" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F204" s="30">
-        <v>8705</v>
+        <v>7664</v>
       </c>
       <c r="G204" s="30">
-        <v>12349</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -10909,13 +10909,13 @@
         <v>134</v>
       </c>
       <c r="E205" s="30" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F205" s="30">
         <v>8705</v>
       </c>
       <c r="G205" s="30">
-        <v>10192</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -10932,13 +10932,13 @@
         <v>134</v>
       </c>
       <c r="E206" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F206" s="30">
-        <v>10193</v>
+        <v>8705</v>
       </c>
       <c r="G206" s="30">
-        <v>12349</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -10955,36 +10955,36 @@
         <v>134</v>
       </c>
       <c r="E207" s="30" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F207" s="30">
-        <v>12360</v>
+        <v>10193</v>
       </c>
       <c r="G207" s="30">
-        <v>12573</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="44" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B208" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C208" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D208" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E208" s="30" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F208" s="30">
-        <v>1</v>
+        <v>12360</v>
       </c>
       <c r="G208" s="30">
-        <v>12983</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -11001,13 +11001,13 @@
         <v>135</v>
       </c>
       <c r="E209" s="30" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F209" s="30">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="G209" s="30">
-        <v>12480</v>
+        <v>12983</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -11020,17 +11020,17 @@
       <c r="C210" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D210" s="17" t="s">
+      <c r="D210" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E210" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F210" s="17">
-        <v>2311</v>
-      </c>
-      <c r="G210" s="17">
-        <v>2904</v>
+      <c r="E210" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F210" s="30">
+        <v>499</v>
+      </c>
+      <c r="G210" s="30">
+        <v>12480</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -11047,36 +11047,36 @@
         <v>135</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F211" s="17">
-        <v>2905</v>
+        <v>2311</v>
       </c>
       <c r="G211" s="17">
-        <v>4035</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B212" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C212" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D212" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E212" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F212" s="30">
-        <v>1</v>
-      </c>
-      <c r="G212" s="30">
-        <v>11276</v>
+      <c r="D212" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E212" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F212" s="17">
+        <v>2905</v>
+      </c>
+      <c r="G212" s="17">
+        <v>4035</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -11093,13 +11093,13 @@
         <v>136</v>
       </c>
       <c r="E213" s="30" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F213" s="30">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="G213" s="30">
-        <v>11031</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -11112,17 +11112,17 @@
       <c r="C214" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D214" s="17" t="s">
+      <c r="D214" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E214" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F214" s="17">
-        <v>1627</v>
-      </c>
-      <c r="G214" s="17">
-        <v>2223</v>
+      <c r="E214" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F214" s="30">
+        <v>124</v>
+      </c>
+      <c r="G214" s="30">
+        <v>11031</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -11139,36 +11139,36 @@
         <v>136</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F215" s="17">
-        <v>2224</v>
+        <v>1627</v>
       </c>
       <c r="G215" s="17">
-        <v>2943</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B216" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C216" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E216" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F216" s="30">
-        <v>1</v>
-      </c>
-      <c r="G216" s="30">
-        <v>7797</v>
+      <c r="D216" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E216" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F216" s="17">
+        <v>2224</v>
+      </c>
+      <c r="G216" s="17">
+        <v>2943</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -11185,34 +11185,36 @@
         <v>137</v>
       </c>
       <c r="E217" s="30" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F217" s="30">
         <v>1</v>
       </c>
       <c r="G217" s="30">
-        <v>7770</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B218" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C218" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D218" s="30"/>
+      <c r="A218" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B218" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C218" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="E218" s="30" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F218" s="30">
         <v>1</v>
       </c>
       <c r="G218" s="30">
-        <v>10053</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -11227,7 +11229,7 @@
       </c>
       <c r="D219" s="30"/>
       <c r="E219" s="30" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F219" s="30">
         <v>1</v>
@@ -11248,15 +11250,14 @@
       </c>
       <c r="D220" s="30"/>
       <c r="E220" s="30" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F220" s="30">
         <v>1</v>
       </c>
       <c r="G220" s="30">
-        <v>2358</v>
-      </c>
-      <c r="H220" s="16"/>
+        <v>10053</v>
+      </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="30" t="s">
@@ -11270,14 +11271,15 @@
       </c>
       <c r="D221" s="30"/>
       <c r="E221" s="30" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F221" s="30">
         <v>1</v>
       </c>
       <c r="G221" s="30">
-        <v>345</v>
-      </c>
+        <v>2358</v>
+      </c>
+      <c r="H221" s="16"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="30" t="s">
@@ -11291,13 +11293,13 @@
       </c>
       <c r="D222" s="30"/>
       <c r="E222" s="30" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F222" s="30">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="G222" s="30">
-        <v>852</v>
+        <v>345</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -11312,10 +11314,10 @@
       </c>
       <c r="D223" s="30"/>
       <c r="E223" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F223" s="30">
-        <v>655</v>
+        <v>346</v>
       </c>
       <c r="G223" s="30">
         <v>852</v>
@@ -11333,13 +11335,13 @@
       </c>
       <c r="D224" s="30"/>
       <c r="E224" s="30" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F224" s="30">
-        <v>853</v>
+        <v>655</v>
       </c>
       <c r="G224" s="30">
-        <v>2358</v>
+        <v>852</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -11354,13 +11356,13 @@
       </c>
       <c r="D225" s="30"/>
       <c r="E225" s="30" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F225" s="30">
-        <v>2359</v>
+        <v>853</v>
       </c>
       <c r="G225" s="30">
-        <v>10050</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -11375,13 +11377,13 @@
       </c>
       <c r="D226" s="30"/>
       <c r="E226" s="30" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="F226" s="30">
         <v>2359</v>
       </c>
       <c r="G226" s="30">
-        <v>3390</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -11396,13 +11398,13 @@
       </c>
       <c r="D227" s="30"/>
       <c r="E227" s="30" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F227" s="30">
-        <v>3391</v>
+        <v>2359</v>
       </c>
       <c r="G227" s="30">
-        <v>3978</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -11417,13 +11419,13 @@
       </c>
       <c r="D228" s="30"/>
       <c r="E228" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F228" s="30">
-        <v>3979</v>
+        <v>3391</v>
       </c>
       <c r="G228" s="30">
-        <v>4431</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -11438,13 +11440,13 @@
       </c>
       <c r="D229" s="30"/>
       <c r="E229" s="30" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="F229" s="30">
-        <v>4432</v>
+        <v>3979</v>
       </c>
       <c r="G229" s="30">
-        <v>6303</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -11459,13 +11461,13 @@
       </c>
       <c r="D230" s="30"/>
       <c r="E230" s="30" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F230" s="30">
-        <v>6304</v>
+        <v>4432</v>
       </c>
       <c r="G230" s="30">
-        <v>6687</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -11480,13 +11482,13 @@
       </c>
       <c r="D231" s="30"/>
       <c r="E231" s="30" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F231" s="30">
-        <v>6688</v>
+        <v>6304</v>
       </c>
       <c r="G231" s="30">
-        <v>6762</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -11501,13 +11503,13 @@
       </c>
       <c r="D232" s="30"/>
       <c r="E232" s="30" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F232" s="30">
-        <v>6763</v>
+        <v>6688</v>
       </c>
       <c r="G232" s="30">
-        <v>7557</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -11522,23 +11524,35 @@
       </c>
       <c r="D233" s="30"/>
       <c r="E233" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F233" s="30">
+        <v>6763</v>
+      </c>
+      <c r="G233" s="30">
+        <v>7557</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B234" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C234" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D234" s="30"/>
+      <c r="E234" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F233" s="30">
+      <c r="F234" s="30">
         <v>7558</v>
       </c>
-      <c r="G233" s="30">
+      <c r="G234" s="30">
         <v>10050</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="47"/>
-      <c r="B234" s="47"/>
-      <c r="C234" s="48"/>
-      <c r="D234" s="48"/>
-      <c r="E234" s="47"/>
-      <c r="F234" s="47"/>
-      <c r="G234" s="47"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="47"/>
@@ -11785,8 +11799,8 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="47"/>
-      <c r="B262" s="49"/>
-      <c r="C262" s="50"/>
+      <c r="B262" s="47"/>
+      <c r="C262" s="48"/>
       <c r="D262" s="48"/>
       <c r="E262" s="47"/>
       <c r="F262" s="47"/>
@@ -11796,7 +11810,7 @@
       <c r="A263" s="47"/>
       <c r="B263" s="49"/>
       <c r="C263" s="50"/>
-      <c r="D263" s="50"/>
+      <c r="D263" s="48"/>
       <c r="E263" s="47"/>
       <c r="F263" s="47"/>
       <c r="G263" s="47"/>
@@ -12002,7 +12016,7 @@
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="47"/>
       <c r="B286" s="49"/>
-      <c r="C286" s="48"/>
+      <c r="C286" s="50"/>
       <c r="D286" s="50"/>
       <c r="E286" s="47"/>
       <c r="F286" s="47"/>
@@ -12011,8 +12025,8 @@
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="47"/>
       <c r="B287" s="49"/>
-      <c r="C287" s="50"/>
-      <c r="D287" s="48"/>
+      <c r="C287" s="48"/>
+      <c r="D287" s="50"/>
       <c r="E287" s="47"/>
       <c r="F287" s="47"/>
       <c r="G287" s="47"/>
@@ -12021,7 +12035,7 @@
       <c r="A288" s="47"/>
       <c r="B288" s="49"/>
       <c r="C288" s="50"/>
-      <c r="D288" s="50"/>
+      <c r="D288" s="48"/>
       <c r="E288" s="47"/>
       <c r="F288" s="47"/>
       <c r="G288" s="47"/>
@@ -12073,8 +12087,8 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="47"/>
-      <c r="B294" s="47"/>
-      <c r="C294" s="48"/>
+      <c r="B294" s="49"/>
+      <c r="C294" s="50"/>
       <c r="D294" s="50"/>
       <c r="E294" s="47"/>
       <c r="F294" s="47"/>
@@ -12084,7 +12098,7 @@
       <c r="A295" s="47"/>
       <c r="B295" s="47"/>
       <c r="C295" s="48"/>
-      <c r="D295" s="48"/>
+      <c r="D295" s="50"/>
       <c r="E295" s="47"/>
       <c r="F295" s="47"/>
       <c r="G295" s="47"/>
@@ -12197,25 +12211,29 @@
       <c r="F307" s="47"/>
       <c r="G307" s="47"/>
     </row>
-    <row r="976" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C976"/>
-      <c r="D976"/>
-      <c r="E976" s="1"/>
-    </row>
-    <row r="1112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1112" s="1"/>
-      <c r="C1112"/>
-      <c r="D1112"/>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308" s="47"/>
+      <c r="B308" s="47"/>
+      <c r="C308" s="48"/>
+      <c r="D308" s="48"/>
+      <c r="E308" s="47"/>
+      <c r="F308" s="47"/>
+      <c r="G308" s="47"/>
+    </row>
+    <row r="977" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C977"/>
+      <c r="D977"/>
+      <c r="E977" s="1"/>
     </row>
     <row r="1113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1113" s="1"/>
       <c r="C1113"/>
       <c r="D1113"/>
     </row>
-    <row r="1238" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1238" s="1"/>
-      <c r="C1238"/>
-      <c r="D1238"/>
+    <row r="1114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1114" s="1"/>
+      <c r="C1114"/>
+      <c r="D1114"/>
     </row>
     <row r="1239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1239" s="1"/>
@@ -12242,9 +12260,10 @@
       <c r="C1243"/>
       <c r="D1243"/>
     </row>
-    <row r="1288" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E1288" s="1"/>
-      <c r="F1288" s="1"/>
+    <row r="1244" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1244" s="1"/>
+      <c r="C1244"/>
+      <c r="D1244"/>
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E1289" s="1"/>
@@ -12254,8 +12273,9 @@
       <c r="E1290" s="1"/>
       <c r="F1290" s="1"/>
     </row>
-    <row r="1292" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1292" s="1"/>
+    <row r="1291" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E1291" s="1"/>
+      <c r="F1291" s="1"/>
     </row>
     <row r="1293" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1293" s="1"/>
@@ -12269,10 +12289,8 @@
     <row r="1296" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1296" s="1"/>
     </row>
-    <row r="1315" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1315" s="1"/>
-      <c r="C1315"/>
-      <c r="D1315"/>
+    <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1297" s="1"/>
     </row>
     <row r="1316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1316" s="1"/>
@@ -12304,10 +12322,10 @@
       <c r="C1321"/>
       <c r="D1321"/>
     </row>
-    <row r="1323" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1323" s="1"/>
-      <c r="C1323"/>
-      <c r="D1323"/>
+    <row r="1322" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1322" s="1"/>
+      <c r="C1322"/>
+      <c r="D1322"/>
     </row>
     <row r="1324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1324" s="1"/>
@@ -12334,10 +12352,10 @@
       <c r="C1328"/>
       <c r="D1328"/>
     </row>
-    <row r="1380" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1380" s="1"/>
-      <c r="C1380"/>
-      <c r="D1380"/>
+    <row r="1329" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1329" s="1"/>
+      <c r="C1329"/>
+      <c r="D1329"/>
     </row>
     <row r="1381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1381" s="1"/>
@@ -12354,10 +12372,10 @@
       <c r="C1383"/>
       <c r="D1383"/>
     </row>
-    <row r="1385" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1385" s="1"/>
-      <c r="C1385"/>
-      <c r="D1385"/>
+    <row r="1384" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1384" s="1"/>
+      <c r="C1384"/>
+      <c r="D1384"/>
     </row>
     <row r="1386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1386" s="1"/>
@@ -12374,10 +12392,10 @@
       <c r="C1388"/>
       <c r="D1388"/>
     </row>
-    <row r="1423" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1423" s="1"/>
-      <c r="C1423"/>
-      <c r="D1423"/>
+    <row r="1389" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1389" s="1"/>
+      <c r="C1389"/>
+      <c r="D1389"/>
     </row>
     <row r="1424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1424" s="1"/>
@@ -12404,18 +12422,17 @@
       <c r="C1428"/>
       <c r="D1428"/>
     </row>
-    <row r="1470" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E1470" s="1"/>
-      <c r="F1470" s="1"/>
+    <row r="1429" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1429" s="1"/>
+      <c r="C1429"/>
+      <c r="D1429"/>
     </row>
     <row r="1471" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1471" s="3"/>
       <c r="E1471" s="1"/>
       <c r="F1471" s="1"/>
     </row>
     <row r="1472" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1472" s="3"/>
-      <c r="D1472" s="3"/>
       <c r="E1472" s="1"/>
       <c r="F1472" s="1"/>
     </row>
@@ -12426,14 +12443,15 @@
       <c r="F1473" s="1"/>
     </row>
     <row r="1474" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1474" s="3"/>
       <c r="D1474" s="3"/>
       <c r="E1474" s="1"/>
       <c r="F1474" s="1"/>
     </row>
-    <row r="1537" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1537" s="1"/>
-      <c r="C1537"/>
-      <c r="D1537"/>
+    <row r="1475" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D1475" s="3"/>
+      <c r="E1475" s="1"/>
+      <c r="F1475" s="1"/>
     </row>
     <row r="1538" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1538" s="1"/>
@@ -12450,10 +12468,15 @@
       <c r="C1540"/>
       <c r="D1540"/>
     </row>
+    <row r="1541" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1541" s="1"/>
+      <c r="C1541"/>
+      <c r="D1541"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G233">
-    <sortCondition ref="C2:C233"/>
-    <sortCondition ref="D2:D233"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G234">
+    <sortCondition ref="C2:C234"/>
+    <sortCondition ref="D2:D234"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/core/flavi-reference_feature_locations.xlsx
+++ b/tabular/core/flavi-reference_feature_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/RNA/Flavivirus-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/diversity/Flavivirus-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9F030-0EB5-5049-9EF5-5042E3086F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404651C9-AFFF-7D4C-BE20-08E0DE419416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="1440" windowWidth="34460" windowHeight="22160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6200,8 +6200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D189" sqref="A1:G234"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
